--- a/QuantLibXL/Data2/XLS/EUR_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR_YCSTDBootstrapping.xlsx
@@ -1092,12 +1092,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1504,15 +1504,11 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1521,31 +1517,9 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1919,17 +1893,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2017,8 +1991,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="173" fontId="18" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2027,16 +1999,6 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2053,6 +2015,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -2373,37 +2347,37 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="2.7109375" style="207" customWidth="1"/>
-    <col min="3" max="3" width="18" style="207" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="207" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" style="207" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="2.7109375" style="207" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" style="207" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="53.7109375" style="207" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.7109375" style="207" customWidth="1"/>
-    <col min="12" max="16384" width="8" style="207"/>
+    <col min="1" max="2" width="2.7109375" style="218" customWidth="1"/>
+    <col min="3" max="3" width="18" style="218" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="218" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="218" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="2.7109375" style="218" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" style="218" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="53.7109375" style="218" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.7109375" style="218" customWidth="1"/>
+    <col min="12" max="16384" width="8" style="218"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="207" t="str">
+      <c r="B1" s="218" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Static Runtime library - Release Configuration - Dec  5 2013 11:03:51</v>
-      </c>
-    </row>
-    <row r="2" spans="2:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="215" t="s">
+        <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Feb  7 2014 15:33:58</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="220" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="216"/>
-      <c r="D2" s="216"/>
-      <c r="E2" s="216"/>
-      <c r="F2" s="217"/>
-      <c r="H2" s="215" t="s">
+      <c r="C2" s="221"/>
+      <c r="D2" s="221"/>
+      <c r="E2" s="221"/>
+      <c r="F2" s="222"/>
+      <c r="H2" s="220" t="s">
         <v>190</v>
       </c>
-      <c r="I2" s="216"/>
-      <c r="J2" s="216"/>
-      <c r="K2" s="218"/>
+      <c r="I2" s="221"/>
+      <c r="J2" s="221"/>
+      <c r="K2" s="223"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="64"/>
@@ -2451,7 +2425,7 @@
       </c>
       <c r="J5" s="134" t="str">
         <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
-        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\XML\</v>
+        <v>C:\Users\erik\Documents\repos\quantlib\QuantLibXL\Data2\XML\</v>
       </c>
       <c r="K5" s="131"/>
     </row>
@@ -2500,12 +2474,12 @@
       </c>
       <c r="E8" s="61"/>
       <c r="F8" s="60"/>
-      <c r="H8" s="208"/>
-      <c r="I8" s="208"/>
-      <c r="J8" s="208"/>
-      <c r="K8" s="208"/>
-    </row>
-    <row r="9" spans="2:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="H8" s="219"/>
+      <c r="I8" s="219"/>
+      <c r="J8" s="219"/>
+      <c r="K8" s="219"/>
+    </row>
+    <row r="9" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="64"/>
       <c r="C9" s="86" t="s">
         <v>103</v>
@@ -2516,12 +2490,12 @@
       </c>
       <c r="E9" s="61"/>
       <c r="F9" s="60"/>
-      <c r="H9" s="215" t="s">
+      <c r="H9" s="220" t="s">
         <v>186</v>
       </c>
-      <c r="I9" s="216"/>
-      <c r="J9" s="216"/>
-      <c r="K9" s="218"/>
+      <c r="I9" s="221"/>
+      <c r="J9" s="221"/>
+      <c r="K9" s="223"/>
     </row>
     <row r="10" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="64"/>
@@ -2544,7 +2518,7 @@
         <v>101</v>
       </c>
       <c r="D11" s="84">
-        <v>41662.585069444445</v>
+        <v>41684.576354166667</v>
       </c>
       <c r="E11" s="61"/>
       <c r="F11" s="60"/>
@@ -2599,7 +2573,7 @@
       </c>
       <c r="D14" s="81" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_EURYCSTD#0000</v>
+        <v>_EURYCSTD#0001</v>
       </c>
       <c r="E14" s="61"/>
       <c r="F14" s="60"/>
@@ -2624,14 +2598,14 @@
       </c>
       <c r="E15" s="61"/>
       <c r="F15" s="60"/>
-      <c r="H15" s="209"/>
-      <c r="I15" s="210" t="s">
+      <c r="H15" s="207"/>
+      <c r="I15" s="208" t="s">
         <v>212</v>
       </c>
-      <c r="J15" s="211" t="s">
+      <c r="J15" s="209" t="s">
         <v>213</v>
       </c>
-      <c r="K15" s="212"/>
+      <c r="K15" s="210"/>
     </row>
     <row r="16" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B16" s="64"/>
@@ -2646,14 +2620,14 @@
         <v>97</v>
       </c>
       <c r="F16" s="60"/>
-      <c r="H16" s="209"/>
-      <c r="I16" s="210" t="s">
+      <c r="H16" s="207"/>
+      <c r="I16" s="208" t="s">
         <v>214</v>
       </c>
-      <c r="J16" s="211" t="s">
+      <c r="J16" s="209" t="s">
         <v>215</v>
       </c>
-      <c r="K16" s="212"/>
+      <c r="K16" s="210"/>
     </row>
     <row r="17" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="64"/>
@@ -2723,11 +2697,11 @@
       <c r="B23" s="64"/>
       <c r="C23" s="68">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="D23" s="67">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
-        <v>2.6937962617601851E-2</v>
+        <v>2.7669946421969179E-2</v>
       </c>
       <c r="E23" s="61"/>
       <c r="F23" s="60"/>
@@ -2736,11 +2710,11 @@
       <c r="B24" s="64"/>
       <c r="C24" s="66">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>63576</v>
+        <v>63604</v>
       </c>
       <c r="D24" s="65">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>1.0138846643859012E-3</v>
+        <v>1.5982511775547241E-3</v>
       </c>
       <c r="E24" s="61"/>
       <c r="F24" s="60"/>
@@ -2828,11 +2802,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B1" s="219" t="s">
+      <c r="B1" s="213" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="220"/>
-      <c r="D1" s="221"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="215"/>
       <c r="E1" s="36" t="s">
         <v>78</v>
       </c>
@@ -2870,7 +2844,7 @@
       </c>
       <c r="F2" s="13">
         <f>_xll.qlRateHelperQuoteValue($E2,Trigger)</f>
-        <v>1E-3</v>
+        <v>3.4999999999999996E-3</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="12" t="b">
@@ -2884,11 +2858,11 @@
       </c>
       <c r="K2" s="11">
         <f>_xll.qlRateHelperEarliestDate($E2,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L2" s="10">
         <f>_xll.qlRateHelperLatestDate($E2,Trigger)</f>
-        <v>41659</v>
+        <v>41687</v>
       </c>
       <c r="M2" s="1">
         <v>10</v>
@@ -2909,7 +2883,7 @@
       </c>
       <c r="F3" s="13">
         <f>_xll.qlRateHelperQuoteValue($E3,Trigger)</f>
-        <v>1E-3</v>
+        <v>3.4999999999999996E-3</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="12" t="b">
@@ -2923,11 +2897,11 @@
       </c>
       <c r="K3" s="11">
         <f>_xll.qlRateHelperEarliestDate($E3,Trigger)</f>
-        <v>41659</v>
+        <v>41687</v>
       </c>
       <c r="L3" s="10">
         <f>_xll.qlRateHelperLatestDate($E3,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="M3" s="1">
         <v>20</v>
@@ -2948,7 +2922,7 @@
       </c>
       <c r="F4" s="13">
         <f>_xll.qlRateHelperQuoteValue($E4,Trigger)</f>
-        <v>1E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12" t="b">
@@ -2962,11 +2936,11 @@
       </c>
       <c r="K4" s="11">
         <f>_xll.qlRateHelperEarliestDate($E4,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L4" s="10">
         <f>_xll.qlRateHelperLatestDate($E4,Trigger)</f>
-        <v>41661</v>
+        <v>41689</v>
       </c>
       <c r="M4" s="1">
         <v>30</v>
@@ -3001,11 +2975,11 @@
       </c>
       <c r="K5" s="11">
         <f>_xll.qlRateHelperEarliestDate($E5,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L5" s="10">
         <f>_xll.qlRateHelperLatestDate($E5,Trigger)</f>
-        <v>41667</v>
+        <v>41695</v>
       </c>
       <c r="M5" s="1">
         <v>40</v>
@@ -3040,11 +3014,11 @@
       </c>
       <c r="K6" s="11">
         <f>_xll.qlRateHelperEarliestDate($E6,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L6" s="10">
         <f>_xll.qlRateHelperLatestDate($E6,Trigger)</f>
-        <v>41674</v>
+        <v>41702</v>
       </c>
       <c r="M6" s="1">
         <v>50</v>
@@ -3079,11 +3053,11 @@
       </c>
       <c r="K7" s="11">
         <f>_xll.qlRateHelperEarliestDate($E7,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L7" s="10">
         <f>_xll.qlRateHelperLatestDate($E7,Trigger)</f>
-        <v>41681</v>
+        <v>41709</v>
       </c>
       <c r="M7" s="1">
         <v>60</v>
@@ -3118,11 +3092,11 @@
       </c>
       <c r="K8" s="11">
         <f>_xll.qlRateHelperEarliestDate($E8,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L8" s="10">
         <f>_xll.qlRateHelperLatestDate($E8,Trigger)</f>
-        <v>41691</v>
+        <v>41716</v>
       </c>
       <c r="M8" s="1">
         <v>70</v>
@@ -3157,11 +3131,11 @@
       </c>
       <c r="K9" s="11">
         <f>_xll.qlRateHelperEarliestDate($E9,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L9" s="10">
         <f>_xll.qlRateHelperLatestDate($E9,Trigger)</f>
-        <v>41719</v>
+        <v>41751</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.2">
@@ -3190,11 +3164,11 @@
       </c>
       <c r="K10" s="11">
         <f>_xll.qlRateHelperEarliestDate($E10,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L10" s="10">
         <f>_xll.qlRateHelperLatestDate($E10,Trigger)</f>
-        <v>41751</v>
+        <v>41778</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.2">
@@ -3223,11 +3197,11 @@
       </c>
       <c r="K11" s="11">
         <f>_xll.qlRateHelperEarliestDate($E11,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L11" s="10">
         <f>_xll.qlRateHelperLatestDate($E11,Trigger)</f>
-        <v>41780</v>
+        <v>41808</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.2">
@@ -3256,11 +3230,11 @@
       </c>
       <c r="K12" s="11">
         <f>_xll.qlRateHelperEarliestDate($E12,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L12" s="10">
         <f>_xll.qlRateHelperLatestDate($E12,Trigger)</f>
-        <v>41813</v>
+        <v>41838</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.2">
@@ -3289,11 +3263,11 @@
       </c>
       <c r="K13" s="11">
         <f>_xll.qlRateHelperEarliestDate($E13,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L13" s="10">
         <f>_xll.qlRateHelperLatestDate($E13,Trigger)</f>
-        <v>41841</v>
+        <v>41869</v>
       </c>
       <c r="Q13" s="31">
         <f>_xll.qlYieldTSDiscount(YieldCurve,K2)</f>
@@ -3326,11 +3300,11 @@
       </c>
       <c r="K14" s="11">
         <f>_xll.qlRateHelperEarliestDate($E14,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L14" s="10">
         <f>_xll.qlRateHelperLatestDate($E14,Trigger)</f>
-        <v>41872</v>
+        <v>41900</v>
       </c>
       <c r="Q14" s="31"/>
     </row>
@@ -3360,11 +3334,11 @@
       </c>
       <c r="K15" s="11">
         <f>_xll.qlRateHelperEarliestDate($E15,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L15" s="10">
         <f>_xll.qlRateHelperLatestDate($E15,Trigger)</f>
-        <v>41904</v>
+        <v>41932</v>
       </c>
       <c r="Q15" s="31"/>
     </row>
@@ -3394,19 +3368,19 @@
       </c>
       <c r="K16" s="11">
         <f>_xll.qlRateHelperEarliestDate($E16,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L16" s="10">
         <f>_xll.qlRateHelperLatestDate($E16,Trigger)</f>
-        <v>41933</v>
+        <v>41961</v>
       </c>
       <c r="O16" s="29">
         <f>_xll.qlYieldTSForwardRate(YieldCurve,K2,L131,"act/365","simple","annual")</f>
-        <v>3.739087170870057E-2</v>
+        <v>4.1498998591255741E-2</v>
       </c>
       <c r="Q16" s="31">
         <f>_xll.qlYieldTSDiscount(YieldCurve,L131)</f>
-        <v>0.47967496245317759</v>
+        <v>0.45373579546208354</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
@@ -3435,11 +3409,11 @@
       </c>
       <c r="K17" s="11">
         <f>_xll.qlRateHelperEarliestDate($E17,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L17" s="10">
         <f>_xll.qlRateHelperLatestDate($E17,Trigger)</f>
-        <v>41964</v>
+        <v>41991</v>
       </c>
       <c r="O17" s="29"/>
       <c r="Q17" s="31"/>
@@ -3470,11 +3444,11 @@
       </c>
       <c r="K18" s="11">
         <f>_xll.qlRateHelperEarliestDate($E18,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L18" s="10">
         <f>_xll.qlRateHelperLatestDate($E18,Trigger)</f>
-        <v>41995</v>
+        <v>42023</v>
       </c>
       <c r="O18" s="29"/>
       <c r="Q18" s="31"/>
@@ -3505,11 +3479,11 @@
       </c>
       <c r="K19" s="4">
         <f>_xll.qlRateHelperEarliestDate($E19,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L19" s="3">
         <f>_xll.qlRateHelperLatestDate($E19,Trigger)</f>
-        <v>42025</v>
+        <v>42053</v>
       </c>
       <c r="Q19" s="31"/>
     </row>
@@ -3552,7 +3526,7 @@
       </c>
       <c r="Q20" s="31">
         <f>1/Q16</f>
-        <v>2.0847450425299461</v>
+        <v>2.203925742692622</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
@@ -3640,11 +3614,11 @@
       </c>
       <c r="Q22" s="29">
         <f>(Q20^(1/Q21))-1</f>
-        <v>2.5629265411229785E-2</v>
+        <v>2.7595259839133801E-2</v>
       </c>
       <c r="R22" s="29">
         <f>(Q20-1)/Q21</f>
-        <v>3.7366170302324496E-2</v>
+        <v>4.1471583246773032E-2</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
@@ -4312,13 +4286,13 @@
       </c>
       <c r="F40" s="28">
         <f>_xll.qlRateHelperQuoteValue($E40,Trigger)</f>
-        <v>99.767499999999998</v>
+        <v>99.694999999999993</v>
       </c>
       <c r="G40" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E40,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="214" t="b">
+      <c r="H40" s="212" t="b">
         <v>0</v>
       </c>
       <c r="I40" s="12">
@@ -4354,13 +4328,13 @@
       </c>
       <c r="F41" s="28">
         <f>_xll.qlRateHelperQuoteValue($E41,Trigger)</f>
-        <v>99.737499999999997</v>
+        <v>99.702500000000001</v>
       </c>
       <c r="G41" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E41,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="H41" s="214" t="b">
+      <c r="H41" s="212" t="b">
         <v>0</v>
       </c>
       <c r="I41" s="12">
@@ -4396,13 +4370,13 @@
       </c>
       <c r="F42" s="28">
         <f>_xll.qlRateHelperQuoteValue($E42,Trigger)</f>
-        <v>99.715000000000003</v>
+        <v>99.704999999999998</v>
       </c>
       <c r="G42" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E42,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="214" t="b">
+      <c r="H42" s="212" t="b">
         <v>0</v>
       </c>
       <c r="I42" s="12">
@@ -4444,7 +4418,7 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E43,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H43" s="214" t="b">
+      <c r="H43" s="212" t="b">
         <v>0</v>
       </c>
       <c r="I43" s="12">
@@ -4480,13 +4454,13 @@
       </c>
       <c r="F44" s="28">
         <f>_xll.qlRateHelperQuoteValue($E44,Trigger)</f>
-        <v>99.677499999999995</v>
+        <v>99.707499999999996</v>
       </c>
       <c r="G44" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E44,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="H44" s="214" t="b">
+      <c r="H44" s="212" t="b">
         <v>0</v>
       </c>
       <c r="I44" s="12">
@@ -4520,15 +4494,15 @@
         <f t="shared" si="2"/>
         <v>EUR_YCSTDRH_FUT3MN4</v>
       </c>
-      <c r="F45" s="28">
+      <c r="F45" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E45,Trigger)</f>
-        <v>99.547499999999999</v>
-      </c>
-      <c r="G45" s="13">
+        <v>#NUM!</v>
+      </c>
+      <c r="G45" s="13" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E45,Trigger)</f>
-        <v>0</v>
-      </c>
-      <c r="H45" s="214" t="b">
+        <v>#NUM!</v>
+      </c>
+      <c r="H45" s="212" t="b">
         <v>0</v>
       </c>
       <c r="I45" s="12">
@@ -4570,7 +4544,7 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E46,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H46" s="214" t="b">
+      <c r="H46" s="212" t="b">
         <v>0</v>
       </c>
       <c r="I46" s="12">
@@ -4606,13 +4580,13 @@
       </c>
       <c r="F47" s="28">
         <f>_xll.qlRateHelperQuoteValue($E47,Trigger)</f>
-        <v>99.607500000000002</v>
+        <v>99.702500000000001</v>
       </c>
       <c r="G47" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E47,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="H47" s="214" t="b">
+      <c r="H47" s="212" t="b">
         <v>1</v>
       </c>
       <c r="I47" s="12">
@@ -4646,15 +4620,15 @@
         <f t="shared" si="2"/>
         <v>EUR_YCSTDRH_FUT3MV4</v>
       </c>
-      <c r="F48" s="28">
+      <c r="F48" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E48,Trigger)</f>
-        <v>99.487499999999997</v>
-      </c>
-      <c r="G48" s="13">
+        <v>#NUM!</v>
+      </c>
+      <c r="G48" s="13" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E48,Trigger)</f>
-        <v>0</v>
-      </c>
-      <c r="H48" s="214" t="b">
+        <v>#NUM!</v>
+      </c>
+      <c r="H48" s="212" t="b">
         <v>0</v>
       </c>
       <c r="I48" s="12">
@@ -4696,7 +4670,7 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E49,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H49" s="214" t="b">
+      <c r="H49" s="212" t="b">
         <v>0</v>
       </c>
       <c r="I49" s="12">
@@ -4732,13 +4706,13 @@
       </c>
       <c r="F50" s="28">
         <f>_xll.qlRateHelperQuoteValue($E50,Trigger)</f>
-        <v>99.547499999999999</v>
+        <v>99.682500000000005</v>
       </c>
       <c r="G50" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E50,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="H50" s="214" t="b">
+      <c r="H50" s="212" t="b">
         <v>1</v>
       </c>
       <c r="I50" s="12">
@@ -4772,15 +4746,15 @@
         <f t="shared" si="2"/>
         <v>EUR_YCSTDRH_FUT3MF5</v>
       </c>
-      <c r="F51" s="28">
+      <c r="F51" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E51,Trigger)</f>
-        <v>99.417500000000004</v>
-      </c>
-      <c r="G51" s="13">
+        <v>#NUM!</v>
+      </c>
+      <c r="G51" s="13" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E51,Trigger)</f>
-        <v>0</v>
-      </c>
-      <c r="H51" s="214" t="b">
+        <v>#NUM!</v>
+      </c>
+      <c r="H51" s="212" t="b">
         <v>0</v>
       </c>
       <c r="I51" s="12">
@@ -4816,13 +4790,13 @@
       </c>
       <c r="F52" s="28">
         <f>_xll.qlRateHelperQuoteValue($E52,Trigger)</f>
-        <v>99.487499999999997</v>
+        <v>99.642499999999998</v>
       </c>
       <c r="G52" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E52,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="H52" s="214" t="b">
+      <c r="H52" s="212" t="b">
         <v>1</v>
       </c>
       <c r="I52" s="12">
@@ -4858,7 +4832,7 @@
       </c>
       <c r="F53" s="28">
         <f>_xll.qlRateHelperQuoteValue($E53,Trigger)</f>
-        <v>99.417500000000004</v>
+        <v>99.587500000000006</v>
       </c>
       <c r="G53" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E53,Trigger)</f>
@@ -4900,7 +4874,7 @@
       </c>
       <c r="F54" s="28">
         <f>_xll.qlRateHelperQuoteValue($E54,Trigger)</f>
-        <v>99.347499999999997</v>
+        <v>99.507499999999993</v>
       </c>
       <c r="G54" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E54,Trigger)</f>
@@ -4942,7 +4916,7 @@
       </c>
       <c r="F55" s="28">
         <f>_xll.qlRateHelperQuoteValue($E55,Trigger)</f>
-        <v>99.267499999999998</v>
+        <v>99.412499999999994</v>
       </c>
       <c r="G55" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E55,Trigger)</f>
@@ -4984,7 +4958,7 @@
       </c>
       <c r="F56" s="28">
         <f>_xll.qlRateHelperQuoteValue($E56,Trigger)</f>
-        <v>99.182500000000005</v>
+        <v>99.292500000000004</v>
       </c>
       <c r="G56" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E56,Trigger)</f>
@@ -5026,7 +5000,7 @@
       </c>
       <c r="F57" s="28">
         <f>_xll.qlRateHelperQuoteValue($E57,Trigger)</f>
-        <v>99.075000000000003</v>
+        <v>99.16</v>
       </c>
       <c r="G57" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E57,Trigger)</f>
@@ -5068,7 +5042,7 @@
       </c>
       <c r="F58" s="28">
         <f>_xll.qlRateHelperQuoteValue($E58,Trigger)</f>
-        <v>98.95</v>
+        <v>99.007499999999993</v>
       </c>
       <c r="G58" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E58,Trigger)</f>
@@ -5110,7 +5084,7 @@
       </c>
       <c r="F59" s="28">
         <f>_xll.qlRateHelperQuoteValue($E59,Trigger)</f>
-        <v>98.802499999999995</v>
+        <v>98.844999999999999</v>
       </c>
       <c r="G59" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E59,Trigger)</f>
@@ -5152,7 +5126,7 @@
       </c>
       <c r="F60" s="28">
         <f>_xll.qlRateHelperQuoteValue($E60,Trigger)</f>
-        <v>98.655000000000001</v>
+        <v>98.694999999999993</v>
       </c>
       <c r="G60" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E60,Trigger)</f>
@@ -5194,7 +5168,7 @@
       </c>
       <c r="F61" s="28">
         <f>_xll.qlRateHelperQuoteValue($E61,Trigger)</f>
-        <v>98.515000000000001</v>
+        <v>98.54</v>
       </c>
       <c r="G61" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E61,Trigger)</f>
@@ -5236,7 +5210,7 @@
       </c>
       <c r="F62" s="28">
         <f>_xll.qlRateHelperQuoteValue($E62,Trigger)</f>
-        <v>98.385000000000005</v>
+        <v>98.394999999999996</v>
       </c>
       <c r="G62" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E62,Trigger)</f>
@@ -5278,7 +5252,7 @@
       </c>
       <c r="F63" s="28">
         <f>_xll.qlRateHelperQuoteValue($E63,Trigger)</f>
-        <v>98.25</v>
+        <v>98.257499999999993</v>
       </c>
       <c r="G63" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E63,Trigger)</f>
@@ -5320,7 +5294,7 @@
       </c>
       <c r="F64" s="28">
         <f>_xll.qlRateHelperQuoteValue($E64,Trigger)</f>
-        <v>98.125</v>
+        <v>98.142499999999998</v>
       </c>
       <c r="G64" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E64,Trigger)</f>
@@ -5362,7 +5336,7 @@
       </c>
       <c r="F65" s="28">
         <f>_xll.qlRateHelperQuoteValue($E65,Trigger)</f>
-        <v>98.01</v>
+        <v>98.025000000000006</v>
       </c>
       <c r="G65" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E65,Trigger)</f>
@@ -5404,7 +5378,7 @@
       </c>
       <c r="F66" s="28">
         <f>_xll.qlRateHelperQuoteValue($E66,Trigger)</f>
-        <v>97.922499999999999</v>
+        <v>97.915000000000006</v>
       </c>
       <c r="G66" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E66,Trigger)</f>
@@ -5446,7 +5420,7 @@
       </c>
       <c r="F67" s="28">
         <f>_xll.qlRateHelperQuoteValue($E67,Trigger)</f>
-        <v>97.834999999999994</v>
+        <v>97.787499999999994</v>
       </c>
       <c r="G67" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E67,Trigger)</f>
@@ -5488,7 +5462,7 @@
       </c>
       <c r="F68" s="28">
         <f>_xll.qlRateHelperQuoteValue($E68,Trigger)</f>
-        <v>97.76</v>
+        <v>97.685000000000002</v>
       </c>
       <c r="G68" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E68,Trigger)</f>
@@ -5530,7 +5504,7 @@
       </c>
       <c r="F69" s="28">
         <f>_xll.qlRateHelperQuoteValue($E69,Trigger)</f>
-        <v>97.672499999999999</v>
+        <v>97.58</v>
       </c>
       <c r="G69" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E69,Trigger)</f>
@@ -5570,13 +5544,13 @@
         <f t="shared" si="4"/>
         <v>EUR_YCSTDRH_FUT3MU9</v>
       </c>
-      <c r="F70" s="28" t="e">
+      <c r="F70" s="28">
         <f>_xll.qlRateHelperQuoteValue($E70,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G70" s="13" t="e">
+        <v>97.472499999999997</v>
+      </c>
+      <c r="G70" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E70,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H70" s="12" t="b">
         <v>1</v>
@@ -5612,13 +5586,13 @@
         <f t="shared" si="4"/>
         <v>EUR_YCSTDRH_FUT3MZ9</v>
       </c>
-      <c r="F71" s="28" t="e">
+      <c r="F71" s="28">
         <f>_xll.qlRateHelperQuoteValue($E71,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G71" s="13" t="e">
+        <v>97.39</v>
+      </c>
+      <c r="G71" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E71,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H71" s="12" t="b">
         <v>1</v>
@@ -6763,7 +6737,7 @@
       </c>
       <c r="F100" s="13">
         <f>_xll.qlRateHelperQuoteValue($E100,Trigger)</f>
-        <v>4.2699999999999995E-3</v>
+        <v>4.1700000000000001E-3</v>
       </c>
       <c r="G100" s="13">
         <f>_xll.qlSwapRateHelperSpread($E100,Trigger)</f>
@@ -6780,11 +6754,11 @@
       </c>
       <c r="K100" s="11">
         <f>_xll.qlRateHelperEarliestDate($E100,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L100" s="10">
         <f>_xll.qlRateHelperLatestDate($E100,Trigger)</f>
-        <v>42025</v>
+        <v>42053</v>
       </c>
       <c r="N100" s="17" t="e">
         <f t="shared" ref="N100:N136" si="8">IF(G100=G137,F100-F137,"--")</f>
@@ -6809,7 +6783,7 @@
       </c>
       <c r="F101" s="13">
         <f>_xll.qlRateHelperQuoteValue($E101,Trigger)</f>
-        <v>4.5199999999999997E-3</v>
+        <v>4.0300000000000006E-3</v>
       </c>
       <c r="G101" s="13">
         <f>_xll.qlSwapRateHelperSpread($E101,Trigger)</f>
@@ -6826,11 +6800,11 @@
       </c>
       <c r="K101" s="11">
         <f>_xll.qlRateHelperEarliestDate($E101,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L101" s="10">
         <f>_xll.qlRateHelperLatestDate($E101,Trigger)</f>
-        <v>42115</v>
+        <v>42142</v>
       </c>
       <c r="N101" s="17" t="e">
         <f t="shared" si="8"/>
@@ -6855,7 +6829,7 @@
       </c>
       <c r="F102" s="13">
         <f>_xll.qlRateHelperQuoteValue($E102,Trigger)</f>
-        <v>5.0400000000000002E-3</v>
+        <v>4.4200000000000003E-3</v>
       </c>
       <c r="G102" s="13">
         <f>_xll.qlSwapRateHelperSpread($E102,Trigger)</f>
@@ -6872,11 +6846,11 @@
       </c>
       <c r="K102" s="11">
         <f>_xll.qlRateHelperEarliestDate($E102,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L102" s="10">
         <f>_xll.qlRateHelperLatestDate($E102,Trigger)</f>
-        <v>42206</v>
+        <v>42234</v>
       </c>
       <c r="N102" s="17" t="e">
         <f t="shared" si="8"/>
@@ -6901,7 +6875,7 @@
       </c>
       <c r="F103" s="13">
         <f>_xll.qlRateHelperQuoteValue($E103,Trigger)</f>
-        <v>5.2900000000000004E-3</v>
+        <v>4.47E-3</v>
       </c>
       <c r="G103" s="13">
         <f>_xll.qlSwapRateHelperSpread($E103,Trigger)</f>
@@ -6918,11 +6892,11 @@
       </c>
       <c r="K103" s="11">
         <f>_xll.qlRateHelperEarliestDate($E103,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L103" s="10">
         <f>_xll.qlRateHelperLatestDate($E103,Trigger)</f>
-        <v>42298</v>
+        <v>42326</v>
       </c>
       <c r="N103" s="17" t="e">
         <f t="shared" si="8"/>
@@ -6947,7 +6921,7 @@
       </c>
       <c r="F104" s="13">
         <f>_xll.qlRateHelperQuoteValue($E104,Trigger)</f>
-        <v>5.7600000000000004E-3</v>
+        <v>4.9199999999999999E-3</v>
       </c>
       <c r="G104" s="13">
         <f>_xll.qlSwapRateHelperSpread($E104,Trigger)</f>
@@ -6964,11 +6938,11 @@
       </c>
       <c r="K104" s="11">
         <f>_xll.qlRateHelperEarliestDate($E104,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L104" s="10">
         <f>_xll.qlRateHelperLatestDate($E104,Trigger)</f>
-        <v>42390</v>
+        <v>42418</v>
       </c>
       <c r="N104" s="17" t="e">
         <f t="shared" si="8"/>
@@ -6993,7 +6967,7 @@
       </c>
       <c r="F105" s="13">
         <f>_xll.qlRateHelperQuoteValue($E105,Trigger)</f>
-        <v>7.45E-3</v>
+        <v>6.6E-3</v>
       </c>
       <c r="G105" s="13">
         <f>_xll.qlSwapRateHelperSpread($E105,Trigger)</f>
@@ -7010,11 +6984,11 @@
       </c>
       <c r="K105" s="11">
         <f>_xll.qlRateHelperEarliestDate($E105,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L105" s="10">
         <f>_xll.qlRateHelperLatestDate($E105,Trigger)</f>
-        <v>42758</v>
+        <v>42786</v>
       </c>
       <c r="N105" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7039,7 +7013,7 @@
       </c>
       <c r="F106" s="13">
         <f>_xll.qlRateHelperQuoteValue($E106,Trigger)</f>
-        <v>9.6100000000000005E-3</v>
+        <v>8.8699999999999994E-3</v>
       </c>
       <c r="G106" s="13">
         <f>_xll.qlSwapRateHelperSpread($E106,Trigger)</f>
@@ -7056,11 +7030,11 @@
       </c>
       <c r="K106" s="11">
         <f>_xll.qlRateHelperEarliestDate($E106,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L106" s="10">
         <f>_xll.qlRateHelperLatestDate($E106,Trigger)</f>
-        <v>43122</v>
+        <v>43150</v>
       </c>
       <c r="N106" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7085,7 +7059,7 @@
       </c>
       <c r="F107" s="13">
         <f>_xll.qlRateHelperQuoteValue($E107,Trigger)</f>
-        <v>1.1850000000000001E-2</v>
+        <v>1.1200000000000002E-2</v>
       </c>
       <c r="G107" s="13">
         <f>_xll.qlSwapRateHelperSpread($E107,Trigger)</f>
@@ -7102,11 +7076,11 @@
       </c>
       <c r="K107" s="11">
         <f>_xll.qlRateHelperEarliestDate($E107,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L107" s="10">
         <f>_xll.qlRateHelperLatestDate($E107,Trigger)</f>
-        <v>43486</v>
+        <v>43514</v>
       </c>
       <c r="N107" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7131,7 +7105,7 @@
       </c>
       <c r="F108" s="13">
         <f>_xll.qlRateHelperQuoteValue($E108,Trigger)</f>
-        <v>1.38E-2</v>
+        <v>1.3389999999999999E-2</v>
       </c>
       <c r="G108" s="13">
         <f>_xll.qlSwapRateHelperSpread($E108,Trigger)</f>
@@ -7148,11 +7122,11 @@
       </c>
       <c r="K108" s="11">
         <f>_xll.qlRateHelperEarliestDate($E108,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L108" s="10">
         <f>_xll.qlRateHelperLatestDate($E108,Trigger)</f>
-        <v>43851</v>
+        <v>43879</v>
       </c>
       <c r="N108" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7177,7 +7151,7 @@
       </c>
       <c r="F109" s="13">
         <f>_xll.qlRateHelperQuoteValue($E109,Trigger)</f>
-        <v>1.5529999999999999E-2</v>
+        <v>1.5389999999999999E-2</v>
       </c>
       <c r="G109" s="13">
         <f>_xll.qlSwapRateHelperSpread($E109,Trigger)</f>
@@ -7194,11 +7168,11 @@
       </c>
       <c r="K109" s="11">
         <f>_xll.qlRateHelperEarliestDate($E109,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L109" s="10">
         <f>_xll.qlRateHelperLatestDate($E109,Trigger)</f>
-        <v>44217</v>
+        <v>44245</v>
       </c>
       <c r="N109" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7223,7 +7197,7 @@
       </c>
       <c r="F110" s="13">
         <f>_xll.qlRateHelperQuoteValue($E110,Trigger)</f>
-        <v>1.7059999999999999E-2</v>
+        <v>1.719E-2</v>
       </c>
       <c r="G110" s="13">
         <f>_xll.qlSwapRateHelperSpread($E110,Trigger)</f>
@@ -7240,11 +7214,11 @@
       </c>
       <c r="K110" s="11">
         <f>_xll.qlRateHelperEarliestDate($E110,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L110" s="10">
         <f>_xll.qlRateHelperLatestDate($E110,Trigger)</f>
-        <v>44582</v>
+        <v>44610</v>
       </c>
       <c r="N110" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7269,7 +7243,7 @@
       </c>
       <c r="F111" s="13">
         <f>_xll.qlRateHelperQuoteValue($E111,Trigger)</f>
-        <v>1.8460000000000001E-2</v>
+        <v>1.8790000000000001E-2</v>
       </c>
       <c r="G111" s="13">
         <f>_xll.qlSwapRateHelperSpread($E111,Trigger)</f>
@@ -7286,11 +7260,11 @@
       </c>
       <c r="K111" s="11">
         <f>_xll.qlRateHelperEarliestDate($E111,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L111" s="10">
         <f>_xll.qlRateHelperLatestDate($E111,Trigger)</f>
-        <v>44949</v>
+        <v>44977</v>
       </c>
       <c r="N111" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7315,7 +7289,7 @@
       </c>
       <c r="F112" s="13">
         <f>_xll.qlRateHelperQuoteValue($E112,Trigger)</f>
-        <v>1.9740000000000001E-2</v>
+        <v>2.0199999999999999E-2</v>
       </c>
       <c r="G112" s="13">
         <f>_xll.qlSwapRateHelperSpread($E112,Trigger)</f>
@@ -7332,11 +7306,11 @@
       </c>
       <c r="K112" s="11">
         <f>_xll.qlRateHelperEarliestDate($E112,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L112" s="10">
         <f>_xll.qlRateHelperLatestDate($E112,Trigger)</f>
-        <v>45313</v>
+        <v>45341</v>
       </c>
       <c r="N112" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7361,7 +7335,7 @@
       </c>
       <c r="F113" s="13">
         <f>_xll.qlRateHelperQuoteValue($E113,Trigger)</f>
-        <v>2.085E-2</v>
+        <v>2.1419999999999998E-2</v>
       </c>
       <c r="G113" s="13">
         <f>_xll.qlSwapRateHelperSpread($E113,Trigger)</f>
@@ -7378,11 +7352,11 @@
       </c>
       <c r="K113" s="11">
         <f>_xll.qlRateHelperEarliestDate($E113,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L113" s="10">
         <f>_xll.qlRateHelperLatestDate($E113,Trigger)</f>
-        <v>45678</v>
+        <v>45706</v>
       </c>
       <c r="N113" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7407,7 +7381,7 @@
       </c>
       <c r="F114" s="13">
         <f>_xll.qlRateHelperQuoteValue($E114,Trigger)</f>
-        <v>2.18E-2</v>
+        <v>2.247E-2</v>
       </c>
       <c r="G114" s="13">
         <f>_xll.qlSwapRateHelperSpread($E114,Trigger)</f>
@@ -7424,11 +7398,11 @@
       </c>
       <c r="K114" s="11">
         <f>_xll.qlRateHelperEarliestDate($E114,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L114" s="10">
         <f>_xll.qlRateHelperLatestDate($E114,Trigger)</f>
-        <v>46043</v>
+        <v>46071</v>
       </c>
       <c r="N114" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7453,7 +7427,7 @@
       </c>
       <c r="F115" s="13">
         <f>_xll.qlRateHelperQuoteValue($E115,Trigger)</f>
-        <v>2.2599999999999999E-2</v>
+        <v>2.3359999999999999E-2</v>
       </c>
       <c r="G115" s="13">
         <f>_xll.qlSwapRateHelperSpread($E115,Trigger)</f>
@@ -7470,11 +7444,11 @@
       </c>
       <c r="K115" s="11">
         <f>_xll.qlRateHelperEarliestDate($E115,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L115" s="10">
         <f>_xll.qlRateHelperLatestDate($E115,Trigger)</f>
-        <v>46408</v>
+        <v>46436</v>
       </c>
       <c r="N115" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7499,7 +7473,7 @@
       </c>
       <c r="F116" s="13">
         <f>_xll.qlRateHelperQuoteValue($E116,Trigger)</f>
-        <v>2.3250000000000003E-2</v>
+        <v>2.41E-2</v>
       </c>
       <c r="G116" s="13">
         <f>_xll.qlSwapRateHelperSpread($E116,Trigger)</f>
@@ -7516,11 +7490,11 @@
       </c>
       <c r="K116" s="11">
         <f>_xll.qlRateHelperEarliestDate($E116,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L116" s="10">
         <f>_xll.qlRateHelperLatestDate($E116,Trigger)</f>
-        <v>46773</v>
+        <v>46801</v>
       </c>
       <c r="N116" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7545,7 +7519,7 @@
       </c>
       <c r="F117" s="13">
         <f>_xll.qlRateHelperQuoteValue($E117,Trigger)</f>
-        <v>2.376E-2</v>
+        <v>2.4700000000000003E-2</v>
       </c>
       <c r="G117" s="13">
         <f>_xll.qlSwapRateHelperSpread($E117,Trigger)</f>
@@ -7562,11 +7536,11 @@
       </c>
       <c r="K117" s="11">
         <f>_xll.qlRateHelperEarliestDate($E117,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L117" s="10">
         <f>_xll.qlRateHelperLatestDate($E117,Trigger)</f>
-        <v>47140</v>
+        <v>47168</v>
       </c>
       <c r="N117" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7591,7 +7565,7 @@
       </c>
       <c r="F118" s="13">
         <f>_xll.qlRateHelperQuoteValue($E118,Trigger)</f>
-        <v>2.4150000000000001E-2</v>
+        <v>2.5179999999999998E-2</v>
       </c>
       <c r="G118" s="13">
         <f>_xll.qlSwapRateHelperSpread($E118,Trigger)</f>
@@ -7608,11 +7582,11 @@
       </c>
       <c r="K118" s="11">
         <f>_xll.qlRateHelperEarliestDate($E118,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L118" s="10">
         <f>_xll.qlRateHelperLatestDate($E118,Trigger)</f>
-        <v>47504</v>
+        <v>47532</v>
       </c>
       <c r="N118" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7637,7 +7611,7 @@
       </c>
       <c r="F119" s="13">
         <f>_xll.qlRateHelperQuoteValue($E119,Trigger)</f>
-        <v>2.444E-2</v>
+        <v>2.5550000000000003E-2</v>
       </c>
       <c r="G119" s="13">
         <f>_xll.qlSwapRateHelperSpread($E119,Trigger)</f>
@@ -7654,11 +7628,11 @@
       </c>
       <c r="K119" s="11">
         <f>_xll.qlRateHelperEarliestDate($E119,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L119" s="10">
         <f>_xll.qlRateHelperLatestDate($E119,Trigger)</f>
-        <v>47869</v>
+        <v>47897</v>
       </c>
       <c r="N119" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7683,7 +7657,7 @@
       </c>
       <c r="F120" s="13">
         <f>_xll.qlRateHelperQuoteValue($E120,Trigger)</f>
-        <v>2.4639999999999999E-2</v>
+        <v>2.5830000000000002E-2</v>
       </c>
       <c r="G120" s="13">
         <f>_xll.qlSwapRateHelperSpread($E120,Trigger)</f>
@@ -7700,11 +7674,11 @@
       </c>
       <c r="K120" s="11">
         <f>_xll.qlRateHelperEarliestDate($E120,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L120" s="10">
         <f>_xll.qlRateHelperLatestDate($E120,Trigger)</f>
-        <v>48234</v>
+        <v>48262</v>
       </c>
       <c r="N120" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7729,7 +7703,7 @@
       </c>
       <c r="F121" s="13">
         <f>_xll.qlRateHelperQuoteValue($E121,Trigger)</f>
-        <v>2.4780000000000003E-2</v>
+        <v>2.605E-2</v>
       </c>
       <c r="G121" s="13">
         <f>_xll.qlSwapRateHelperSpread($E121,Trigger)</f>
@@ -7746,11 +7720,11 @@
       </c>
       <c r="K121" s="11">
         <f>_xll.qlRateHelperEarliestDate($E121,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L121" s="10">
         <f>_xll.qlRateHelperLatestDate($E121,Trigger)</f>
-        <v>48600</v>
+        <v>48628</v>
       </c>
       <c r="N121" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7775,7 +7749,7 @@
       </c>
       <c r="F122" s="13">
         <f>_xll.qlRateHelperQuoteValue($E122,Trigger)</f>
-        <v>2.487E-2</v>
+        <v>2.6210000000000001E-2</v>
       </c>
       <c r="G122" s="13">
         <f>_xll.qlSwapRateHelperSpread($E122,Trigger)</f>
@@ -7792,11 +7766,11 @@
       </c>
       <c r="K122" s="11">
         <f>_xll.qlRateHelperEarliestDate($E122,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L122" s="10">
         <f>_xll.qlRateHelperLatestDate($E122,Trigger)</f>
-        <v>48967</v>
+        <v>48995</v>
       </c>
       <c r="N122" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7821,7 +7795,7 @@
       </c>
       <c r="F123" s="13">
         <f>_xll.qlRateHelperQuoteValue($E123,Trigger)</f>
-        <v>2.4929999999999997E-2</v>
+        <v>2.6349999999999998E-2</v>
       </c>
       <c r="G123" s="13">
         <f>_xll.qlSwapRateHelperSpread($E123,Trigger)</f>
@@ -7838,11 +7812,11 @@
       </c>
       <c r="K123" s="11">
         <f>_xll.qlRateHelperEarliestDate($E123,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L123" s="10">
         <f>_xll.qlRateHelperLatestDate($E123,Trigger)</f>
-        <v>49331</v>
+        <v>49359</v>
       </c>
       <c r="N123" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7867,7 +7841,7 @@
       </c>
       <c r="F124" s="13">
         <f>_xll.qlRateHelperQuoteValue($E124,Trigger)</f>
-        <v>2.4980000000000002E-2</v>
+        <v>2.6440000000000002E-2</v>
       </c>
       <c r="G124" s="13">
         <f>_xll.qlSwapRateHelperSpread($E124,Trigger)</f>
@@ -7884,11 +7858,11 @@
       </c>
       <c r="K124" s="11">
         <f>_xll.qlRateHelperEarliestDate($E124,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L124" s="10">
         <f>_xll.qlRateHelperLatestDate($E124,Trigger)</f>
-        <v>49695</v>
+        <v>49723</v>
       </c>
       <c r="N124" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7913,7 +7887,7 @@
       </c>
       <c r="F125" s="13">
         <f>_xll.qlRateHelperQuoteValue($E125,Trigger)</f>
-        <v>2.5009999999999998E-2</v>
+        <v>2.6520000000000002E-2</v>
       </c>
       <c r="G125" s="13">
         <f>_xll.qlSwapRateHelperSpread($E125,Trigger)</f>
@@ -7930,11 +7904,11 @@
       </c>
       <c r="K125" s="11">
         <f>_xll.qlRateHelperEarliestDate($E125,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L125" s="10">
         <f>_xll.qlRateHelperLatestDate($E125,Trigger)</f>
-        <v>50061</v>
+        <v>50089</v>
       </c>
       <c r="N125" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7959,7 +7933,7 @@
       </c>
       <c r="F126" s="13">
         <f>_xll.qlRateHelperQuoteValue($E126,Trigger)</f>
-        <v>2.5009999999999998E-2</v>
+        <v>2.657E-2</v>
       </c>
       <c r="G126" s="13">
         <f>_xll.qlSwapRateHelperSpread($E126,Trigger)</f>
@@ -7976,11 +7950,11 @@
       </c>
       <c r="K126" s="11">
         <f>_xll.qlRateHelperEarliestDate($E126,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L126" s="10">
         <f>_xll.qlRateHelperLatestDate($E126,Trigger)</f>
-        <v>50426</v>
+        <v>50454</v>
       </c>
       <c r="N126" s="17" t="e">
         <f t="shared" si="8"/>
@@ -8005,7 +7979,7 @@
       </c>
       <c r="F127" s="13">
         <f>_xll.qlRateHelperQuoteValue($E127,Trigger)</f>
-        <v>2.5009999999999998E-2</v>
+        <v>2.6600000000000002E-2</v>
       </c>
       <c r="G127" s="13">
         <f>_xll.qlSwapRateHelperSpread($E127,Trigger)</f>
@@ -8022,11 +7996,11 @@
       </c>
       <c r="K127" s="11">
         <f>_xll.qlRateHelperEarliestDate($E127,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L127" s="10">
         <f>_xll.qlRateHelperLatestDate($E127,Trigger)</f>
-        <v>50791</v>
+        <v>50819</v>
       </c>
       <c r="N127" s="17" t="e">
         <f t="shared" si="8"/>
@@ -8051,7 +8025,7 @@
       </c>
       <c r="F128" s="13">
         <f>_xll.qlRateHelperQuoteValue($E128,Trigger)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>2.6610000000000002E-2</v>
       </c>
       <c r="G128" s="13">
         <f>_xll.qlSwapRateHelperSpread($E128,Trigger)</f>
@@ -8068,11 +8042,11 @@
       </c>
       <c r="K128" s="11">
         <f>_xll.qlRateHelperEarliestDate($E128,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L128" s="10">
         <f>_xll.qlRateHelperLatestDate($E128,Trigger)</f>
-        <v>51158</v>
+        <v>51186</v>
       </c>
       <c r="N128" s="17" t="e">
         <f t="shared" si="8"/>
@@ -8097,7 +8071,7 @@
       </c>
       <c r="F129" s="13">
         <f>_xll.qlRateHelperQuoteValue($E129,Trigger)</f>
-        <v>2.4980000000000002E-2</v>
+        <v>2.6619999999999998E-2</v>
       </c>
       <c r="G129" s="13">
         <f>_xll.qlSwapRateHelperSpread($E129,Trigger)</f>
@@ -8114,11 +8088,11 @@
       </c>
       <c r="K129" s="11">
         <f>_xll.qlRateHelperEarliestDate($E129,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L129" s="10">
         <f>_xll.qlRateHelperLatestDate($E129,Trigger)</f>
-        <v>51522</v>
+        <v>51550</v>
       </c>
       <c r="N129" s="17" t="e">
         <f t="shared" si="8"/>
@@ -8143,7 +8117,7 @@
       </c>
       <c r="F130" s="13">
         <f>_xll.qlRateHelperQuoteValue($E130,Trigger)</f>
-        <v>2.495E-2</v>
+        <v>2.6610000000000002E-2</v>
       </c>
       <c r="G130" s="13">
         <f>_xll.qlSwapRateHelperSpread($E130,Trigger)</f>
@@ -8160,11 +8134,11 @@
       </c>
       <c r="K130" s="11">
         <f>_xll.qlRateHelperEarliestDate($E130,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L130" s="10">
         <f>_xll.qlRateHelperLatestDate($E130,Trigger)</f>
-        <v>51887</v>
+        <v>51915</v>
       </c>
       <c r="N130" s="17" t="e">
         <f t="shared" si="8"/>
@@ -8189,7 +8163,7 @@
       </c>
       <c r="F131" s="13">
         <f>_xll.qlRateHelperQuoteValue($E131,Trigger)</f>
-        <v>2.4939999999999997E-2</v>
+        <v>2.6600000000000002E-2</v>
       </c>
       <c r="G131" s="13">
         <f>_xll.qlSwapRateHelperSpread($E131,Trigger)</f>
@@ -8206,11 +8180,11 @@
       </c>
       <c r="K131" s="11">
         <f>_xll.qlRateHelperEarliestDate($E131,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L131" s="10">
         <f>_xll.qlRateHelperLatestDate($E131,Trigger)</f>
-        <v>52252</v>
+        <v>52280</v>
       </c>
       <c r="N131" s="17" t="e">
         <f t="shared" si="8"/>
@@ -8235,7 +8209,7 @@
       </c>
       <c r="F132" s="13">
         <f>_xll.qlRateHelperQuoteValue($E132,Trigger)</f>
-        <v>2.4929999999999997E-2</v>
+        <v>2.6600000000000002E-2</v>
       </c>
       <c r="G132" s="13">
         <f>_xll.qlSwapRateHelperSpread($E132,Trigger)</f>
@@ -8252,11 +8226,11 @@
       </c>
       <c r="K132" s="11">
         <f>_xll.qlRateHelperEarliestDate($E132,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L132" s="10">
         <f>_xll.qlRateHelperLatestDate($E132,Trigger)</f>
-        <v>52617</v>
+        <v>52645</v>
       </c>
       <c r="N132" s="17" t="e">
         <f t="shared" si="8"/>
@@ -8281,7 +8255,7 @@
       </c>
       <c r="F133" s="13">
         <f>_xll.qlRateHelperQuoteValue($E133,Trigger)</f>
-        <v>2.5070000000000002E-2</v>
+        <v>2.6680000000000002E-2</v>
       </c>
       <c r="G133" s="13">
         <f>_xll.qlSwapRateHelperSpread($E133,Trigger)</f>
@@ -8298,11 +8272,11 @@
       </c>
       <c r="K133" s="11">
         <f>_xll.qlRateHelperEarliestDate($E133,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L133" s="10">
         <f>_xll.qlRateHelperLatestDate($E133,Trigger)</f>
-        <v>54444</v>
+        <v>54472</v>
       </c>
       <c r="N133" s="17" t="e">
         <f t="shared" si="8"/>
@@ -8327,7 +8301,7 @@
       </c>
       <c r="F134" s="13">
         <f>_xll.qlRateHelperQuoteValue($E134,Trigger)</f>
-        <v>2.5350000000000001E-2</v>
+        <v>2.6840000000000003E-2</v>
       </c>
       <c r="G134" s="13">
         <f>_xll.qlSwapRateHelperSpread($E134,Trigger)</f>
@@ -8344,11 +8318,11 @@
       </c>
       <c r="K134" s="11">
         <f>_xll.qlRateHelperEarliestDate($E134,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L134" s="10">
         <f>_xll.qlRateHelperLatestDate($E134,Trigger)</f>
-        <v>56270</v>
+        <v>56298</v>
       </c>
       <c r="N134" s="17" t="e">
         <f t="shared" si="8"/>
@@ -8373,7 +8347,7 @@
       </c>
       <c r="F135" s="13">
         <f>_xll.qlRateHelperQuoteValue($E135,Trigger)</f>
-        <v>2.579E-2</v>
+        <v>2.7029999999999998E-2</v>
       </c>
       <c r="G135" s="13">
         <f>_xll.qlSwapRateHelperSpread($E135,Trigger)</f>
@@ -8390,11 +8364,11 @@
       </c>
       <c r="K135" s="11">
         <f>_xll.qlRateHelperEarliestDate($E135,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L135" s="10">
         <f>_xll.qlRateHelperLatestDate($E135,Trigger)</f>
-        <v>59922</v>
+        <v>59950</v>
       </c>
       <c r="N135" s="17" t="e">
         <f t="shared" si="8"/>
@@ -8419,7 +8393,7 @@
       </c>
       <c r="F136" s="6">
         <f>_xll.qlRateHelperQuoteValue($E136,Trigger)</f>
-        <v>2.6099999999999998E-2</v>
+        <v>2.7160000000000004E-2</v>
       </c>
       <c r="G136" s="6">
         <f>_xll.qlSwapRateHelperSpread($E136,Trigger)</f>
@@ -8436,11 +8410,11 @@
       </c>
       <c r="K136" s="4">
         <f>_xll.qlRateHelperEarliestDate($E136,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L136" s="3">
         <f>_xll.qlRateHelperLatestDate($E136,Trigger)</f>
-        <v>63576</v>
+        <v>63604</v>
       </c>
       <c r="N136" s="17" t="e">
         <f t="shared" si="8"/>
@@ -10037,10 +10011,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="222" t="s">
+      <c r="A1" s="216" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="223"/>
+      <c r="B1" s="217"/>
       <c r="D1" s="56" t="s">
         <v>87</v>
       </c>
@@ -10056,10 +10030,10 @@
       </c>
       <c r="I1" s="37">
         <f t="array" ref="I1:I126">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
-        <v>1.0138846643859012E-3</v>
-      </c>
-      <c r="K1" s="213"/>
-      <c r="L1" s="213"/>
+        <v>3.5485593615426441E-3</v>
+      </c>
+      <c r="K1" s="211"/>
+      <c r="L1" s="211"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="53" t="s">
@@ -10074,7 +10048,7 @@
       </c>
       <c r="E2" s="44">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>1E-3</v>
+        <v>3.4999999999999996E-3</v>
       </c>
       <c r="F2" s="44" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -10082,14 +10056,14 @@
       </c>
       <c r="G2" s="43">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="H2" s="42">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41659</v>
+        <v>41687</v>
       </c>
       <c r="I2" s="37">
-        <v>1.0138846643859012E-3</v>
+        <v>3.5485593615426441E-3</v>
       </c>
       <c r="K2" s="92" t="s">
         <v>113</v>
@@ -10110,7 +10084,7 @@
       </c>
       <c r="E3" s="44">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>1E-3</v>
+        <v>3.4999999999999996E-3</v>
       </c>
       <c r="F3" s="44" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -10118,14 +10092,14 @@
       </c>
       <c r="G3" s="43">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41659</v>
+        <v>41687</v>
       </c>
       <c r="H3" s="42">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="I3" s="37">
-        <v>1.0138853684716069E-3</v>
+        <v>3.5485679864237182E-3</v>
       </c>
       <c r="K3" s="92" t="s">
         <v>114</v>
@@ -10146,7 +10120,7 @@
       </c>
       <c r="E4" s="44">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>1E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="F4" s="44" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -10154,14 +10128,14 @@
       </c>
       <c r="G4" s="43">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H4" s="42">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41661</v>
+        <v>41689</v>
       </c>
       <c r="I4" s="37">
-        <v>1.0138857909162268E-3</v>
+        <v>3.345797073366769E-3</v>
       </c>
       <c r="K4" s="92" t="s">
         <v>115</v>
@@ -10190,14 +10164,14 @@
       </c>
       <c r="G5" s="43">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H5" s="42">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41667</v>
+        <v>41695</v>
       </c>
       <c r="I5" s="37">
-        <v>1.0590445685328157E-3</v>
+        <v>1.9807473386894417E-3</v>
       </c>
       <c r="K5" s="92" t="s">
         <v>116</v>
@@ -10227,14 +10201,14 @@
       </c>
       <c r="G6" s="43">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H6" s="42">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41674</v>
+        <v>41702</v>
       </c>
       <c r="I6" s="37">
-        <v>1.1163839598927066E-3</v>
+        <v>1.6796467638842631E-3</v>
       </c>
       <c r="K6" s="92" t="s">
         <v>117</v>
@@ -10246,7 +10220,7 @@
     <row r="7" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_RateHelpersSelected#0000</v>
+        <v>EUR_YCSTDRH_RateHelpersSelected#0001</v>
       </c>
       <c r="B7" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -10265,14 +10239,14 @@
       </c>
       <c r="G7" s="43">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H7" s="42">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41681</v>
+        <v>41709</v>
       </c>
       <c r="I7" s="37">
-        <v>1.1927019586996678E-3</v>
+        <v>1.5982511775547241E-3</v>
       </c>
       <c r="K7" s="92" t="s">
         <v>118</v>
@@ -10295,14 +10269,14 @@
       </c>
       <c r="G8" s="43">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H8" s="42">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>41691</v>
+        <v>41716</v>
       </c>
       <c r="I8" s="37">
-        <v>1.2922070596939918E-3</v>
+        <v>1.6056819351007907E-3</v>
       </c>
       <c r="K8" s="92" t="s">
         <v>119</v>
@@ -10325,14 +10299,14 @@
       </c>
       <c r="G9" s="43">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H9" s="42">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>41719</v>
+        <v>41751</v>
       </c>
       <c r="I9" s="37">
-        <v>1.7827409535464231E-3</v>
+        <v>1.9371599325913474E-3</v>
       </c>
       <c r="K9" s="92" t="s">
         <v>120</v>
@@ -10355,14 +10329,14 @@
       </c>
       <c r="G10" s="43">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H10" s="42">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>41751</v>
+        <v>41778</v>
       </c>
       <c r="I10" s="37">
-        <v>2.2272660986902503E-3</v>
+        <v>2.3345643558509268E-3</v>
       </c>
       <c r="K10" s="92" t="s">
         <v>121</v>
@@ -10385,14 +10359,14 @@
       </c>
       <c r="G11" s="43">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H11" s="42">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>41780</v>
+        <v>41808</v>
       </c>
       <c r="I11" s="37">
-        <v>2.631692671374712E-3</v>
+        <v>2.7134566267791073E-3</v>
       </c>
       <c r="K11" s="92" t="s">
         <v>122</v>
@@ -10415,14 +10389,14 @@
       </c>
       <c r="G12" s="43">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H12" s="42">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>41813</v>
+        <v>41838</v>
       </c>
       <c r="I12" s="37">
-        <v>2.9782473814190555E-3</v>
+        <v>3.0431195797263567E-3</v>
       </c>
       <c r="K12" s="92" t="s">
         <v>123</v>
@@ -10445,14 +10419,14 @@
       </c>
       <c r="G13" s="43">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H13" s="42">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>41841</v>
+        <v>41869</v>
       </c>
       <c r="I13" s="37">
-        <v>3.4214381041753842E-3</v>
+        <v>3.4762420526745271E-3</v>
       </c>
       <c r="K13" s="92" t="s">
         <v>124</v>
@@ -10475,14 +10449,14 @@
       </c>
       <c r="G14" s="43">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H14" s="42">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>41872</v>
+        <v>41900</v>
       </c>
       <c r="I14" s="37">
-        <v>3.7661939960263193E-3</v>
+        <v>3.8131325630254634E-3</v>
       </c>
       <c r="K14" s="92" t="s">
         <v>125</v>
@@ -10493,26 +10467,26 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D15" s="45" t="str">
-        <v>EUR_YCSTDRH_8MD</v>
+        <v>EUR_YCSTDRH_FUT3MU4</v>
       </c>
       <c r="E15" s="44">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>4.1199999999999995E-3</v>
-      </c>
-      <c r="F15" s="44" t="str">
+        <v>2.9749999999999499E-3</v>
+      </c>
+      <c r="F15" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
-        <v>--</v>
+        <v>0</v>
       </c>
       <c r="G15" s="43">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41660</v>
+        <v>41899</v>
       </c>
       <c r="H15" s="42">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>41904</v>
+        <v>41990</v>
       </c>
       <c r="I15" s="37">
-        <v>4.1204730597814709E-3</v>
+        <v>3.5681990693817237E-3</v>
       </c>
       <c r="K15" s="92" t="s">
         <v>126</v>
@@ -10523,11 +10497,11 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="45" t="str">
-        <v>EUR_YCSTDRH_FUT3MU4</v>
+        <v>EUR_YCSTDRH_FUT3MZ4</v>
       </c>
       <c r="E16" s="44">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>3.9249999999999563E-3</v>
+        <v>3.1749999999999279E-3</v>
       </c>
       <c r="F16" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
@@ -10535,14 +10509,14 @@
       </c>
       <c r="G16" s="43">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41899</v>
+        <v>41990</v>
       </c>
       <c r="H16" s="42">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>41990</v>
+        <v>42080</v>
       </c>
       <c r="I16" s="37">
-        <v>4.0412564549751938E-3</v>
+        <v>3.4885675349843998E-3</v>
       </c>
       <c r="K16" s="92" t="s">
         <v>217</v>
@@ -10553,11 +10527,11 @@
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D17" s="45" t="str">
-        <v>EUR_YCSTDRH_FUT3MZ4</v>
+        <v>EUR_YCSTDRH_FUT3MH5</v>
       </c>
       <c r="E17" s="44">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>4.5250000000000012E-3</v>
+        <v>3.5749999999999948E-3</v>
       </c>
       <c r="F17" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -10565,14 +10539,14 @@
       </c>
       <c r="G17" s="43">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41990</v>
+        <v>42081</v>
       </c>
       <c r="H17" s="42">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>42080</v>
+        <v>42173</v>
       </c>
       <c r="I17" s="37">
-        <v>4.1567276696282745E-3</v>
+        <v>3.5140818930188629E-3</v>
       </c>
       <c r="K17" s="92" t="s">
         <v>218</v>
@@ -10583,11 +10557,11 @@
     </row>
     <row r="18" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D18" s="45" t="str">
-        <v>EUR_YCSTDRH_FUT3MH5</v>
+        <v>EUR_YCSTDRH_FUT3MM5</v>
       </c>
       <c r="E18" s="44">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>5.1250000000000462E-3</v>
+        <v>4.1249999999999343E-3</v>
       </c>
       <c r="F18" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
@@ -10595,14 +10569,14 @@
       </c>
       <c r="G18" s="43">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>42081</v>
+        <v>42172</v>
       </c>
       <c r="H18" s="42">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>42173</v>
+        <v>42264</v>
       </c>
       <c r="I18" s="37">
-        <v>4.3427371989708677E-3</v>
+        <v>3.6194935369126889E-3</v>
       </c>
       <c r="K18" s="92" t="s">
         <v>127</v>
@@ -10613,11 +10587,11 @@
     </row>
     <row r="19" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D19" s="45" t="str">
-        <v>EUR_YCSTDRH_FUT3MM5</v>
+        <v>EUR_YCSTDRH_FUT3MU5</v>
       </c>
       <c r="E19" s="44">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>5.8249999999999691E-3</v>
+        <v>4.9250000000000682E-3</v>
       </c>
       <c r="F19" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
@@ -10625,14 +10599,14 @@
       </c>
       <c r="G19" s="43">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>42172</v>
+        <v>42263</v>
       </c>
       <c r="H19" s="42">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>42264</v>
+        <v>42354</v>
       </c>
       <c r="I19" s="37">
-        <v>4.5769068831851226E-3</v>
+        <v>3.8046762701747765E-3</v>
       </c>
       <c r="K19" s="92" t="s">
         <v>128</v>
@@ -10643,11 +10617,11 @@
     </row>
     <row r="20" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D20" s="45" t="str">
-        <v>EUR_YCSTDRH_FUT3MU5</v>
+        <v>EUR_YCSTDRH_FUT3MZ5</v>
       </c>
       <c r="E20" s="44">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>6.525000000000003E-3</v>
+        <v>5.8750000000000746E-3</v>
       </c>
       <c r="F20" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
@@ -10655,14 +10629,14 @@
       </c>
       <c r="G20" s="43">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>42263</v>
+        <v>42354</v>
       </c>
       <c r="H20" s="42">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>42354</v>
+        <v>42445</v>
       </c>
       <c r="I20" s="37">
-        <v>4.8397513315556473E-3</v>
+        <v>4.0614735282093421E-3</v>
       </c>
       <c r="K20" s="92" t="s">
         <v>129</v>
@@ -10673,11 +10647,11 @@
     </row>
     <row r="21" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D21" s="45" t="str">
-        <v>EUR_YCSTDRH_FUT3MZ5</v>
+        <v>EUR_YCSTDRH_AB6E3Y</v>
       </c>
       <c r="E21" s="44">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>7.3250000000000259E-3</v>
+        <v>6.6E-3</v>
       </c>
       <c r="F21" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -10685,14 +10659,14 @@
       </c>
       <c r="G21" s="43">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>42354</v>
+        <v>41688</v>
       </c>
       <c r="H21" s="42">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>42445</v>
+        <v>42786</v>
       </c>
       <c r="I21" s="37">
-        <v>5.137331434167885E-3</v>
+        <v>6.5795883379104305E-3</v>
       </c>
       <c r="K21" s="92" t="s">
         <v>130</v>
@@ -10703,11 +10677,11 @@
     </row>
     <row r="22" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D22" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E3Y</v>
+        <v>EUR_YCSTDRH_AB6E4Y</v>
       </c>
       <c r="E22" s="44">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>7.45E-3</v>
+        <v>8.8699999999999994E-3</v>
       </c>
       <c r="F22" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -10715,14 +10689,14 @@
       </c>
       <c r="G22" s="43">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H22" s="42">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>42758</v>
+        <v>43150</v>
       </c>
       <c r="I22" s="37">
-        <v>7.4128369941495829E-3</v>
+        <v>8.8591556687371252E-3</v>
       </c>
       <c r="K22" s="92" t="s">
         <v>131</v>
@@ -10733,11 +10707,11 @@
     </row>
     <row r="23" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D23" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E4Y</v>
+        <v>EUR_YCSTDRH_AB6E5Y</v>
       </c>
       <c r="E23" s="44">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>9.6100000000000005E-3</v>
+        <v>1.1200000000000002E-2</v>
       </c>
       <c r="F23" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
@@ -10745,14 +10719,14 @@
       </c>
       <c r="G23" s="43">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H23" s="42">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>43122</v>
+        <v>43514</v>
       </c>
       <c r="I23" s="37">
-        <v>9.5852864355149142E-3</v>
+        <v>1.1217116706163656E-2</v>
       </c>
       <c r="K23" s="92" t="s">
         <v>132</v>
@@ -10763,11 +10737,11 @@
     </row>
     <row r="24" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D24" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E5Y</v>
+        <v>EUR_YCSTDRH_AB6E6Y</v>
       </c>
       <c r="E24" s="44">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>1.1850000000000001E-2</v>
+        <v>1.3389999999999999E-2</v>
       </c>
       <c r="F24" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
@@ -10775,14 +10749,14 @@
       </c>
       <c r="G24" s="43">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H24" s="42">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>43486</v>
+        <v>43879</v>
       </c>
       <c r="I24" s="37">
-        <v>1.1854436030451623E-2</v>
+        <v>1.3454050349212328E-2</v>
       </c>
       <c r="K24" s="92" t="s">
         <v>133</v>
@@ -10793,11 +10767,11 @@
     </row>
     <row r="25" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D25" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E6Y</v>
+        <v>EUR_YCSTDRH_AB6E7Y</v>
       </c>
       <c r="E25" s="44">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>1.38E-2</v>
+        <v>1.5389999999999999E-2</v>
       </c>
       <c r="F25" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
@@ -10805,14 +10779,14 @@
       </c>
       <c r="G25" s="43">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H25" s="42">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>43851</v>
+        <v>44245</v>
       </c>
       <c r="I25" s="37">
-        <v>1.3846093740333239E-2</v>
+        <v>1.5512452272932338E-2</v>
       </c>
       <c r="K25" s="92" t="s">
         <v>134</v>
@@ -10823,11 +10797,11 @@
     </row>
     <row r="26" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D26" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E7Y</v>
+        <v>EUR_YCSTDRH_AB6E8Y</v>
       </c>
       <c r="E26" s="44">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>1.5529999999999999E-2</v>
+        <v>1.719E-2</v>
       </c>
       <c r="F26" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
@@ -10835,14 +10809,14 @@
       </c>
       <c r="G26" s="43">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H26" s="42">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>44217</v>
+        <v>44610</v>
       </c>
       <c r="I26" s="37">
-        <v>1.5623365068957697E-2</v>
+        <v>1.7391875442458592E-2</v>
       </c>
       <c r="K26" s="92" t="s">
         <v>135</v>
@@ -10853,11 +10827,11 @@
     </row>
     <row r="27" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D27" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E8Y</v>
+        <v>EUR_YCSTDRH_AB6E9Y</v>
       </c>
       <c r="E27" s="44">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>1.7059999999999999E-2</v>
+        <v>1.8790000000000001E-2</v>
       </c>
       <c r="F27" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -10865,14 +10839,14 @@
       </c>
       <c r="G27" s="43">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H27" s="42">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>44582</v>
+        <v>44977</v>
       </c>
       <c r="I27" s="37">
-        <v>1.721646751933192E-2</v>
+        <v>1.9082168419050249E-2</v>
       </c>
       <c r="K27" s="92" t="s">
         <v>136</v>
@@ -10883,11 +10857,11 @@
     </row>
     <row r="28" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D28" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E9Y</v>
+        <v>EUR_YCSTDRH_AB6E10Y</v>
       </c>
       <c r="E28" s="44">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>1.8460000000000001E-2</v>
+        <v>2.0199999999999999E-2</v>
       </c>
       <c r="F28" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -10895,14 +10869,14 @@
       </c>
       <c r="G28" s="43">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H28" s="42">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>44949</v>
+        <v>45341</v>
       </c>
       <c r="I28" s="37">
-        <v>1.8690612263807572E-2</v>
+        <v>2.0590074736383589E-2</v>
       </c>
       <c r="K28" s="92" t="s">
         <v>137</v>
@@ -10913,11 +10887,11 @@
     </row>
     <row r="29" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D29" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E10Y</v>
+        <v>EUR_YCSTDRH_AB6E11Y</v>
       </c>
       <c r="E29" s="44">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>1.9740000000000001E-2</v>
+        <v>2.1419999999999998E-2</v>
       </c>
       <c r="F29" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
@@ -10925,14 +10899,14 @@
       </c>
       <c r="G29" s="43">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H29" s="42">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>45313</v>
+        <v>45706</v>
       </c>
       <c r="I29" s="37">
-        <v>2.0055129877217855E-2</v>
+        <v>2.1903868156260612E-2</v>
       </c>
       <c r="K29" s="92" t="s">
         <v>138</v>
@@ -10943,11 +10917,11 @@
     </row>
     <row r="30" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D30" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E11Y</v>
+        <v>EUR_YCSTDRH_AB6E12Y</v>
       </c>
       <c r="E30" s="44">
         <f>_xll.qlRateHelperRate($D30)</f>
-        <v>2.085E-2</v>
+        <v>2.247E-2</v>
       </c>
       <c r="F30" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
@@ -10955,14 +10929,14 @@
       </c>
       <c r="G30" s="43">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H30" s="42">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>45678</v>
+        <v>46071</v>
       </c>
       <c r="I30" s="37">
-        <v>2.1245413137490295E-2</v>
+        <v>2.3050933141634932E-2</v>
       </c>
       <c r="K30" s="92" t="s">
         <v>139</v>
@@ -10973,11 +10947,11 @@
     </row>
     <row r="31" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D31" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E12Y</v>
+        <v>EUR_YCSTDRH_AB6E13Y</v>
       </c>
       <c r="E31" s="44">
         <f>_xll.qlRateHelperRate($D31)</f>
-        <v>2.18E-2</v>
+        <v>2.3359999999999999E-2</v>
       </c>
       <c r="F31" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D31)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D31)),_xll.qlSwapRateHelperSpread($D31))</f>
@@ -10985,14 +10959,14 @@
       </c>
       <c r="G31" s="43">
         <f>_xll.qlRateHelperEarliestDate($D31)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H31" s="42">
         <f>_xll.qlRateHelperLatestDate($D31)</f>
-        <v>46043</v>
+        <v>46436</v>
       </c>
       <c r="I31" s="37">
-        <v>2.2278034948622107E-2</v>
+        <v>2.4031287154561206E-2</v>
       </c>
       <c r="K31" s="92" t="s">
         <v>140</v>
@@ -11003,11 +10977,11 @@
     </row>
     <row r="32" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D32" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E13Y</v>
+        <v>EUR_YCSTDRH_AB6E14Y</v>
       </c>
       <c r="E32" s="44">
         <f>_xll.qlRateHelperRate($D32)</f>
-        <v>2.2599999999999999E-2</v>
+        <v>2.41E-2</v>
       </c>
       <c r="F32" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D32)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D32)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D32)),_xll.qlSwapRateHelperSpread($D32))</f>
@@ -11015,14 +10989,14 @@
       </c>
       <c r="G32" s="43">
         <f>_xll.qlRateHelperEarliestDate($D32)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H32" s="42">
         <f>_xll.qlRateHelperLatestDate($D32)</f>
-        <v>46408</v>
+        <v>46801</v>
       </c>
       <c r="I32" s="37">
-        <v>2.3153761939910925E-2</v>
+        <v>2.4850597998232776E-2</v>
       </c>
       <c r="K32" s="92" t="s">
         <v>141</v>
@@ -11033,11 +11007,11 @@
     </row>
     <row r="33" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D33" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E14Y</v>
+        <v>EUR_YCSTDRH_AB6E15Y</v>
       </c>
       <c r="E33" s="44">
         <f>_xll.qlRateHelperRate($D33)</f>
-        <v>2.3250000000000003E-2</v>
+        <v>2.4700000000000003E-2</v>
       </c>
       <c r="F33" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D33)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D33)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D33)),_xll.qlSwapRateHelperSpread($D33))</f>
@@ -11045,14 +11019,14 @@
       </c>
       <c r="G33" s="43">
         <f>_xll.qlRateHelperEarliestDate($D33)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H33" s="42">
         <f>_xll.qlRateHelperLatestDate($D33)</f>
-        <v>46773</v>
+        <v>47168</v>
       </c>
       <c r="I33" s="37">
-        <v>2.3867038290238882E-2</v>
+        <v>2.5510120699469879E-2</v>
       </c>
       <c r="K33" s="92" t="s">
         <v>142</v>
@@ -11063,11 +11037,11 @@
     </row>
     <row r="34" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D34" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E15Y</v>
+        <v>EUR_YCSTDRH_AB6E16Y</v>
       </c>
       <c r="E34" s="44">
         <f>_xll.qlRateHelperRate($D34)</f>
-        <v>2.376E-2</v>
+        <v>2.5179999999999998E-2</v>
       </c>
       <c r="F34" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D34)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D34)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D34)),_xll.qlSwapRateHelperSpread($D34))</f>
@@ -11075,14 +11049,14 @@
       </c>
       <c r="G34" s="43">
         <f>_xll.qlRateHelperEarliestDate($D34)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H34" s="42">
         <f>_xll.qlRateHelperLatestDate($D34)</f>
-        <v>47140</v>
+        <v>47532</v>
       </c>
       <c r="I34" s="37">
-        <v>2.4419681779521897E-2</v>
+        <v>2.6039216460667508E-2</v>
       </c>
       <c r="K34" s="92" t="s">
         <v>143</v>
@@ -11093,11 +11067,11 @@
     </row>
     <row r="35" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D35" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E16Y</v>
+        <v>EUR_YCSTDRH_AB6E17Y</v>
       </c>
       <c r="E35" s="44">
         <f>_xll.qlRateHelperRate($D35)</f>
-        <v>2.4150000000000001E-2</v>
+        <v>2.5550000000000003E-2</v>
       </c>
       <c r="F35" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D35)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D35)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D35)),_xll.qlSwapRateHelperSpread($D35))</f>
@@ -11105,14 +11079,14 @@
       </c>
       <c r="G35" s="43">
         <f>_xll.qlRateHelperEarliestDate($D35)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H35" s="42">
         <f>_xll.qlRateHelperLatestDate($D35)</f>
-        <v>47504</v>
+        <v>47897</v>
       </c>
       <c r="I35" s="37">
-        <v>2.4840768284261319E-2</v>
+        <v>2.6440186708243139E-2</v>
       </c>
       <c r="K35" s="92" t="s">
         <v>144</v>
@@ -11123,11 +11097,11 @@
     </row>
     <row r="36" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D36" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E17Y</v>
+        <v>EUR_YCSTDRH_AB6E18Y</v>
       </c>
       <c r="E36" s="44">
         <f>_xll.qlRateHelperRate($D36)</f>
-        <v>2.444E-2</v>
+        <v>2.5830000000000002E-2</v>
       </c>
       <c r="F36" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D36)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D36)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D36)),_xll.qlSwapRateHelperSpread($D36))</f>
@@ -11135,14 +11109,14 @@
       </c>
       <c r="G36" s="43">
         <f>_xll.qlRateHelperEarliestDate($D36)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H36" s="42">
         <f>_xll.qlRateHelperLatestDate($D36)</f>
-        <v>47869</v>
+        <v>48262</v>
       </c>
       <c r="I36" s="37">
-        <v>2.5145820233339073E-2</v>
+        <v>2.6734817948514272E-2</v>
       </c>
       <c r="K36" s="92" t="s">
         <v>145</v>
@@ -11153,11 +11127,11 @@
     </row>
     <row r="37" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D37" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E18Y</v>
+        <v>EUR_YCSTDRH_AB6E19Y</v>
       </c>
       <c r="E37" s="44">
         <f>_xll.qlRateHelperRate($D37)</f>
-        <v>2.4639999999999999E-2</v>
+        <v>2.605E-2</v>
       </c>
       <c r="F37" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D37)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D37)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D37)),_xll.qlSwapRateHelperSpread($D37))</f>
@@ -11165,14 +11139,14 @@
       </c>
       <c r="G37" s="43">
         <f>_xll.qlRateHelperEarliestDate($D37)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H37" s="42">
         <f>_xll.qlRateHelperLatestDate($D37)</f>
-        <v>48234</v>
+        <v>48628</v>
       </c>
       <c r="I37" s="37">
-        <v>2.5344286411388493E-2</v>
+        <v>2.6955270912024543E-2</v>
       </c>
       <c r="K37" s="92" t="s">
         <v>146</v>
@@ -11183,11 +11157,11 @@
     </row>
     <row r="38" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D38" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E19Y</v>
+        <v>EUR_YCSTDRH_AB6E20Y</v>
       </c>
       <c r="E38" s="44">
         <f>_xll.qlRateHelperRate($D38)</f>
-        <v>2.4780000000000003E-2</v>
+        <v>2.6210000000000001E-2</v>
       </c>
       <c r="F38" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D38)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D38)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D38)),_xll.qlSwapRateHelperSpread($D38))</f>
@@ -11195,14 +11169,14 @@
       </c>
       <c r="G38" s="43">
         <f>_xll.qlRateHelperEarliestDate($D38)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H38" s="42">
         <f>_xll.qlRateHelperLatestDate($D38)</f>
-        <v>48600</v>
+        <v>48995</v>
       </c>
       <c r="I38" s="37">
-        <v>2.5468282161137886E-2</v>
+        <v>2.7106766504669384E-2</v>
       </c>
       <c r="K38" s="92" t="s">
         <v>147</v>
@@ -11213,11 +11187,11 @@
     </row>
     <row r="39" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D39" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E20Y</v>
+        <v>EUR_YCSTDRH_AB6E21Y</v>
       </c>
       <c r="E39" s="44">
         <f>_xll.qlRateHelperRate($D39)</f>
-        <v>2.487E-2</v>
+        <v>2.6349999999999998E-2</v>
       </c>
       <c r="F39" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D39)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D39)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D39)),_xll.qlSwapRateHelperSpread($D39))</f>
@@ -11225,14 +11199,14 @@
       </c>
       <c r="G39" s="43">
         <f>_xll.qlRateHelperEarliestDate($D39)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H39" s="42">
         <f>_xll.qlRateHelperLatestDate($D39)</f>
-        <v>48967</v>
+        <v>49359</v>
       </c>
       <c r="I39" s="37">
-        <v>2.5536151256497493E-2</v>
+        <v>2.7238200228367159E-2</v>
       </c>
       <c r="K39" s="92" t="s">
         <v>148</v>
@@ -11243,11 +11217,11 @@
     </row>
     <row r="40" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D40" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E21Y</v>
+        <v>EUR_YCSTDRH_AB6E22Y</v>
       </c>
       <c r="E40" s="44">
         <f>_xll.qlRateHelperRate($D40)</f>
-        <v>2.4929999999999997E-2</v>
+        <v>2.6440000000000002E-2</v>
       </c>
       <c r="F40" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D40)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D40)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D40)),_xll.qlSwapRateHelperSpread($D40))</f>
@@ -11255,14 +11229,14 @@
       </c>
       <c r="G40" s="43">
         <f>_xll.qlRateHelperEarliestDate($D40)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H40" s="42">
         <f>_xll.qlRateHelperLatestDate($D40)</f>
-        <v>49331</v>
+        <v>49723</v>
       </c>
       <c r="I40" s="37">
-        <v>2.5569577225455348E-2</v>
+        <v>2.730654706511166E-2</v>
       </c>
       <c r="K40" s="92" t="s">
         <v>149</v>
@@ -11273,11 +11247,11 @@
     </row>
     <row r="41" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D41" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E22Y</v>
+        <v>EUR_YCSTDRH_AB6E23Y</v>
       </c>
       <c r="E41" s="44">
         <f>_xll.qlRateHelperRate($D41)</f>
-        <v>2.4980000000000002E-2</v>
+        <v>2.6520000000000002E-2</v>
       </c>
       <c r="F41" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D41)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D41)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D41)),_xll.qlSwapRateHelperSpread($D41))</f>
@@ -11285,14 +11259,14 @@
       </c>
       <c r="G41" s="43">
         <f>_xll.qlRateHelperEarliestDate($D41)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H41" s="42">
         <f>_xll.qlRateHelperLatestDate($D41)</f>
-        <v>49695</v>
+        <v>50089</v>
       </c>
       <c r="I41" s="37">
-        <v>2.5593861604973275E-2</v>
+        <v>2.7362623943207293E-2</v>
       </c>
       <c r="K41" s="92" t="s">
         <v>150</v>
@@ -11303,11 +11277,11 @@
     </row>
     <row r="42" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D42" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E23Y</v>
+        <v>EUR_YCSTDRH_AB6E24Y</v>
       </c>
       <c r="E42" s="44">
         <f>_xll.qlRateHelperRate($D42)</f>
-        <v>2.5009999999999998E-2</v>
+        <v>2.657E-2</v>
       </c>
       <c r="F42" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D42)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D42)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D42)),_xll.qlSwapRateHelperSpread($D42))</f>
@@ -11315,14 +11289,14 @@
       </c>
       <c r="G42" s="43">
         <f>_xll.qlRateHelperEarliestDate($D42)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H42" s="42">
         <f>_xll.qlRateHelperLatestDate($D42)</f>
-        <v>50061</v>
+        <v>50454</v>
       </c>
       <c r="I42" s="37">
-        <v>2.5591607357840541E-2</v>
+        <v>2.7384128395539602E-2</v>
       </c>
       <c r="K42" s="92" t="s">
         <v>151</v>
@@ -11333,11 +11307,11 @@
     </row>
     <row r="43" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D43" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E24Y</v>
+        <v>EUR_YCSTDRH_AB6E25Y</v>
       </c>
       <c r="E43" s="44">
         <f>_xll.qlRateHelperRate($D43)</f>
-        <v>2.5009999999999998E-2</v>
+        <v>2.6600000000000002E-2</v>
       </c>
       <c r="F43" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D43)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D43)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D43)),_xll.qlSwapRateHelperSpread($D43))</f>
@@ -11345,14 +11319,14 @@
       </c>
       <c r="G43" s="43">
         <f>_xll.qlRateHelperEarliestDate($D43)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H43" s="42">
         <f>_xll.qlRateHelperLatestDate($D43)</f>
-        <v>50426</v>
+        <v>50819</v>
       </c>
       <c r="I43" s="37">
-        <v>2.5554597992490252E-2</v>
+        <v>2.738092176724383E-2</v>
       </c>
       <c r="K43" s="92" t="s">
         <v>152</v>
@@ -11363,11 +11337,11 @@
     </row>
     <row r="44" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D44" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E25Y</v>
+        <v>EUR_YCSTDRH_AB6E26Y</v>
       </c>
       <c r="E44" s="44">
         <f>_xll.qlRateHelperRate($D44)</f>
-        <v>2.5009999999999998E-2</v>
+        <v>2.6610000000000002E-2</v>
       </c>
       <c r="F44" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D44)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D44)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D44)),_xll.qlSwapRateHelperSpread($D44))</f>
@@ -11375,14 +11349,14 @@
       </c>
       <c r="G44" s="43">
         <f>_xll.qlRateHelperEarliestDate($D44)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H44" s="42">
         <f>_xll.qlRateHelperLatestDate($D44)</f>
-        <v>50791</v>
+        <v>51186</v>
       </c>
       <c r="I44" s="37">
-        <v>2.5520546135693826E-2</v>
+        <v>2.7351928856931162E-2</v>
       </c>
       <c r="K44" s="92" t="s">
         <v>153</v>
@@ -11393,11 +11367,11 @@
     </row>
     <row r="45" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D45" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E26Y</v>
+        <v>EUR_YCSTDRH_AB6E27Y</v>
       </c>
       <c r="E45" s="44">
         <f>_xll.qlRateHelperRate($D45)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>2.6619999999999998E-2</v>
       </c>
       <c r="F45" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D45)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D45)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D45)),_xll.qlSwapRateHelperSpread($D45))</f>
@@ -11405,14 +11379,14 @@
       </c>
       <c r="G45" s="43">
         <f>_xll.qlRateHelperEarliestDate($D45)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H45" s="42">
         <f>_xll.qlRateHelperLatestDate($D45)</f>
-        <v>51158</v>
+        <v>51550</v>
       </c>
       <c r="I45" s="37">
-        <v>2.5474846950423805E-2</v>
+        <v>2.7323848458756673E-2</v>
       </c>
       <c r="K45" s="92" t="s">
         <v>154</v>
@@ -11423,11 +11397,11 @@
     </row>
     <row r="46" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D46" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E27Y</v>
+        <v>EUR_YCSTDRH_AB6E28Y</v>
       </c>
       <c r="E46" s="44">
         <f>_xll.qlRateHelperRate($D46)</f>
-        <v>2.4980000000000002E-2</v>
+        <v>2.6610000000000002E-2</v>
       </c>
       <c r="F46" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D46)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D46)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D46)),_xll.qlSwapRateHelperSpread($D46))</f>
@@ -11435,14 +11409,14 @@
       </c>
       <c r="G46" s="43">
         <f>_xll.qlRateHelperEarliestDate($D46)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H46" s="42">
         <f>_xll.qlRateHelperLatestDate($D46)</f>
-        <v>51522</v>
+        <v>51915</v>
       </c>
       <c r="I46" s="37">
-        <v>2.5414920272868333E-2</v>
+        <v>2.7271326747592615E-2</v>
       </c>
       <c r="K46" s="92" t="s">
         <v>155</v>
@@ -11453,11 +11427,11 @@
     </row>
     <row r="47" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D47" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E28Y</v>
+        <v>EUR_YCSTDRH_AB6E29Y</v>
       </c>
       <c r="E47" s="44">
         <f>_xll.qlRateHelperRate($D47)</f>
-        <v>2.495E-2</v>
+        <v>2.6600000000000002E-2</v>
       </c>
       <c r="F47" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D47)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D47)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D47)),_xll.qlSwapRateHelperSpread($D47))</f>
@@ -11465,14 +11439,14 @@
       </c>
       <c r="G47" s="43">
         <f>_xll.qlRateHelperEarliestDate($D47)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H47" s="42">
         <f>_xll.qlRateHelperLatestDate($D47)</f>
-        <v>51887</v>
+        <v>52280</v>
       </c>
       <c r="I47" s="37">
-        <v>2.5345119457884958E-2</v>
+        <v>2.7221373396644134E-2</v>
       </c>
       <c r="K47" s="92" t="s">
         <v>156</v>
@@ -11483,11 +11457,11 @@
     </row>
     <row r="48" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D48" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E29Y</v>
+        <v>EUR_YCSTDRH_AB6E30Y</v>
       </c>
       <c r="E48" s="44">
         <f>_xll.qlRateHelperRate($D48)</f>
-        <v>2.4939999999999997E-2</v>
+        <v>2.6600000000000002E-2</v>
       </c>
       <c r="F48" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D48)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D48)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D48)),_xll.qlSwapRateHelperSpread($D48))</f>
@@ -11495,14 +11469,14 @@
       </c>
       <c r="G48" s="43">
         <f>_xll.qlRateHelperEarliestDate($D48)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H48" s="42">
         <f>_xll.qlRateHelperLatestDate($D48)</f>
-        <v>52252</v>
+        <v>52645</v>
       </c>
       <c r="I48" s="37">
-        <v>2.5306341694501314E-2</v>
+        <v>2.7189105736473013E-2</v>
       </c>
       <c r="K48" s="92" t="s">
         <v>157</v>
@@ -11513,11 +11487,11 @@
     </row>
     <row r="49" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D49" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E30Y</v>
+        <v>EUR_YCSTDRH_AB6E35Y</v>
       </c>
       <c r="E49" s="44">
         <f>_xll.qlRateHelperRate($D49)</f>
-        <v>2.4929999999999997E-2</v>
+        <v>2.6680000000000002E-2</v>
       </c>
       <c r="F49" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D49)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D49)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D49)),_xll.qlSwapRateHelperSpread($D49))</f>
@@ -11525,14 +11499,14 @@
       </c>
       <c r="G49" s="43">
         <f>_xll.qlRateHelperEarliestDate($D49)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H49" s="42">
         <f>_xll.qlRateHelperLatestDate($D49)</f>
-        <v>52617</v>
+        <v>54472</v>
       </c>
       <c r="I49" s="37">
-        <v>2.5269150317287506E-2</v>
+        <v>2.7176626574851055E-2</v>
       </c>
       <c r="K49" s="92" t="s">
         <v>158</v>
@@ -11543,11 +11517,11 @@
     </row>
     <row r="50" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D50" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E35Y</v>
+        <v>EUR_YCSTDRH_AB6E40Y</v>
       </c>
       <c r="E50" s="44">
         <f>_xll.qlRateHelperRate($D50)</f>
-        <v>2.5070000000000002E-2</v>
+        <v>2.6840000000000003E-2</v>
       </c>
       <c r="F50" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D50)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D50)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D50)),_xll.qlSwapRateHelperSpread($D50))</f>
@@ -11555,14 +11529,14 @@
       </c>
       <c r="G50" s="43">
         <f>_xll.qlRateHelperEarliestDate($D50)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H50" s="42">
         <f>_xll.qlRateHelperLatestDate($D50)</f>
-        <v>54444</v>
+        <v>56298</v>
       </c>
       <c r="I50" s="37">
-        <v>2.5384793741738524E-2</v>
+        <v>2.734138859298773E-2</v>
       </c>
       <c r="K50" s="92" t="s">
         <v>159</v>
@@ -11573,11 +11547,11 @@
     </row>
     <row r="51" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D51" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E40Y</v>
+        <v>EUR_YCSTDRH_AB6E50Y</v>
       </c>
       <c r="E51" s="44">
         <f>_xll.qlRateHelperRate($D51)</f>
-        <v>2.5350000000000001E-2</v>
+        <v>2.7029999999999998E-2</v>
       </c>
       <c r="F51" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D51)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D51)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D51)),_xll.qlSwapRateHelperSpread($D51))</f>
@@ -11585,14 +11559,14 @@
       </c>
       <c r="G51" s="43">
         <f>_xll.qlRateHelperEarliestDate($D51)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H51" s="42">
         <f>_xll.qlRateHelperLatestDate($D51)</f>
-        <v>56270</v>
+        <v>59950</v>
       </c>
       <c r="I51" s="37">
-        <v>2.5763924382400969E-2</v>
+        <v>2.7524638662962595E-2</v>
       </c>
       <c r="K51" s="92" t="s">
         <v>160</v>
@@ -11603,11 +11577,11 @@
     </row>
     <row r="52" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D52" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E50Y</v>
+        <v>EUR_YCSTDRH_AB6E60Y</v>
       </c>
       <c r="E52" s="44">
         <f>_xll.qlRateHelperRate($D52)</f>
-        <v>2.579E-2</v>
+        <v>2.7160000000000004E-2</v>
       </c>
       <c r="F52" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D52)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D52)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D52)),_xll.qlSwapRateHelperSpread($D52))</f>
@@ -11615,14 +11589,14 @@
       </c>
       <c r="G52" s="43">
         <f>_xll.qlRateHelperEarliestDate($D52)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H52" s="42">
         <f>_xll.qlRateHelperLatestDate($D52)</f>
-        <v>59922</v>
+        <v>63604</v>
       </c>
       <c r="I52" s="37">
-        <v>2.6418871350085357E-2</v>
+        <v>2.7669946421969179E-2</v>
       </c>
       <c r="K52" s="92" t="s">
         <v>161</v>
@@ -11632,27 +11606,27 @@
       </c>
     </row>
     <row r="53" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D53" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E60Y</v>
-      </c>
-      <c r="E53" s="44">
+      <c r="D53" s="45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E53" s="44" t="e">
         <f>_xll.qlRateHelperRate($D53)</f>
-        <v>2.6099999999999998E-2</v>
-      </c>
-      <c r="F53" s="44">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F53" s="44" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D53)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D53)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D53)),_xll.qlSwapRateHelperSpread($D53))</f>
-        <v>0</v>
-      </c>
-      <c r="G53" s="43">
+        <v>--</v>
+      </c>
+      <c r="G53" s="43" t="e">
         <f>_xll.qlRateHelperEarliestDate($D53)</f>
-        <v>41660</v>
-      </c>
-      <c r="H53" s="42">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H53" s="42" t="e">
         <f>_xll.qlRateHelperLatestDate($D53)</f>
-        <v>63576</v>
-      </c>
-      <c r="I53" s="37">
-        <v>2.6937962617601851E-2</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I53" s="37" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K53" s="92" t="s">
         <v>162</v>
@@ -11788,8 +11762,8 @@
       <c r="I58" s="37" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K58" s="213"/>
-      <c r="L58" s="213"/>
+      <c r="K58" s="211"/>
+      <c r="L58" s="211"/>
     </row>
     <row r="59" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D59" s="45" t="e">
@@ -11814,8 +11788,8 @@
       <c r="I59" s="37" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K59" s="213"/>
-      <c r="L59" s="213"/>
+      <c r="K59" s="211"/>
+      <c r="L59" s="211"/>
     </row>
     <row r="60" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D60" s="45" t="e">
@@ -13521,7 +13495,7 @@
       </c>
       <c r="F3" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E3,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_OND#0000</v>
+        <v>EUR_YCSTDRH_OND#0002</v>
       </c>
       <c r="G3" s="109" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -13548,7 +13522,7 @@
       </c>
       <c r="F4" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_SWD#0000</v>
+        <v>EUR_YCSTDRH_SWD#0002</v>
       </c>
       <c r="G4" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -13557,7 +13531,7 @@
       <c r="H4" s="101"/>
       <c r="J4" s="97" t="str">
         <f>_xll.ohObjectCallerAddress(D4)</f>
-        <v>[EUR_Market.xlsm]Euribor!R8C7</v>
+        <v>[EUR_Market.xlsm]Euribor!R8C11</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -13579,7 +13553,7 @@
       </c>
       <c r="F5" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_2WD#0000</v>
+        <v>EUR_YCSTDRH_2WD#0002</v>
       </c>
       <c r="G5" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -13606,7 +13580,7 @@
       </c>
       <c r="F6" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_3WD#0000</v>
+        <v>EUR_YCSTDRH_3WD#0002</v>
       </c>
       <c r="G6" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -13633,7 +13607,7 @@
       </c>
       <c r="F7" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E7,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_1MD#0000</v>
+        <v>EUR_YCSTDRH_1MD#0002</v>
       </c>
       <c r="G7" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -13660,7 +13634,7 @@
       </c>
       <c r="F8" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E8,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_2MD#0000</v>
+        <v>EUR_YCSTDRH_2MD#0002</v>
       </c>
       <c r="G8" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -13687,7 +13661,7 @@
       </c>
       <c r="F9" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E9,D9,C9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_3MD#0000</v>
+        <v>EUR_YCSTDRH_3MD#0002</v>
       </c>
       <c r="G9" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -13714,7 +13688,7 @@
       </c>
       <c r="F10" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E10,D10,C10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_4MD#0000</v>
+        <v>EUR_YCSTDRH_4MD#0002</v>
       </c>
       <c r="G10" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -13741,7 +13715,7 @@
       </c>
       <c r="F11" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E11,D11,C11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_5MD#0000</v>
+        <v>EUR_YCSTDRH_5MD#0002</v>
       </c>
       <c r="G11" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -13768,7 +13742,7 @@
       </c>
       <c r="F12" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E12,D12,C12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_6MD#0000</v>
+        <v>EUR_YCSTDRH_6MD#0002</v>
       </c>
       <c r="G12" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -13795,7 +13769,7 @@
       </c>
       <c r="F13" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E13,D13,C13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_7MD#0000</v>
+        <v>EUR_YCSTDRH_7MD#0002</v>
       </c>
       <c r="G13" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -13822,7 +13796,7 @@
       </c>
       <c r="F14" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E14,D14,C14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_8MD#0000</v>
+        <v>EUR_YCSTDRH_8MD#0002</v>
       </c>
       <c r="G14" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -13849,7 +13823,7 @@
       </c>
       <c r="F15" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E15,D15,C15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_9MD#0000</v>
+        <v>EUR_YCSTDRH_9MD#0002</v>
       </c>
       <c r="G15" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -13876,7 +13850,7 @@
       </c>
       <c r="F16" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E16,D16,C16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_10MD#0000</v>
+        <v>EUR_YCSTDRH_10MD#0002</v>
       </c>
       <c r="G16" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -13903,7 +13877,7 @@
       </c>
       <c r="F17" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E17,D17,C17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_11MD#0000</v>
+        <v>EUR_YCSTDRH_11MD#0002</v>
       </c>
       <c r="G17" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -13930,7 +13904,7 @@
       </c>
       <c r="F18" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E18,D18,C18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_1YD#0000</v>
+        <v>EUR_YCSTDRH_1YD#0002</v>
       </c>
       <c r="G18" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -14044,7 +14018,7 @@
       </c>
       <c r="H3" s="151" t="str">
         <f>_xll.qlFraRateHelper(G3,F3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_TND#0000</v>
+        <v>EUR_YCSTDRH_TND#0001</v>
       </c>
       <c r="I3" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -14076,7 +14050,7 @@
       </c>
       <c r="H4" s="146" t="str">
         <f>_xll.qlFraRateHelper(G4,F4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_SND#0000</v>
+        <v>EUR_YCSTDRH_SND#0001</v>
       </c>
       <c r="I4" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -14215,7 +14189,7 @@
       </c>
       <c r="I3" s="179" t="str">
         <f>_xll.qlFuturesRateHelper(H3,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MG4#0000</v>
+        <v>EUR_YCSTDRH_FUT3MG4#0002</v>
       </c>
       <c r="J3" s="178" t="str">
         <f>_xll.ohRangeRetrieveError(I3)</f>
@@ -14253,7 +14227,7 @@
       </c>
       <c r="I4" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H4,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MH4#0000</v>
+        <v>EUR_YCSTDRH_FUT3MH4#0002</v>
       </c>
       <c r="J4" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I4)</f>
@@ -14291,7 +14265,7 @@
       </c>
       <c r="I5" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H5,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MJ4#0000</v>
+        <v>EUR_YCSTDRH_FUT3MJ4#0002</v>
       </c>
       <c r="J5" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
@@ -14329,7 +14303,7 @@
       </c>
       <c r="I6" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H6,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MK4#0000</v>
+        <v>EUR_YCSTDRH_FUT3MK4#0002</v>
       </c>
       <c r="J6" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
@@ -14367,7 +14341,7 @@
       </c>
       <c r="I7" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H7,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MM4#0000</v>
+        <v>EUR_YCSTDRH_FUT3MM4#0002</v>
       </c>
       <c r="J7" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
@@ -14405,7 +14379,7 @@
       </c>
       <c r="I8" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H8,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MN4#0000</v>
+        <v>EUR_YCSTDRH_FUT3MN4#0002</v>
       </c>
       <c r="J8" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
@@ -14443,7 +14417,7 @@
       </c>
       <c r="I9" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H9,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MQ4#0000</v>
+        <v>EUR_YCSTDRH_FUT3MQ4#0002</v>
       </c>
       <c r="J9" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
@@ -14481,7 +14455,7 @@
       </c>
       <c r="I10" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H10,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MU4#0000</v>
+        <v>EUR_YCSTDRH_FUT3MU4#0002</v>
       </c>
       <c r="J10" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
@@ -14519,7 +14493,7 @@
       </c>
       <c r="I11" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H11,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MV4#0000</v>
+        <v>EUR_YCSTDRH_FUT3MV4#0002</v>
       </c>
       <c r="J11" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I11)</f>
@@ -14557,7 +14531,7 @@
       </c>
       <c r="I12" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H12,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MX4#0000</v>
+        <v>EUR_YCSTDRH_FUT3MX4#0002</v>
       </c>
       <c r="J12" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I12)</f>
@@ -14595,7 +14569,7 @@
       </c>
       <c r="I13" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H13,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MZ4#0000</v>
+        <v>EUR_YCSTDRH_FUT3MZ4#0002</v>
       </c>
       <c r="J13" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I13)</f>
@@ -14633,7 +14607,7 @@
       </c>
       <c r="I14" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H14,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MF5#0000</v>
+        <v>EUR_YCSTDRH_FUT3MF5#0002</v>
       </c>
       <c r="J14" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I14)</f>
@@ -14709,7 +14683,7 @@
       </c>
       <c r="I16" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H16,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MH5#0000</v>
+        <v>EUR_YCSTDRH_FUT3MH5#0002</v>
       </c>
       <c r="J16" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I16)</f>
@@ -14823,7 +14797,7 @@
       </c>
       <c r="I19" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H19,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MM5#0000</v>
+        <v>EUR_YCSTDRH_FUT3MM5#0002</v>
       </c>
       <c r="J19" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I19)</f>
@@ -14937,7 +14911,7 @@
       </c>
       <c r="I22" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H22,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MU5#0000</v>
+        <v>EUR_YCSTDRH_FUT3MU5#0002</v>
       </c>
       <c r="J22" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I22)</f>
@@ -15051,7 +15025,7 @@
       </c>
       <c r="I25" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H25,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MZ5#0000</v>
+        <v>EUR_YCSTDRH_FUT3MZ5#0002</v>
       </c>
       <c r="J25" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I25)</f>
@@ -15165,7 +15139,7 @@
       </c>
       <c r="I28" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H28,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MH6#0000</v>
+        <v>EUR_YCSTDRH_FUT3MH6#0002</v>
       </c>
       <c r="J28" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I28)</f>
@@ -15279,7 +15253,7 @@
       </c>
       <c r="I31" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H31,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MM6#0000</v>
+        <v>EUR_YCSTDRH_FUT3MM6#0002</v>
       </c>
       <c r="J31" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I31)</f>
@@ -15393,7 +15367,7 @@
       </c>
       <c r="I34" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H34,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MU6#0000</v>
+        <v>EUR_YCSTDRH_FUT3MU6#0002</v>
       </c>
       <c r="J34" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I34)</f>
@@ -15507,7 +15481,7 @@
       </c>
       <c r="I37" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H37,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MZ6#0000</v>
+        <v>EUR_YCSTDRH_FUT3MZ6#0002</v>
       </c>
       <c r="J37" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I37)</f>
@@ -15621,7 +15595,7 @@
       </c>
       <c r="I40" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H40,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MH7#0000</v>
+        <v>EUR_YCSTDRH_FUT3MH7#0002</v>
       </c>
       <c r="J40" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I40)</f>
@@ -15732,7 +15706,7 @@
       </c>
       <c r="I43" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H43,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MM7#0000</v>
+        <v>EUR_YCSTDRH_FUT3MM7#0002</v>
       </c>
       <c r="J43" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I43)</f>
@@ -15843,7 +15817,7 @@
       </c>
       <c r="I46" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H46,$F46,$D46,$E46,$G46,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MU7#0000</v>
+        <v>EUR_YCSTDRH_FUT3MU7#0002</v>
       </c>
       <c r="J46" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I46)</f>
@@ -15954,7 +15928,7 @@
       </c>
       <c r="I49" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H49,$F49,$D49,$E49,$G49,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MZ7#0000</v>
+        <v>EUR_YCSTDRH_FUT3MZ7#0002</v>
       </c>
       <c r="J49" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I49)</f>
@@ -16065,7 +16039,7 @@
       </c>
       <c r="I52" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H52,$F52,$D52,$E52,$G52,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MH8#0000</v>
+        <v>EUR_YCSTDRH_FUT3MH8#0002</v>
       </c>
       <c r="J52" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I52)</f>
@@ -16176,7 +16150,7 @@
       </c>
       <c r="I55" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H55,$F55,$D55,$E55,$G55,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MM8#0000</v>
+        <v>EUR_YCSTDRH_FUT3MM8#0002</v>
       </c>
       <c r="J55" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I55)</f>
@@ -16287,7 +16261,7 @@
       </c>
       <c r="I58" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H58,$F58,$D58,$E58,$G58,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MU8#0000</v>
+        <v>EUR_YCSTDRH_FUT3MU8#0002</v>
       </c>
       <c r="J58" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I58)</f>
@@ -16398,7 +16372,7 @@
       </c>
       <c r="I61" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H61,$F61,$D61,$E61,$G61,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MZ8#0000</v>
+        <v>EUR_YCSTDRH_FUT3MZ8#0002</v>
       </c>
       <c r="J61" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I61)</f>
@@ -16509,7 +16483,7 @@
       </c>
       <c r="I64" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H64,$F64,$D64,$E64,$G64,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MH9#0000</v>
+        <v>EUR_YCSTDRH_FUT3MH9#0002</v>
       </c>
       <c r="J64" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I64)</f>
@@ -16620,7 +16594,7 @@
       </c>
       <c r="I67" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H67,$F67,$D67,$E67,$G67,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MM9#0000</v>
+        <v>EUR_YCSTDRH_FUT3MM9#0002</v>
       </c>
       <c r="J67" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I67)</f>
@@ -16731,7 +16705,7 @@
       </c>
       <c r="I70" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H70,$F70,$D70,$E70,$G70,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MU9#0000</v>
+        <v>EUR_YCSTDRH_FUT3MU9#0002</v>
       </c>
       <c r="J70" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I70)</f>
@@ -16842,7 +16816,7 @@
       </c>
       <c r="I73" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H73,$F73,$D73,$E73,$G73,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MZ9#0000</v>
+        <v>EUR_YCSTDRH_FUT3MZ9#0002</v>
       </c>
       <c r="J73" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I73)</f>
@@ -16953,7 +16927,7 @@
       </c>
       <c r="I76" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H76,$F76,$D76,$E76,$G76,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MH0#0000</v>
+        <v>EUR_YCSTDRH_FUT3MH0#0002</v>
       </c>
       <c r="J76" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I76)</f>
@@ -17064,7 +17038,7 @@
       </c>
       <c r="I79" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H79,$F79,$D79,$E79,$G79,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MM0#0000</v>
+        <v>EUR_YCSTDRH_FUT3MM0#0002</v>
       </c>
       <c r="J79" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I79)</f>
@@ -17175,7 +17149,7 @@
       </c>
       <c r="I82" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H82,$F82,$D82,$E82,$G82,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MU0#0000</v>
+        <v>EUR_YCSTDRH_FUT3MU0#0002</v>
       </c>
       <c r="J82" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I82)</f>
@@ -17286,7 +17260,7 @@
       </c>
       <c r="I85" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H85,$F85,$D85,$E85,$G85,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MZ0#0000</v>
+        <v>EUR_YCSTDRH_FUT3MZ0#0002</v>
       </c>
       <c r="J85" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I85)</f>
@@ -17397,7 +17371,7 @@
       </c>
       <c r="I88" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H88,$F88,$D88,$E88,$G88,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MH1#0000</v>
+        <v>EUR_YCSTDRH_FUT3MH1#0002</v>
       </c>
       <c r="J88" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I88)</f>
@@ -17508,7 +17482,7 @@
       </c>
       <c r="I91" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H91,$F91,$D91,$E91,$G91,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MM1#0000</v>
+        <v>EUR_YCSTDRH_FUT3MM1#0002</v>
       </c>
       <c r="J91" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I91)</f>
@@ -17619,7 +17593,7 @@
       </c>
       <c r="I94" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H94,$F94,$D94,$E94,$G94,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MU1#0000</v>
+        <v>EUR_YCSTDRH_FUT3MU1#0002</v>
       </c>
       <c r="J94" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I94)</f>
@@ -17730,7 +17704,7 @@
       </c>
       <c r="I97" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H97,$F97,$D97,$E97,$G97,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MZ1#0000</v>
+        <v>EUR_YCSTDRH_FUT3MZ1#0002</v>
       </c>
       <c r="J97" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I97)</f>
@@ -17841,7 +17815,7 @@
       </c>
       <c r="I100" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H100,$F100,$D100,$E100,$G100,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MH2#0000</v>
+        <v>EUR_YCSTDRH_FUT3MH2#0002</v>
       </c>
       <c r="J100" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I100)</f>
@@ -17952,7 +17926,7 @@
       </c>
       <c r="I103" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H103,$F103,$D103,$E103,$G103,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MM2#0000</v>
+        <v>EUR_YCSTDRH_FUT3MM2#0002</v>
       </c>
       <c r="J103" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I103)</f>
@@ -18805,7 +18779,7 @@
       </c>
       <c r="L4" s="203" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>EUR_YCSTDRH_AB6E_ibor6M#0000</v>
+        <v>EUR_YCSTDRH_AB6E_ibor6M#0002</v>
       </c>
       <c r="M4" s="202" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -18867,7 +18841,7 @@
       </c>
       <c r="L6" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E1Y#0000</v>
+        <v>EUR_YCSTDRH_AB6E1Y#0002</v>
       </c>
       <c r="M6" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -18917,7 +18891,7 @@
       </c>
       <c r="L7" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E15M#0000</v>
+        <v>EUR_YCSTDRH_AB6E15M#0002</v>
       </c>
       <c r="M7" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -18963,7 +18937,7 @@
       </c>
       <c r="L8" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E18M#0000</v>
+        <v>EUR_YCSTDRH_AB6E18M#0002</v>
       </c>
       <c r="M8" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -19009,7 +18983,7 @@
       </c>
       <c r="L9" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E21M#0000</v>
+        <v>EUR_YCSTDRH_AB6E21M#0002</v>
       </c>
       <c r="M9" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -19055,7 +19029,7 @@
       </c>
       <c r="L10" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E2Y#0000</v>
+        <v>EUR_YCSTDRH_AB6E2Y#0002</v>
       </c>
       <c r="M10" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -19101,7 +19075,7 @@
       </c>
       <c r="L11" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E3Y#0000</v>
+        <v>EUR_YCSTDRH_AB6E3Y#0002</v>
       </c>
       <c r="M11" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -19147,7 +19121,7 @@
       </c>
       <c r="L12" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E4Y#0000</v>
+        <v>EUR_YCSTDRH_AB6E4Y#0002</v>
       </c>
       <c r="M12" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -19193,7 +19167,7 @@
       </c>
       <c r="L13" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E5Y#0000</v>
+        <v>EUR_YCSTDRH_AB6E5Y#0002</v>
       </c>
       <c r="M13" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -19239,7 +19213,7 @@
       </c>
       <c r="L14" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E6Y#0000</v>
+        <v>EUR_YCSTDRH_AB6E6Y#0002</v>
       </c>
       <c r="M14" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -19285,7 +19259,7 @@
       </c>
       <c r="L15" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E7Y#0000</v>
+        <v>EUR_YCSTDRH_AB6E7Y#0002</v>
       </c>
       <c r="M15" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -19331,7 +19305,7 @@
       </c>
       <c r="L16" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E8Y#0000</v>
+        <v>EUR_YCSTDRH_AB6E8Y#0002</v>
       </c>
       <c r="M16" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -19377,7 +19351,7 @@
       </c>
       <c r="L17" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E9Y#0000</v>
+        <v>EUR_YCSTDRH_AB6E9Y#0002</v>
       </c>
       <c r="M17" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -19423,7 +19397,7 @@
       </c>
       <c r="L18" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E10Y#0000</v>
+        <v>EUR_YCSTDRH_AB6E10Y#0002</v>
       </c>
       <c r="M18" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -19469,7 +19443,7 @@
       </c>
       <c r="L19" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E11Y#0000</v>
+        <v>EUR_YCSTDRH_AB6E11Y#0002</v>
       </c>
       <c r="M19" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -19515,7 +19489,7 @@
       </c>
       <c r="L20" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E12Y#0000</v>
+        <v>EUR_YCSTDRH_AB6E12Y#0002</v>
       </c>
       <c r="M20" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -19561,7 +19535,7 @@
       </c>
       <c r="L21" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E13Y#0000</v>
+        <v>EUR_YCSTDRH_AB6E13Y#0002</v>
       </c>
       <c r="M21" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -19607,7 +19581,7 @@
       </c>
       <c r="L22" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E14Y#0000</v>
+        <v>EUR_YCSTDRH_AB6E14Y#0002</v>
       </c>
       <c r="M22" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -19653,7 +19627,7 @@
       </c>
       <c r="L23" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E15Y#0000</v>
+        <v>EUR_YCSTDRH_AB6E15Y#0002</v>
       </c>
       <c r="M23" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -19699,7 +19673,7 @@
       </c>
       <c r="L24" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E16Y#0000</v>
+        <v>EUR_YCSTDRH_AB6E16Y#0002</v>
       </c>
       <c r="M24" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -19745,7 +19719,7 @@
       </c>
       <c r="L25" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E17Y#0000</v>
+        <v>EUR_YCSTDRH_AB6E17Y#0002</v>
       </c>
       <c r="M25" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -19791,7 +19765,7 @@
       </c>
       <c r="L26" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E18Y#0000</v>
+        <v>EUR_YCSTDRH_AB6E18Y#0002</v>
       </c>
       <c r="M26" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -19837,7 +19811,7 @@
       </c>
       <c r="L27" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E19Y#0000</v>
+        <v>EUR_YCSTDRH_AB6E19Y#0002</v>
       </c>
       <c r="M27" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -19883,7 +19857,7 @@
       </c>
       <c r="L28" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E20Y#0000</v>
+        <v>EUR_YCSTDRH_AB6E20Y#0002</v>
       </c>
       <c r="M28" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -19929,7 +19903,7 @@
       </c>
       <c r="L29" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E21Y#0000</v>
+        <v>EUR_YCSTDRH_AB6E21Y#0002</v>
       </c>
       <c r="M29" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -19975,7 +19949,7 @@
       </c>
       <c r="L30" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E22Y#0000</v>
+        <v>EUR_YCSTDRH_AB6E22Y#0002</v>
       </c>
       <c r="M30" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -20021,7 +19995,7 @@
       </c>
       <c r="L31" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E23Y#0000</v>
+        <v>EUR_YCSTDRH_AB6E23Y#0002</v>
       </c>
       <c r="M31" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -20067,7 +20041,7 @@
       </c>
       <c r="L32" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E24Y#0000</v>
+        <v>EUR_YCSTDRH_AB6E24Y#0002</v>
       </c>
       <c r="M32" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -20113,7 +20087,7 @@
       </c>
       <c r="L33" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E25Y#0000</v>
+        <v>EUR_YCSTDRH_AB6E25Y#0002</v>
       </c>
       <c r="M33" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -20159,7 +20133,7 @@
       </c>
       <c r="L34" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E26Y#0000</v>
+        <v>EUR_YCSTDRH_AB6E26Y#0002</v>
       </c>
       <c r="M34" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -20205,7 +20179,7 @@
       </c>
       <c r="L35" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E27Y#0000</v>
+        <v>EUR_YCSTDRH_AB6E27Y#0002</v>
       </c>
       <c r="M35" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -20251,7 +20225,7 @@
       </c>
       <c r="L36" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E28Y#0000</v>
+        <v>EUR_YCSTDRH_AB6E28Y#0002</v>
       </c>
       <c r="M36" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -20297,7 +20271,7 @@
       </c>
       <c r="L37" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E29Y#0000</v>
+        <v>EUR_YCSTDRH_AB6E29Y#0002</v>
       </c>
       <c r="M37" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -20343,7 +20317,7 @@
       </c>
       <c r="L38" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E30Y#0000</v>
+        <v>EUR_YCSTDRH_AB6E30Y#0002</v>
       </c>
       <c r="M38" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -20389,7 +20363,7 @@
       </c>
       <c r="L39" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E35Y#0000</v>
+        <v>EUR_YCSTDRH_AB6E35Y#0002</v>
       </c>
       <c r="M39" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -20435,7 +20409,7 @@
       </c>
       <c r="L40" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E40Y#0000</v>
+        <v>EUR_YCSTDRH_AB6E40Y#0002</v>
       </c>
       <c r="M40" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -20481,7 +20455,7 @@
       </c>
       <c r="L41" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E50Y#0000</v>
+        <v>EUR_YCSTDRH_AB6E50Y#0002</v>
       </c>
       <c r="M41" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -20527,7 +20501,7 @@
       </c>
       <c r="L42" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E60Y#0000</v>
+        <v>EUR_YCSTDRH_AB6E60Y#0002</v>
       </c>
       <c r="M42" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>

--- a/QuantLibXL/Data2/XLS/EUR_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR_YCSTDBootstrapping.xlsx
@@ -216,7 +216,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="147">
   <si>
     <t>60Y</t>
   </si>
@@ -515,156 +515,6 @@
     <t>General Settings</t>
   </si>
   <si>
-    <t>EUR_YCSTDRH_OND</t>
-  </si>
-  <si>
-    <t>EUR_YCSTDRH_TND</t>
-  </si>
-  <si>
-    <t>EUR_YCSTDRH_SND</t>
-  </si>
-  <si>
-    <t>EUR_YCSTDRH_SWD</t>
-  </si>
-  <si>
-    <t>EUR_YCSTDRH_2WD</t>
-  </si>
-  <si>
-    <t>EUR_YCSTDRH_3WD</t>
-  </si>
-  <si>
-    <t>EUR_YCSTDRH_1MD</t>
-  </si>
-  <si>
-    <t>EUR_YCSTDRH_2MD</t>
-  </si>
-  <si>
-    <t>EUR_YCSTDRH_3MD</t>
-  </si>
-  <si>
-    <t>EUR_YCSTDRH_4MD</t>
-  </si>
-  <si>
-    <t>EUR_YCSTDRH_5MD</t>
-  </si>
-  <si>
-    <t>EUR_YCSTDRH_6MD</t>
-  </si>
-  <si>
-    <t>EUR_YCSTDRH_7MD</t>
-  </si>
-  <si>
-    <t>EUR_YCSTDRH_8MD</t>
-  </si>
-  <si>
-    <t>EUR_YCSTDRH_FUT3MH5</t>
-  </si>
-  <si>
-    <t>EUR_YCSTDRH_FUT3MM5</t>
-  </si>
-  <si>
-    <t>EUR_YCSTDRH_FUT3MU5</t>
-  </si>
-  <si>
-    <t>EUR_YCSTDRH_FUT3MZ5</t>
-  </si>
-  <si>
-    <t>EUR_YCSTDRH_AB6E3Y</t>
-  </si>
-  <si>
-    <t>EUR_YCSTDRH_AB6E4Y</t>
-  </si>
-  <si>
-    <t>EUR_YCSTDRH_AB6E5Y</t>
-  </si>
-  <si>
-    <t>EUR_YCSTDRH_AB6E6Y</t>
-  </si>
-  <si>
-    <t>EUR_YCSTDRH_AB6E7Y</t>
-  </si>
-  <si>
-    <t>EUR_YCSTDRH_AB6E8Y</t>
-  </si>
-  <si>
-    <t>EUR_YCSTDRH_AB6E9Y</t>
-  </si>
-  <si>
-    <t>EUR_YCSTDRH_AB6E10Y</t>
-  </si>
-  <si>
-    <t>EUR_YCSTDRH_AB6E11Y</t>
-  </si>
-  <si>
-    <t>EUR_YCSTDRH_AB6E12Y</t>
-  </si>
-  <si>
-    <t>EUR_YCSTDRH_AB6E13Y</t>
-  </si>
-  <si>
-    <t>EUR_YCSTDRH_AB6E14Y</t>
-  </si>
-  <si>
-    <t>EUR_YCSTDRH_AB6E15Y</t>
-  </si>
-  <si>
-    <t>EUR_YCSTDRH_AB6E16Y</t>
-  </si>
-  <si>
-    <t>EUR_YCSTDRH_AB6E17Y</t>
-  </si>
-  <si>
-    <t>EUR_YCSTDRH_AB6E18Y</t>
-  </si>
-  <si>
-    <t>EUR_YCSTDRH_AB6E19Y</t>
-  </si>
-  <si>
-    <t>EUR_YCSTDRH_AB6E20Y</t>
-  </si>
-  <si>
-    <t>EUR_YCSTDRH_AB6E21Y</t>
-  </si>
-  <si>
-    <t>EUR_YCSTDRH_AB6E22Y</t>
-  </si>
-  <si>
-    <t>EUR_YCSTDRH_AB6E23Y</t>
-  </si>
-  <si>
-    <t>EUR_YCSTDRH_AB6E24Y</t>
-  </si>
-  <si>
-    <t>EUR_YCSTDRH_AB6E25Y</t>
-  </si>
-  <si>
-    <t>EUR_YCSTDRH_AB6E26Y</t>
-  </si>
-  <si>
-    <t>EUR_YCSTDRH_AB6E27Y</t>
-  </si>
-  <si>
-    <t>EUR_YCSTDRH_AB6E28Y</t>
-  </si>
-  <si>
-    <t>EUR_YCSTDRH_AB6E29Y</t>
-  </si>
-  <si>
-    <t>EUR_YCSTDRH_AB6E30Y</t>
-  </si>
-  <si>
-    <t>EUR_YCSTDRH_AB6E35Y</t>
-  </si>
-  <si>
-    <t>EUR_YCSTDRH_AB6E40Y</t>
-  </si>
-  <si>
-    <t>EUR_YCSTDRH_AB6E50Y</t>
-  </si>
-  <si>
-    <t>EUR_YCSTDRH_AB6E60Y</t>
-  </si>
-  <si>
     <t>9M</t>
   </si>
   <si>
@@ -804,12 +654,6 @@
   </si>
   <si>
     <t>EUR_YCRH_Swaps</t>
-  </si>
-  <si>
-    <t>EUR_YCSTDRH_FUT3MU4</t>
-  </si>
-  <si>
-    <t>EUR_YCSTDRH_FUT3MZ4</t>
   </si>
   <si>
     <t>EURSTD</t>
@@ -2315,7 +2159,7 @@
       <c r="E2" s="216"/>
       <c r="F2" s="217"/>
       <c r="H2" s="215" t="s">
-        <v>169</v>
+        <v>119</v>
       </c>
       <c r="I2" s="216"/>
       <c r="J2" s="216"/>
@@ -2344,7 +2188,7 @@
       <c r="F4" s="60"/>
       <c r="H4" s="133"/>
       <c r="I4" s="132" t="s">
-        <v>168</v>
+        <v>118</v>
       </c>
       <c r="J4" s="126" t="b">
         <v>1</v>
@@ -2363,7 +2207,7 @@
       <c r="F5" s="60"/>
       <c r="H5" s="133"/>
       <c r="I5" s="132" t="s">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="J5" s="134" t="str">
         <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
@@ -2384,7 +2228,7 @@
       <c r="F6" s="60"/>
       <c r="H6" s="133"/>
       <c r="I6" s="132" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="J6" s="123" t="b">
         <v>1</v>
@@ -2433,7 +2277,7 @@
       <c r="E9" s="61"/>
       <c r="F9" s="60"/>
       <c r="H9" s="215" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="I9" s="216"/>
       <c r="J9" s="216"/>
@@ -2464,10 +2308,10 @@
       <c r="F11" s="60"/>
       <c r="H11" s="125"/>
       <c r="I11" s="124" t="s">
-        <v>164</v>
+        <v>114</v>
       </c>
       <c r="J11" s="126" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="K11" s="122"/>
     </row>
@@ -2483,10 +2327,10 @@
       <c r="F12" s="60"/>
       <c r="H12" s="125"/>
       <c r="I12" s="124" t="s">
-        <v>162</v>
+        <v>112</v>
       </c>
       <c r="J12" s="123" t="s">
-        <v>161</v>
+        <v>111</v>
       </c>
       <c r="K12" s="122"/>
     </row>
@@ -2498,7 +2342,7 @@
       <c r="F13" s="60"/>
       <c r="H13" s="125"/>
       <c r="I13" s="124" t="s">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="J13" s="126" t="str">
         <f>PROPER(Currency)&amp;"YC"</f>
@@ -2513,13 +2357,13 @@
       </c>
       <c r="D14" s="81" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_EURYCSTD#0002</v>
+        <v>_EURYCSTD#0006</v>
       </c>
       <c r="E14" s="61"/>
       <c r="F14" s="60"/>
       <c r="H14" s="125"/>
       <c r="I14" s="124" t="s">
-        <v>189</v>
+        <v>139</v>
       </c>
       <c r="J14" s="126" t="str">
         <f>PROPER(Currency)&amp;"YCSTD"</f>
@@ -2540,10 +2384,10 @@
       <c r="F15" s="60"/>
       <c r="H15" s="207"/>
       <c r="I15" s="208" t="s">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="J15" s="209" t="s">
-        <v>192</v>
+        <v>142</v>
       </c>
       <c r="K15" s="210"/>
     </row>
@@ -2562,10 +2406,10 @@
       <c r="F16" s="60"/>
       <c r="H16" s="207"/>
       <c r="I16" s="208" t="s">
-        <v>193</v>
+        <v>143</v>
       </c>
       <c r="J16" s="209" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="K16" s="210"/>
     </row>
@@ -2641,7 +2485,7 @@
       </c>
       <c r="D23" s="67">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
-        <v>2.5733868722344396E-2</v>
+        <v>2.5793399729359772E-2</v>
       </c>
       <c r="E23" s="61"/>
       <c r="F23" s="60"/>
@@ -2654,7 +2498,7 @@
       </c>
       <c r="D24" s="65">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>1.520830164926483E-3</v>
+        <v>1.3180531757461815E-3</v>
       </c>
       <c r="E24" s="61"/>
       <c r="F24" s="60"/>
@@ -2674,7 +2518,7 @@
     <row r="26" spans="2:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="59"/>
       <c r="C26" s="58" t="s">
-        <v>198</v>
+        <v>146</v>
       </c>
       <c r="D26" s="58" t="b">
         <f>_xll.qlRelinkableHandleLinkTo(C26,YieldCurve)</f>
@@ -2725,7 +2569,7 @@
   <dimension ref="A1:R166"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2791,7 +2635,7 @@
       </c>
       <c r="F2" s="13">
         <f>_xll.qlRateHelperQuoteValue($E2,Trigger)</f>
-        <v>1.5E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="12" t="b">
@@ -2861,7 +2705,7 @@
       </c>
       <c r="F4" s="13">
         <f>_xll.qlRateHelperQuoteValue($E4,Trigger)</f>
-        <v>1.8E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12" t="b">
@@ -3130,11 +2974,11 @@
       </c>
       <c r="O11" s="29">
         <f>_xll.qlYieldTSForwardRate(YieldCurve,K2,L124,"act/365","simple","annual")</f>
-        <v>3.7630918750955818E-2</v>
+        <v>3.7670999009817858E-2</v>
       </c>
       <c r="Q11" s="31">
         <f>_xll.qlYieldTSDiscount(YieldCurve,L124)</f>
-        <v>0.47812509770083361</v>
+        <v>0.47785948287253094</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
@@ -3210,7 +3054,7 @@
       </c>
       <c r="Q13" s="31">
         <f>1/Q11</f>
-        <v>2.0915028405927925</v>
+        <v>2.0926653877176484</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
@@ -3298,11 +3142,11 @@
       </c>
       <c r="Q15" s="29">
         <f>(Q13^(1/Q14))-1</f>
-        <v>2.5748531871447433E-2</v>
+        <v>2.5768170420287451E-2</v>
       </c>
       <c r="R15" s="29">
         <f>(Q13-1)/Q14</f>
-        <v>3.7606054069885715E-2</v>
+        <v>3.7646107845661851E-2</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
@@ -4012,7 +3856,7 @@
       </c>
       <c r="F34" s="28">
         <f>_xll.qlRateHelperQuoteValue($E34,Trigger)</f>
-        <v>99.747500000000002</v>
+        <v>99.75</v>
       </c>
       <c r="G34" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E34,Trigger)</f>
@@ -4054,7 +3898,7 @@
       </c>
       <c r="F35" s="28">
         <f>_xll.qlRateHelperQuoteValue($E35,Trigger)</f>
-        <v>99.757499999999993</v>
+        <v>99.754999999999995</v>
       </c>
       <c r="G35" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E35,Trigger)</f>
@@ -4096,7 +3940,7 @@
       </c>
       <c r="F36" s="28">
         <f>_xll.qlRateHelperQuoteValue($E36,Trigger)</f>
-        <v>99.752499999999998</v>
+        <v>99.757499999999993</v>
       </c>
       <c r="G36" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E36,Trigger)</f>
@@ -4222,14 +4066,14 @@
       </c>
       <c r="F39" s="28">
         <f>_xll.qlRateHelperQuoteValue($E39,Trigger)</f>
-        <v>99.747500000000002</v>
+        <v>99.752499999999998</v>
       </c>
       <c r="G39" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E39,Trigger)</f>
         <v>0</v>
       </c>
       <c r="H39" s="212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="12">
         <v>60</v>
@@ -4313,7 +4157,7 @@
         <v>#NUM!</v>
       </c>
       <c r="H41" s="212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" s="12">
         <v>60</v>
@@ -4348,14 +4192,14 @@
       </c>
       <c r="F42" s="28">
         <f>_xll.qlRateHelperQuoteValue($E42,Trigger)</f>
-        <v>99.727499999999992</v>
+        <v>99.732500000000002</v>
       </c>
       <c r="G42" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E42,Trigger)</f>
         <v>0</v>
       </c>
       <c r="H42" s="212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" s="12">
         <v>60</v>
@@ -4439,7 +4283,7 @@
         <v>#NUM!</v>
       </c>
       <c r="H44" s="212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" s="12">
         <v>60</v>
@@ -4474,7 +4318,7 @@
       </c>
       <c r="F45" s="28">
         <f>_xll.qlRateHelperQuoteValue($E45,Trigger)</f>
-        <v>99.697499999999991</v>
+        <v>99.702500000000001</v>
       </c>
       <c r="G45" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E45,Trigger)</f>
@@ -4516,13 +4360,13 @@
       </c>
       <c r="F46" s="28">
         <f>_xll.qlRateHelperQuoteValue($E46,Trigger)</f>
-        <v>99.657499999999999</v>
+        <v>99.662499999999994</v>
       </c>
       <c r="G46" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E46,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="H46" s="12" t="b">
+      <c r="H46" s="212" t="b">
         <v>1</v>
       </c>
       <c r="I46" s="12">
@@ -4558,13 +4402,13 @@
       </c>
       <c r="F47" s="28">
         <f>_xll.qlRateHelperQuoteValue($E47,Trigger)</f>
-        <v>99.602499999999992</v>
+        <v>99.607500000000002</v>
       </c>
       <c r="G47" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E47,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="H47" s="12" t="b">
+      <c r="H47" s="212" t="b">
         <v>1</v>
       </c>
       <c r="I47" s="12">
@@ -4600,13 +4444,13 @@
       </c>
       <c r="F48" s="28">
         <f>_xll.qlRateHelperQuoteValue($E48,Trigger)</f>
-        <v>99.527500000000003</v>
+        <v>99.537499999999994</v>
       </c>
       <c r="G48" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E48,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="H48" s="12" t="b">
+      <c r="H48" s="212" t="b">
         <v>1</v>
       </c>
       <c r="I48" s="12">
@@ -4642,13 +4486,13 @@
       </c>
       <c r="F49" s="28">
         <f>_xll.qlRateHelperQuoteValue($E49,Trigger)</f>
-        <v>99.4375</v>
+        <v>99.442499999999995</v>
       </c>
       <c r="G49" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E49,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="H49" s="12" t="b">
+      <c r="H49" s="212" t="b">
         <v>1</v>
       </c>
       <c r="I49" s="12">
@@ -4684,13 +4528,13 @@
       </c>
       <c r="F50" s="28">
         <f>_xll.qlRateHelperQuoteValue($E50,Trigger)</f>
-        <v>99.327500000000001</v>
+        <v>99.337500000000006</v>
       </c>
       <c r="G50" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E50,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="H50" s="12" t="b">
+      <c r="H50" s="212" t="b">
         <v>1</v>
       </c>
       <c r="I50" s="12">
@@ -4726,13 +4570,13 @@
       </c>
       <c r="F51" s="28">
         <f>_xll.qlRateHelperQuoteValue($E51,Trigger)</f>
-        <v>99.197499999999991</v>
+        <v>99.207499999999996</v>
       </c>
       <c r="G51" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E51,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="H51" s="12" t="b">
+      <c r="H51" s="212" t="b">
         <v>1</v>
       </c>
       <c r="I51" s="12">
@@ -4768,7 +4612,7 @@
       </c>
       <c r="F52" s="28">
         <f>_xll.qlRateHelperQuoteValue($E52,Trigger)</f>
-        <v>99.064999999999998</v>
+        <v>99.072499999999991</v>
       </c>
       <c r="G52" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E52,Trigger)</f>
@@ -4810,7 +4654,7 @@
       </c>
       <c r="F53" s="28">
         <f>_xll.qlRateHelperQuoteValue($E53,Trigger)</f>
-        <v>98.9375</v>
+        <v>98.947499999999991</v>
       </c>
       <c r="G53" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E53,Trigger)</f>
@@ -4852,7 +4696,7 @@
       </c>
       <c r="F54" s="28">
         <f>_xll.qlRateHelperQuoteValue($E54,Trigger)</f>
-        <v>98.802500000000009</v>
+        <v>98.814999999999998</v>
       </c>
       <c r="G54" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E54,Trigger)</f>
@@ -4894,7 +4738,7 @@
       </c>
       <c r="F55" s="28">
         <f>_xll.qlRateHelperQuoteValue($E55,Trigger)</f>
-        <v>98.677500000000009</v>
+        <v>98.69</v>
       </c>
       <c r="G55" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E55,Trigger)</f>
@@ -4936,7 +4780,7 @@
       </c>
       <c r="F56" s="28">
         <f>_xll.qlRateHelperQuoteValue($E56,Trigger)</f>
-        <v>98.552500000000009</v>
+        <v>98.567499999999995</v>
       </c>
       <c r="G56" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E56,Trigger)</f>
@@ -4978,7 +4822,7 @@
       </c>
       <c r="F57" s="28">
         <f>_xll.qlRateHelperQuoteValue($E57,Trigger)</f>
-        <v>98.444999999999993</v>
+        <v>98.460000000000008</v>
       </c>
       <c r="G57" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E57,Trigger)</f>
@@ -5020,7 +4864,7 @@
       </c>
       <c r="F58" s="28">
         <f>_xll.qlRateHelperQuoteValue($E58,Trigger)</f>
-        <v>98.337500000000006</v>
+        <v>98.35</v>
       </c>
       <c r="G58" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E58,Trigger)</f>
@@ -5062,7 +4906,7 @@
       </c>
       <c r="F59" s="28">
         <f>_xll.qlRateHelperQuoteValue($E59,Trigger)</f>
-        <v>98.234999999999999</v>
+        <v>98.247500000000002</v>
       </c>
       <c r="G59" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E59,Trigger)</f>
@@ -5104,7 +4948,7 @@
       </c>
       <c r="F60" s="28">
         <f>_xll.qlRateHelperQuoteValue($E60,Trigger)</f>
-        <v>98.12</v>
+        <v>98.127499999999998</v>
       </c>
       <c r="G60" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E60,Trigger)</f>
@@ -5146,7 +4990,7 @@
       </c>
       <c r="F61" s="28">
         <f>_xll.qlRateHelperQuoteValue($E61,Trigger)</f>
-        <v>98.012500000000003</v>
+        <v>98.022500000000008</v>
       </c>
       <c r="G61" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E61,Trigger)</f>
@@ -5188,7 +5032,7 @@
       </c>
       <c r="F62" s="28">
         <f>_xll.qlRateHelperQuoteValue($E62,Trigger)</f>
-        <v>97.914999999999992</v>
+        <v>97.92</v>
       </c>
       <c r="G62" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E62,Trigger)</f>
@@ -5230,7 +5074,7 @@
       </c>
       <c r="F63" s="28">
         <f>_xll.qlRateHelperQuoteValue($E63,Trigger)</f>
-        <v>97.814999999999998</v>
+        <v>97.82</v>
       </c>
       <c r="G63" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E63,Trigger)</f>
@@ -5272,7 +5116,7 @@
       </c>
       <c r="F64" s="28">
         <f>_xll.qlRateHelperQuoteValue($E64,Trigger)</f>
-        <v>97.715000000000003</v>
+        <v>97.72</v>
       </c>
       <c r="G64" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E64,Trigger)</f>
@@ -6421,7 +6265,7 @@
       </c>
       <c r="F93" s="13">
         <f>_xll.qlRateHelperQuoteValue($E93,Trigger)</f>
-        <v>3.8500000000000001E-3</v>
+        <v>3.81E-3</v>
       </c>
       <c r="G93" s="13">
         <f>_xll.qlSwapRateHelperSpread($E93,Trigger)</f>
@@ -6467,7 +6311,7 @@
       </c>
       <c r="F94" s="13">
         <f>_xll.qlRateHelperQuoteValue($E94,Trigger)</f>
-        <v>3.7000000000000002E-3</v>
+        <v>3.64E-3</v>
       </c>
       <c r="G94" s="13">
         <f>_xll.qlSwapRateHelperSpread($E94,Trigger)</f>
@@ -6513,7 +6357,7 @@
       </c>
       <c r="F95" s="13">
         <f>_xll.qlRateHelperQuoteValue($E95,Trigger)</f>
-        <v>4.1200000000000004E-3</v>
+        <v>4.0600000000000002E-3</v>
       </c>
       <c r="G95" s="13">
         <f>_xll.qlSwapRateHelperSpread($E95,Trigger)</f>
@@ -6559,7 +6403,7 @@
       </c>
       <c r="F96" s="13">
         <f>_xll.qlRateHelperQuoteValue($E96,Trigger)</f>
-        <v>4.1099999999999999E-3</v>
+        <v>4.0400000000000002E-3</v>
       </c>
       <c r="G96" s="13">
         <f>_xll.qlSwapRateHelperSpread($E96,Trigger)</f>
@@ -6605,7 +6449,7 @@
       </c>
       <c r="F97" s="13">
         <f>_xll.qlRateHelperQuoteValue($E97,Trigger)</f>
-        <v>4.5199999999999997E-3</v>
+        <v>4.4600000000000004E-3</v>
       </c>
       <c r="G97" s="13">
         <f>_xll.qlSwapRateHelperSpread($E97,Trigger)</f>
@@ -6651,7 +6495,7 @@
       </c>
       <c r="F98" s="13">
         <f>_xll.qlRateHelperQuoteValue($E98,Trigger)</f>
-        <v>5.9699999999999996E-3</v>
+        <v>5.8899999999999994E-3</v>
       </c>
       <c r="G98" s="13">
         <f>_xll.qlSwapRateHelperSpread($E98,Trigger)</f>
@@ -6697,7 +6541,7 @@
       </c>
       <c r="F99" s="13">
         <f>_xll.qlRateHelperQuoteValue($E99,Trigger)</f>
-        <v>7.9000000000000008E-3</v>
+        <v>7.8100000000000001E-3</v>
       </c>
       <c r="G99" s="13">
         <f>_xll.qlSwapRateHelperSpread($E99,Trigger)</f>
@@ -6743,7 +6587,7 @@
       </c>
       <c r="F100" s="13">
         <f>_xll.qlRateHelperQuoteValue($E100,Trigger)</f>
-        <v>9.9299999999999996E-3</v>
+        <v>9.8399999999999998E-3</v>
       </c>
       <c r="G100" s="13">
         <f>_xll.qlSwapRateHelperSpread($E100,Trigger)</f>
@@ -6789,7 +6633,7 @@
       </c>
       <c r="F101" s="13">
         <f>_xll.qlRateHelperQuoteValue($E101,Trigger)</f>
-        <v>1.191E-2</v>
+        <v>1.183E-2</v>
       </c>
       <c r="G101" s="13">
         <f>_xll.qlSwapRateHelperSpread($E101,Trigger)</f>
@@ -6835,7 +6679,7 @@
       </c>
       <c r="F102" s="13">
         <f>_xll.qlRateHelperQuoteValue($E102,Trigger)</f>
-        <v>1.376E-2</v>
+        <v>1.37E-2</v>
       </c>
       <c r="G102" s="13">
         <f>_xll.qlSwapRateHelperSpread($E102,Trigger)</f>
@@ -6881,7 +6725,7 @@
       </c>
       <c r="F103" s="13">
         <f>_xll.qlRateHelperQuoteValue($E103,Trigger)</f>
-        <v>1.5449999999999998E-2</v>
+        <v>1.541E-2</v>
       </c>
       <c r="G103" s="13">
         <f>_xll.qlSwapRateHelperSpread($E103,Trigger)</f>
@@ -6927,7 +6771,7 @@
       </c>
       <c r="F104" s="13">
         <f>_xll.qlRateHelperQuoteValue($E104,Trigger)</f>
-        <v>1.6969999999999999E-2</v>
+        <v>1.695E-2</v>
       </c>
       <c r="G104" s="13">
         <f>_xll.qlSwapRateHelperSpread($E104,Trigger)</f>
@@ -6973,7 +6817,7 @@
       </c>
       <c r="F105" s="13">
         <f>_xll.qlRateHelperQuoteValue($E105,Trigger)</f>
-        <v>1.8340000000000002E-2</v>
+        <v>1.8319999999999999E-2</v>
       </c>
       <c r="G105" s="13">
         <f>_xll.qlSwapRateHelperSpread($E105,Trigger)</f>
@@ -7019,7 +6863,7 @@
       </c>
       <c r="F106" s="13">
         <f>_xll.qlRateHelperQuoteValue($E106,Trigger)</f>
-        <v>1.9530000000000002E-2</v>
+        <v>1.951E-2</v>
       </c>
       <c r="G106" s="13">
         <f>_xll.qlSwapRateHelperSpread($E106,Trigger)</f>
@@ -7157,7 +7001,7 @@
       </c>
       <c r="F109" s="13">
         <f>_xll.qlRateHelperQuoteValue($E109,Trigger)</f>
-        <v>2.2160000000000003E-2</v>
+        <v>2.2170000000000002E-2</v>
       </c>
       <c r="G109" s="13">
         <f>_xll.qlSwapRateHelperSpread($E109,Trigger)</f>
@@ -7203,7 +7047,7 @@
       </c>
       <c r="F110" s="13">
         <f>_xll.qlRateHelperQuoteValue($E110,Trigger)</f>
-        <v>2.2759999999999999E-2</v>
+        <v>2.2770000000000002E-2</v>
       </c>
       <c r="G110" s="13">
         <f>_xll.qlSwapRateHelperSpread($E110,Trigger)</f>
@@ -7249,7 +7093,7 @@
       </c>
       <c r="F111" s="13">
         <f>_xll.qlRateHelperQuoteValue($E111,Trigger)</f>
-        <v>2.3239999999999997E-2</v>
+        <v>2.3250000000000003E-2</v>
       </c>
       <c r="G111" s="13">
         <f>_xll.qlSwapRateHelperSpread($E111,Trigger)</f>
@@ -7295,7 +7139,7 @@
       </c>
       <c r="F112" s="13">
         <f>_xll.qlRateHelperQuoteValue($E112,Trigger)</f>
-        <v>2.3620000000000002E-2</v>
+        <v>2.3629999999999998E-2</v>
       </c>
       <c r="G112" s="13">
         <f>_xll.qlSwapRateHelperSpread($E112,Trigger)</f>
@@ -7341,7 +7185,7 @@
       </c>
       <c r="F113" s="13">
         <f>_xll.qlRateHelperQuoteValue($E113,Trigger)</f>
-        <v>2.392E-2</v>
+        <v>2.3929999999999996E-2</v>
       </c>
       <c r="G113" s="13">
         <f>_xll.qlSwapRateHelperSpread($E113,Trigger)</f>
@@ -7387,7 +7231,7 @@
       </c>
       <c r="F114" s="13">
         <f>_xll.qlRateHelperQuoteValue($E114,Trigger)</f>
-        <v>2.4140000000000002E-2</v>
+        <v>2.4150000000000001E-2</v>
       </c>
       <c r="G114" s="13">
         <f>_xll.qlSwapRateHelperSpread($E114,Trigger)</f>
@@ -7433,7 +7277,7 @@
       </c>
       <c r="F115" s="13">
         <f>_xll.qlRateHelperQuoteValue($E115,Trigger)</f>
-        <v>2.4310000000000002E-2</v>
+        <v>2.4319999999999998E-2</v>
       </c>
       <c r="G115" s="13">
         <f>_xll.qlSwapRateHelperSpread($E115,Trigger)</f>
@@ -7479,7 +7323,7 @@
       </c>
       <c r="F116" s="13">
         <f>_xll.qlRateHelperQuoteValue($E116,Trigger)</f>
-        <v>2.445E-2</v>
+        <v>2.4460000000000003E-2</v>
       </c>
       <c r="G116" s="13">
         <f>_xll.qlSwapRateHelperSpread($E116,Trigger)</f>
@@ -7525,7 +7369,7 @@
       </c>
       <c r="F117" s="13">
         <f>_xll.qlRateHelperQuoteValue($E117,Trigger)</f>
-        <v>2.4569999999999998E-2</v>
+        <v>2.4580000000000001E-2</v>
       </c>
       <c r="G117" s="13">
         <f>_xll.qlSwapRateHelperSpread($E117,Trigger)</f>
@@ -7571,7 +7415,7 @@
       </c>
       <c r="F118" s="13">
         <f>_xll.qlRateHelperQuoteValue($E118,Trigger)</f>
-        <v>2.4649999999999998E-2</v>
+        <v>2.4660000000000001E-2</v>
       </c>
       <c r="G118" s="13">
         <f>_xll.qlSwapRateHelperSpread($E118,Trigger)</f>
@@ -7617,7 +7461,7 @@
       </c>
       <c r="F119" s="13">
         <f>_xll.qlRateHelperQuoteValue($E119,Trigger)</f>
-        <v>2.4719999999999999E-2</v>
+        <v>2.4729999999999999E-2</v>
       </c>
       <c r="G119" s="13">
         <f>_xll.qlSwapRateHelperSpread($E119,Trigger)</f>
@@ -7663,7 +7507,7 @@
       </c>
       <c r="F120" s="13">
         <f>_xll.qlRateHelperQuoteValue($E120,Trigger)</f>
-        <v>2.4760000000000001E-2</v>
+        <v>2.477E-2</v>
       </c>
       <c r="G120" s="13">
         <f>_xll.qlSwapRateHelperSpread($E120,Trigger)</f>
@@ -7709,7 +7553,7 @@
       </c>
       <c r="F121" s="13">
         <f>_xll.qlRateHelperQuoteValue($E121,Trigger)</f>
-        <v>2.479E-2</v>
+        <v>2.4799999999999999E-2</v>
       </c>
       <c r="G121" s="13">
         <f>_xll.qlSwapRateHelperSpread($E121,Trigger)</f>
@@ -7755,7 +7599,7 @@
       </c>
       <c r="F122" s="13">
         <f>_xll.qlRateHelperQuoteValue($E122,Trigger)</f>
-        <v>2.4799999999999999E-2</v>
+        <v>2.4809999999999999E-2</v>
       </c>
       <c r="G122" s="13">
         <f>_xll.qlSwapRateHelperSpread($E122,Trigger)</f>
@@ -7847,7 +7691,7 @@
       </c>
       <c r="F124" s="13">
         <f>_xll.qlRateHelperQuoteValue($E124,Trigger)</f>
-        <v>2.4809999999999999E-2</v>
+        <v>2.4820000000000002E-2</v>
       </c>
       <c r="G124" s="13">
         <f>_xll.qlSwapRateHelperSpread($E124,Trigger)</f>
@@ -7893,7 +7737,7 @@
       </c>
       <c r="F125" s="13">
         <f>_xll.qlRateHelperQuoteValue($E125,Trigger)</f>
-        <v>2.4809999999999999E-2</v>
+        <v>2.4820000000000002E-2</v>
       </c>
       <c r="G125" s="13">
         <f>_xll.qlSwapRateHelperSpread($E125,Trigger)</f>
@@ -7939,7 +7783,7 @@
       </c>
       <c r="F126" s="13">
         <f>_xll.qlRateHelperQuoteValue($E126,Trigger)</f>
-        <v>2.4889999999999999E-2</v>
+        <v>2.4910000000000002E-2</v>
       </c>
       <c r="G126" s="13">
         <f>_xll.qlSwapRateHelperSpread($E126,Trigger)</f>
@@ -7985,7 +7829,7 @@
       </c>
       <c r="F127" s="13">
         <f>_xll.qlRateHelperQuoteValue($E127,Trigger)</f>
-        <v>2.5019999999999997E-2</v>
+        <v>2.5049999999999999E-2</v>
       </c>
       <c r="G127" s="13">
         <f>_xll.qlSwapRateHelperSpread($E127,Trigger)</f>
@@ -8031,7 +7875,7 @@
       </c>
       <c r="F128" s="13">
         <f>_xll.qlRateHelperQuoteValue($E128,Trigger)</f>
-        <v>2.5160000000000002E-2</v>
+        <v>2.52E-2</v>
       </c>
       <c r="G128" s="13">
         <f>_xll.qlSwapRateHelperSpread($E128,Trigger)</f>
@@ -8077,7 +7921,7 @@
       </c>
       <c r="F129" s="6">
         <f>_xll.qlRateHelperQuoteValue($E129,Trigger)</f>
-        <v>2.529E-2</v>
+        <v>2.5329999999999998E-2</v>
       </c>
       <c r="G129" s="6">
         <f>_xll.qlSwapRateHelperSpread($E129,Trigger)</f>
@@ -9675,7 +9519,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -9690,7 +9534,7 @@
     <col min="7" max="8" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -9714,7 +9558,7 @@
       </c>
       <c r="I1" s="37">
         <f t="array" ref="I1:I126">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
-        <v>1.520830164926483E-3</v>
+        <v>1.3180531757461815E-3</v>
       </c>
       <c r="K1" s="211"/>
       <c r="L1" s="211"/>
@@ -9732,7 +9576,7 @@
       </c>
       <c r="E2" s="44">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>1.5E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F2" s="44" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -9747,14 +9591,13 @@
         <v>41703</v>
       </c>
       <c r="I2" s="37">
-        <v>1.520830164926483E-3</v>
-      </c>
-      <c r="K2" s="92" t="s">
-        <v>99</v>
-      </c>
-      <c r="L2" s="93">
-        <v>3.5000000000000001E-3</v>
-      </c>
+        <v>1.3180531757461815E-3</v>
+      </c>
+      <c r="K2" s="92" t="str">
+        <f>_xll.qlRateHelperQuoteName(D2,Trigger)</f>
+        <v>EUROND_Quote</v>
+      </c>
+      <c r="L2" s="93"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="49" t="s">
@@ -9783,14 +9626,13 @@
         <v>41704</v>
       </c>
       <c r="I3" s="37">
-        <v>1.5715243911106976E-3</v>
-      </c>
-      <c r="K3" s="92" t="s">
-        <v>100</v>
-      </c>
-      <c r="L3" s="93">
-        <v>3.5000000000000001E-3</v>
-      </c>
+        <v>1.4701358965221966E-3</v>
+      </c>
+      <c r="K3" s="92" t="str">
+        <f>_xll.qlRateHelperQuoteName(D3,Trigger)</f>
+        <v>EURTND_Quote</v>
+      </c>
+      <c r="L3" s="93"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="49" t="s">
@@ -9804,7 +9646,7 @@
       </c>
       <c r="E4" s="44">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>1.8E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="F4" s="44" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -9819,14 +9661,13 @@
         <v>41705</v>
       </c>
       <c r="I4" s="37">
-        <v>1.6560147399099533E-3</v>
-      </c>
-      <c r="K4" s="92" t="s">
-        <v>101</v>
-      </c>
-      <c r="L4" s="93">
-        <v>2.5000000000000001E-3</v>
-      </c>
+        <v>1.520830136596092E-3</v>
+      </c>
+      <c r="K4" s="92" t="str">
+        <f>_xll.qlRateHelperQuoteName(D4,Trigger)</f>
+        <v>EURSND_Quote</v>
+      </c>
+      <c r="L4" s="93"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="49" t="s">
@@ -9855,14 +9696,13 @@
         <v>41711</v>
       </c>
       <c r="I5" s="37">
-        <v>1.7923038197417511E-3</v>
-      </c>
-      <c r="K5" s="92" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="93">
-        <v>1.949E-3</v>
-      </c>
+        <v>1.7697730431951958E-3</v>
+      </c>
+      <c r="K5" s="92" t="str">
+        <f>_xll.qlRateHelperQuoteName(D5,Trigger)</f>
+        <v>EuriborSWLastFixing_Quote</v>
+      </c>
+      <c r="L5" s="93"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="49" t="s">
@@ -9892,19 +9732,18 @@
         <v>41718</v>
       </c>
       <c r="I6" s="37">
-        <v>1.9174520182162202E-3</v>
-      </c>
-      <c r="K6" s="92" t="s">
-        <v>103</v>
-      </c>
-      <c r="L6" s="93">
-        <v>2.0590000000000001E-3</v>
-      </c>
+        <v>1.9047784563896743E-3</v>
+      </c>
+      <c r="K6" s="92" t="str">
+        <f>_xll.qlRateHelperQuoteName(D6,Trigger)</f>
+        <v>Euribor2WLastFixing_Quote</v>
+      </c>
+      <c r="L6" s="93"/>
     </row>
     <row r="7" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_RateHelpersSelected#0002</v>
+        <v>EUR_YCSTDRH_RateHelpersSelected#0006</v>
       </c>
       <c r="B7" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -9930,14 +9769,13 @@
         <v>41736</v>
       </c>
       <c r="I7" s="37">
-        <v>2.1725025209642056E-3</v>
-      </c>
-      <c r="K7" s="92" t="s">
-        <v>104</v>
-      </c>
-      <c r="L7" s="93" t="e">
-        <v>#NUM!</v>
-      </c>
+        <v>2.166538491872436E-3</v>
+      </c>
+      <c r="K7" s="92" t="str">
+        <f>_xll.qlRateHelperQuoteName(D7,Trigger)</f>
+        <v>Euribor1MLastFixing_Quote</v>
+      </c>
+      <c r="L7" s="93"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D8" s="45" t="str">
@@ -9960,14 +9798,13 @@
         <v>41765</v>
       </c>
       <c r="I8" s="37">
-        <v>2.5036248352420885E-3</v>
-      </c>
-      <c r="K8" s="92" t="s">
-        <v>105</v>
-      </c>
-      <c r="L8" s="93">
-        <v>2.3800000000000002E-3</v>
-      </c>
+        <v>2.5004061528731991E-3</v>
+      </c>
+      <c r="K8" s="92" t="str">
+        <f>_xll.qlRateHelperQuoteName(D8,Trigger)</f>
+        <v>Euribor2MLastFixing_Quote</v>
+      </c>
+      <c r="L8" s="93"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D9" s="45" t="str">
@@ -9990,14 +9827,13 @@
         <v>41796</v>
       </c>
       <c r="I9" s="37">
-        <v>2.8803419658957434E-3</v>
-      </c>
-      <c r="K9" s="92" t="s">
-        <v>106</v>
-      </c>
-      <c r="L9" s="93">
-        <v>2.9949999999999998E-3</v>
-      </c>
+        <v>2.8781847638822957E-3</v>
+      </c>
+      <c r="K9" s="92" t="str">
+        <f>_xll.qlRateHelperQuoteName(D9,Trigger)</f>
+        <v>Euribor3MLastFixing_Quote</v>
+      </c>
+      <c r="L9" s="93"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D10" s="45" t="str">
@@ -10020,14 +9856,13 @@
         <v>41890</v>
       </c>
       <c r="I10" s="37">
-        <v>3.8848394143480331E-3</v>
-      </c>
-      <c r="K10" s="92" t="s">
-        <v>107</v>
-      </c>
-      <c r="L10" s="93">
-        <v>3.003E-3</v>
-      </c>
+        <v>3.8837608133420664E-3</v>
+      </c>
+      <c r="K10" s="92" t="str">
+        <f>_xll.qlRateHelperQuoteName(D10,Trigger)</f>
+        <v>Euribor6MLastFixing_Quote</v>
+      </c>
+      <c r="L10" s="93"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D11" s="45" t="str">
@@ -10050,52 +9885,50 @@
         <v>41981</v>
       </c>
       <c r="I11" s="37">
-        <v>4.7238193010242348E-3</v>
-      </c>
-      <c r="K11" s="92" t="s">
-        <v>108</v>
-      </c>
-      <c r="L11" s="93" t="e">
-        <v>#NUM!</v>
-      </c>
+        <v>4.7230925017797392E-3</v>
+      </c>
+      <c r="K11" s="92" t="str">
+        <f>_xll.qlRateHelperQuoteName(D11,Trigger)</f>
+        <v>Euribor9MLastFixing_Quote</v>
+      </c>
+      <c r="L11" s="93"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D12" s="45" t="str">
-        <v>EUR_YCSTDRH_1YD</v>
+        <v>EUR_YCSTDRH_FUT3MU4</v>
       </c>
       <c r="E12" s="44">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>5.5200000000000006E-3</v>
-      </c>
-      <c r="F12" s="44" t="str">
+        <v>2.475000000000005E-3</v>
+      </c>
+      <c r="F12" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
-        <v>--</v>
+        <v>0</v>
       </c>
       <c r="G12" s="43">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41704</v>
+        <v>41899</v>
       </c>
       <c r="H12" s="42">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>42069</v>
+        <v>41990</v>
       </c>
       <c r="I12" s="37">
-        <v>5.5592131683243132E-3</v>
-      </c>
-      <c r="K12" s="92" t="s">
-        <v>109</v>
-      </c>
-      <c r="L12" s="93" t="e">
-        <v>#NUM!</v>
-      </c>
+        <v>3.5060268614436701E-3</v>
+      </c>
+      <c r="K12" s="92" t="str">
+        <f>_xll.qlRateHelperQuoteName(D12,Trigger)</f>
+        <v>EURFUT3MU4_Quote</v>
+      </c>
+      <c r="L12" s="93"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D13" s="45" t="str">
-        <v>EUR_YCSTDRH_FUT3MH5</v>
+        <v>EUR_YCSTDRH_FUT3MZ4</v>
       </c>
       <c r="E13" s="44">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>3.0250000000000554E-3</v>
+        <v>2.6749999999999829E-3</v>
       </c>
       <c r="F13" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -10103,29 +9936,28 @@
       </c>
       <c r="G13" s="43">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>42081</v>
+        <v>41990</v>
       </c>
       <c r="H13" s="42">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>42173</v>
+        <v>42080</v>
       </c>
       <c r="I13" s="37">
-        <v>5.0223354206880358E-3</v>
-      </c>
-      <c r="K13" s="92" t="s">
-        <v>110</v>
-      </c>
-      <c r="L13" s="93">
-        <v>4.0689999999999997E-3</v>
-      </c>
+        <v>3.3167933959241092E-3</v>
+      </c>
+      <c r="K13" s="92" t="str">
+        <f>_xll.qlRateHelperQuoteName(D13,Trigger)</f>
+        <v>EURFUT3MZ4_Quote</v>
+      </c>
+      <c r="L13" s="93"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D14" s="45" t="str">
-        <v>EUR_YCSTDRH_FUT3MM5</v>
+        <v>EUR_YCSTDRH_FUT3MH5</v>
       </c>
       <c r="E14" s="44">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>3.4250000000000114E-3</v>
+        <v>2.9749999999999499E-3</v>
       </c>
       <c r="F14" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -10133,29 +9965,28 @@
       </c>
       <c r="G14" s="43">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>42172</v>
+        <v>42081</v>
       </c>
       <c r="H14" s="42">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>42264</v>
+        <v>42173</v>
       </c>
       <c r="I14" s="37">
-        <v>4.7727056535376792E-3</v>
-      </c>
-      <c r="K14" s="92" t="s">
-        <v>111</v>
-      </c>
-      <c r="L14" s="93" t="e">
-        <v>#NUM!</v>
-      </c>
+        <v>3.2573640331369702E-3</v>
+      </c>
+      <c r="K14" s="92" t="str">
+        <f>_xll.qlRateHelperQuoteName(D14,Trigger)</f>
+        <v>EURFUT3MH5_Quote</v>
+      </c>
+      <c r="L14" s="93"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D15" s="45" t="str">
-        <v>EUR_YCSTDRH_FUT3MU5</v>
+        <v>EUR_YCSTDRH_FUT3MM5</v>
       </c>
       <c r="E15" s="44">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>3.9750000000000618E-3</v>
+        <v>3.3750000000000169E-3</v>
       </c>
       <c r="F15" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -10163,29 +9994,28 @@
       </c>
       <c r="G15" s="43">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>42263</v>
+        <v>42172</v>
       </c>
       <c r="H15" s="42">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>42354</v>
+        <v>42264</v>
       </c>
       <c r="I15" s="37">
-        <v>4.6711528014068051E-3</v>
-      </c>
-      <c r="K15" s="92" t="s">
-        <v>112</v>
-      </c>
-      <c r="L15" s="93" t="e">
-        <v>#NUM!</v>
-      </c>
+        <v>3.2845876380616411E-3</v>
+      </c>
+      <c r="K15" s="92" t="str">
+        <f>_xll.qlRateHelperQuoteName(D15,Trigger)</f>
+        <v>EURFUT3MM5_Quote</v>
+      </c>
+      <c r="L15" s="93"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="45" t="str">
-        <v>EUR_YCSTDRH_FUT3MZ5</v>
+        <v>EUR_YCSTDRH_FUT3MU5</v>
       </c>
       <c r="E16" s="44">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>4.7249999999999792E-3</v>
+        <v>3.9249999999999563E-3</v>
       </c>
       <c r="F16" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
@@ -10193,29 +10023,28 @@
       </c>
       <c r="G16" s="43">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>42354</v>
+        <v>42263</v>
       </c>
       <c r="H16" s="42">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>42445</v>
+        <v>42354</v>
       </c>
       <c r="I16" s="37">
-        <v>4.685435217502921E-3</v>
-      </c>
-      <c r="K16" s="92" t="s">
-        <v>196</v>
-      </c>
-      <c r="L16" s="93">
-        <v>2.9750000000000002E-3</v>
-      </c>
+        <v>3.3810461219112371E-3</v>
+      </c>
+      <c r="K16" s="92" t="str">
+        <f>_xll.qlRateHelperQuoteName(D16,Trigger)</f>
+        <v>EURFUT3MU5_Quote</v>
+      </c>
+      <c r="L16" s="93"/>
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D17" s="45" t="str">
-        <v>EUR_YCSTDRH_FUT3MH6</v>
+        <v>EUR_YCSTDRH_FUT3MZ5</v>
       </c>
       <c r="E17" s="44">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>5.6249999999999911E-3</v>
+        <v>4.6250000000001013E-3</v>
       </c>
       <c r="F17" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -10223,29 +10052,28 @@
       </c>
       <c r="G17" s="43">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>42445</v>
+        <v>42354</v>
       </c>
       <c r="H17" s="42">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>42537</v>
+        <v>42445</v>
       </c>
       <c r="I17" s="37">
-        <v>4.7971127047673132E-3</v>
-      </c>
-      <c r="K17" s="92" t="s">
-        <v>197</v>
-      </c>
-      <c r="L17" s="93">
-        <v>3.1749999999999999E-3</v>
-      </c>
+        <v>3.5409331263807223E-3</v>
+      </c>
+      <c r="K17" s="92" t="str">
+        <f>_xll.qlRateHelperQuoteName(D17,Trigger)</f>
+        <v>EURFUT3MZ5_Quote</v>
+      </c>
+      <c r="L17" s="93"/>
     </row>
     <row r="18" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D18" s="45" t="str">
-        <v>EUR_YCSTDRH_FUT3MM6</v>
+        <v>EUR_YCSTDRH_AB6E3Y</v>
       </c>
       <c r="E18" s="44">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>6.724999999999981E-3</v>
+        <v>5.8899999999999994E-3</v>
       </c>
       <c r="F18" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
@@ -10253,29 +10081,28 @@
       </c>
       <c r="G18" s="43">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>42536</v>
+        <v>41704</v>
       </c>
       <c r="H18" s="42">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>42628</v>
+        <v>42800</v>
       </c>
       <c r="I18" s="37">
-        <v>4.9962572905238806E-3</v>
-      </c>
-      <c r="K18" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="L18" s="93">
-        <v>3.5750000000000001E-3</v>
-      </c>
+        <v>5.873540704402885E-3</v>
+      </c>
+      <c r="K18" s="92" t="str">
+        <f>_xll.qlRateHelperQuoteName(D18,Trigger)</f>
+        <v>EURAB6E3Y_Quote</v>
+      </c>
+      <c r="L18" s="93"/>
     </row>
     <row r="19" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D19" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E3Y</v>
+        <v>EUR_YCSTDRH_AB6E4Y</v>
       </c>
       <c r="E19" s="44">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>5.9699999999999996E-3</v>
+        <v>7.8100000000000001E-3</v>
       </c>
       <c r="F19" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
@@ -10287,25 +10114,24 @@
       </c>
       <c r="H19" s="42">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>42800</v>
+        <v>43165</v>
       </c>
       <c r="I19" s="37">
-        <v>5.9445926531756241E-3</v>
-      </c>
-      <c r="K19" s="92" t="s">
-        <v>114</v>
-      </c>
-      <c r="L19" s="93">
-        <v>4.1250000000000002E-3</v>
-      </c>
+        <v>7.8023784104798511E-3</v>
+      </c>
+      <c r="K19" s="92" t="str">
+        <f>_xll.qlRateHelperQuoteName(D19,Trigger)</f>
+        <v>EURAB6E4Y_Quote</v>
+      </c>
+      <c r="L19" s="93"/>
     </row>
     <row r="20" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D20" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E4Y</v>
+        <v>EUR_YCSTDRH_AB6E5Y</v>
       </c>
       <c r="E20" s="44">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>7.9000000000000008E-3</v>
+        <v>9.8399999999999998E-3</v>
       </c>
       <c r="F20" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
@@ -10317,25 +10143,24 @@
       </c>
       <c r="H20" s="42">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>43165</v>
+        <v>43530</v>
       </c>
       <c r="I20" s="37">
-        <v>7.8835458073082364E-3</v>
-      </c>
-      <c r="K20" s="92" t="s">
-        <v>115</v>
-      </c>
-      <c r="L20" s="93">
-        <v>4.9249999999999997E-3</v>
-      </c>
+        <v>9.8547671957100961E-3</v>
+      </c>
+      <c r="K20" s="92" t="str">
+        <f>_xll.qlRateHelperQuoteName(D20,Trigger)</f>
+        <v>EURAB6E5Y_Quote</v>
+      </c>
+      <c r="L20" s="93"/>
     </row>
     <row r="21" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D21" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E5Y</v>
+        <v>EUR_YCSTDRH_AB6E6Y</v>
       </c>
       <c r="E21" s="44">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>9.9299999999999996E-3</v>
+        <v>1.183E-2</v>
       </c>
       <c r="F21" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -10347,25 +10172,24 @@
       </c>
       <c r="H21" s="42">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>43530</v>
+        <v>43896</v>
       </c>
       <c r="I21" s="37">
-        <v>9.9359270181713887E-3</v>
-      </c>
-      <c r="K21" s="92" t="s">
-        <v>116</v>
-      </c>
-      <c r="L21" s="93">
-        <v>5.875E-3</v>
-      </c>
+        <v>1.1877990058397875E-2</v>
+      </c>
+      <c r="K21" s="92" t="str">
+        <f>_xll.qlRateHelperQuoteName(D21,Trigger)</f>
+        <v>EURAB6E6Y_Quote</v>
+      </c>
+      <c r="L21" s="93"/>
     </row>
     <row r="22" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D22" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E6Y</v>
+        <v>EUR_YCSTDRH_AB6E7Y</v>
       </c>
       <c r="E22" s="44">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>1.191E-2</v>
+        <v>1.37E-2</v>
       </c>
       <c r="F22" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -10377,25 +10201,24 @@
       </c>
       <c r="H22" s="42">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>43896</v>
+        <v>44263</v>
       </c>
       <c r="I22" s="37">
-        <v>1.1948912447757387E-2</v>
-      </c>
-      <c r="K22" s="92" t="s">
-        <v>117</v>
-      </c>
-      <c r="L22" s="93">
-        <v>6.6E-3</v>
-      </c>
+        <v>1.3802805701039637E-2</v>
+      </c>
+      <c r="K22" s="92" t="str">
+        <f>_xll.qlRateHelperQuoteName(D22,Trigger)</f>
+        <v>EURAB6E7Y_Quote</v>
+      </c>
+      <c r="L22" s="93"/>
     </row>
     <row r="23" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D23" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E7Y</v>
+        <v>EUR_YCSTDRH_AB6E8Y</v>
       </c>
       <c r="E23" s="44">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>1.376E-2</v>
+        <v>1.541E-2</v>
       </c>
       <c r="F23" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
@@ -10407,25 +10230,24 @@
       </c>
       <c r="H23" s="42">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>44263</v>
+        <v>44627</v>
       </c>
       <c r="I23" s="37">
-        <v>1.3853041633344653E-2</v>
-      </c>
-      <c r="K23" s="92" t="s">
-        <v>118</v>
-      </c>
-      <c r="L23" s="93">
-        <v>8.8699999999999994E-3</v>
-      </c>
+        <v>1.5582046576123986E-2</v>
+      </c>
+      <c r="K23" s="92" t="str">
+        <f>_xll.qlRateHelperQuoteName(D23,Trigger)</f>
+        <v>EURAB6E8Y_Quote</v>
+      </c>
+      <c r="L23" s="93"/>
     </row>
     <row r="24" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D24" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E8Y</v>
+        <v>EUR_YCSTDRH_AB6E9Y</v>
       </c>
       <c r="E24" s="44">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>1.5449999999999998E-2</v>
+        <v>1.695E-2</v>
       </c>
       <c r="F24" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
@@ -10437,25 +10259,24 @@
       </c>
       <c r="H24" s="42">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>44627</v>
+        <v>44991</v>
       </c>
       <c r="I24" s="37">
-        <v>1.5611279681155938E-2</v>
-      </c>
-      <c r="K24" s="92" t="s">
-        <v>119</v>
-      </c>
-      <c r="L24" s="93">
-        <v>1.12E-2</v>
-      </c>
+        <v>1.720251322830655E-2</v>
+      </c>
+      <c r="K24" s="92" t="str">
+        <f>_xll.qlRateHelperQuoteName(D24,Trigger)</f>
+        <v>EURAB6E9Y_Quote</v>
+      </c>
+      <c r="L24" s="93"/>
     </row>
     <row r="25" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D25" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E9Y</v>
+        <v>EUR_YCSTDRH_AB6E10Y</v>
       </c>
       <c r="E25" s="44">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>1.6969999999999999E-2</v>
+        <v>1.8319999999999999E-2</v>
       </c>
       <c r="F25" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
@@ -10467,25 +10288,24 @@
       </c>
       <c r="H25" s="42">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>44991</v>
+        <v>45357</v>
       </c>
       <c r="I25" s="37">
-        <v>1.7210386987978051E-2</v>
-      </c>
-      <c r="K25" s="92" t="s">
-        <v>120</v>
-      </c>
-      <c r="L25" s="93">
-        <v>1.3390000000000001E-2</v>
-      </c>
+        <v>1.8655386197592331E-2</v>
+      </c>
+      <c r="K25" s="92" t="str">
+        <f>_xll.qlRateHelperQuoteName(D25,Trigger)</f>
+        <v>EURAB6E10Y_Quote</v>
+      </c>
+      <c r="L25" s="93"/>
     </row>
     <row r="26" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D26" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E10Y</v>
+        <v>EUR_YCSTDRH_AB6E11Y</v>
       </c>
       <c r="E26" s="44">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>1.8340000000000002E-2</v>
+        <v>1.951E-2</v>
       </c>
       <c r="F26" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
@@ -10497,25 +10317,24 @@
       </c>
       <c r="H26" s="42">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>45357</v>
+        <v>45722</v>
       </c>
       <c r="I26" s="37">
-        <v>1.866348779664119E-2</v>
-      </c>
-      <c r="K26" s="92" t="s">
-        <v>121</v>
-      </c>
-      <c r="L26" s="93">
-        <v>1.5389999999999999E-2</v>
-      </c>
+        <v>1.9935407326967098E-2</v>
+      </c>
+      <c r="K26" s="92" t="str">
+        <f>_xll.qlRateHelperQuoteName(D26,Trigger)</f>
+        <v>EURAB6E11Y_Quote</v>
+      </c>
+      <c r="L26" s="93"/>
     </row>
     <row r="27" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D27" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E11Y</v>
+        <v>EUR_YCSTDRH_AB6E12Y</v>
       </c>
       <c r="E27" s="44">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>1.9530000000000002E-2</v>
+        <v>2.0539999999999999E-2</v>
       </c>
       <c r="F27" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -10527,25 +10346,24 @@
       </c>
       <c r="H27" s="42">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>45722</v>
+        <v>46087</v>
       </c>
       <c r="I27" s="37">
-        <v>1.9943795580953959E-2</v>
-      </c>
-      <c r="K27" s="92" t="s">
-        <v>122</v>
-      </c>
-      <c r="L27" s="93">
-        <v>1.719E-2</v>
-      </c>
+        <v>2.1054393930945912E-2</v>
+      </c>
+      <c r="K27" s="92" t="str">
+        <f>_xll.qlRateHelperQuoteName(D27,Trigger)</f>
+        <v>EURAB6E12Y_Quote</v>
+      </c>
+      <c r="L27" s="93"/>
     </row>
     <row r="28" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D28" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E12Y</v>
+        <v>EUR_YCSTDRH_AB6E13Y</v>
       </c>
       <c r="E28" s="44">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>2.0539999999999999E-2</v>
+        <v>2.1419999999999998E-2</v>
       </c>
       <c r="F28" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -10557,25 +10375,24 @@
       </c>
       <c r="H28" s="42">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>46087</v>
+        <v>46454</v>
       </c>
       <c r="I28" s="37">
-        <v>2.1040262784492395E-2</v>
-      </c>
-      <c r="K28" s="92" t="s">
-        <v>123</v>
-      </c>
-      <c r="L28" s="93">
-        <v>1.8790000000000001E-2</v>
-      </c>
+        <v>2.2018153592467466E-2</v>
+      </c>
+      <c r="K28" s="92" t="str">
+        <f>_xll.qlRateHelperQuoteName(D28,Trigger)</f>
+        <v>EURAB6E13Y_Quote</v>
+      </c>
+      <c r="L28" s="93"/>
     </row>
     <row r="29" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D29" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E13Y</v>
+        <v>EUR_YCSTDRH_AB6E14Y</v>
       </c>
       <c r="E29" s="44">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>2.1419999999999998E-2</v>
+        <v>2.2170000000000002E-2</v>
       </c>
       <c r="F29" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
@@ -10587,25 +10404,24 @@
       </c>
       <c r="H29" s="42">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>46454</v>
+        <v>46818</v>
       </c>
       <c r="I29" s="37">
-        <v>2.2004383054411283E-2</v>
-      </c>
-      <c r="K29" s="92" t="s">
-        <v>124</v>
-      </c>
-      <c r="L29" s="93">
-        <v>2.0199999999999999E-2</v>
-      </c>
+        <v>2.2841526125830614E-2</v>
+      </c>
+      <c r="K29" s="92" t="str">
+        <f>_xll.qlRateHelperQuoteName(D29,Trigger)</f>
+        <v>EURAB6E14Y_Quote</v>
+      </c>
+      <c r="L29" s="93"/>
     </row>
     <row r="30" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D30" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E14Y</v>
+        <v>EUR_YCSTDRH_AB6E15Y</v>
       </c>
       <c r="E30" s="44">
         <f>_xll.qlRateHelperRate($D30)</f>
-        <v>2.2160000000000003E-2</v>
+        <v>2.2770000000000002E-2</v>
       </c>
       <c r="F30" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
@@ -10617,25 +10433,24 @@
       </c>
       <c r="H30" s="42">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>46818</v>
+        <v>47183</v>
       </c>
       <c r="I30" s="37">
-        <v>2.2816258111804689E-2</v>
-      </c>
-      <c r="K30" s="92" t="s">
-        <v>125</v>
-      </c>
-      <c r="L30" s="93">
-        <v>2.1420000000000002E-2</v>
-      </c>
+        <v>2.3503306694225977E-2</v>
+      </c>
+      <c r="K30" s="92" t="str">
+        <f>_xll.qlRateHelperQuoteName(D30,Trigger)</f>
+        <v>EURAB6E15Y_Quote</v>
+      </c>
+      <c r="L30" s="93"/>
     </row>
     <row r="31" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D31" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E15Y</v>
+        <v>EUR_YCSTDRH_AB6E16Y</v>
       </c>
       <c r="E31" s="44">
         <f>_xll.qlRateHelperRate($D31)</f>
-        <v>2.2759999999999999E-2</v>
+        <v>2.3250000000000003E-2</v>
       </c>
       <c r="F31" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D31)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D31)),_xll.qlSwapRateHelperSpread($D31))</f>
@@ -10647,25 +10462,24 @@
       </c>
       <c r="H31" s="42">
         <f>_xll.qlRateHelperLatestDate($D31)</f>
-        <v>47183</v>
+        <v>47548</v>
       </c>
       <c r="I31" s="37">
-        <v>2.3478490444144171E-2</v>
-      </c>
-      <c r="K31" s="92" t="s">
-        <v>126</v>
-      </c>
-      <c r="L31" s="93">
-        <v>2.247E-2</v>
-      </c>
+        <v>2.4030413948602815E-2</v>
+      </c>
+      <c r="K31" s="92" t="str">
+        <f>_xll.qlRateHelperQuoteName(D31,Trigger)</f>
+        <v>EURAB6E16Y_Quote</v>
+      </c>
+      <c r="L31" s="93"/>
     </row>
     <row r="32" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D32" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E16Y</v>
+        <v>EUR_YCSTDRH_AB6E17Y</v>
       </c>
       <c r="E32" s="44">
         <f>_xll.qlRateHelperRate($D32)</f>
-        <v>2.3239999999999997E-2</v>
+        <v>2.3629999999999998E-2</v>
       </c>
       <c r="F32" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D32)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D32)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D32)),_xll.qlSwapRateHelperSpread($D32))</f>
@@ -10677,25 +10491,24 @@
       </c>
       <c r="H32" s="42">
         <f>_xll.qlRateHelperLatestDate($D32)</f>
-        <v>47548</v>
+        <v>47913</v>
       </c>
       <c r="I32" s="37">
-        <v>2.4006078329953797E-2</v>
-      </c>
-      <c r="K32" s="92" t="s">
-        <v>127</v>
-      </c>
-      <c r="L32" s="93">
-        <v>2.3359999999999999E-2</v>
-      </c>
+        <v>2.4443349014147759E-2</v>
+      </c>
+      <c r="K32" s="92" t="str">
+        <f>_xll.qlRateHelperQuoteName(D32,Trigger)</f>
+        <v>EURAB6E17Y_Quote</v>
+      </c>
+      <c r="L32" s="93"/>
     </row>
     <row r="33" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D33" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E17Y</v>
+        <v>EUR_YCSTDRH_AB6E18Y</v>
       </c>
       <c r="E33" s="44">
         <f>_xll.qlRateHelperRate($D33)</f>
-        <v>2.3620000000000002E-2</v>
+        <v>2.3929999999999996E-2</v>
       </c>
       <c r="F33" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D33)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D33)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D33)),_xll.qlSwapRateHelperSpread($D33))</f>
@@ -10707,25 +10520,24 @@
       </c>
       <c r="H33" s="42">
         <f>_xll.qlRateHelperLatestDate($D33)</f>
-        <v>47913</v>
+        <v>48281</v>
       </c>
       <c r="I33" s="37">
-        <v>2.441950964447033E-2</v>
-      </c>
-      <c r="K33" s="92" t="s">
-        <v>128</v>
-      </c>
-      <c r="L33" s="93">
-        <v>2.41E-2</v>
-      </c>
+        <v>2.475977587807518E-2</v>
+      </c>
+      <c r="K33" s="92" t="str">
+        <f>_xll.qlRateHelperQuoteName(D33,Trigger)</f>
+        <v>EURAB6E18Y_Quote</v>
+      </c>
+      <c r="L33" s="93"/>
     </row>
     <row r="34" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D34" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E18Y</v>
+        <v>EUR_YCSTDRH_AB6E19Y</v>
       </c>
       <c r="E34" s="44">
         <f>_xll.qlRateHelperRate($D34)</f>
-        <v>2.392E-2</v>
+        <v>2.4150000000000001E-2</v>
       </c>
       <c r="F34" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D34)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D34)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D34)),_xll.qlSwapRateHelperSpread($D34))</f>
@@ -10737,25 +10549,24 @@
       </c>
       <c r="H34" s="42">
         <f>_xll.qlRateHelperLatestDate($D34)</f>
-        <v>48281</v>
+        <v>48645</v>
       </c>
       <c r="I34" s="37">
-        <v>2.4736443376360665E-2</v>
-      </c>
-      <c r="K34" s="92" t="s">
-        <v>129</v>
-      </c>
-      <c r="L34" s="93">
-        <v>2.47E-2</v>
-      </c>
+        <v>2.4985314711422818E-2</v>
+      </c>
+      <c r="K34" s="92" t="str">
+        <f>_xll.qlRateHelperQuoteName(D34,Trigger)</f>
+        <v>EURAB6E19Y_Quote</v>
+      </c>
+      <c r="L34" s="93"/>
     </row>
     <row r="35" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D35" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E19Y</v>
+        <v>EUR_YCSTDRH_AB6E20Y</v>
       </c>
       <c r="E35" s="44">
         <f>_xll.qlRateHelperRate($D35)</f>
-        <v>2.4140000000000002E-2</v>
+        <v>2.4319999999999998E-2</v>
       </c>
       <c r="F35" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D35)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D35)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D35)),_xll.qlSwapRateHelperSpread($D35))</f>
@@ -10767,25 +10578,24 @@
       </c>
       <c r="H35" s="42">
         <f>_xll.qlRateHelperLatestDate($D35)</f>
-        <v>48645</v>
+        <v>49009</v>
       </c>
       <c r="I35" s="37">
-        <v>2.4962488049172001E-2</v>
-      </c>
-      <c r="K35" s="92" t="s">
-        <v>130</v>
-      </c>
-      <c r="L35" s="93">
-        <v>2.5180000000000001E-2</v>
-      </c>
+        <v>2.5152071164456054E-2</v>
+      </c>
+      <c r="K35" s="92" t="str">
+        <f>_xll.qlRateHelperQuoteName(D35,Trigger)</f>
+        <v>EURAB6E20Y_Quote</v>
+      </c>
+      <c r="L35" s="93"/>
     </row>
     <row r="36" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D36" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E20Y</v>
+        <v>EUR_YCSTDRH_AB6E21Y</v>
       </c>
       <c r="E36" s="44">
         <f>_xll.qlRateHelperRate($D36)</f>
-        <v>2.4310000000000002E-2</v>
+        <v>2.4460000000000003E-2</v>
       </c>
       <c r="F36" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D36)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D36)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D36)),_xll.qlSwapRateHelperSpread($D36))</f>
@@ -10797,25 +10607,24 @@
       </c>
       <c r="H36" s="42">
         <f>_xll.qlRateHelperLatestDate($D36)</f>
-        <v>49009</v>
+        <v>49374</v>
       </c>
       <c r="I36" s="37">
-        <v>2.5129737288429807E-2</v>
-      </c>
-      <c r="K36" s="92" t="s">
-        <v>131</v>
-      </c>
-      <c r="L36" s="93">
-        <v>2.555E-2</v>
-      </c>
+        <v>2.5284737213136128E-2</v>
+      </c>
+      <c r="K36" s="92" t="str">
+        <f>_xll.qlRateHelperQuoteName(D36,Trigger)</f>
+        <v>EURAB6E21Y_Quote</v>
+      </c>
+      <c r="L36" s="93"/>
     </row>
     <row r="37" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D37" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E21Y</v>
+        <v>EUR_YCSTDRH_AB6E22Y</v>
       </c>
       <c r="E37" s="44">
         <f>_xll.qlRateHelperRate($D37)</f>
-        <v>2.445E-2</v>
+        <v>2.4580000000000001E-2</v>
       </c>
       <c r="F37" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D37)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D37)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D37)),_xll.qlSwapRateHelperSpread($D37))</f>
@@ -10827,25 +10636,24 @@
       </c>
       <c r="H37" s="42">
         <f>_xll.qlRateHelperLatestDate($D37)</f>
-        <v>49374</v>
+        <v>49740</v>
       </c>
       <c r="I37" s="37">
-        <v>2.5262871848518831E-2</v>
-      </c>
-      <c r="K37" s="92" t="s">
-        <v>132</v>
-      </c>
-      <c r="L37" s="93">
-        <v>2.5829999999999999E-2</v>
-      </c>
+        <v>2.5392619901379466E-2</v>
+      </c>
+      <c r="K37" s="92" t="str">
+        <f>_xll.qlRateHelperQuoteName(D37,Trigger)</f>
+        <v>EURAB6E22Y_Quote</v>
+      </c>
+      <c r="L37" s="93"/>
     </row>
     <row r="38" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D38" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E22Y</v>
+        <v>EUR_YCSTDRH_AB6E23Y</v>
       </c>
       <c r="E38" s="44">
         <f>_xll.qlRateHelperRate($D38)</f>
-        <v>2.4569999999999998E-2</v>
+        <v>2.4660000000000001E-2</v>
       </c>
       <c r="F38" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D38)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D38)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D38)),_xll.qlSwapRateHelperSpread($D38))</f>
@@ -10857,25 +10665,24 @@
       </c>
       <c r="H38" s="42">
         <f>_xll.qlRateHelperLatestDate($D38)</f>
-        <v>49740</v>
+        <v>50105</v>
       </c>
       <c r="I38" s="37">
-        <v>2.5371196031298057E-2</v>
-      </c>
-      <c r="K38" s="92" t="s">
-        <v>133</v>
-      </c>
-      <c r="L38" s="93">
-        <v>2.605E-2</v>
-      </c>
+        <v>2.545385592805063E-2</v>
+      </c>
+      <c r="K38" s="92" t="str">
+        <f>_xll.qlRateHelperQuoteName(D38,Trigger)</f>
+        <v>EURAB6E23Y_Quote</v>
+      </c>
+      <c r="L38" s="93"/>
     </row>
     <row r="39" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D39" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E23Y</v>
+        <v>EUR_YCSTDRH_AB6E24Y</v>
       </c>
       <c r="E39" s="44">
         <f>_xll.qlRateHelperRate($D39)</f>
-        <v>2.4649999999999998E-2</v>
+        <v>2.4729999999999999E-2</v>
       </c>
       <c r="F39" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D39)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D39)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D39)),_xll.qlSwapRateHelperSpread($D39))</f>
@@ -10887,25 +10694,24 @@
       </c>
       <c r="H39" s="42">
         <f>_xll.qlRateHelperLatestDate($D39)</f>
-        <v>50105</v>
+        <v>50472</v>
       </c>
       <c r="I39" s="37">
-        <v>2.5432864827003882E-2</v>
-      </c>
-      <c r="K39" s="92" t="s">
-        <v>134</v>
-      </c>
-      <c r="L39" s="93">
-        <v>2.6210000000000001E-2</v>
-      </c>
+        <v>2.5505220818465828E-2</v>
+      </c>
+      <c r="K39" s="92" t="str">
+        <f>_xll.qlRateHelperQuoteName(D39,Trigger)</f>
+        <v>EURAB6E24Y_Quote</v>
+      </c>
+      <c r="L39" s="93"/>
     </row>
     <row r="40" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D40" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E24Y</v>
+        <v>EUR_YCSTDRH_AB6E25Y</v>
       </c>
       <c r="E40" s="44">
         <f>_xll.qlRateHelperRate($D40)</f>
-        <v>2.4719999999999999E-2</v>
+        <v>2.477E-2</v>
       </c>
       <c r="F40" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D40)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D40)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D40)),_xll.qlSwapRateHelperSpread($D40))</f>
@@ -10917,25 +10723,24 @@
       </c>
       <c r="H40" s="42">
         <f>_xll.qlRateHelperLatestDate($D40)</f>
-        <v>50472</v>
+        <v>50836</v>
       </c>
       <c r="I40" s="37">
-        <v>2.5484635110028769E-2</v>
-      </c>
-      <c r="K40" s="92" t="s">
-        <v>135</v>
-      </c>
-      <c r="L40" s="93">
-        <v>2.6349999999999998E-2</v>
-      </c>
+        <v>2.5518584090940159E-2</v>
+      </c>
+      <c r="K40" s="92" t="str">
+        <f>_xll.qlRateHelperQuoteName(D40,Trigger)</f>
+        <v>EURAB6E25Y_Quote</v>
+      </c>
+      <c r="L40" s="93"/>
     </row>
     <row r="41" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D41" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E25Y</v>
+        <v>EUR_YCSTDRH_AB6E26Y</v>
       </c>
       <c r="E41" s="44">
         <f>_xll.qlRateHelperRate($D41)</f>
-        <v>2.4760000000000001E-2</v>
+        <v>2.4799999999999999E-2</v>
       </c>
       <c r="F41" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D41)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D41)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D41)),_xll.qlSwapRateHelperSpread($D41))</f>
@@ -10947,25 +10752,24 @@
       </c>
       <c r="H41" s="42">
         <f>_xll.qlRateHelperLatestDate($D41)</f>
-        <v>50836</v>
+        <v>51201</v>
       </c>
       <c r="I41" s="37">
-        <v>2.5498392834022512E-2</v>
-      </c>
-      <c r="K41" s="92" t="s">
-        <v>136</v>
-      </c>
-      <c r="L41" s="93">
-        <v>2.6440000000000002E-2</v>
-      </c>
+        <v>2.5518383122196123E-2</v>
+      </c>
+      <c r="K41" s="92" t="str">
+        <f>_xll.qlRateHelperQuoteName(D41,Trigger)</f>
+        <v>EURAB6E26Y_Quote</v>
+      </c>
+      <c r="L41" s="93"/>
     </row>
     <row r="42" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D42" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E26Y</v>
+        <v>EUR_YCSTDRH_AB6E27Y</v>
       </c>
       <c r="E42" s="44">
         <f>_xll.qlRateHelperRate($D42)</f>
-        <v>2.479E-2</v>
+        <v>2.4809999999999999E-2</v>
       </c>
       <c r="F42" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D42)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D42)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D42)),_xll.qlSwapRateHelperSpread($D42))</f>
@@ -10977,25 +10781,24 @@
       </c>
       <c r="H42" s="42">
         <f>_xll.qlRateHelperLatestDate($D42)</f>
-        <v>51201</v>
+        <v>51566</v>
       </c>
       <c r="I42" s="37">
-        <v>2.5498565960176956E-2</v>
-      </c>
-      <c r="K42" s="92" t="s">
-        <v>137</v>
-      </c>
-      <c r="L42" s="93">
-        <v>2.6519999999999998E-2</v>
-      </c>
+        <v>2.5495036133639796E-2</v>
+      </c>
+      <c r="K42" s="92" t="str">
+        <f>_xll.qlRateHelperQuoteName(D42,Trigger)</f>
+        <v>EURAB6E27Y_Quote</v>
+      </c>
+      <c r="L42" s="93"/>
     </row>
     <row r="43" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D43" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E27Y</v>
+        <v>EUR_YCSTDRH_AB6E28Y</v>
       </c>
       <c r="E43" s="44">
         <f>_xll.qlRateHelperRate($D43)</f>
-        <v>2.4799999999999999E-2</v>
+        <v>2.4809999999999999E-2</v>
       </c>
       <c r="F43" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D43)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D43)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D43)),_xll.qlSwapRateHelperSpread($D43))</f>
@@ -11007,25 +10810,24 @@
       </c>
       <c r="H43" s="42">
         <f>_xll.qlRateHelperLatestDate($D43)</f>
-        <v>51566</v>
+        <v>51931</v>
       </c>
       <c r="I43" s="37">
-        <v>2.5475581897738492E-2</v>
-      </c>
-      <c r="K43" s="92" t="s">
-        <v>138</v>
-      </c>
-      <c r="L43" s="93">
-        <v>2.657E-2</v>
-      </c>
+        <v>2.5459788367185793E-2</v>
+      </c>
+      <c r="K43" s="92" t="str">
+        <f>_xll.qlRateHelperQuoteName(D43,Trigger)</f>
+        <v>EURAB6E28Y_Quote</v>
+      </c>
+      <c r="L43" s="93"/>
     </row>
     <row r="44" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D44" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E28Y</v>
+        <v>EUR_YCSTDRH_AB6E29Y</v>
       </c>
       <c r="E44" s="44">
         <f>_xll.qlRateHelperRate($D44)</f>
-        <v>2.4809999999999999E-2</v>
+        <v>2.4820000000000002E-2</v>
       </c>
       <c r="F44" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D44)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D44)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D44)),_xll.qlSwapRateHelperSpread($D44))</f>
@@ -11037,25 +10839,24 @@
       </c>
       <c r="H44" s="42">
         <f>_xll.qlRateHelperLatestDate($D44)</f>
-        <v>51931</v>
+        <v>52296</v>
       </c>
       <c r="I44" s="37">
-        <v>2.5455284855313905E-2</v>
-      </c>
-      <c r="K44" s="92" t="s">
-        <v>139</v>
-      </c>
-      <c r="L44" s="93">
-        <v>2.6599999999999999E-2</v>
-      </c>
+        <v>2.5441766460900669E-2</v>
+      </c>
+      <c r="K44" s="92" t="str">
+        <f>_xll.qlRateHelperQuoteName(D44,Trigger)</f>
+        <v>EURAB6E29Y_Quote</v>
+      </c>
+      <c r="L44" s="93"/>
     </row>
     <row r="45" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D45" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E29Y</v>
+        <v>EUR_YCSTDRH_AB6E30Y</v>
       </c>
       <c r="E45" s="44">
         <f>_xll.qlRateHelperRate($D45)</f>
-        <v>2.4809999999999999E-2</v>
+        <v>2.4820000000000002E-2</v>
       </c>
       <c r="F45" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D45)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D45)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D45)),_xll.qlSwapRateHelperSpread($D45))</f>
@@ -11067,25 +10868,24 @@
       </c>
       <c r="H45" s="42">
         <f>_xll.qlRateHelperLatestDate($D45)</f>
-        <v>52296</v>
+        <v>52663</v>
       </c>
       <c r="I45" s="37">
-        <v>2.5422621065868119E-2</v>
-      </c>
-      <c r="K45" s="92" t="s">
-        <v>140</v>
-      </c>
-      <c r="L45" s="93">
-        <v>2.6610000000000002E-2</v>
-      </c>
+        <v>2.5408569357549898E-2</v>
+      </c>
+      <c r="K45" s="92" t="str">
+        <f>_xll.qlRateHelperQuoteName(D45,Trigger)</f>
+        <v>EURAB6E30Y_Quote</v>
+      </c>
+      <c r="L45" s="93"/>
     </row>
     <row r="46" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D46" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E30Y</v>
+        <v>EUR_YCSTDRH_AB6E35Y</v>
       </c>
       <c r="E46" s="44">
         <f>_xll.qlRateHelperRate($D46)</f>
-        <v>2.4809999999999999E-2</v>
+        <v>2.4910000000000002E-2</v>
       </c>
       <c r="F46" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D46)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D46)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D46)),_xll.qlSwapRateHelperSpread($D46))</f>
@@ -11097,25 +10897,24 @@
       </c>
       <c r="H46" s="42">
         <f>_xll.qlRateHelperLatestDate($D46)</f>
-        <v>52663</v>
+        <v>54490</v>
       </c>
       <c r="I46" s="37">
-        <v>2.5389739178924984E-2</v>
-      </c>
-      <c r="K46" s="92" t="s">
-        <v>141</v>
-      </c>
-      <c r="L46" s="93">
-        <v>2.6620000000000001E-2</v>
-      </c>
+        <v>2.5416534593185325E-2</v>
+      </c>
+      <c r="K46" s="92" t="str">
+        <f>_xll.qlRateHelperQuoteName(D46,Trigger)</f>
+        <v>EURAB6E35Y_Quote</v>
+      </c>
+      <c r="L46" s="93"/>
     </row>
     <row r="47" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D47" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E35Y</v>
+        <v>EUR_YCSTDRH_AB6E40Y</v>
       </c>
       <c r="E47" s="44">
         <f>_xll.qlRateHelperRate($D47)</f>
-        <v>2.4889999999999999E-2</v>
+        <v>2.5049999999999999E-2</v>
       </c>
       <c r="F47" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D47)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D47)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D47)),_xll.qlSwapRateHelperSpread($D47))</f>
@@ -11127,25 +10926,24 @@
       </c>
       <c r="H47" s="42">
         <f>_xll.qlRateHelperLatestDate($D47)</f>
-        <v>54490</v>
+        <v>56314</v>
       </c>
       <c r="I47" s="37">
-        <v>2.5383614965823184E-2</v>
-      </c>
-      <c r="K47" s="92" t="s">
-        <v>142</v>
-      </c>
-      <c r="L47" s="93">
-        <v>2.6610000000000002E-2</v>
-      </c>
+        <v>2.5543487884649101E-2</v>
+      </c>
+      <c r="K47" s="92" t="str">
+        <f>_xll.qlRateHelperQuoteName(D47,Trigger)</f>
+        <v>EURAB6E40Y_Quote</v>
+      </c>
+      <c r="L47" s="93"/>
     </row>
     <row r="48" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D48" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E40Y</v>
+        <v>EUR_YCSTDRH_AB6E50Y</v>
       </c>
       <c r="E48" s="44">
         <f>_xll.qlRateHelperRate($D48)</f>
-        <v>2.5019999999999997E-2</v>
+        <v>2.52E-2</v>
       </c>
       <c r="F48" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D48)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D48)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D48)),_xll.qlSwapRateHelperSpread($D48))</f>
@@ -11157,25 +10955,24 @@
       </c>
       <c r="H48" s="42">
         <f>_xll.qlRateHelperLatestDate($D48)</f>
-        <v>56314</v>
+        <v>59967</v>
       </c>
       <c r="I48" s="37">
-        <v>2.5495502787395968E-2</v>
-      </c>
-      <c r="K48" s="92" t="s">
-        <v>143</v>
-      </c>
-      <c r="L48" s="93">
-        <v>2.6599999999999999E-2</v>
-      </c>
+        <v>2.5648202606178106E-2</v>
+      </c>
+      <c r="K48" s="92" t="str">
+        <f>_xll.qlRateHelperQuoteName(D48,Trigger)</f>
+        <v>EURAB6E50Y_Quote</v>
+      </c>
+      <c r="L48" s="93"/>
     </row>
     <row r="49" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D49" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E50Y</v>
+        <v>EUR_YCSTDRH_AB6E60Y</v>
       </c>
       <c r="E49" s="44">
         <f>_xll.qlRateHelperRate($D49)</f>
-        <v>2.5160000000000002E-2</v>
+        <v>2.5329999999999998E-2</v>
       </c>
       <c r="F49" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D49)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D49)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D49)),_xll.qlSwapRateHelperSpread($D49))</f>
@@ -11187,47 +10984,45 @@
       </c>
       <c r="H49" s="42">
         <f>_xll.qlRateHelperLatestDate($D49)</f>
-        <v>59967</v>
+        <v>63619</v>
       </c>
       <c r="I49" s="37">
-        <v>2.5585430253052446E-2</v>
-      </c>
-      <c r="K49" s="92" t="s">
-        <v>144</v>
-      </c>
-      <c r="L49" s="93">
-        <v>2.6599999999999999E-2</v>
-      </c>
+        <v>2.5793399729359772E-2</v>
+      </c>
+      <c r="K49" s="92" t="str">
+        <f>_xll.qlRateHelperQuoteName(D49,Trigger)</f>
+        <v>EURAB6E60Y_Quote</v>
+      </c>
+      <c r="L49" s="93"/>
     </row>
     <row r="50" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D50" s="45" t="str">
-        <v>EUR_YCSTDRH_AB6E60Y</v>
-      </c>
-      <c r="E50" s="44">
+      <c r="D50" s="45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E50" s="44" t="e">
         <f>_xll.qlRateHelperRate($D50)</f>
-        <v>2.529E-2</v>
-      </c>
-      <c r="F50" s="44">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F50" s="44" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D50)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D50)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D50)),_xll.qlSwapRateHelperSpread($D50))</f>
-        <v>0</v>
-      </c>
-      <c r="G50" s="43">
+        <v>--</v>
+      </c>
+      <c r="G50" s="43" t="e">
         <f>_xll.qlRateHelperEarliestDate($D50)</f>
-        <v>41704</v>
-      </c>
-      <c r="H50" s="42">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H50" s="42" t="e">
         <f>_xll.qlRateHelperLatestDate($D50)</f>
-        <v>63619</v>
-      </c>
-      <c r="I50" s="37">
-        <v>2.5733868722344396E-2</v>
-      </c>
-      <c r="K50" s="92" t="s">
-        <v>145</v>
-      </c>
-      <c r="L50" s="93">
-        <v>2.6679999999999999E-2</v>
-      </c>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I50" s="37" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K50" s="92" t="e">
+        <f>_xll.qlRateHelperQuoteName(D50,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L50" s="93"/>
     </row>
     <row r="51" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D51" s="45" t="e">
@@ -11252,12 +11047,8 @@
       <c r="I51" s="37" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K51" s="92" t="s">
-        <v>146</v>
-      </c>
-      <c r="L51" s="93">
-        <v>2.6839999999999999E-2</v>
-      </c>
+      <c r="K51" s="92"/>
+      <c r="L51" s="93"/>
     </row>
     <row r="52" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D52" s="45" t="e">
@@ -11282,12 +11073,8 @@
       <c r="I52" s="37" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K52" s="92" t="s">
-        <v>147</v>
-      </c>
-      <c r="L52" s="93">
-        <v>2.7029999999999998E-2</v>
-      </c>
+      <c r="K52" s="92"/>
+      <c r="L52" s="93"/>
     </row>
     <row r="53" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D53" s="45" t="e">
@@ -11312,12 +11099,8 @@
       <c r="I53" s="37" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K53" s="92" t="s">
-        <v>148</v>
-      </c>
-      <c r="L53" s="93">
-        <v>2.716E-2</v>
-      </c>
+      <c r="K53" s="92"/>
+      <c r="L53" s="93"/>
     </row>
     <row r="54" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D54" s="45" t="e">
@@ -13087,7 +12870,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5 IV5 SR5 ACN5 AMJ5 AWF5 BGB5 BPX5 BZT5 CJP5 CTL5 DDH5 DND5 DWZ5 EGV5 EQR5 FAN5 FKJ5 FUF5 GEB5 GNX5 GXT5 HHP5 HRL5 IBH5 ILD5 IUZ5 JEV5 JOR5 JYN5 KIJ5 KSF5 LCB5 LLX5 LVT5 MFP5 MPL5 MZH5 NJD5 NSZ5 OCV5 OMR5 OWN5 PGJ5 PQF5 QAB5 QJX5 QTT5 RDP5 RNL5 RXH5 SHD5 SQZ5 TAV5 TKR5 TUN5 UEJ5 UOF5 UYB5 VHX5 VRT5 WBP5 WLL5 WVH5 B65541 IV65541 SR65541 ACN65541 AMJ65541 AWF65541 BGB65541 BPX65541 BZT65541 CJP65541 CTL65541 DDH65541 DND65541 DWZ65541 EGV65541 EQR65541 FAN65541 FKJ65541 FUF65541 GEB65541 GNX65541 GXT65541 HHP65541 HRL65541 IBH65541 ILD65541 IUZ65541 JEV65541 JOR65541 JYN65541 KIJ65541 KSF65541 LCB65541 LLX65541 LVT65541 MFP65541 MPL65541 MZH65541 NJD65541 NSZ65541 OCV65541 OMR65541 OWN65541 PGJ65541 PQF65541 QAB65541 QJX65541 QTT65541 RDP65541 RNL65541 RXH65541 SHD65541 SQZ65541 TAV65541 TKR65541 TUN65541 UEJ65541 UOF65541 UYB65541 VHX65541 VRT65541 WBP65541 WLL65541 WVH65541 B131077 IV131077 SR131077 ACN131077 AMJ131077 AWF131077 BGB131077 BPX131077 BZT131077 CJP131077 CTL131077 DDH131077 DND131077 DWZ131077 EGV131077 EQR131077 FAN131077 FKJ131077 FUF131077 GEB131077 GNX131077 GXT131077 HHP131077 HRL131077 IBH131077 ILD131077 IUZ131077 JEV131077 JOR131077 JYN131077 KIJ131077 KSF131077 LCB131077 LLX131077 LVT131077 MFP131077 MPL131077 MZH131077 NJD131077 NSZ131077 OCV131077 OMR131077 OWN131077 PGJ131077 PQF131077 QAB131077 QJX131077 QTT131077 RDP131077 RNL131077 RXH131077 SHD131077 SQZ131077 TAV131077 TKR131077 TUN131077 UEJ131077 UOF131077 UYB131077 VHX131077 VRT131077 WBP131077 WLL131077 WVH131077 B196613 IV196613 SR196613 ACN196613 AMJ196613 AWF196613 BGB196613 BPX196613 BZT196613 CJP196613 CTL196613 DDH196613 DND196613 DWZ196613 EGV196613 EQR196613 FAN196613 FKJ196613 FUF196613 GEB196613 GNX196613 GXT196613 HHP196613 HRL196613 IBH196613 ILD196613 IUZ196613 JEV196613 JOR196613 JYN196613 KIJ196613 KSF196613 LCB196613 LLX196613 LVT196613 MFP196613 MPL196613 MZH196613 NJD196613 NSZ196613 OCV196613 OMR196613 OWN196613 PGJ196613 PQF196613 QAB196613 QJX196613 QTT196613 RDP196613 RNL196613 RXH196613 SHD196613 SQZ196613 TAV196613 TKR196613 TUN196613 UEJ196613 UOF196613 UYB196613 VHX196613 VRT196613 WBP196613 WLL196613 WVH196613 B262149 IV262149 SR262149 ACN262149 AMJ262149 AWF262149 BGB262149 BPX262149 BZT262149 CJP262149 CTL262149 DDH262149 DND262149 DWZ262149 EGV262149 EQR262149 FAN262149 FKJ262149 FUF262149 GEB262149 GNX262149 GXT262149 HHP262149 HRL262149 IBH262149 ILD262149 IUZ262149 JEV262149 JOR262149 JYN262149 KIJ262149 KSF262149 LCB262149 LLX262149 LVT262149 MFP262149 MPL262149 MZH262149 NJD262149 NSZ262149 OCV262149 OMR262149 OWN262149 PGJ262149 PQF262149 QAB262149 QJX262149 QTT262149 RDP262149 RNL262149 RXH262149 SHD262149 SQZ262149 TAV262149 TKR262149 TUN262149 UEJ262149 UOF262149 UYB262149 VHX262149 VRT262149 WBP262149 WLL262149 WVH262149 B327685 IV327685 SR327685 ACN327685 AMJ327685 AWF327685 BGB327685 BPX327685 BZT327685 CJP327685 CTL327685 DDH327685 DND327685 DWZ327685 EGV327685 EQR327685 FAN327685 FKJ327685 FUF327685 GEB327685 GNX327685 GXT327685 HHP327685 HRL327685 IBH327685 ILD327685 IUZ327685 JEV327685 JOR327685 JYN327685 KIJ327685 KSF327685 LCB327685 LLX327685 LVT327685 MFP327685 MPL327685 MZH327685 NJD327685 NSZ327685 OCV327685 OMR327685 OWN327685 PGJ327685 PQF327685 QAB327685 QJX327685 QTT327685 RDP327685 RNL327685 RXH327685 SHD327685 SQZ327685 TAV327685 TKR327685 TUN327685 UEJ327685 UOF327685 UYB327685 VHX327685 VRT327685 WBP327685 WLL327685 WVH327685 B393221 IV393221 SR393221 ACN393221 AMJ393221 AWF393221 BGB393221 BPX393221 BZT393221 CJP393221 CTL393221 DDH393221 DND393221 DWZ393221 EGV393221 EQR393221 FAN393221 FKJ393221 FUF393221 GEB393221 GNX393221 GXT393221 HHP393221 HRL393221 IBH393221 ILD393221 IUZ393221 JEV393221 JOR393221 JYN393221 KIJ393221 KSF393221 LCB393221 LLX393221 LVT393221 MFP393221 MPL393221 MZH393221 NJD393221 NSZ393221 OCV393221 OMR393221 OWN393221 PGJ393221 PQF393221 QAB393221 QJX393221 QTT393221 RDP393221 RNL393221 RXH393221 SHD393221 SQZ393221 TAV393221 TKR393221 TUN393221 UEJ393221 UOF393221 UYB393221 VHX393221 VRT393221 WBP393221 WLL393221 WVH393221 B458757 IV458757 SR458757 ACN458757 AMJ458757 AWF458757 BGB458757 BPX458757 BZT458757 CJP458757 CTL458757 DDH458757 DND458757 DWZ458757 EGV458757 EQR458757 FAN458757 FKJ458757 FUF458757 GEB458757 GNX458757 GXT458757 HHP458757 HRL458757 IBH458757 ILD458757 IUZ458757 JEV458757 JOR458757 JYN458757 KIJ458757 KSF458757 LCB458757 LLX458757 LVT458757 MFP458757 MPL458757 MZH458757 NJD458757 NSZ458757 OCV458757 OMR458757 OWN458757 PGJ458757 PQF458757 QAB458757 QJX458757 QTT458757 RDP458757 RNL458757 RXH458757 SHD458757 SQZ458757 TAV458757 TKR458757 TUN458757 UEJ458757 UOF458757 UYB458757 VHX458757 VRT458757 WBP458757 WLL458757 WVH458757 B524293 IV524293 SR524293 ACN524293 AMJ524293 AWF524293 BGB524293 BPX524293 BZT524293 CJP524293 CTL524293 DDH524293 DND524293 DWZ524293 EGV524293 EQR524293 FAN524293 FKJ524293 FUF524293 GEB524293 GNX524293 GXT524293 HHP524293 HRL524293 IBH524293 ILD524293 IUZ524293 JEV524293 JOR524293 JYN524293 KIJ524293 KSF524293 LCB524293 LLX524293 LVT524293 MFP524293 MPL524293 MZH524293 NJD524293 NSZ524293 OCV524293 OMR524293 OWN524293 PGJ524293 PQF524293 QAB524293 QJX524293 QTT524293 RDP524293 RNL524293 RXH524293 SHD524293 SQZ524293 TAV524293 TKR524293 TUN524293 UEJ524293 UOF524293 UYB524293 VHX524293 VRT524293 WBP524293 WLL524293 WVH524293 B589829 IV589829 SR589829 ACN589829 AMJ589829 AWF589829 BGB589829 BPX589829 BZT589829 CJP589829 CTL589829 DDH589829 DND589829 DWZ589829 EGV589829 EQR589829 FAN589829 FKJ589829 FUF589829 GEB589829 GNX589829 GXT589829 HHP589829 HRL589829 IBH589829 ILD589829 IUZ589829 JEV589829 JOR589829 JYN589829 KIJ589829 KSF589829 LCB589829 LLX589829 LVT589829 MFP589829 MPL589829 MZH589829 NJD589829 NSZ589829 OCV589829 OMR589829 OWN589829 PGJ589829 PQF589829 QAB589829 QJX589829 QTT589829 RDP589829 RNL589829 RXH589829 SHD589829 SQZ589829 TAV589829 TKR589829 TUN589829 UEJ589829 UOF589829 UYB589829 VHX589829 VRT589829 WBP589829 WLL589829 WVH589829 B655365 IV655365 SR655365 ACN655365 AMJ655365 AWF655365 BGB655365 BPX655365 BZT655365 CJP655365 CTL655365 DDH655365 DND655365 DWZ655365 EGV655365 EQR655365 FAN655365 FKJ655365 FUF655365 GEB655365 GNX655365 GXT655365 HHP655365 HRL655365 IBH655365 ILD655365 IUZ655365 JEV655365 JOR655365 JYN655365 KIJ655365 KSF655365 LCB655365 LLX655365 LVT655365 MFP655365 MPL655365 MZH655365 NJD655365 NSZ655365 OCV655365 OMR655365 OWN655365 PGJ655365 PQF655365 QAB655365 QJX655365 QTT655365 RDP655365 RNL655365 RXH655365 SHD655365 SQZ655365 TAV655365 TKR655365 TUN655365 UEJ655365 UOF655365 UYB655365 VHX655365 VRT655365 WBP655365 WLL655365 WVH655365 B720901 IV720901 SR720901 ACN720901 AMJ720901 AWF720901 BGB720901 BPX720901 BZT720901 CJP720901 CTL720901 DDH720901 DND720901 DWZ720901 EGV720901 EQR720901 FAN720901 FKJ720901 FUF720901 GEB720901 GNX720901 GXT720901 HHP720901 HRL720901 IBH720901 ILD720901 IUZ720901 JEV720901 JOR720901 JYN720901 KIJ720901 KSF720901 LCB720901 LLX720901 LVT720901 MFP720901 MPL720901 MZH720901 NJD720901 NSZ720901 OCV720901 OMR720901 OWN720901 PGJ720901 PQF720901 QAB720901 QJX720901 QTT720901 RDP720901 RNL720901 RXH720901 SHD720901 SQZ720901 TAV720901 TKR720901 TUN720901 UEJ720901 UOF720901 UYB720901 VHX720901 VRT720901 WBP720901 WLL720901 WVH720901 B786437 IV786437 SR786437 ACN786437 AMJ786437 AWF786437 BGB786437 BPX786437 BZT786437 CJP786437 CTL786437 DDH786437 DND786437 DWZ786437 EGV786437 EQR786437 FAN786437 FKJ786437 FUF786437 GEB786437 GNX786437 GXT786437 HHP786437 HRL786437 IBH786437 ILD786437 IUZ786437 JEV786437 JOR786437 JYN786437 KIJ786437 KSF786437 LCB786437 LLX786437 LVT786437 MFP786437 MPL786437 MZH786437 NJD786437 NSZ786437 OCV786437 OMR786437 OWN786437 PGJ786437 PQF786437 QAB786437 QJX786437 QTT786437 RDP786437 RNL786437 RXH786437 SHD786437 SQZ786437 TAV786437 TKR786437 TUN786437 UEJ786437 UOF786437 UYB786437 VHX786437 VRT786437 WBP786437 WLL786437 WVH786437 B851973 IV851973 SR851973 ACN851973 AMJ851973 AWF851973 BGB851973 BPX851973 BZT851973 CJP851973 CTL851973 DDH851973 DND851973 DWZ851973 EGV851973 EQR851973 FAN851973 FKJ851973 FUF851973 GEB851973 GNX851973 GXT851973 HHP851973 HRL851973 IBH851973 ILD851973 IUZ851973 JEV851973 JOR851973 JYN851973 KIJ851973 KSF851973 LCB851973 LLX851973 LVT851973 MFP851973 MPL851973 MZH851973 NJD851973 NSZ851973 OCV851973 OMR851973 OWN851973 PGJ851973 PQF851973 QAB851973 QJX851973 QTT851973 RDP851973 RNL851973 RXH851973 SHD851973 SQZ851973 TAV851973 TKR851973 TUN851973 UEJ851973 UOF851973 UYB851973 VHX851973 VRT851973 WBP851973 WLL851973 WVH851973 B917509 IV917509 SR917509 ACN917509 AMJ917509 AWF917509 BGB917509 BPX917509 BZT917509 CJP917509 CTL917509 DDH917509 DND917509 DWZ917509 EGV917509 EQR917509 FAN917509 FKJ917509 FUF917509 GEB917509 GNX917509 GXT917509 HHP917509 HRL917509 IBH917509 ILD917509 IUZ917509 JEV917509 JOR917509 JYN917509 KIJ917509 KSF917509 LCB917509 LLX917509 LVT917509 MFP917509 MPL917509 MZH917509 NJD917509 NSZ917509 OCV917509 OMR917509 OWN917509 PGJ917509 PQF917509 QAB917509 QJX917509 QTT917509 RDP917509 RNL917509 RXH917509 SHD917509 SQZ917509 TAV917509 TKR917509 TUN917509 UEJ917509 UOF917509 UYB917509 VHX917509 VRT917509 WBP917509 WLL917509 WVH917509 B983045 IV983045 SR983045 ACN983045 AMJ983045 AWF983045 BGB983045 BPX983045 BZT983045 CJP983045 CTL983045 DDH983045 DND983045 DWZ983045 EGV983045 EQR983045 FAN983045 FKJ983045 FUF983045 GEB983045 GNX983045 GXT983045 HHP983045 HRL983045 IBH983045 ILD983045 IUZ983045 JEV983045 JOR983045 JYN983045 KIJ983045 KSF983045 LCB983045 LLX983045 LVT983045 MFP983045 MPL983045 MZH983045 NJD983045 NSZ983045 OCV983045 OMR983045 OWN983045 PGJ983045 PQF983045 QAB983045 QJX983045 QTT983045 RDP983045 RNL983045 RXH983045 SHD983045 SQZ983045 TAV983045 TKR983045 TUN983045 UEJ983045 UOF983045 UYB983045 VHX983045 VRT983045 WBP983045 WLL983045 WVH983045">
       <formula1>"AllDepos,DeposBeforeFirstFuturesStartDate,DeposBeforeFirstFuturesStartDatePlusOne,DeposBeforeFirstFuturesExpiryDate"</formula1>
     </dataValidation>
@@ -13105,7 +12888,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" activeCellId="6" sqref="A6:XFD6 A10:XFD10 A11:XFD11 A13:XFD13 A14:XFD14 A16:XFD16 A17:XFD17"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -13123,12 +12906,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="118" t="s">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="B1" s="117"/>
       <c r="C1" s="117"/>
       <c r="D1" s="96" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="E1" s="116" t="str">
         <f>Currency&amp;"_YC"&amp;$D$1&amp;"RH"</f>
@@ -13142,10 +12925,10 @@
       <c r="A2" s="108"/>
       <c r="B2" s="115"/>
       <c r="C2" s="115" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="D2" s="115" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="E2" s="114" t="str">
         <f>$E$1&amp;"_Deposits.xml"</f>
@@ -13164,10 +12947,10 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="108"/>
       <c r="B3" s="111" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="C3" s="110" t="s">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="D3" s="105" t="str">
         <f>Currency&amp;$B3&amp;"D"&amp;QuoteSuffix</f>
@@ -13179,7 +12962,7 @@
       </c>
       <c r="F3" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E3,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_OND#0002</v>
+        <v>EUR_YCSTDRH_OND#0004</v>
       </c>
       <c r="G3" s="109" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -13190,7 +12973,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="108"/>
       <c r="B4" s="107" t="s">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="C4" s="106" t="str">
         <f t="shared" ref="C4:C11" si="1">PROPER(Currency)&amp;FamilyName&amp;$B4</f>
@@ -13206,7 +12989,7 @@
       </c>
       <c r="F4" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_SWD#0002</v>
+        <v>EUR_YCSTDRH_SWD#0004</v>
       </c>
       <c r="G4" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -13221,7 +13004,7 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="108"/>
       <c r="B5" s="107" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="C5" s="106" t="str">
         <f t="shared" si="1"/>
@@ -13237,7 +13020,7 @@
       </c>
       <c r="F5" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_2WD#0002</v>
+        <v>EUR_YCSTDRH_2WD#0004</v>
       </c>
       <c r="G5" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -13248,7 +13031,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="108"/>
       <c r="B6" s="107" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="C6" s="106" t="str">
         <f t="shared" si="1"/>
@@ -13264,7 +13047,7 @@
       </c>
       <c r="F6" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_1MD#0002</v>
+        <v>EUR_YCSTDRH_1MD#0004</v>
       </c>
       <c r="G6" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -13275,7 +13058,7 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="108"/>
       <c r="B7" s="107" t="s">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="C7" s="106" t="str">
         <f t="shared" si="1"/>
@@ -13291,7 +13074,7 @@
       </c>
       <c r="F7" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E7,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_2MD#0002</v>
+        <v>EUR_YCSTDRH_2MD#0004</v>
       </c>
       <c r="G7" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -13302,7 +13085,7 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="108"/>
       <c r="B8" s="107" t="s">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="C8" s="106" t="str">
         <f t="shared" si="1"/>
@@ -13318,7 +13101,7 @@
       </c>
       <c r="F8" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E8,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_3MD#0003</v>
+        <v>EUR_YCSTDRH_3MD#0004</v>
       </c>
       <c r="G8" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -13329,7 +13112,7 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="108"/>
       <c r="B9" s="107" t="s">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="C9" s="106" t="str">
         <f t="shared" si="1"/>
@@ -13345,7 +13128,7 @@
       </c>
       <c r="F9" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E9,D9,C9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_6MD#0002</v>
+        <v>EUR_YCSTDRH_6MD#0004</v>
       </c>
       <c r="G9" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -13356,7 +13139,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="108"/>
       <c r="B10" s="107" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="C10" s="106" t="str">
         <f t="shared" si="1"/>
@@ -13372,7 +13155,7 @@
       </c>
       <c r="F10" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E10,D10,C10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_9MD#0002</v>
+        <v>EUR_YCSTDRH_9MD#0004</v>
       </c>
       <c r="G10" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -13399,7 +13182,7 @@
       </c>
       <c r="F11" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E11,D11,C11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_1YD#0002</v>
+        <v>EUR_YCSTDRH_1YD#0004</v>
       </c>
       <c r="G11" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -13448,13 +13231,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="166" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="B1" s="165"/>
       <c r="C1" s="165"/>
       <c r="D1" s="165"/>
       <c r="E1" s="164" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="G1" s="163" t="str">
         <f>Currency&amp;"_YC"&amp;$E$1&amp;"RH"</f>
@@ -13470,10 +13253,10 @@
       <c r="C2" s="159"/>
       <c r="D2" s="158"/>
       <c r="E2" s="157" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="F2" s="157" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="G2" s="156" t="str">
         <f>$G$1&amp;"_FRAs.xml"</f>
@@ -13492,16 +13275,16 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="149"/>
       <c r="B3" s="153" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="C3" s="153" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="D3" s="152" t="s">
-        <v>171</v>
+        <v>121</v>
       </c>
       <c r="E3" s="151" t="s">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="F3" s="151" t="str">
         <f>Currency&amp;C3&amp;D3&amp;"_Quote"</f>
@@ -13513,7 +13296,7 @@
       </c>
       <c r="H3" s="151" t="str">
         <f>_xll.qlFraRateHelper(G3,F3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_TND#0001</v>
+        <v>EUR_YCSTDRH_TND#0004</v>
       </c>
       <c r="I3" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -13524,16 +13307,16 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="149"/>
       <c r="B4" s="148" t="s">
-        <v>173</v>
+        <v>123</v>
       </c>
       <c r="C4" s="148" t="s">
-        <v>172</v>
+        <v>122</v>
       </c>
       <c r="D4" s="147" t="s">
-        <v>171</v>
+        <v>121</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="F4" s="146" t="str">
         <f>Currency&amp;C4&amp;D4&amp;"_Quote"</f>
@@ -13545,7 +13328,7 @@
       </c>
       <c r="H4" s="146" t="str">
         <f>_xll.qlFraRateHelper(G4,F4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_SND#0001</v>
+        <v>EUR_YCSTDRH_SND#0004</v>
       </c>
       <c r="I4" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -13602,13 +13385,13 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="184" t="s">
-        <v>181</v>
+        <v>131</v>
       </c>
       <c r="B1" s="189"/>
       <c r="C1" s="189"/>
       <c r="D1" s="189"/>
       <c r="E1" s="188" t="s">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="F1" s="187"/>
       <c r="G1" s="187"/>
@@ -13623,22 +13406,22 @@
     <row r="2" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="184"/>
       <c r="B2" s="159" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="C2" s="157" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="D2" s="183" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="E2" s="157" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="F2" s="157" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="G2" s="159" t="s">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="H2" s="156" t="str">
         <f>$H$1&amp;"_Futures"&amp;$E$1&amp;".xml"</f>
@@ -13684,7 +13467,7 @@
       </c>
       <c r="I3" s="179" t="str">
         <f>_xll.qlFuturesRateHelper(H3,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MH4#0001</v>
+        <v>EUR_YCSTDRH_FUT3MH4#0004</v>
       </c>
       <c r="J3" s="178" t="str">
         <f>_xll.ohRangeRetrieveError(I3)</f>
@@ -13722,7 +13505,7 @@
       </c>
       <c r="I4" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H4,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MJ4#0001</v>
+        <v>EUR_YCSTDRH_FUT3MJ4#0004</v>
       </c>
       <c r="J4" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I4)</f>
@@ -13760,7 +13543,7 @@
       </c>
       <c r="I5" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H5,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MK4#0001</v>
+        <v>EUR_YCSTDRH_FUT3MK4#0004</v>
       </c>
       <c r="J5" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
@@ -13798,7 +13581,7 @@
       </c>
       <c r="I6" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H6,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MM4#0001</v>
+        <v>EUR_YCSTDRH_FUT3MM4#0004</v>
       </c>
       <c r="J6" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
@@ -13836,7 +13619,7 @@
       </c>
       <c r="I7" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H7,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MN4#0001</v>
+        <v>EUR_YCSTDRH_FUT3MN4#0004</v>
       </c>
       <c r="J7" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
@@ -13874,7 +13657,7 @@
       </c>
       <c r="I8" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H8,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MQ4#0001</v>
+        <v>EUR_YCSTDRH_FUT3MQ4#0004</v>
       </c>
       <c r="J8" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
@@ -13912,7 +13695,7 @@
       </c>
       <c r="I9" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H9,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MU4#0001</v>
+        <v>EUR_YCSTDRH_FUT3MU4#0004</v>
       </c>
       <c r="J9" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
@@ -13950,7 +13733,7 @@
       </c>
       <c r="I10" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H10,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MV4#0001</v>
+        <v>EUR_YCSTDRH_FUT3MV4#0004</v>
       </c>
       <c r="J10" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
@@ -13988,7 +13771,7 @@
       </c>
       <c r="I11" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H11,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MX4#0001</v>
+        <v>EUR_YCSTDRH_FUT3MX4#0004</v>
       </c>
       <c r="J11" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I11)</f>
@@ -14026,7 +13809,7 @@
       </c>
       <c r="I12" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H12,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MZ4#0001</v>
+        <v>EUR_YCSTDRH_FUT3MZ4#0004</v>
       </c>
       <c r="J12" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I12)</f>
@@ -14064,7 +13847,7 @@
       </c>
       <c r="I13" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H13,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MF5#0001</v>
+        <v>EUR_YCSTDRH_FUT3MF5#0004</v>
       </c>
       <c r="J13" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I13)</f>
@@ -14102,7 +13885,7 @@
       </c>
       <c r="I14" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H14,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MG5#0001</v>
+        <v>EUR_YCSTDRH_FUT3MG5#0004</v>
       </c>
       <c r="J14" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I14)</f>
@@ -14140,7 +13923,7 @@
       </c>
       <c r="I15" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H15,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MH5#0001</v>
+        <v>EUR_YCSTDRH_FUT3MH5#0004</v>
       </c>
       <c r="J15" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I15)</f>
@@ -14254,7 +14037,7 @@
       </c>
       <c r="I18" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H18,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MM5#0001</v>
+        <v>EUR_YCSTDRH_FUT3MM5#0004</v>
       </c>
       <c r="J18" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I18)</f>
@@ -14368,7 +14151,7 @@
       </c>
       <c r="I21" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H21,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MU5#0001</v>
+        <v>EUR_YCSTDRH_FUT3MU5#0004</v>
       </c>
       <c r="J21" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I21)</f>
@@ -14482,7 +14265,7 @@
       </c>
       <c r="I24" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H24,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MZ5#0001</v>
+        <v>EUR_YCSTDRH_FUT3MZ5#0004</v>
       </c>
       <c r="J24" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I24)</f>
@@ -14596,7 +14379,7 @@
       </c>
       <c r="I27" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H27,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MH6#0001</v>
+        <v>EUR_YCSTDRH_FUT3MH6#0004</v>
       </c>
       <c r="J27" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I27)</f>
@@ -14710,7 +14493,7 @@
       </c>
       <c r="I30" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H30,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MM6#0001</v>
+        <v>EUR_YCSTDRH_FUT3MM6#0004</v>
       </c>
       <c r="J30" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I30)</f>
@@ -14824,7 +14607,7 @@
       </c>
       <c r="I33" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H33,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MU6#0001</v>
+        <v>EUR_YCSTDRH_FUT3MU6#0004</v>
       </c>
       <c r="J33" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I33)</f>
@@ -14938,7 +14721,7 @@
       </c>
       <c r="I36" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H36,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MZ6#0001</v>
+        <v>EUR_YCSTDRH_FUT3MZ6#0004</v>
       </c>
       <c r="J36" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I36)</f>
@@ -15052,7 +14835,7 @@
       </c>
       <c r="I39" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H39,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MH7#0001</v>
+        <v>EUR_YCSTDRH_FUT3MH7#0004</v>
       </c>
       <c r="J39" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I39)</f>
@@ -15164,7 +14947,7 @@
       </c>
       <c r="I42" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H42,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MM7#0001</v>
+        <v>EUR_YCSTDRH_FUT3MM7#0004</v>
       </c>
       <c r="J42" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I42)</f>
@@ -15275,7 +15058,7 @@
       </c>
       <c r="I45" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H45,$F45,$D45,$E45,$G45,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MU7#0001</v>
+        <v>EUR_YCSTDRH_FUT3MU7#0004</v>
       </c>
       <c r="J45" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I45)</f>
@@ -15386,7 +15169,7 @@
       </c>
       <c r="I48" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H48,$F48,$D48,$E48,$G48,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MZ7#0001</v>
+        <v>EUR_YCSTDRH_FUT3MZ7#0004</v>
       </c>
       <c r="J48" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I48)</f>
@@ -15497,7 +15280,7 @@
       </c>
       <c r="I51" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H51,$F51,$D51,$E51,$G51,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MH8#0001</v>
+        <v>EUR_YCSTDRH_FUT3MH8#0004</v>
       </c>
       <c r="J51" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I51)</f>
@@ -15608,7 +15391,7 @@
       </c>
       <c r="I54" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H54,$F54,$D54,$E54,$G54,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MM8#0001</v>
+        <v>EUR_YCSTDRH_FUT3MM8#0004</v>
       </c>
       <c r="J54" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I54)</f>
@@ -15719,7 +15502,7 @@
       </c>
       <c r="I57" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H57,$F57,$D57,$E57,$G57,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MU8#0001</v>
+        <v>EUR_YCSTDRH_FUT3MU8#0004</v>
       </c>
       <c r="J57" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I57)</f>
@@ -15830,7 +15613,7 @@
       </c>
       <c r="I60" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H60,$F60,$D60,$E60,$G60,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MZ8#0001</v>
+        <v>EUR_YCSTDRH_FUT3MZ8#0004</v>
       </c>
       <c r="J60" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I60)</f>
@@ -15941,7 +15724,7 @@
       </c>
       <c r="I63" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H63,$F63,$D63,$E63,$G63,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MH9#0001</v>
+        <v>EUR_YCSTDRH_FUT3MH9#0004</v>
       </c>
       <c r="J63" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I63)</f>
@@ -16052,7 +15835,7 @@
       </c>
       <c r="I66" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H66,$F66,$D66,$E66,$G66,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MM9#0001</v>
+        <v>EUR_YCSTDRH_FUT3MM9#0004</v>
       </c>
       <c r="J66" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I66)</f>
@@ -16163,7 +15946,7 @@
       </c>
       <c r="I69" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H69,$F69,$D69,$E69,$G69,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MU9#0001</v>
+        <v>EUR_YCSTDRH_FUT3MU9#0004</v>
       </c>
       <c r="J69" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I69)</f>
@@ -16274,7 +16057,7 @@
       </c>
       <c r="I72" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H72,$F72,$D72,$E72,$G72,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MZ9#0001</v>
+        <v>EUR_YCSTDRH_FUT3MZ9#0004</v>
       </c>
       <c r="J72" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I72)</f>
@@ -16385,7 +16168,7 @@
       </c>
       <c r="I75" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H75,$F75,$D75,$E75,$G75,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MH0#0001</v>
+        <v>EUR_YCSTDRH_FUT3MH0#0004</v>
       </c>
       <c r="J75" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I75)</f>
@@ -16496,7 +16279,7 @@
       </c>
       <c r="I78" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H78,$F78,$D78,$E78,$G78,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MM0#0001</v>
+        <v>EUR_YCSTDRH_FUT3MM0#0004</v>
       </c>
       <c r="J78" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I78)</f>
@@ -16607,7 +16390,7 @@
       </c>
       <c r="I81" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H81,$F81,$D81,$E81,$G81,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MU0#0001</v>
+        <v>EUR_YCSTDRH_FUT3MU0#0004</v>
       </c>
       <c r="J81" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I81)</f>
@@ -16718,7 +16501,7 @@
       </c>
       <c r="I84" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H84,$F84,$D84,$E84,$G84,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MZ0#0001</v>
+        <v>EUR_YCSTDRH_FUT3MZ0#0004</v>
       </c>
       <c r="J84" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I84)</f>
@@ -16829,7 +16612,7 @@
       </c>
       <c r="I87" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H87,$F87,$D87,$E87,$G87,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MH1#0001</v>
+        <v>EUR_YCSTDRH_FUT3MH1#0004</v>
       </c>
       <c r="J87" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I87)</f>
@@ -16940,7 +16723,7 @@
       </c>
       <c r="I90" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H90,$F90,$D90,$E90,$G90,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MM1#0001</v>
+        <v>EUR_YCSTDRH_FUT3MM1#0004</v>
       </c>
       <c r="J90" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I90)</f>
@@ -17051,7 +16834,7 @@
       </c>
       <c r="I93" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H93,$F93,$D93,$E93,$G93,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MU1#0001</v>
+        <v>EUR_YCSTDRH_FUT3MU1#0004</v>
       </c>
       <c r="J93" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I93)</f>
@@ -17162,7 +16945,7 @@
       </c>
       <c r="I96" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H96,$F96,$D96,$E96,$G96,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MZ1#0001</v>
+        <v>EUR_YCSTDRH_FUT3MZ1#0004</v>
       </c>
       <c r="J96" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I96)</f>
@@ -17273,7 +17056,7 @@
       </c>
       <c r="I99" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H99,$F99,$D99,$E99,$G99,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MH2#0001</v>
+        <v>EUR_YCSTDRH_FUT3MH2#0004</v>
       </c>
       <c r="J99" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I99)</f>
@@ -17384,7 +17167,7 @@
       </c>
       <c r="I102" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H102,$F102,$D102,$E102,$G102,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MM2#0001</v>
+        <v>EUR_YCSTDRH_FUT3MM2#0004</v>
       </c>
       <c r="J102" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I102)</f>
@@ -18157,7 +17940,9 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -18180,7 +17965,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="166" t="s">
-        <v>195</v>
+        <v>145</v>
       </c>
       <c r="B1" s="165"/>
       <c r="C1" s="165"/>
@@ -18207,7 +17992,7 @@
       <c r="H2" s="200"/>
       <c r="I2" s="200"/>
       <c r="J2" s="188" t="s">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K2" s="188" t="str">
         <f>Currency&amp;"_YC"&amp;"STDRH"</f>
@@ -18223,25 +18008,25 @@
     <row r="3" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A3" s="149"/>
       <c r="B3" s="157" t="s">
-        <v>188</v>
+        <v>138</v>
       </c>
       <c r="C3" s="157"/>
       <c r="D3" s="157"/>
       <c r="E3" s="157"/>
       <c r="F3" s="157" t="s">
-        <v>187</v>
+        <v>137</v>
       </c>
       <c r="G3" s="157" t="s">
-        <v>186</v>
+        <v>136</v>
       </c>
       <c r="H3" s="157" t="s">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="I3" s="157" t="s">
-        <v>184</v>
+        <v>134</v>
       </c>
       <c r="J3" s="157" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="K3" s="205" t="str">
         <f>K2&amp;"_Swaps.xml"</f>
@@ -18274,7 +18059,7 @@
       </c>
       <c r="L4" s="203" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>EUR_YCSTDRH_AB6E_ibor6M#0001</v>
+        <v>EUR_YCSTDRH_AB6E_ibor6M#0004</v>
       </c>
       <c r="M4" s="202" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -18301,7 +18086,7 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="149"/>
       <c r="B6" s="198" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="C6" s="198" t="s">
         <v>36</v>
@@ -18317,7 +18102,7 @@
         <v>Annual</v>
       </c>
       <c r="G6" s="174" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="H6" s="174" t="str">
         <f>IF(UPPER(RIGHT($D6))="B",BondBasisDayCounter,IF(UPPER(RIGHT($D6))="M",MoneyMarketDayCounter,"--"))</f>
@@ -18336,7 +18121,7 @@
       </c>
       <c r="L6" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E1Y#0001</v>
+        <v>EUR_YCSTDRH_AB6E1Y#0004</v>
       </c>
       <c r="M6" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -18351,7 +18136,7 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="149"/>
       <c r="B7" s="198" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="C7" s="198" t="s">
         <v>35</v>
@@ -18367,7 +18152,7 @@
         <v>Annual</v>
       </c>
       <c r="G7" s="173" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="H7" s="173" t="str">
         <f t="shared" ref="H7:H42" si="3">IF(UPPER(RIGHT($D7))="B",BondBasisDayCounter,IF(UPPER(RIGHT($D7))="M",MoneyMarketDayCounter,"--"))</f>
@@ -18386,7 +18171,7 @@
       </c>
       <c r="L7" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E15M#0001</v>
+        <v>EUR_YCSTDRH_AB6E15M#0004</v>
       </c>
       <c r="M7" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -18397,7 +18182,7 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="149"/>
       <c r="B8" s="198" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="C8" s="198" t="s">
         <v>34</v>
@@ -18413,7 +18198,7 @@
         <v>Annual</v>
       </c>
       <c r="G8" s="173" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="H8" s="173" t="str">
         <f t="shared" si="3"/>
@@ -18432,7 +18217,7 @@
       </c>
       <c r="L8" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E18M#0001</v>
+        <v>EUR_YCSTDRH_AB6E18M#0004</v>
       </c>
       <c r="M8" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -18443,7 +18228,7 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="149"/>
       <c r="B9" s="198" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="C9" s="198" t="s">
         <v>33</v>
@@ -18459,7 +18244,7 @@
         <v>Annual</v>
       </c>
       <c r="G9" s="173" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="H9" s="173" t="str">
         <f t="shared" si="3"/>
@@ -18478,7 +18263,7 @@
       </c>
       <c r="L9" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E21M#0001</v>
+        <v>EUR_YCSTDRH_AB6E21M#0004</v>
       </c>
       <c r="M9" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -18489,7 +18274,7 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="149"/>
       <c r="B10" s="198" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="C10" s="198" t="s">
         <v>32</v>
@@ -18505,7 +18290,7 @@
         <v>Annual</v>
       </c>
       <c r="G10" s="173" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="H10" s="173" t="str">
         <f t="shared" si="3"/>
@@ -18524,7 +18309,7 @@
       </c>
       <c r="L10" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E2Y#0001</v>
+        <v>EUR_YCSTDRH_AB6E2Y#0004</v>
       </c>
       <c r="M10" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -18535,7 +18320,7 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="149"/>
       <c r="B11" s="198" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="C11" s="198" t="s">
         <v>31</v>
@@ -18551,7 +18336,7 @@
         <v>Annual</v>
       </c>
       <c r="G11" s="173" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="H11" s="173" t="str">
         <f t="shared" si="3"/>
@@ -18570,7 +18355,7 @@
       </c>
       <c r="L11" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E3Y#0001</v>
+        <v>EUR_YCSTDRH_AB6E3Y#0004</v>
       </c>
       <c r="M11" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -18581,7 +18366,7 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="149"/>
       <c r="B12" s="198" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="C12" s="198" t="s">
         <v>30</v>
@@ -18597,7 +18382,7 @@
         <v>Annual</v>
       </c>
       <c r="G12" s="173" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="H12" s="173" t="str">
         <f t="shared" si="3"/>
@@ -18616,7 +18401,7 @@
       </c>
       <c r="L12" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E4Y#0001</v>
+        <v>EUR_YCSTDRH_AB6E4Y#0004</v>
       </c>
       <c r="M12" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -18627,7 +18412,7 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="149"/>
       <c r="B13" s="198" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="C13" s="198" t="s">
         <v>29</v>
@@ -18643,7 +18428,7 @@
         <v>Annual</v>
       </c>
       <c r="G13" s="173" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="H13" s="173" t="str">
         <f t="shared" si="3"/>
@@ -18662,7 +18447,7 @@
       </c>
       <c r="L13" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E5Y#0001</v>
+        <v>EUR_YCSTDRH_AB6E5Y#0004</v>
       </c>
       <c r="M13" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -18673,7 +18458,7 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="149"/>
       <c r="B14" s="198" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="C14" s="198" t="s">
         <v>28</v>
@@ -18689,7 +18474,7 @@
         <v>Annual</v>
       </c>
       <c r="G14" s="173" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="H14" s="173" t="str">
         <f t="shared" si="3"/>
@@ -18708,7 +18493,7 @@
       </c>
       <c r="L14" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E6Y#0001</v>
+        <v>EUR_YCSTDRH_AB6E6Y#0004</v>
       </c>
       <c r="M14" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -18719,7 +18504,7 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="149"/>
       <c r="B15" s="198" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="C15" s="198" t="s">
         <v>27</v>
@@ -18735,7 +18520,7 @@
         <v>Annual</v>
       </c>
       <c r="G15" s="173" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="H15" s="173" t="str">
         <f t="shared" si="3"/>
@@ -18754,7 +18539,7 @@
       </c>
       <c r="L15" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E7Y#0001</v>
+        <v>EUR_YCSTDRH_AB6E7Y#0004</v>
       </c>
       <c r="M15" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -18765,7 +18550,7 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="149"/>
       <c r="B16" s="198" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="C16" s="198" t="s">
         <v>26</v>
@@ -18781,7 +18566,7 @@
         <v>Annual</v>
       </c>
       <c r="G16" s="173" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="H16" s="173" t="str">
         <f t="shared" si="3"/>
@@ -18800,7 +18585,7 @@
       </c>
       <c r="L16" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E8Y#0001</v>
+        <v>EUR_YCSTDRH_AB6E8Y#0004</v>
       </c>
       <c r="M16" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -18811,7 +18596,7 @@
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="149"/>
       <c r="B17" s="198" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="C17" s="198" t="s">
         <v>25</v>
@@ -18827,7 +18612,7 @@
         <v>Annual</v>
       </c>
       <c r="G17" s="173" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="H17" s="173" t="str">
         <f t="shared" si="3"/>
@@ -18846,7 +18631,7 @@
       </c>
       <c r="L17" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E9Y#0001</v>
+        <v>EUR_YCSTDRH_AB6E9Y#0004</v>
       </c>
       <c r="M17" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -18857,7 +18642,7 @@
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="149"/>
       <c r="B18" s="198" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="C18" s="198" t="s">
         <v>24</v>
@@ -18873,7 +18658,7 @@
         <v>Annual</v>
       </c>
       <c r="G18" s="173" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="H18" s="173" t="str">
         <f t="shared" si="3"/>
@@ -18892,7 +18677,7 @@
       </c>
       <c r="L18" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E10Y#0001</v>
+        <v>EUR_YCSTDRH_AB6E10Y#0004</v>
       </c>
       <c r="M18" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -18903,7 +18688,7 @@
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="149"/>
       <c r="B19" s="198" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="C19" s="198" t="s">
         <v>23</v>
@@ -18919,7 +18704,7 @@
         <v>Annual</v>
       </c>
       <c r="G19" s="173" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="H19" s="173" t="str">
         <f t="shared" si="3"/>
@@ -18938,7 +18723,7 @@
       </c>
       <c r="L19" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E11Y#0001</v>
+        <v>EUR_YCSTDRH_AB6E11Y#0004</v>
       </c>
       <c r="M19" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -18949,7 +18734,7 @@
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="149"/>
       <c r="B20" s="198" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="C20" s="198" t="s">
         <v>22</v>
@@ -18965,7 +18750,7 @@
         <v>Annual</v>
       </c>
       <c r="G20" s="173" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="H20" s="173" t="str">
         <f t="shared" si="3"/>
@@ -18984,7 +18769,7 @@
       </c>
       <c r="L20" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E12Y#0001</v>
+        <v>EUR_YCSTDRH_AB6E12Y#0004</v>
       </c>
       <c r="M20" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -18995,7 +18780,7 @@
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="149"/>
       <c r="B21" s="198" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="C21" s="198" t="s">
         <v>21</v>
@@ -19011,7 +18796,7 @@
         <v>Annual</v>
       </c>
       <c r="G21" s="173" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="H21" s="173" t="str">
         <f t="shared" si="3"/>
@@ -19030,7 +18815,7 @@
       </c>
       <c r="L21" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E13Y#0001</v>
+        <v>EUR_YCSTDRH_AB6E13Y#0004</v>
       </c>
       <c r="M21" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -19041,7 +18826,7 @@
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="149"/>
       <c r="B22" s="198" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="C22" s="198" t="s">
         <v>20</v>
@@ -19057,7 +18842,7 @@
         <v>Annual</v>
       </c>
       <c r="G22" s="173" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="H22" s="173" t="str">
         <f t="shared" si="3"/>
@@ -19076,7 +18861,7 @@
       </c>
       <c r="L22" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E14Y#0001</v>
+        <v>EUR_YCSTDRH_AB6E14Y#0004</v>
       </c>
       <c r="M22" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -19087,7 +18872,7 @@
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="149"/>
       <c r="B23" s="198" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="C23" s="198" t="s">
         <v>19</v>
@@ -19103,7 +18888,7 @@
         <v>Annual</v>
       </c>
       <c r="G23" s="173" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="H23" s="173" t="str">
         <f t="shared" si="3"/>
@@ -19122,7 +18907,7 @@
       </c>
       <c r="L23" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E15Y#0001</v>
+        <v>EUR_YCSTDRH_AB6E15Y#0004</v>
       </c>
       <c r="M23" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -19133,7 +18918,7 @@
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="149"/>
       <c r="B24" s="198" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="C24" s="198" t="s">
         <v>18</v>
@@ -19149,7 +18934,7 @@
         <v>Annual</v>
       </c>
       <c r="G24" s="173" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="H24" s="173" t="str">
         <f t="shared" si="3"/>
@@ -19168,7 +18953,7 @@
       </c>
       <c r="L24" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E16Y#0001</v>
+        <v>EUR_YCSTDRH_AB6E16Y#0004</v>
       </c>
       <c r="M24" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -19179,7 +18964,7 @@
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="149"/>
       <c r="B25" s="198" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="C25" s="198" t="s">
         <v>17</v>
@@ -19195,7 +18980,7 @@
         <v>Annual</v>
       </c>
       <c r="G25" s="173" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="H25" s="173" t="str">
         <f t="shared" si="3"/>
@@ -19214,7 +18999,7 @@
       </c>
       <c r="L25" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E17Y#0001</v>
+        <v>EUR_YCSTDRH_AB6E17Y#0004</v>
       </c>
       <c r="M25" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -19225,7 +19010,7 @@
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="149"/>
       <c r="B26" s="198" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="C26" s="198" t="s">
         <v>16</v>
@@ -19241,7 +19026,7 @@
         <v>Annual</v>
       </c>
       <c r="G26" s="173" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="H26" s="173" t="str">
         <f t="shared" si="3"/>
@@ -19260,7 +19045,7 @@
       </c>
       <c r="L26" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E18Y#0001</v>
+        <v>EUR_YCSTDRH_AB6E18Y#0004</v>
       </c>
       <c r="M26" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -19271,7 +19056,7 @@
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="149"/>
       <c r="B27" s="198" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="C27" s="198" t="s">
         <v>15</v>
@@ -19287,7 +19072,7 @@
         <v>Annual</v>
       </c>
       <c r="G27" s="173" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="H27" s="173" t="str">
         <f t="shared" si="3"/>
@@ -19306,7 +19091,7 @@
       </c>
       <c r="L27" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E19Y#0001</v>
+        <v>EUR_YCSTDRH_AB6E19Y#0004</v>
       </c>
       <c r="M27" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -19317,7 +19102,7 @@
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="149"/>
       <c r="B28" s="198" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="C28" s="198" t="s">
         <v>14</v>
@@ -19333,7 +19118,7 @@
         <v>Annual</v>
       </c>
       <c r="G28" s="173" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="H28" s="173" t="str">
         <f t="shared" si="3"/>
@@ -19352,7 +19137,7 @@
       </c>
       <c r="L28" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E20Y#0001</v>
+        <v>EUR_YCSTDRH_AB6E20Y#0004</v>
       </c>
       <c r="M28" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -19363,7 +19148,7 @@
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="149"/>
       <c r="B29" s="198" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="C29" s="198" t="s">
         <v>13</v>
@@ -19379,7 +19164,7 @@
         <v>Annual</v>
       </c>
       <c r="G29" s="173" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="H29" s="173" t="str">
         <f t="shared" si="3"/>
@@ -19398,7 +19183,7 @@
       </c>
       <c r="L29" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E21Y#0001</v>
+        <v>EUR_YCSTDRH_AB6E21Y#0004</v>
       </c>
       <c r="M29" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -19409,7 +19194,7 @@
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="149"/>
       <c r="B30" s="198" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="C30" s="198" t="s">
         <v>12</v>
@@ -19425,7 +19210,7 @@
         <v>Annual</v>
       </c>
       <c r="G30" s="173" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="H30" s="173" t="str">
         <f t="shared" si="3"/>
@@ -19444,7 +19229,7 @@
       </c>
       <c r="L30" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E22Y#0001</v>
+        <v>EUR_YCSTDRH_AB6E22Y#0004</v>
       </c>
       <c r="M30" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -19455,7 +19240,7 @@
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="149"/>
       <c r="B31" s="198" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="C31" s="198" t="s">
         <v>11</v>
@@ -19471,7 +19256,7 @@
         <v>Annual</v>
       </c>
       <c r="G31" s="173" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="H31" s="173" t="str">
         <f t="shared" si="3"/>
@@ -19490,7 +19275,7 @@
       </c>
       <c r="L31" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E23Y#0001</v>
+        <v>EUR_YCSTDRH_AB6E23Y#0004</v>
       </c>
       <c r="M31" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -19501,7 +19286,7 @@
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="149"/>
       <c r="B32" s="198" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="C32" s="198" t="s">
         <v>10</v>
@@ -19517,7 +19302,7 @@
         <v>Annual</v>
       </c>
       <c r="G32" s="173" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="H32" s="173" t="str">
         <f t="shared" si="3"/>
@@ -19536,7 +19321,7 @@
       </c>
       <c r="L32" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E24Y#0001</v>
+        <v>EUR_YCSTDRH_AB6E24Y#0004</v>
       </c>
       <c r="M32" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -19547,7 +19332,7 @@
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="149"/>
       <c r="B33" s="198" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="C33" s="198" t="s">
         <v>9</v>
@@ -19563,7 +19348,7 @@
         <v>Annual</v>
       </c>
       <c r="G33" s="173" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="H33" s="173" t="str">
         <f t="shared" si="3"/>
@@ -19582,7 +19367,7 @@
       </c>
       <c r="L33" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E25Y#0001</v>
+        <v>EUR_YCSTDRH_AB6E25Y#0004</v>
       </c>
       <c r="M33" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -19593,7 +19378,7 @@
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="149"/>
       <c r="B34" s="198" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="C34" s="198" t="s">
         <v>8</v>
@@ -19609,7 +19394,7 @@
         <v>Annual</v>
       </c>
       <c r="G34" s="173" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="H34" s="173" t="str">
         <f t="shared" si="3"/>
@@ -19628,7 +19413,7 @@
       </c>
       <c r="L34" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E26Y#0001</v>
+        <v>EUR_YCSTDRH_AB6E26Y#0004</v>
       </c>
       <c r="M34" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -19639,7 +19424,7 @@
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="149"/>
       <c r="B35" s="198" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="C35" s="198" t="s">
         <v>7</v>
@@ -19655,7 +19440,7 @@
         <v>Annual</v>
       </c>
       <c r="G35" s="173" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="H35" s="173" t="str">
         <f t="shared" si="3"/>
@@ -19674,7 +19459,7 @@
       </c>
       <c r="L35" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E27Y#0001</v>
+        <v>EUR_YCSTDRH_AB6E27Y#0004</v>
       </c>
       <c r="M35" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -19685,7 +19470,7 @@
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="149"/>
       <c r="B36" s="198" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="C36" s="198" t="s">
         <v>6</v>
@@ -19701,7 +19486,7 @@
         <v>Annual</v>
       </c>
       <c r="G36" s="173" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="H36" s="173" t="str">
         <f t="shared" si="3"/>
@@ -19720,7 +19505,7 @@
       </c>
       <c r="L36" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E28Y#0001</v>
+        <v>EUR_YCSTDRH_AB6E28Y#0004</v>
       </c>
       <c r="M36" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -19731,7 +19516,7 @@
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="149"/>
       <c r="B37" s="198" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="C37" s="198" t="s">
         <v>5</v>
@@ -19747,7 +19532,7 @@
         <v>Annual</v>
       </c>
       <c r="G37" s="173" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="H37" s="173" t="str">
         <f t="shared" si="3"/>
@@ -19766,7 +19551,7 @@
       </c>
       <c r="L37" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E29Y#0001</v>
+        <v>EUR_YCSTDRH_AB6E29Y#0004</v>
       </c>
       <c r="M37" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -19777,7 +19562,7 @@
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="149"/>
       <c r="B38" s="198" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="C38" s="198" t="s">
         <v>4</v>
@@ -19793,7 +19578,7 @@
         <v>Annual</v>
       </c>
       <c r="G38" s="173" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="H38" s="173" t="str">
         <f t="shared" si="3"/>
@@ -19812,7 +19597,7 @@
       </c>
       <c r="L38" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E30Y#0001</v>
+        <v>EUR_YCSTDRH_AB6E30Y#0004</v>
       </c>
       <c r="M38" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -19823,7 +19608,7 @@
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="149"/>
       <c r="B39" s="198" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="C39" s="198" t="s">
         <v>3</v>
@@ -19839,7 +19624,7 @@
         <v>Annual</v>
       </c>
       <c r="G39" s="173" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="H39" s="173" t="str">
         <f t="shared" si="3"/>
@@ -19858,7 +19643,7 @@
       </c>
       <c r="L39" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E35Y#0001</v>
+        <v>EUR_YCSTDRH_AB6E35Y#0004</v>
       </c>
       <c r="M39" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -19869,7 +19654,7 @@
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="149"/>
       <c r="B40" s="198" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="C40" s="198" t="s">
         <v>2</v>
@@ -19885,7 +19670,7 @@
         <v>Annual</v>
       </c>
       <c r="G40" s="173" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="H40" s="173" t="str">
         <f t="shared" si="3"/>
@@ -19904,7 +19689,7 @@
       </c>
       <c r="L40" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E40Y#0001</v>
+        <v>EUR_YCSTDRH_AB6E40Y#0004</v>
       </c>
       <c r="M40" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -19915,7 +19700,7 @@
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="149"/>
       <c r="B41" s="198" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="C41" s="198" t="s">
         <v>1</v>
@@ -19931,7 +19716,7 @@
         <v>Annual</v>
       </c>
       <c r="G41" s="173" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="H41" s="173" t="str">
         <f t="shared" si="3"/>
@@ -19950,7 +19735,7 @@
       </c>
       <c r="L41" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E50Y#0001</v>
+        <v>EUR_YCSTDRH_AB6E50Y#0004</v>
       </c>
       <c r="M41" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -19961,7 +19746,7 @@
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="149"/>
       <c r="B42" s="198" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="C42" s="198" t="s">
         <v>0</v>
@@ -19977,7 +19762,7 @@
         <v>Annual</v>
       </c>
       <c r="G42" s="173" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="H42" s="173" t="str">
         <f t="shared" si="3"/>
@@ -19996,7 +19781,7 @@
       </c>
       <c r="L42" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E60Y#0001</v>
+        <v>EUR_YCSTDRH_AB6E60Y#0004</v>
       </c>
       <c r="M42" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>

--- a/QuantLibXL/Data2/XLS/EUR_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR_YCSTDBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10185" yWindow="-15" windowWidth="10200" windowHeight="8085" activeTab="2"/>
+    <workbookView xWindow="10185" yWindow="-15" windowWidth="10200" windowHeight="8085"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="6" r:id="rId1"/>
@@ -68,7 +68,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>TRUE if the object must be permanent (i.e. resistant to garbage collection). Default is FALSE.</t>
         </r>
@@ -81,7 +81,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>id of the object to be created. If missing a unique id will be automatically assigned.</t>
         </r>
@@ -94,7 +94,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>number of days to advance from EvaluationDate (usually zero or two): it fixes the date at which the discount factor = 1.0. If omitted, default = 0 is used.</t>
         </r>
@@ -107,7 +107,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Discount, ZeroRate, or ForwardRate. If omitted, default = Discount is used.</t>
         </r>
@@ -120,7 +120,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Linear, LogLinear, or Cubic. If omitted, default = LogLinear is used.</t>
         </r>
@@ -144,6 +144,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Any number: higher number for higher priority</t>
         </r>
@@ -166,7 +167,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>max number of Futures to be included</t>
         </r>
@@ -179,7 +180,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>max number of Futures to be included</t>
         </r>
@@ -192,7 +193,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>discard the front Futures the given number of days before its expiry (e.g zero implies the use of the front Futures during its expiry day)</t>
         </r>
@@ -205,7 +206,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Depo inclusion criteria. If missing, default=AllDepos is used</t>
         </r>
@@ -691,6 +692,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -708,10 +710,12 @@
       <sz val="8"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -723,7 +727,7 @@
       <sz val="8"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -771,6 +775,7 @@
       <sz val="12"/>
       <color indexed="16"/>
       <name val="MS Sans Serif"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -803,6 +808,7 @@
       <sz val="8"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2127,8 +2133,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2303,7 +2309,9 @@
       <c r="C11" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="84"/>
+      <c r="D11" s="84">
+        <v>41718.524560185186</v>
+      </c>
       <c r="E11" s="61"/>
       <c r="F11" s="60"/>
       <c r="H11" s="125"/>
@@ -2357,7 +2365,7 @@
       </c>
       <c r="D14" s="81" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_EURYCSTD#0006</v>
+        <v>_EURYCSTD#0000</v>
       </c>
       <c r="E14" s="61"/>
       <c r="F14" s="60"/>
@@ -2481,11 +2489,11 @@
       <c r="B23" s="64"/>
       <c r="C23" s="68">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41702</v>
+        <v>41718</v>
       </c>
       <c r="D23" s="67">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
-        <v>2.5793399729359772E-2</v>
+        <v>2.6632850938324421E-2</v>
       </c>
       <c r="E23" s="61"/>
       <c r="F23" s="60"/>
@@ -2494,11 +2502,11 @@
       <c r="B24" s="64"/>
       <c r="C24" s="66">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>63619</v>
+        <v>63639</v>
       </c>
       <c r="D24" s="65">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>1.3180531757461815E-3</v>
+        <v>1.7236070414455842E-3</v>
       </c>
       <c r="E24" s="61"/>
       <c r="F24" s="60"/>
@@ -2635,7 +2643,7 @@
       </c>
       <c r="F2" s="13">
         <f>_xll.qlRateHelperQuoteValue($E2,Trigger)</f>
-        <v>1.2999999999999999E-3</v>
+        <v>1.7000000000000001E-3</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="12" t="b">
@@ -2649,11 +2657,11 @@
       </c>
       <c r="K2" s="11">
         <f>_xll.qlRateHelperEarliestDate($E2,Trigger)</f>
-        <v>41702</v>
+        <v>41718</v>
       </c>
       <c r="L2" s="10">
         <f>_xll.qlRateHelperLatestDate($E2,Trigger)</f>
-        <v>41703</v>
+        <v>41719</v>
       </c>
       <c r="M2" s="95"/>
       <c r="N2" s="95"/>
@@ -2670,7 +2678,7 @@
       </c>
       <c r="F3" s="13">
         <f>_xll.qlRateHelperQuoteValue($E3,Trigger)</f>
-        <v>1.6000000000000001E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="12" t="b">
@@ -2684,11 +2692,11 @@
       </c>
       <c r="K3" s="11">
         <f>_xll.qlRateHelperEarliestDate($E3,Trigger)</f>
-        <v>41703</v>
+        <v>41719</v>
       </c>
       <c r="L3" s="10">
         <f>_xll.qlRateHelperLatestDate($E3,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="M3" s="95"/>
       <c r="N3" s="95"/>
@@ -2705,7 +2713,7 @@
       </c>
       <c r="F4" s="13">
         <f>_xll.qlRateHelperQuoteValue($E4,Trigger)</f>
-        <v>1.6000000000000001E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12" t="b">
@@ -2719,11 +2727,11 @@
       </c>
       <c r="K4" s="11">
         <f>_xll.qlRateHelperEarliestDate($E4,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L4" s="10">
         <f>_xll.qlRateHelperLatestDate($E4,Trigger)</f>
-        <v>41705</v>
+        <v>41723</v>
       </c>
       <c r="M4" s="95"/>
       <c r="N4" s="95"/>
@@ -2740,7 +2748,7 @@
       </c>
       <c r="F5" s="13">
         <f>_xll.qlRateHelperQuoteValue($E5,Trigger)</f>
-        <v>1.83E-3</v>
+        <v>1.9500000000000001E-3</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12" t="b">
@@ -2754,11 +2762,11 @@
       </c>
       <c r="K5" s="11">
         <f>_xll.qlRateHelperEarliestDate($E5,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L5" s="10">
         <f>_xll.qlRateHelperLatestDate($E5,Trigger)</f>
-        <v>41711</v>
+        <v>41729</v>
       </c>
       <c r="M5" s="95"/>
       <c r="N5" s="95"/>
@@ -2775,7 +2783,7 @@
       </c>
       <c r="F6" s="13">
         <f>_xll.qlRateHelperQuoteValue($E6,Trigger)</f>
-        <v>1.9400000000000001E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12" t="b">
@@ -2789,11 +2797,11 @@
       </c>
       <c r="K6" s="11">
         <f>_xll.qlRateHelperEarliestDate($E6,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L6" s="10">
         <f>_xll.qlRateHelperLatestDate($E6,Trigger)</f>
-        <v>41718</v>
+        <v>41736</v>
       </c>
       <c r="M6" s="95"/>
       <c r="N6" s="95"/>
@@ -2810,7 +2818,7 @@
       </c>
       <c r="F7" s="13">
         <f>_xll.qlRateHelperQuoteValue($E7,Trigger)</f>
-        <v>2.1800000000000001E-3</v>
+        <v>2.3699999999999997E-3</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="12" t="b">
@@ -2824,11 +2832,11 @@
       </c>
       <c r="K7" s="11">
         <f>_xll.qlRateHelperEarliestDate($E7,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L7" s="10">
         <f>_xll.qlRateHelperLatestDate($E7,Trigger)</f>
-        <v>41736</v>
+        <v>41753</v>
       </c>
       <c r="M7" s="95"/>
       <c r="N7" s="95"/>
@@ -2845,7 +2853,7 @@
       </c>
       <c r="F8" s="13">
         <f>_xll.qlRateHelperQuoteValue($E8,Trigger)</f>
-        <v>2.5000000000000001E-3</v>
+        <v>2.7400000000000002E-3</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="12" t="b">
@@ -2859,11 +2867,11 @@
       </c>
       <c r="K8" s="11">
         <f>_xll.qlRateHelperEarliestDate($E8,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L8" s="10">
         <f>_xll.qlRateHelperLatestDate($E8,Trigger)</f>
-        <v>41765</v>
+        <v>41785</v>
       </c>
       <c r="M8" s="95"/>
       <c r="N8" s="95"/>
@@ -2880,7 +2888,7 @@
       </c>
       <c r="F9" s="13">
         <f>_xll.qlRateHelperQuoteValue($E9,Trigger)</f>
-        <v>2.8699999999999997E-3</v>
+        <v>3.1199999999999999E-3</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="12" t="b">
@@ -2894,11 +2902,11 @@
       </c>
       <c r="K9" s="11">
         <f>_xll.qlRateHelperEarliestDate($E9,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L9" s="10">
         <f>_xll.qlRateHelperLatestDate($E9,Trigger)</f>
-        <v>41796</v>
+        <v>41814</v>
       </c>
       <c r="M9" s="95"/>
       <c r="N9" s="95"/>
@@ -2915,7 +2923,7 @@
       </c>
       <c r="F10" s="13">
         <f>_xll.qlRateHelperQuoteValue($E10,Trigger)</f>
-        <v>3.8600000000000001E-3</v>
+        <v>4.1399999999999996E-3</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="12" t="b">
@@ -2929,11 +2937,11 @@
       </c>
       <c r="K10" s="11">
         <f>_xll.qlRateHelperEarliestDate($E10,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L10" s="10">
         <f>_xll.qlRateHelperLatestDate($E10,Trigger)</f>
-        <v>41890</v>
+        <v>41906</v>
       </c>
       <c r="Q10" s="31">
         <f>_xll.qlYieldTSDiscount(YieldCurve,K2)</f>
@@ -2952,7 +2960,7 @@
       </c>
       <c r="F11" s="13">
         <f>_xll.qlRateHelperQuoteValue($E11,Trigger)</f>
-        <v>4.6899999999999997E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="12" t="b">
@@ -2966,19 +2974,19 @@
       </c>
       <c r="K11" s="11">
         <f>_xll.qlRateHelperEarliestDate($E11,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L11" s="10">
         <f>_xll.qlRateHelperLatestDate($E11,Trigger)</f>
-        <v>41981</v>
+        <v>41997</v>
       </c>
       <c r="O11" s="29">
         <f>_xll.qlYieldTSForwardRate(YieldCurve,K2,L124,"act/365","simple","annual")</f>
-        <v>3.7670999009817858E-2</v>
+        <v>3.89843290559828E-2</v>
       </c>
       <c r="Q11" s="31">
         <f>_xll.qlYieldTSDiscount(YieldCurve,L124)</f>
-        <v>0.47785948287253094</v>
+        <v>0.4692692534355411</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
@@ -2993,7 +3001,7 @@
       </c>
       <c r="F12" s="6">
         <f>_xll.qlRateHelperQuoteValue($E12,Trigger)</f>
-        <v>5.5200000000000006E-3</v>
+        <v>5.8499999999999993E-3</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="5" t="b">
@@ -3007,11 +3015,11 @@
       </c>
       <c r="K12" s="4">
         <f>_xll.qlRateHelperEarliestDate($E12,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L12" s="3">
         <f>_xll.qlRateHelperLatestDate($E12,Trigger)</f>
-        <v>42069</v>
+        <v>42087</v>
       </c>
       <c r="Q12" s="31"/>
     </row>
@@ -3054,7 +3062,7 @@
       </c>
       <c r="Q13" s="31">
         <f>1/Q11</f>
-        <v>2.0926653877176484</v>
+        <v>2.1309727681474024</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
@@ -3100,7 +3108,7 @@
       </c>
       <c r="Q14" s="30">
         <f>(L124-K2)/365</f>
-        <v>29.024657534246575</v>
+        <v>29.030136986301368</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
@@ -3142,11 +3150,11 @@
       </c>
       <c r="Q15" s="29">
         <f>(Q13^(1/Q14))-1</f>
-        <v>2.5768170420287451E-2</v>
+        <v>2.6404411893321322E-2</v>
       </c>
       <c r="R15" s="29">
         <f>(Q13-1)/Q14</f>
-        <v>3.7646107845661851E-2</v>
+        <v>3.8958574969214982E-2</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
@@ -3806,15 +3814,15 @@
       </c>
       <c r="D33" s="14" t="str">
         <f t="array" ref="D33:D74">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$A33:$A74)</f>
-        <v>H4</v>
+        <v>J4</v>
       </c>
       <c r="E33" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YCSTDRH_FUT3MH4</v>
+        <v>EUR_YCSTDRH_FUT3MJ4</v>
       </c>
       <c r="F33" s="28">
         <f>_xll.qlRateHelperQuoteValue($E33,Trigger)</f>
-        <v>99.737499999999997</v>
+        <v>99.682500000000005</v>
       </c>
       <c r="G33" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E33,Trigger)</f>
@@ -3831,11 +3839,11 @@
       </c>
       <c r="K33" s="11">
         <f>_xll.qlRateHelperEarliestDate($E33,Trigger)</f>
-        <v>41717</v>
+        <v>41745</v>
       </c>
       <c r="L33" s="10">
         <f>_xll.qlRateHelperLatestDate($E33,Trigger)</f>
-        <v>41809</v>
+        <v>41836</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -3848,15 +3856,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D34" s="14" t="str">
-        <v>J4</v>
+        <v>K4</v>
       </c>
       <c r="E34" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YCSTDRH_FUT3MJ4</v>
+        <v>EUR_YCSTDRH_FUT3MK4</v>
       </c>
       <c r="F34" s="28">
         <f>_xll.qlRateHelperQuoteValue($E34,Trigger)</f>
-        <v>99.75</v>
+        <v>99.685000000000002</v>
       </c>
       <c r="G34" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E34,Trigger)</f>
@@ -3873,11 +3881,11 @@
       </c>
       <c r="K34" s="11">
         <f>_xll.qlRateHelperEarliestDate($E34,Trigger)</f>
-        <v>41745</v>
+        <v>41780</v>
       </c>
       <c r="L34" s="10">
         <f>_xll.qlRateHelperLatestDate($E34,Trigger)</f>
-        <v>41836</v>
+        <v>41872</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -3890,15 +3898,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D35" s="14" t="str">
-        <v>K4</v>
+        <v>M4</v>
       </c>
       <c r="E35" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YCSTDRH_FUT3MK4</v>
+        <v>EUR_YCSTDRH_FUT3MM4</v>
       </c>
       <c r="F35" s="28">
         <f>_xll.qlRateHelperQuoteValue($E35,Trigger)</f>
-        <v>99.754999999999995</v>
+        <v>99.677500000000009</v>
       </c>
       <c r="G35" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E35,Trigger)</f>
@@ -3915,11 +3923,11 @@
       </c>
       <c r="K35" s="11">
         <f>_xll.qlRateHelperEarliestDate($E35,Trigger)</f>
-        <v>41780</v>
+        <v>41808</v>
       </c>
       <c r="L35" s="10">
         <f>_xll.qlRateHelperLatestDate($E35,Trigger)</f>
-        <v>41872</v>
+        <v>41900</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -3932,19 +3940,19 @@
         <v>FUT3M</v>
       </c>
       <c r="D36" s="14" t="str">
-        <v>M4</v>
+        <v>N4</v>
       </c>
       <c r="E36" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YCSTDRH_FUT3MM4</v>
-      </c>
-      <c r="F36" s="28">
+        <v>EUR_YCSTDRH_FUT3MN4</v>
+      </c>
+      <c r="F36" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E36,Trigger)</f>
-        <v>99.757499999999993</v>
-      </c>
-      <c r="G36" s="13">
+        <v>#NUM!</v>
+      </c>
+      <c r="G36" s="13" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E36,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="H36" s="212" t="b">
         <v>0</v>
@@ -3957,11 +3965,11 @@
       </c>
       <c r="K36" s="11">
         <f>_xll.qlRateHelperEarliestDate($E36,Trigger)</f>
-        <v>41808</v>
+        <v>41836</v>
       </c>
       <c r="L36" s="10">
         <f>_xll.qlRateHelperLatestDate($E36,Trigger)</f>
-        <v>41900</v>
+        <v>41928</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -3974,11 +3982,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D37" s="14" t="str">
-        <v>N4</v>
+        <v>Q4</v>
       </c>
       <c r="E37" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YCSTDRH_FUT3MN4</v>
+        <v>EUR_YCSTDRH_FUT3MQ4</v>
       </c>
       <c r="F37" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E37,Trigger)</f>
@@ -3999,11 +4007,11 @@
       </c>
       <c r="K37" s="11">
         <f>_xll.qlRateHelperEarliestDate($E37,Trigger)</f>
-        <v>41836</v>
+        <v>41871</v>
       </c>
       <c r="L37" s="10">
         <f>_xll.qlRateHelperLatestDate($E37,Trigger)</f>
-        <v>41928</v>
+        <v>41963</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -4016,19 +4024,19 @@
         <v>FUT3M</v>
       </c>
       <c r="D38" s="14" t="str">
-        <v>Q4</v>
+        <v>U4</v>
       </c>
       <c r="E38" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YCSTDRH_FUT3MQ4</v>
-      </c>
-      <c r="F38" s="28" t="e">
+        <v>EUR_YCSTDRH_FUT3MU4</v>
+      </c>
+      <c r="F38" s="28">
         <f>_xll.qlRateHelperQuoteValue($E38,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G38" s="13" t="e">
+        <v>99.682500000000005</v>
+      </c>
+      <c r="G38" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E38,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H38" s="212" t="b">
         <v>0</v>
@@ -4041,11 +4049,11 @@
       </c>
       <c r="K38" s="11">
         <f>_xll.qlRateHelperEarliestDate($E38,Trigger)</f>
-        <v>41871</v>
+        <v>41899</v>
       </c>
       <c r="L38" s="10">
         <f>_xll.qlRateHelperLatestDate($E38,Trigger)</f>
-        <v>41963</v>
+        <v>41990</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -4058,19 +4066,19 @@
         <v>FUT3M</v>
       </c>
       <c r="D39" s="14" t="str">
-        <v>U4</v>
+        <v>V4</v>
       </c>
       <c r="E39" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YCSTDRH_FUT3MU4</v>
-      </c>
-      <c r="F39" s="28">
+        <v>EUR_YCSTDRH_FUT3MV4</v>
+      </c>
+      <c r="F39" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E39,Trigger)</f>
-        <v>99.752499999999998</v>
-      </c>
-      <c r="G39" s="13">
+        <v>#NUM!</v>
+      </c>
+      <c r="G39" s="13" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E39,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="H39" s="212" t="b">
         <v>1</v>
@@ -4083,11 +4091,11 @@
       </c>
       <c r="K39" s="11">
         <f>_xll.qlRateHelperEarliestDate($E39,Trigger)</f>
-        <v>41899</v>
+        <v>41927</v>
       </c>
       <c r="L39" s="10">
         <f>_xll.qlRateHelperLatestDate($E39,Trigger)</f>
-        <v>41990</v>
+        <v>42019</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -4100,11 +4108,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D40" s="14" t="str">
-        <v>V4</v>
+        <v>X4</v>
       </c>
       <c r="E40" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YCSTDRH_FUT3MV4</v>
+        <v>EUR_YCSTDRH_FUT3MX4</v>
       </c>
       <c r="F40" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E40,Trigger)</f>
@@ -4125,11 +4133,11 @@
       </c>
       <c r="K40" s="11">
         <f>_xll.qlRateHelperEarliestDate($E40,Trigger)</f>
-        <v>41927</v>
+        <v>41962</v>
       </c>
       <c r="L40" s="10">
         <f>_xll.qlRateHelperLatestDate($E40,Trigger)</f>
-        <v>42019</v>
+        <v>42054</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -4142,19 +4150,19 @@
         <v>FUT3M</v>
       </c>
       <c r="D41" s="14" t="str">
-        <v>X4</v>
+        <v>Z4</v>
       </c>
       <c r="E41" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YCSTDRH_FUT3MX4</v>
-      </c>
-      <c r="F41" s="28" t="e">
+        <v>EUR_YCSTDRH_FUT3MZ4</v>
+      </c>
+      <c r="F41" s="28">
         <f>_xll.qlRateHelperQuoteValue($E41,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G41" s="13" t="e">
+        <v>99.662499999999994</v>
+      </c>
+      <c r="G41" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E41,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H41" s="212" t="b">
         <v>1</v>
@@ -4167,11 +4175,11 @@
       </c>
       <c r="K41" s="11">
         <f>_xll.qlRateHelperEarliestDate($E41,Trigger)</f>
-        <v>41962</v>
+        <v>41990</v>
       </c>
       <c r="L41" s="10">
         <f>_xll.qlRateHelperLatestDate($E41,Trigger)</f>
-        <v>42054</v>
+        <v>42080</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -4184,19 +4192,19 @@
         <v>FUT3M</v>
       </c>
       <c r="D42" s="14" t="str">
-        <v>Z4</v>
+        <v>F5</v>
       </c>
       <c r="E42" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YCSTDRH_FUT3MZ4</v>
-      </c>
-      <c r="F42" s="28">
+        <v>EUR_YCSTDRH_FUT3MF5</v>
+      </c>
+      <c r="F42" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E42,Trigger)</f>
-        <v>99.732500000000002</v>
-      </c>
-      <c r="G42" s="13">
+        <v>#NUM!</v>
+      </c>
+      <c r="G42" s="13" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E42,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="H42" s="212" t="b">
         <v>1</v>
@@ -4209,11 +4217,11 @@
       </c>
       <c r="K42" s="11">
         <f>_xll.qlRateHelperEarliestDate($E42,Trigger)</f>
-        <v>41990</v>
+        <v>42025</v>
       </c>
       <c r="L42" s="10">
         <f>_xll.qlRateHelperLatestDate($E42,Trigger)</f>
-        <v>42080</v>
+        <v>42115</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -4226,11 +4234,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D43" s="14" t="str">
-        <v>F5</v>
+        <v>G5</v>
       </c>
       <c r="E43" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YCSTDRH_FUT3MF5</v>
+        <v>EUR_YCSTDRH_FUT3MG5</v>
       </c>
       <c r="F43" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E43,Trigger)</f>
@@ -4251,11 +4259,11 @@
       </c>
       <c r="K43" s="11">
         <f>_xll.qlRateHelperEarliestDate($E43,Trigger)</f>
-        <v>42025</v>
+        <v>42053</v>
       </c>
       <c r="L43" s="10">
         <f>_xll.qlRateHelperLatestDate($E43,Trigger)</f>
-        <v>42115</v>
+        <v>42142</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -4268,19 +4276,19 @@
         <v>FUT3M</v>
       </c>
       <c r="D44" s="14" t="str">
-        <v>G5</v>
+        <v>H5</v>
       </c>
       <c r="E44" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YCSTDRH_FUT3MG5</v>
-      </c>
-      <c r="F44" s="28" t="e">
+        <v>EUR_YCSTDRH_FUT3MH5</v>
+      </c>
+      <c r="F44" s="28">
         <f>_xll.qlRateHelperQuoteValue($E44,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G44" s="13" t="e">
+        <v>99.637500000000003</v>
+      </c>
+      <c r="G44" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E44,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H44" s="212" t="b">
         <v>1</v>
@@ -4293,11 +4301,11 @@
       </c>
       <c r="K44" s="11">
         <f>_xll.qlRateHelperEarliestDate($E44,Trigger)</f>
-        <v>42053</v>
+        <v>42081</v>
       </c>
       <c r="L44" s="10">
         <f>_xll.qlRateHelperLatestDate($E44,Trigger)</f>
-        <v>42142</v>
+        <v>42173</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -4310,15 +4318,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D45" s="14" t="str">
-        <v>H5</v>
+        <v>M5</v>
       </c>
       <c r="E45" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YCSTDRH_FUT3MH5</v>
+        <v>EUR_YCSTDRH_FUT3MM5</v>
       </c>
       <c r="F45" s="28">
         <f>_xll.qlRateHelperQuoteValue($E45,Trigger)</f>
-        <v>99.702500000000001</v>
+        <v>99.597499999999997</v>
       </c>
       <c r="G45" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E45,Trigger)</f>
@@ -4335,11 +4343,11 @@
       </c>
       <c r="K45" s="11">
         <f>_xll.qlRateHelperEarliestDate($E45,Trigger)</f>
-        <v>42081</v>
+        <v>42172</v>
       </c>
       <c r="L45" s="10">
         <f>_xll.qlRateHelperLatestDate($E45,Trigger)</f>
-        <v>42173</v>
+        <v>42264</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -4352,15 +4360,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D46" s="14" t="str">
-        <v>M5</v>
+        <v>U5</v>
       </c>
       <c r="E46" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YCSTDRH_FUT3MM5</v>
+        <v>EUR_YCSTDRH_FUT3MU5</v>
       </c>
       <c r="F46" s="28">
         <f>_xll.qlRateHelperQuoteValue($E46,Trigger)</f>
-        <v>99.662499999999994</v>
+        <v>99.547499999999999</v>
       </c>
       <c r="G46" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E46,Trigger)</f>
@@ -4377,11 +4385,11 @@
       </c>
       <c r="K46" s="11">
         <f>_xll.qlRateHelperEarliestDate($E46,Trigger)</f>
-        <v>42172</v>
+        <v>42263</v>
       </c>
       <c r="L46" s="10">
         <f>_xll.qlRateHelperLatestDate($E46,Trigger)</f>
-        <v>42264</v>
+        <v>42354</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -4394,15 +4402,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D47" s="14" t="str">
-        <v>U5</v>
+        <v>Z5</v>
       </c>
       <c r="E47" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YCSTDRH_FUT3MU5</v>
+        <v>EUR_YCSTDRH_FUT3MZ5</v>
       </c>
       <c r="F47" s="28">
         <f>_xll.qlRateHelperQuoteValue($E47,Trigger)</f>
-        <v>99.607500000000002</v>
+        <v>99.482500000000002</v>
       </c>
       <c r="G47" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E47,Trigger)</f>
@@ -4419,11 +4427,11 @@
       </c>
       <c r="K47" s="11">
         <f>_xll.qlRateHelperEarliestDate($E47,Trigger)</f>
-        <v>42263</v>
+        <v>42354</v>
       </c>
       <c r="L47" s="10">
         <f>_xll.qlRateHelperLatestDate($E47,Trigger)</f>
-        <v>42354</v>
+        <v>42445</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -4436,15 +4444,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D48" s="14" t="str">
-        <v>Z5</v>
+        <v>H6</v>
       </c>
       <c r="E48" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YCSTDRH_FUT3MZ5</v>
+        <v>EUR_YCSTDRH_FUT3MH6</v>
       </c>
       <c r="F48" s="28">
         <f>_xll.qlRateHelperQuoteValue($E48,Trigger)</f>
-        <v>99.537499999999994</v>
+        <v>99.397500000000008</v>
       </c>
       <c r="G48" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E48,Trigger)</f>
@@ -4461,11 +4469,11 @@
       </c>
       <c r="K48" s="11">
         <f>_xll.qlRateHelperEarliestDate($E48,Trigger)</f>
-        <v>42354</v>
+        <v>42445</v>
       </c>
       <c r="L48" s="10">
         <f>_xll.qlRateHelperLatestDate($E48,Trigger)</f>
-        <v>42445</v>
+        <v>42537</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -4478,15 +4486,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D49" s="14" t="str">
-        <v>H6</v>
+        <v>M6</v>
       </c>
       <c r="E49" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YCSTDRH_FUT3MH6</v>
+        <v>EUR_YCSTDRH_FUT3MM6</v>
       </c>
       <c r="F49" s="28">
         <f>_xll.qlRateHelperQuoteValue($E49,Trigger)</f>
-        <v>99.442499999999995</v>
+        <v>99.297499999999999</v>
       </c>
       <c r="G49" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E49,Trigger)</f>
@@ -4503,11 +4511,11 @@
       </c>
       <c r="K49" s="11">
         <f>_xll.qlRateHelperEarliestDate($E49,Trigger)</f>
-        <v>42445</v>
+        <v>42536</v>
       </c>
       <c r="L49" s="10">
         <f>_xll.qlRateHelperLatestDate($E49,Trigger)</f>
-        <v>42537</v>
+        <v>42628</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -4520,15 +4528,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D50" s="14" t="str">
-        <v>M6</v>
+        <v>U6</v>
       </c>
       <c r="E50" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YCSTDRH_FUT3MM6</v>
+        <v>EUR_YCSTDRH_FUT3MU6</v>
       </c>
       <c r="F50" s="28">
         <f>_xll.qlRateHelperQuoteValue($E50,Trigger)</f>
-        <v>99.337500000000006</v>
+        <v>99.177500000000009</v>
       </c>
       <c r="G50" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E50,Trigger)</f>
@@ -4545,11 +4553,11 @@
       </c>
       <c r="K50" s="11">
         <f>_xll.qlRateHelperEarliestDate($E50,Trigger)</f>
-        <v>42536</v>
+        <v>42634</v>
       </c>
       <c r="L50" s="10">
         <f>_xll.qlRateHelperLatestDate($E50,Trigger)</f>
-        <v>42628</v>
+        <v>42725</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -4562,15 +4570,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D51" s="14" t="str">
-        <v>U6</v>
+        <v>Z6</v>
       </c>
       <c r="E51" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YCSTDRH_FUT3MU6</v>
+        <v>EUR_YCSTDRH_FUT3MZ6</v>
       </c>
       <c r="F51" s="28">
         <f>_xll.qlRateHelperQuoteValue($E51,Trigger)</f>
-        <v>99.207499999999996</v>
+        <v>99.052500000000009</v>
       </c>
       <c r="G51" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E51,Trigger)</f>
@@ -4587,11 +4595,11 @@
       </c>
       <c r="K51" s="11">
         <f>_xll.qlRateHelperEarliestDate($E51,Trigger)</f>
-        <v>42634</v>
+        <v>42725</v>
       </c>
       <c r="L51" s="10">
         <f>_xll.qlRateHelperLatestDate($E51,Trigger)</f>
-        <v>42725</v>
+        <v>42815</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -4604,15 +4612,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D52" s="14" t="str">
-        <v>Z6</v>
+        <v>H7</v>
       </c>
       <c r="E52" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YCSTDRH_FUT3MZ6</v>
+        <v>EUR_YCSTDRH_FUT3MH7</v>
       </c>
       <c r="F52" s="28">
         <f>_xll.qlRateHelperQuoteValue($E52,Trigger)</f>
-        <v>99.072499999999991</v>
+        <v>98.925000000000011</v>
       </c>
       <c r="G52" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E52,Trigger)</f>
@@ -4629,11 +4637,11 @@
       </c>
       <c r="K52" s="11">
         <f>_xll.qlRateHelperEarliestDate($E52,Trigger)</f>
-        <v>42725</v>
+        <v>42809</v>
       </c>
       <c r="L52" s="10">
         <f>_xll.qlRateHelperLatestDate($E52,Trigger)</f>
-        <v>42815</v>
+        <v>42901</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -4646,15 +4654,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D53" s="14" t="str">
-        <v>H7</v>
+        <v>M7</v>
       </c>
       <c r="E53" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YCSTDRH_FUT3MH7</v>
+        <v>EUR_YCSTDRH_FUT3MM7</v>
       </c>
       <c r="F53" s="28">
         <f>_xll.qlRateHelperQuoteValue($E53,Trigger)</f>
-        <v>98.947499999999991</v>
+        <v>98.792500000000004</v>
       </c>
       <c r="G53" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E53,Trigger)</f>
@@ -4671,11 +4679,11 @@
       </c>
       <c r="K53" s="11">
         <f>_xll.qlRateHelperEarliestDate($E53,Trigger)</f>
-        <v>42809</v>
+        <v>42907</v>
       </c>
       <c r="L53" s="10">
         <f>_xll.qlRateHelperLatestDate($E53,Trigger)</f>
-        <v>42901</v>
+        <v>42999</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -4688,15 +4696,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D54" s="14" t="str">
-        <v>M7</v>
+        <v>U7</v>
       </c>
       <c r="E54" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YCSTDRH_FUT3MM7</v>
+        <v>EUR_YCSTDRH_FUT3MU7</v>
       </c>
       <c r="F54" s="28">
         <f>_xll.qlRateHelperQuoteValue($E54,Trigger)</f>
-        <v>98.814999999999998</v>
+        <v>98.667500000000004</v>
       </c>
       <c r="G54" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E54,Trigger)</f>
@@ -4713,11 +4721,11 @@
       </c>
       <c r="K54" s="11">
         <f>_xll.qlRateHelperEarliestDate($E54,Trigger)</f>
-        <v>42907</v>
+        <v>42998</v>
       </c>
       <c r="L54" s="10">
         <f>_xll.qlRateHelperLatestDate($E54,Trigger)</f>
-        <v>42999</v>
+        <v>43089</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -4730,15 +4738,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D55" s="14" t="str">
-        <v>U7</v>
+        <v>Z7</v>
       </c>
       <c r="E55" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YCSTDRH_FUT3MU7</v>
+        <v>EUR_YCSTDRH_FUT3MZ7</v>
       </c>
       <c r="F55" s="28">
         <f>_xll.qlRateHelperQuoteValue($E55,Trigger)</f>
-        <v>98.69</v>
+        <v>98.545000000000002</v>
       </c>
       <c r="G55" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E55,Trigger)</f>
@@ -4755,11 +4763,11 @@
       </c>
       <c r="K55" s="11">
         <f>_xll.qlRateHelperEarliestDate($E55,Trigger)</f>
-        <v>42998</v>
+        <v>43089</v>
       </c>
       <c r="L55" s="10">
         <f>_xll.qlRateHelperLatestDate($E55,Trigger)</f>
-        <v>43089</v>
+        <v>43179</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
@@ -4772,15 +4780,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D56" s="14" t="str">
-        <v>Z7</v>
+        <v>H8</v>
       </c>
       <c r="E56" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YCSTDRH_FUT3MZ7</v>
+        <v>EUR_YCSTDRH_FUT3MH8</v>
       </c>
       <c r="F56" s="28">
         <f>_xll.qlRateHelperQuoteValue($E56,Trigger)</f>
-        <v>98.567499999999995</v>
+        <v>98.44</v>
       </c>
       <c r="G56" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E56,Trigger)</f>
@@ -4797,11 +4805,11 @@
       </c>
       <c r="K56" s="11">
         <f>_xll.qlRateHelperEarliestDate($E56,Trigger)</f>
-        <v>43089</v>
+        <v>43180</v>
       </c>
       <c r="L56" s="10">
         <f>_xll.qlRateHelperLatestDate($E56,Trigger)</f>
-        <v>43179</v>
+        <v>43272</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -4814,15 +4822,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D57" s="14" t="str">
-        <v>H8</v>
+        <v>M8</v>
       </c>
       <c r="E57" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YCSTDRH_FUT3MH8</v>
+        <v>EUR_YCSTDRH_FUT3MM8</v>
       </c>
       <c r="F57" s="28">
         <f>_xll.qlRateHelperQuoteValue($E57,Trigger)</f>
-        <v>98.460000000000008</v>
+        <v>98.327499999999986</v>
       </c>
       <c r="G57" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E57,Trigger)</f>
@@ -4839,11 +4847,11 @@
       </c>
       <c r="K57" s="11">
         <f>_xll.qlRateHelperEarliestDate($E57,Trigger)</f>
-        <v>43180</v>
+        <v>43271</v>
       </c>
       <c r="L57" s="10">
         <f>_xll.qlRateHelperLatestDate($E57,Trigger)</f>
-        <v>43272</v>
+        <v>43363</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
@@ -4856,15 +4864,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D58" s="14" t="str">
-        <v>M8</v>
+        <v>U8</v>
       </c>
       <c r="E58" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YCSTDRH_FUT3MM8</v>
+        <v>EUR_YCSTDRH_FUT3MU8</v>
       </c>
       <c r="F58" s="28">
         <f>_xll.qlRateHelperQuoteValue($E58,Trigger)</f>
-        <v>98.35</v>
+        <v>98.222499999999997</v>
       </c>
       <c r="G58" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E58,Trigger)</f>
@@ -4881,11 +4889,11 @@
       </c>
       <c r="K58" s="11">
         <f>_xll.qlRateHelperEarliestDate($E58,Trigger)</f>
-        <v>43271</v>
+        <v>43362</v>
       </c>
       <c r="L58" s="10">
         <f>_xll.qlRateHelperLatestDate($E58,Trigger)</f>
-        <v>43363</v>
+        <v>43453</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -4898,15 +4906,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D59" s="14" t="str">
-        <v>U8</v>
+        <v>Z8</v>
       </c>
       <c r="E59" s="14" t="str">
         <f t="shared" ref="E59:E90" si="4">RateHelperPrefix&amp;"_"&amp;$B59&amp;$C59&amp;$D59</f>
-        <v>EUR_YCSTDRH_FUT3MU8</v>
+        <v>EUR_YCSTDRH_FUT3MZ8</v>
       </c>
       <c r="F59" s="28">
         <f>_xll.qlRateHelperQuoteValue($E59,Trigger)</f>
-        <v>98.247500000000002</v>
+        <v>98.102499999999992</v>
       </c>
       <c r="G59" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E59,Trigger)</f>
@@ -4923,11 +4931,11 @@
       </c>
       <c r="K59" s="11">
         <f>_xll.qlRateHelperEarliestDate($E59,Trigger)</f>
-        <v>43362</v>
+        <v>43453</v>
       </c>
       <c r="L59" s="10">
         <f>_xll.qlRateHelperLatestDate($E59,Trigger)</f>
-        <v>43453</v>
+        <v>43543</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
@@ -4940,15 +4948,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D60" s="14" t="str">
-        <v>Z8</v>
+        <v>H9</v>
       </c>
       <c r="E60" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>EUR_YCSTDRH_FUT3MZ8</v>
+        <v>EUR_YCSTDRH_FUT3MH9</v>
       </c>
       <c r="F60" s="28">
         <f>_xll.qlRateHelperQuoteValue($E60,Trigger)</f>
-        <v>98.127499999999998</v>
+        <v>97.997500000000002</v>
       </c>
       <c r="G60" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E60,Trigger)</f>
@@ -4965,11 +4973,11 @@
       </c>
       <c r="K60" s="11">
         <f>_xll.qlRateHelperEarliestDate($E60,Trigger)</f>
-        <v>43453</v>
+        <v>43544</v>
       </c>
       <c r="L60" s="10">
         <f>_xll.qlRateHelperLatestDate($E60,Trigger)</f>
-        <v>43543</v>
+        <v>43636</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
@@ -4982,15 +4990,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D61" s="14" t="str">
-        <v>H9</v>
+        <v>M9</v>
       </c>
       <c r="E61" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>EUR_YCSTDRH_FUT3MH9</v>
+        <v>EUR_YCSTDRH_FUT3MM9</v>
       </c>
       <c r="F61" s="28">
         <f>_xll.qlRateHelperQuoteValue($E61,Trigger)</f>
-        <v>98.022500000000008</v>
+        <v>97.887500000000003</v>
       </c>
       <c r="G61" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E61,Trigger)</f>
@@ -5007,11 +5015,11 @@
       </c>
       <c r="K61" s="11">
         <f>_xll.qlRateHelperEarliestDate($E61,Trigger)</f>
-        <v>43544</v>
+        <v>43635</v>
       </c>
       <c r="L61" s="10">
         <f>_xll.qlRateHelperLatestDate($E61,Trigger)</f>
-        <v>43636</v>
+        <v>43727</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
@@ -5024,15 +5032,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D62" s="14" t="str">
-        <v>M9</v>
+        <v>U9</v>
       </c>
       <c r="E62" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>EUR_YCSTDRH_FUT3MM9</v>
+        <v>EUR_YCSTDRH_FUT3MU9</v>
       </c>
       <c r="F62" s="28">
         <f>_xll.qlRateHelperQuoteValue($E62,Trigger)</f>
-        <v>97.92</v>
+        <v>97.78</v>
       </c>
       <c r="G62" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E62,Trigger)</f>
@@ -5049,11 +5057,11 @@
       </c>
       <c r="K62" s="11">
         <f>_xll.qlRateHelperEarliestDate($E62,Trigger)</f>
-        <v>43635</v>
+        <v>43726</v>
       </c>
       <c r="L62" s="10">
         <f>_xll.qlRateHelperLatestDate($E62,Trigger)</f>
-        <v>43727</v>
+        <v>43817</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
@@ -5066,15 +5074,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D63" s="14" t="str">
-        <v>U9</v>
+        <v>Z9</v>
       </c>
       <c r="E63" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>EUR_YCSTDRH_FUT3MU9</v>
+        <v>EUR_YCSTDRH_FUT3MZ9</v>
       </c>
       <c r="F63" s="28">
         <f>_xll.qlRateHelperQuoteValue($E63,Trigger)</f>
-        <v>97.82</v>
+        <v>97.685000000000002</v>
       </c>
       <c r="G63" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E63,Trigger)</f>
@@ -5091,11 +5099,11 @@
       </c>
       <c r="K63" s="11">
         <f>_xll.qlRateHelperEarliestDate($E63,Trigger)</f>
-        <v>43726</v>
+        <v>43817</v>
       </c>
       <c r="L63" s="10">
         <f>_xll.qlRateHelperLatestDate($E63,Trigger)</f>
-        <v>43817</v>
+        <v>43908</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
@@ -5108,15 +5116,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D64" s="14" t="str">
-        <v>Z9</v>
+        <v>H0</v>
       </c>
       <c r="E64" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>EUR_YCSTDRH_FUT3MZ9</v>
+        <v>EUR_YCSTDRH_FUT3MH0</v>
       </c>
       <c r="F64" s="28">
         <f>_xll.qlRateHelperQuoteValue($E64,Trigger)</f>
-        <v>97.72</v>
+        <v>97.585000000000008</v>
       </c>
       <c r="G64" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E64,Trigger)</f>
@@ -5133,11 +5141,11 @@
       </c>
       <c r="K64" s="11">
         <f>_xll.qlRateHelperEarliestDate($E64,Trigger)</f>
-        <v>43817</v>
+        <v>43908</v>
       </c>
       <c r="L64" s="10">
         <f>_xll.qlRateHelperLatestDate($E64,Trigger)</f>
-        <v>43908</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
@@ -5150,11 +5158,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D65" s="14" t="str">
-        <v>H0</v>
+        <v>M0</v>
       </c>
       <c r="E65" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>EUR_YCSTDRH_FUT3MH0</v>
+        <v>EUR_YCSTDRH_FUT3MM0</v>
       </c>
       <c r="F65" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E65,Trigger)</f>
@@ -5175,11 +5183,11 @@
       </c>
       <c r="K65" s="11">
         <f>_xll.qlRateHelperEarliestDate($E65,Trigger)</f>
-        <v>43908</v>
+        <v>43999</v>
       </c>
       <c r="L65" s="10">
         <f>_xll.qlRateHelperLatestDate($E65,Trigger)</f>
-        <v>44000</v>
+        <v>44091</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
@@ -5192,11 +5200,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D66" s="14" t="str">
-        <v>M0</v>
+        <v>U0</v>
       </c>
       <c r="E66" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>EUR_YCSTDRH_FUT3MM0</v>
+        <v>EUR_YCSTDRH_FUT3MU0</v>
       </c>
       <c r="F66" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E66,Trigger)</f>
@@ -5217,11 +5225,11 @@
       </c>
       <c r="K66" s="11">
         <f>_xll.qlRateHelperEarliestDate($E66,Trigger)</f>
-        <v>43999</v>
+        <v>44090</v>
       </c>
       <c r="L66" s="10">
         <f>_xll.qlRateHelperLatestDate($E66,Trigger)</f>
-        <v>44091</v>
+        <v>44181</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
@@ -5234,11 +5242,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D67" s="14" t="str">
-        <v>U0</v>
+        <v>Z0</v>
       </c>
       <c r="E67" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>EUR_YCSTDRH_FUT3MU0</v>
+        <v>EUR_YCSTDRH_FUT3MZ0</v>
       </c>
       <c r="F67" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E67,Trigger)</f>
@@ -5259,11 +5267,11 @@
       </c>
       <c r="K67" s="11">
         <f>_xll.qlRateHelperEarliestDate($E67,Trigger)</f>
-        <v>44090</v>
+        <v>44181</v>
       </c>
       <c r="L67" s="10">
         <f>_xll.qlRateHelperLatestDate($E67,Trigger)</f>
-        <v>44181</v>
+        <v>44271</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
@@ -5276,11 +5284,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D68" s="14" t="str">
-        <v>Z0</v>
+        <v>H1</v>
       </c>
       <c r="E68" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>EUR_YCSTDRH_FUT3MZ0</v>
+        <v>EUR_YCSTDRH_FUT3MH1</v>
       </c>
       <c r="F68" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E68,Trigger)</f>
@@ -5301,11 +5309,11 @@
       </c>
       <c r="K68" s="11">
         <f>_xll.qlRateHelperEarliestDate($E68,Trigger)</f>
-        <v>44181</v>
+        <v>44272</v>
       </c>
       <c r="L68" s="10">
         <f>_xll.qlRateHelperLatestDate($E68,Trigger)</f>
-        <v>44271</v>
+        <v>44364</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
@@ -5318,11 +5326,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D69" s="14" t="str">
-        <v>H1</v>
+        <v>M1</v>
       </c>
       <c r="E69" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>EUR_YCSTDRH_FUT3MH1</v>
+        <v>EUR_YCSTDRH_FUT3MM1</v>
       </c>
       <c r="F69" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E69,Trigger)</f>
@@ -5343,11 +5351,11 @@
       </c>
       <c r="K69" s="11">
         <f>_xll.qlRateHelperEarliestDate($E69,Trigger)</f>
-        <v>44272</v>
+        <v>44363</v>
       </c>
       <c r="L69" s="10">
         <f>_xll.qlRateHelperLatestDate($E69,Trigger)</f>
-        <v>44364</v>
+        <v>44455</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
@@ -5360,11 +5368,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D70" s="14" t="str">
-        <v>M1</v>
+        <v>U1</v>
       </c>
       <c r="E70" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>EUR_YCSTDRH_FUT3MM1</v>
+        <v>EUR_YCSTDRH_FUT3MU1</v>
       </c>
       <c r="F70" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E70,Trigger)</f>
@@ -5385,11 +5393,11 @@
       </c>
       <c r="K70" s="11">
         <f>_xll.qlRateHelperEarliestDate($E70,Trigger)</f>
-        <v>44363</v>
+        <v>44454</v>
       </c>
       <c r="L70" s="10">
         <f>_xll.qlRateHelperLatestDate($E70,Trigger)</f>
-        <v>44455</v>
+        <v>44545</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
@@ -5402,11 +5410,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D71" s="14" t="str">
-        <v>U1</v>
+        <v>Z1</v>
       </c>
       <c r="E71" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>EUR_YCSTDRH_FUT3MU1</v>
+        <v>EUR_YCSTDRH_FUT3MZ1</v>
       </c>
       <c r="F71" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E71,Trigger)</f>
@@ -5427,11 +5435,11 @@
       </c>
       <c r="K71" s="11">
         <f>_xll.qlRateHelperEarliestDate($E71,Trigger)</f>
-        <v>44454</v>
+        <v>44545</v>
       </c>
       <c r="L71" s="10">
         <f>_xll.qlRateHelperLatestDate($E71,Trigger)</f>
-        <v>44545</v>
+        <v>44635</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
@@ -5444,11 +5452,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D72" s="14" t="str">
-        <v>Z1</v>
+        <v>H2</v>
       </c>
       <c r="E72" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>EUR_YCSTDRH_FUT3MZ1</v>
+        <v>EUR_YCSTDRH_FUT3MH2</v>
       </c>
       <c r="F72" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E72,Trigger)</f>
@@ -5469,11 +5477,11 @@
       </c>
       <c r="K72" s="11">
         <f>_xll.qlRateHelperEarliestDate($E72,Trigger)</f>
-        <v>44545</v>
+        <v>44636</v>
       </c>
       <c r="L72" s="10">
         <f>_xll.qlRateHelperLatestDate($E72,Trigger)</f>
-        <v>44635</v>
+        <v>44728</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
@@ -5486,11 +5494,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D73" s="14" t="str">
-        <v>H2</v>
+        <v>M2</v>
       </c>
       <c r="E73" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>EUR_YCSTDRH_FUT3MH2</v>
+        <v>EUR_YCSTDRH_FUT3MM2</v>
       </c>
       <c r="F73" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E73,Trigger)</f>
@@ -5511,11 +5519,11 @@
       </c>
       <c r="K73" s="11">
         <f>_xll.qlRateHelperEarliestDate($E73,Trigger)</f>
-        <v>44636</v>
+        <v>44727</v>
       </c>
       <c r="L73" s="10">
         <f>_xll.qlRateHelperLatestDate($E73,Trigger)</f>
-        <v>44728</v>
+        <v>44819</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
@@ -5528,11 +5536,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D74" s="7" t="str">
-        <v>M2</v>
+        <v>U2</v>
       </c>
       <c r="E74" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>EUR_YCSTDRH_FUT3MM2</v>
+        <v>EUR_YCSTDRH_FUT3MU2</v>
       </c>
       <c r="F74" s="27" t="e">
         <f>_xll.qlRateHelperQuoteValue($E74,Trigger)</f>
@@ -5553,11 +5561,11 @@
       </c>
       <c r="K74" s="4">
         <f>_xll.qlRateHelperEarliestDate($E74,Trigger)</f>
-        <v>44727</v>
+        <v>44825</v>
       </c>
       <c r="L74" s="3">
         <f>_xll.qlRateHelperLatestDate($E74,Trigger)</f>
-        <v>44819</v>
+        <v>44916</v>
       </c>
       <c r="M74" s="26"/>
     </row>
@@ -6265,7 +6273,7 @@
       </c>
       <c r="F93" s="13">
         <f>_xll.qlRateHelperQuoteValue($E93,Trigger)</f>
-        <v>3.81E-3</v>
+        <v>4.3600000000000002E-3</v>
       </c>
       <c r="G93" s="13">
         <f>_xll.qlSwapRateHelperSpread($E93,Trigger)</f>
@@ -6282,11 +6290,11 @@
       </c>
       <c r="K93" s="11">
         <f>_xll.qlRateHelperEarliestDate($E93,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L93" s="10">
         <f>_xll.qlRateHelperLatestDate($E93,Trigger)</f>
-        <v>42069</v>
+        <v>42087</v>
       </c>
       <c r="N93" s="17" t="e">
         <f t="shared" ref="N93:N129" si="8">IF(G93=G130,F93-F130,"--")</f>
@@ -6311,7 +6319,7 @@
       </c>
       <c r="F94" s="13">
         <f>_xll.qlRateHelperQuoteValue($E94,Trigger)</f>
-        <v>3.64E-3</v>
+        <v>4.3200000000000001E-3</v>
       </c>
       <c r="G94" s="13">
         <f>_xll.qlSwapRateHelperSpread($E94,Trigger)</f>
@@ -6328,11 +6336,11 @@
       </c>
       <c r="K94" s="11">
         <f>_xll.qlRateHelperEarliestDate($E94,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L94" s="10">
         <f>_xll.qlRateHelperLatestDate($E94,Trigger)</f>
-        <v>42163</v>
+        <v>42179</v>
       </c>
       <c r="N94" s="17" t="e">
         <f t="shared" si="8"/>
@@ -6357,7 +6365,7 @@
       </c>
       <c r="F95" s="13">
         <f>_xll.qlRateHelperQuoteValue($E95,Trigger)</f>
-        <v>4.0600000000000002E-3</v>
+        <v>4.6600000000000001E-3</v>
       </c>
       <c r="G95" s="13">
         <f>_xll.qlSwapRateHelperSpread($E95,Trigger)</f>
@@ -6374,11 +6382,11 @@
       </c>
       <c r="K95" s="11">
         <f>_xll.qlRateHelperEarliestDate($E95,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L95" s="10">
         <f>_xll.qlRateHelperLatestDate($E95,Trigger)</f>
-        <v>42254</v>
+        <v>42271</v>
       </c>
       <c r="N95" s="17" t="e">
         <f t="shared" si="8"/>
@@ -6403,7 +6411,7 @@
       </c>
       <c r="F96" s="13">
         <f>_xll.qlRateHelperQuoteValue($E96,Trigger)</f>
-        <v>4.0400000000000002E-3</v>
+        <v>4.7199999999999994E-3</v>
       </c>
       <c r="G96" s="13">
         <f>_xll.qlSwapRateHelperSpread($E96,Trigger)</f>
@@ -6420,11 +6428,11 @@
       </c>
       <c r="K96" s="11">
         <f>_xll.qlRateHelperEarliestDate($E96,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L96" s="10">
         <f>_xll.qlRateHelperLatestDate($E96,Trigger)</f>
-        <v>42345</v>
+        <v>42362</v>
       </c>
       <c r="N96" s="17" t="e">
         <f t="shared" si="8"/>
@@ -6449,7 +6457,7 @@
       </c>
       <c r="F97" s="13">
         <f>_xll.qlRateHelperQuoteValue($E97,Trigger)</f>
-        <v>4.4600000000000004E-3</v>
+        <v>5.0899999999999999E-3</v>
       </c>
       <c r="G97" s="13">
         <f>_xll.qlSwapRateHelperSpread($E97,Trigger)</f>
@@ -6466,11 +6474,11 @@
       </c>
       <c r="K97" s="11">
         <f>_xll.qlRateHelperEarliestDate($E97,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L97" s="10">
         <f>_xll.qlRateHelperLatestDate($E97,Trigger)</f>
-        <v>42436</v>
+        <v>42453</v>
       </c>
       <c r="N97" s="17" t="e">
         <f t="shared" si="8"/>
@@ -6495,7 +6503,7 @@
       </c>
       <c r="F98" s="13">
         <f>_xll.qlRateHelperQuoteValue($E98,Trigger)</f>
-        <v>5.8899999999999994E-3</v>
+        <v>6.5100000000000002E-3</v>
       </c>
       <c r="G98" s="13">
         <f>_xll.qlSwapRateHelperSpread($E98,Trigger)</f>
@@ -6512,11 +6520,11 @@
       </c>
       <c r="K98" s="11">
         <f>_xll.qlRateHelperEarliestDate($E98,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L98" s="10">
         <f>_xll.qlRateHelperLatestDate($E98,Trigger)</f>
-        <v>42800</v>
+        <v>42818</v>
       </c>
       <c r="N98" s="17" t="e">
         <f t="shared" si="8"/>
@@ -6541,7 +6549,7 @@
       </c>
       <c r="F99" s="13">
         <f>_xll.qlRateHelperQuoteValue($E99,Trigger)</f>
-        <v>7.8100000000000001E-3</v>
+        <v>8.4099999999999991E-3</v>
       </c>
       <c r="G99" s="13">
         <f>_xll.qlSwapRateHelperSpread($E99,Trigger)</f>
@@ -6558,11 +6566,11 @@
       </c>
       <c r="K99" s="11">
         <f>_xll.qlRateHelperEarliestDate($E99,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L99" s="10">
         <f>_xll.qlRateHelperLatestDate($E99,Trigger)</f>
-        <v>43165</v>
+        <v>43185</v>
       </c>
       <c r="N99" s="17" t="e">
         <f t="shared" si="8"/>
@@ -6587,7 +6595,7 @@
       </c>
       <c r="F100" s="13">
         <f>_xll.qlRateHelperQuoteValue($E100,Trigger)</f>
-        <v>9.8399999999999998E-3</v>
+        <v>1.04E-2</v>
       </c>
       <c r="G100" s="13">
         <f>_xll.qlSwapRateHelperSpread($E100,Trigger)</f>
@@ -6604,11 +6612,11 @@
       </c>
       <c r="K100" s="11">
         <f>_xll.qlRateHelperEarliestDate($E100,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L100" s="10">
         <f>_xll.qlRateHelperLatestDate($E100,Trigger)</f>
-        <v>43530</v>
+        <v>43549</v>
       </c>
       <c r="N100" s="17" t="e">
         <f t="shared" si="8"/>
@@ -6633,7 +6641,7 @@
       </c>
       <c r="F101" s="13">
         <f>_xll.qlRateHelperQuoteValue($E101,Trigger)</f>
-        <v>1.183E-2</v>
+        <v>1.234E-2</v>
       </c>
       <c r="G101" s="13">
         <f>_xll.qlSwapRateHelperSpread($E101,Trigger)</f>
@@ -6650,11 +6658,11 @@
       </c>
       <c r="K101" s="11">
         <f>_xll.qlRateHelperEarliestDate($E101,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L101" s="10">
         <f>_xll.qlRateHelperLatestDate($E101,Trigger)</f>
-        <v>43896</v>
+        <v>43914</v>
       </c>
       <c r="N101" s="17" t="e">
         <f t="shared" si="8"/>
@@ -6679,7 +6687,7 @@
       </c>
       <c r="F102" s="13">
         <f>_xll.qlRateHelperQuoteValue($E102,Trigger)</f>
-        <v>1.37E-2</v>
+        <v>1.417E-2</v>
       </c>
       <c r="G102" s="13">
         <f>_xll.qlSwapRateHelperSpread($E102,Trigger)</f>
@@ -6696,11 +6704,11 @@
       </c>
       <c r="K102" s="11">
         <f>_xll.qlRateHelperEarliestDate($E102,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L102" s="10">
         <f>_xll.qlRateHelperLatestDate($E102,Trigger)</f>
-        <v>44263</v>
+        <v>44279</v>
       </c>
       <c r="N102" s="17" t="e">
         <f t="shared" si="8"/>
@@ -6725,7 +6733,7 @@
       </c>
       <c r="F103" s="13">
         <f>_xll.qlRateHelperQuoteValue($E103,Trigger)</f>
-        <v>1.541E-2</v>
+        <v>1.5859999999999999E-2</v>
       </c>
       <c r="G103" s="13">
         <f>_xll.qlSwapRateHelperSpread($E103,Trigger)</f>
@@ -6742,11 +6750,11 @@
       </c>
       <c r="K103" s="11">
         <f>_xll.qlRateHelperEarliestDate($E103,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L103" s="10">
         <f>_xll.qlRateHelperLatestDate($E103,Trigger)</f>
-        <v>44627</v>
+        <v>44644</v>
       </c>
       <c r="N103" s="17" t="e">
         <f t="shared" si="8"/>
@@ -6771,7 +6779,7 @@
       </c>
       <c r="F104" s="13">
         <f>_xll.qlRateHelperQuoteValue($E104,Trigger)</f>
-        <v>1.695E-2</v>
+        <v>1.7389999999999999E-2</v>
       </c>
       <c r="G104" s="13">
         <f>_xll.qlSwapRateHelperSpread($E104,Trigger)</f>
@@ -6788,11 +6796,11 @@
       </c>
       <c r="K104" s="11">
         <f>_xll.qlRateHelperEarliestDate($E104,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L104" s="10">
         <f>_xll.qlRateHelperLatestDate($E104,Trigger)</f>
-        <v>44991</v>
+        <v>45009</v>
       </c>
       <c r="N104" s="17" t="e">
         <f t="shared" si="8"/>
@@ -6817,7 +6825,7 @@
       </c>
       <c r="F105" s="13">
         <f>_xll.qlRateHelperQuoteValue($E105,Trigger)</f>
-        <v>1.8319999999999999E-2</v>
+        <v>1.8769999999999998E-2</v>
       </c>
       <c r="G105" s="13">
         <f>_xll.qlSwapRateHelperSpread($E105,Trigger)</f>
@@ -6834,11 +6842,11 @@
       </c>
       <c r="K105" s="11">
         <f>_xll.qlRateHelperEarliestDate($E105,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L105" s="10">
         <f>_xll.qlRateHelperLatestDate($E105,Trigger)</f>
-        <v>45357</v>
+        <v>45376</v>
       </c>
       <c r="N105" s="17" t="e">
         <f t="shared" si="8"/>
@@ -6863,7 +6871,7 @@
       </c>
       <c r="F106" s="13">
         <f>_xll.qlRateHelperQuoteValue($E106,Trigger)</f>
-        <v>1.951E-2</v>
+        <v>1.9969999999999998E-2</v>
       </c>
       <c r="G106" s="13">
         <f>_xll.qlSwapRateHelperSpread($E106,Trigger)</f>
@@ -6880,11 +6888,11 @@
       </c>
       <c r="K106" s="11">
         <f>_xll.qlRateHelperEarliestDate($E106,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L106" s="10">
         <f>_xll.qlRateHelperLatestDate($E106,Trigger)</f>
-        <v>45722</v>
+        <v>45740</v>
       </c>
       <c r="N106" s="17" t="e">
         <f t="shared" si="8"/>
@@ -6909,7 +6917,7 @@
       </c>
       <c r="F107" s="13">
         <f>_xll.qlRateHelperQuoteValue($E107,Trigger)</f>
-        <v>2.0539999999999999E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="G107" s="13">
         <f>_xll.qlSwapRateHelperSpread($E107,Trigger)</f>
@@ -6926,11 +6934,11 @@
       </c>
       <c r="K107" s="11">
         <f>_xll.qlRateHelperEarliestDate($E107,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L107" s="10">
         <f>_xll.qlRateHelperLatestDate($E107,Trigger)</f>
-        <v>46087</v>
+        <v>46105</v>
       </c>
       <c r="N107" s="17" t="e">
         <f t="shared" si="8"/>
@@ -6955,7 +6963,7 @@
       </c>
       <c r="F108" s="13">
         <f>_xll.qlRateHelperQuoteValue($E108,Trigger)</f>
-        <v>2.1419999999999998E-2</v>
+        <v>2.188E-2</v>
       </c>
       <c r="G108" s="13">
         <f>_xll.qlSwapRateHelperSpread($E108,Trigger)</f>
@@ -6972,11 +6980,11 @@
       </c>
       <c r="K108" s="11">
         <f>_xll.qlRateHelperEarliestDate($E108,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L108" s="10">
         <f>_xll.qlRateHelperLatestDate($E108,Trigger)</f>
-        <v>46454</v>
+        <v>46470</v>
       </c>
       <c r="N108" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7001,7 +7009,7 @@
       </c>
       <c r="F109" s="13">
         <f>_xll.qlRateHelperQuoteValue($E109,Trigger)</f>
-        <v>2.2170000000000002E-2</v>
+        <v>2.2629999999999997E-2</v>
       </c>
       <c r="G109" s="13">
         <f>_xll.qlSwapRateHelperSpread($E109,Trigger)</f>
@@ -7018,11 +7026,11 @@
       </c>
       <c r="K109" s="11">
         <f>_xll.qlRateHelperEarliestDate($E109,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L109" s="10">
         <f>_xll.qlRateHelperLatestDate($E109,Trigger)</f>
-        <v>46818</v>
+        <v>46836</v>
       </c>
       <c r="N109" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7047,7 +7055,7 @@
       </c>
       <c r="F110" s="13">
         <f>_xll.qlRateHelperQuoteValue($E110,Trigger)</f>
-        <v>2.2770000000000002E-2</v>
+        <v>2.3239999999999997E-2</v>
       </c>
       <c r="G110" s="13">
         <f>_xll.qlSwapRateHelperSpread($E110,Trigger)</f>
@@ -7064,11 +7072,11 @@
       </c>
       <c r="K110" s="11">
         <f>_xll.qlRateHelperEarliestDate($E110,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L110" s="10">
         <f>_xll.qlRateHelperLatestDate($E110,Trigger)</f>
-        <v>47183</v>
+        <v>47203</v>
       </c>
       <c r="N110" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7093,7 +7101,7 @@
       </c>
       <c r="F111" s="13">
         <f>_xll.qlRateHelperQuoteValue($E111,Trigger)</f>
-        <v>2.3250000000000003E-2</v>
+        <v>2.3730000000000001E-2</v>
       </c>
       <c r="G111" s="13">
         <f>_xll.qlSwapRateHelperSpread($E111,Trigger)</f>
@@ -7110,11 +7118,11 @@
       </c>
       <c r="K111" s="11">
         <f>_xll.qlRateHelperEarliestDate($E111,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L111" s="10">
         <f>_xll.qlRateHelperLatestDate($E111,Trigger)</f>
-        <v>47548</v>
+        <v>47567</v>
       </c>
       <c r="N111" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7139,7 +7147,7 @@
       </c>
       <c r="F112" s="13">
         <f>_xll.qlRateHelperQuoteValue($E112,Trigger)</f>
-        <v>2.3629999999999998E-2</v>
+        <v>2.4119999999999999E-2</v>
       </c>
       <c r="G112" s="13">
         <f>_xll.qlSwapRateHelperSpread($E112,Trigger)</f>
@@ -7156,11 +7164,11 @@
       </c>
       <c r="K112" s="11">
         <f>_xll.qlRateHelperEarliestDate($E112,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L112" s="10">
         <f>_xll.qlRateHelperLatestDate($E112,Trigger)</f>
-        <v>47913</v>
+        <v>47931</v>
       </c>
       <c r="N112" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7185,7 +7193,7 @@
       </c>
       <c r="F113" s="13">
         <f>_xll.qlRateHelperQuoteValue($E113,Trigger)</f>
-        <v>2.3929999999999996E-2</v>
+        <v>2.443E-2</v>
       </c>
       <c r="G113" s="13">
         <f>_xll.qlSwapRateHelperSpread($E113,Trigger)</f>
@@ -7202,11 +7210,11 @@
       </c>
       <c r="K113" s="11">
         <f>_xll.qlRateHelperEarliestDate($E113,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L113" s="10">
         <f>_xll.qlRateHelperLatestDate($E113,Trigger)</f>
-        <v>48281</v>
+        <v>48297</v>
       </c>
       <c r="N113" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7231,7 +7239,7 @@
       </c>
       <c r="F114" s="13">
         <f>_xll.qlRateHelperQuoteValue($E114,Trigger)</f>
-        <v>2.4150000000000001E-2</v>
+        <v>2.4670000000000001E-2</v>
       </c>
       <c r="G114" s="13">
         <f>_xll.qlSwapRateHelperSpread($E114,Trigger)</f>
@@ -7248,11 +7256,11 @@
       </c>
       <c r="K114" s="11">
         <f>_xll.qlRateHelperEarliestDate($E114,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L114" s="10">
         <f>_xll.qlRateHelperLatestDate($E114,Trigger)</f>
-        <v>48645</v>
+        <v>48662</v>
       </c>
       <c r="N114" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7277,7 +7285,7 @@
       </c>
       <c r="F115" s="13">
         <f>_xll.qlRateHelperQuoteValue($E115,Trigger)</f>
-        <v>2.4319999999999998E-2</v>
+        <v>2.4859999999999997E-2</v>
       </c>
       <c r="G115" s="13">
         <f>_xll.qlSwapRateHelperSpread($E115,Trigger)</f>
@@ -7294,11 +7302,11 @@
       </c>
       <c r="K115" s="11">
         <f>_xll.qlRateHelperEarliestDate($E115,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L115" s="10">
         <f>_xll.qlRateHelperLatestDate($E115,Trigger)</f>
-        <v>49009</v>
+        <v>49027</v>
       </c>
       <c r="N115" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7323,7 +7331,7 @@
       </c>
       <c r="F116" s="13">
         <f>_xll.qlRateHelperQuoteValue($E116,Trigger)</f>
-        <v>2.4460000000000003E-2</v>
+        <v>2.5009999999999998E-2</v>
       </c>
       <c r="G116" s="13">
         <f>_xll.qlSwapRateHelperSpread($E116,Trigger)</f>
@@ -7340,11 +7348,11 @@
       </c>
       <c r="K116" s="11">
         <f>_xll.qlRateHelperEarliestDate($E116,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L116" s="10">
         <f>_xll.qlRateHelperLatestDate($E116,Trigger)</f>
-        <v>49374</v>
+        <v>49395</v>
       </c>
       <c r="N116" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7369,7 +7377,7 @@
       </c>
       <c r="F117" s="13">
         <f>_xll.qlRateHelperQuoteValue($E117,Trigger)</f>
-        <v>2.4580000000000001E-2</v>
+        <v>2.5140000000000003E-2</v>
       </c>
       <c r="G117" s="13">
         <f>_xll.qlSwapRateHelperSpread($E117,Trigger)</f>
@@ -7386,11 +7394,11 @@
       </c>
       <c r="K117" s="11">
         <f>_xll.qlRateHelperEarliestDate($E117,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L117" s="10">
         <f>_xll.qlRateHelperLatestDate($E117,Trigger)</f>
-        <v>49740</v>
+        <v>49758</v>
       </c>
       <c r="N117" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7415,7 +7423,7 @@
       </c>
       <c r="F118" s="13">
         <f>_xll.qlRateHelperQuoteValue($E118,Trigger)</f>
-        <v>2.4660000000000001E-2</v>
+        <v>2.5230000000000002E-2</v>
       </c>
       <c r="G118" s="13">
         <f>_xll.qlSwapRateHelperSpread($E118,Trigger)</f>
@@ -7432,11 +7440,11 @@
       </c>
       <c r="K118" s="11">
         <f>_xll.qlRateHelperEarliestDate($E118,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L118" s="10">
         <f>_xll.qlRateHelperLatestDate($E118,Trigger)</f>
-        <v>50105</v>
+        <v>50123</v>
       </c>
       <c r="N118" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7461,7 +7469,7 @@
       </c>
       <c r="F119" s="13">
         <f>_xll.qlRateHelperQuoteValue($E119,Trigger)</f>
-        <v>2.4729999999999999E-2</v>
+        <v>2.53E-2</v>
       </c>
       <c r="G119" s="13">
         <f>_xll.qlSwapRateHelperSpread($E119,Trigger)</f>
@@ -7478,11 +7486,11 @@
       </c>
       <c r="K119" s="11">
         <f>_xll.qlRateHelperEarliestDate($E119,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L119" s="10">
         <f>_xll.qlRateHelperLatestDate($E119,Trigger)</f>
-        <v>50472</v>
+        <v>50488</v>
       </c>
       <c r="N119" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7507,7 +7515,7 @@
       </c>
       <c r="F120" s="13">
         <f>_xll.qlRateHelperQuoteValue($E120,Trigger)</f>
-        <v>2.477E-2</v>
+        <v>2.5350000000000001E-2</v>
       </c>
       <c r="G120" s="13">
         <f>_xll.qlSwapRateHelperSpread($E120,Trigger)</f>
@@ -7524,11 +7532,11 @@
       </c>
       <c r="K120" s="11">
         <f>_xll.qlRateHelperEarliestDate($E120,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L120" s="10">
         <f>_xll.qlRateHelperLatestDate($E120,Trigger)</f>
-        <v>50836</v>
+        <v>50853</v>
       </c>
       <c r="N120" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7553,7 +7561,7 @@
       </c>
       <c r="F121" s="13">
         <f>_xll.qlRateHelperQuoteValue($E121,Trigger)</f>
-        <v>2.4799999999999999E-2</v>
+        <v>2.538E-2</v>
       </c>
       <c r="G121" s="13">
         <f>_xll.qlSwapRateHelperSpread($E121,Trigger)</f>
@@ -7570,11 +7578,11 @@
       </c>
       <c r="K121" s="11">
         <f>_xll.qlRateHelperEarliestDate($E121,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L121" s="10">
         <f>_xll.qlRateHelperLatestDate($E121,Trigger)</f>
-        <v>51201</v>
+        <v>51221</v>
       </c>
       <c r="N121" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7599,7 +7607,7 @@
       </c>
       <c r="F122" s="13">
         <f>_xll.qlRateHelperQuoteValue($E122,Trigger)</f>
-        <v>2.4809999999999999E-2</v>
+        <v>2.5399999999999999E-2</v>
       </c>
       <c r="G122" s="13">
         <f>_xll.qlSwapRateHelperSpread($E122,Trigger)</f>
@@ -7616,11 +7624,11 @@
       </c>
       <c r="K122" s="11">
         <f>_xll.qlRateHelperEarliestDate($E122,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L122" s="10">
         <f>_xll.qlRateHelperLatestDate($E122,Trigger)</f>
-        <v>51566</v>
+        <v>51585</v>
       </c>
       <c r="N122" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7645,7 +7653,7 @@
       </c>
       <c r="F123" s="13">
         <f>_xll.qlRateHelperQuoteValue($E123,Trigger)</f>
-        <v>2.4809999999999999E-2</v>
+        <v>2.5409999999999999E-2</v>
       </c>
       <c r="G123" s="13">
         <f>_xll.qlSwapRateHelperSpread($E123,Trigger)</f>
@@ -7662,11 +7670,11 @@
       </c>
       <c r="K123" s="11">
         <f>_xll.qlRateHelperEarliestDate($E123,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L123" s="10">
         <f>_xll.qlRateHelperLatestDate($E123,Trigger)</f>
-        <v>51931</v>
+        <v>51949</v>
       </c>
       <c r="N123" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7691,7 +7699,7 @@
       </c>
       <c r="F124" s="13">
         <f>_xll.qlRateHelperQuoteValue($E124,Trigger)</f>
-        <v>2.4820000000000002E-2</v>
+        <v>2.5409999999999999E-2</v>
       </c>
       <c r="G124" s="13">
         <f>_xll.qlSwapRateHelperSpread($E124,Trigger)</f>
@@ -7708,11 +7716,11 @@
       </c>
       <c r="K124" s="11">
         <f>_xll.qlRateHelperEarliestDate($E124,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L124" s="10">
         <f>_xll.qlRateHelperLatestDate($E124,Trigger)</f>
-        <v>52296</v>
+        <v>52314</v>
       </c>
       <c r="N124" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7737,7 +7745,7 @@
       </c>
       <c r="F125" s="13">
         <f>_xll.qlRateHelperQuoteValue($E125,Trigger)</f>
-        <v>2.4820000000000002E-2</v>
+        <v>2.5419999999999998E-2</v>
       </c>
       <c r="G125" s="13">
         <f>_xll.qlSwapRateHelperSpread($E125,Trigger)</f>
@@ -7754,11 +7762,11 @@
       </c>
       <c r="K125" s="11">
         <f>_xll.qlRateHelperEarliestDate($E125,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L125" s="10">
         <f>_xll.qlRateHelperLatestDate($E125,Trigger)</f>
-        <v>52663</v>
+        <v>52680</v>
       </c>
       <c r="N125" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7783,7 +7791,7 @@
       </c>
       <c r="F126" s="13">
         <f>_xll.qlRateHelperQuoteValue($E126,Trigger)</f>
-        <v>2.4910000000000002E-2</v>
+        <v>2.5539999999999997E-2</v>
       </c>
       <c r="G126" s="13">
         <f>_xll.qlSwapRateHelperSpread($E126,Trigger)</f>
@@ -7800,11 +7808,11 @@
       </c>
       <c r="K126" s="11">
         <f>_xll.qlRateHelperEarliestDate($E126,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L126" s="10">
         <f>_xll.qlRateHelperLatestDate($E126,Trigger)</f>
-        <v>54490</v>
+        <v>54506</v>
       </c>
       <c r="N126" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7829,7 +7837,7 @@
       </c>
       <c r="F127" s="13">
         <f>_xll.qlRateHelperQuoteValue($E127,Trigger)</f>
-        <v>2.5049999999999999E-2</v>
+        <v>2.5729999999999999E-2</v>
       </c>
       <c r="G127" s="13">
         <f>_xll.qlSwapRateHelperSpread($E127,Trigger)</f>
@@ -7846,11 +7854,11 @@
       </c>
       <c r="K127" s="11">
         <f>_xll.qlRateHelperEarliestDate($E127,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L127" s="10">
         <f>_xll.qlRateHelperLatestDate($E127,Trigger)</f>
-        <v>56314</v>
+        <v>56332</v>
       </c>
       <c r="N127" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7875,7 +7883,7 @@
       </c>
       <c r="F128" s="13">
         <f>_xll.qlRateHelperQuoteValue($E128,Trigger)</f>
-        <v>2.52E-2</v>
+        <v>2.5939999999999998E-2</v>
       </c>
       <c r="G128" s="13">
         <f>_xll.qlSwapRateHelperSpread($E128,Trigger)</f>
@@ -7892,11 +7900,11 @@
       </c>
       <c r="K128" s="11">
         <f>_xll.qlRateHelperEarliestDate($E128,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L128" s="10">
         <f>_xll.qlRateHelperLatestDate($E128,Trigger)</f>
-        <v>59967</v>
+        <v>59985</v>
       </c>
       <c r="N128" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7921,7 +7929,7 @@
       </c>
       <c r="F129" s="6">
         <f>_xll.qlRateHelperQuoteValue($E129,Trigger)</f>
-        <v>2.5329999999999998E-2</v>
+        <v>2.6070000000000003E-2</v>
       </c>
       <c r="G129" s="6">
         <f>_xll.qlSwapRateHelperSpread($E129,Trigger)</f>
@@ -7938,11 +7946,11 @@
       </c>
       <c r="K129" s="4">
         <f>_xll.qlRateHelperEarliestDate($E129,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L129" s="3">
         <f>_xll.qlRateHelperLatestDate($E129,Trigger)</f>
-        <v>63619</v>
+        <v>63639</v>
       </c>
       <c r="N129" s="17" t="e">
         <f t="shared" si="8"/>
@@ -9519,8 +9527,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -9558,7 +9566,7 @@
       </c>
       <c r="I1" s="37">
         <f t="array" ref="I1:I126">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
-        <v>1.3180531757461815E-3</v>
+        <v>1.7236070414455842E-3</v>
       </c>
       <c r="K1" s="211"/>
       <c r="L1" s="211"/>
@@ -9576,7 +9584,7 @@
       </c>
       <c r="E2" s="44">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>1.2999999999999999E-3</v>
+        <v>1.7000000000000001E-3</v>
       </c>
       <c r="F2" s="44" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -9584,14 +9592,14 @@
       </c>
       <c r="G2" s="43">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41702</v>
+        <v>41718</v>
       </c>
       <c r="H2" s="42">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41703</v>
+        <v>41719</v>
       </c>
       <c r="I2" s="37">
-        <v>1.3180531757461815E-3</v>
+        <v>1.7236070414455842E-3</v>
       </c>
       <c r="K2" s="92" t="str">
         <f>_xll.qlRateHelperQuoteName(D2,Trigger)</f>
@@ -9611,7 +9619,7 @@
       </c>
       <c r="E3" s="44">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>1.6000000000000001E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="F3" s="44" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -9619,14 +9627,14 @@
       </c>
       <c r="G3" s="43">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41703</v>
+        <v>41719</v>
       </c>
       <c r="H3" s="42">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="I3" s="37">
-        <v>1.4701358965221966E-3</v>
+        <v>1.7996414948481258E-3</v>
       </c>
       <c r="K3" s="92" t="str">
         <f>_xll.qlRateHelperQuoteName(D3,Trigger)</f>
@@ -9646,7 +9654,7 @@
       </c>
       <c r="E4" s="44">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>1.6000000000000001E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="F4" s="44" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -9654,14 +9662,14 @@
       </c>
       <c r="G4" s="43">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H4" s="42">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41705</v>
+        <v>41723</v>
       </c>
       <c r="I4" s="37">
-        <v>1.520830136596092E-3</v>
+        <v>1.8047122833568599E-3</v>
       </c>
       <c r="K4" s="92" t="str">
         <f>_xll.qlRateHelperQuoteName(D4,Trigger)</f>
@@ -9681,7 +9689,7 @@
       </c>
       <c r="E5" s="44">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>1.83E-3</v>
+        <v>1.9500000000000001E-3</v>
       </c>
       <c r="F5" s="44" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -9689,14 +9697,14 @@
       </c>
       <c r="G5" s="43">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H5" s="42">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41711</v>
+        <v>41729</v>
       </c>
       <c r="I5" s="37">
-        <v>1.7697730431951958E-3</v>
+        <v>1.9125351767477466E-3</v>
       </c>
       <c r="K5" s="92" t="str">
         <f>_xll.qlRateHelperQuoteName(D5,Trigger)</f>
@@ -9717,7 +9725,7 @@
       </c>
       <c r="E6" s="44">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>1.9400000000000001E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="F6" s="44" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -9725,14 +9733,14 @@
       </c>
       <c r="G6" s="43">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H6" s="42">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41718</v>
+        <v>41736</v>
       </c>
       <c r="I6" s="37">
-        <v>1.9047784563896743E-3</v>
+        <v>2.05587123364018E-3</v>
       </c>
       <c r="K6" s="92" t="str">
         <f>_xll.qlRateHelperQuoteName(D6,Trigger)</f>
@@ -9743,7 +9751,7 @@
     <row r="7" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_RateHelpersSelected#0006</v>
+        <v>EUR_YCSTDRH_RateHelpersSelected#0000</v>
       </c>
       <c r="B7" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -9754,7 +9762,7 @@
       </c>
       <c r="E7" s="44">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>2.1800000000000001E-3</v>
+        <v>2.3699999999999997E-3</v>
       </c>
       <c r="F7" s="44" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -9762,14 +9770,14 @@
       </c>
       <c r="G7" s="43">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H7" s="42">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41736</v>
+        <v>41753</v>
       </c>
       <c r="I7" s="37">
-        <v>2.166538491872436E-3</v>
+        <v>2.3337537872521901E-3</v>
       </c>
       <c r="K7" s="92" t="str">
         <f>_xll.qlRateHelperQuoteName(D7,Trigger)</f>
@@ -9783,7 +9791,7 @@
       </c>
       <c r="E8" s="44">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>2.5000000000000001E-3</v>
+        <v>2.7400000000000002E-3</v>
       </c>
       <c r="F8" s="44" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -9791,14 +9799,14 @@
       </c>
       <c r="G8" s="43">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H8" s="42">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>41765</v>
+        <v>41785</v>
       </c>
       <c r="I8" s="37">
-        <v>2.5004061528731991E-3</v>
+        <v>2.7190167006307031E-3</v>
       </c>
       <c r="K8" s="92" t="str">
         <f>_xll.qlRateHelperQuoteName(D8,Trigger)</f>
@@ -9812,7 +9820,7 @@
       </c>
       <c r="E9" s="44">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>2.8699999999999997E-3</v>
+        <v>3.13E-3</v>
       </c>
       <c r="F9" s="44" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -9820,14 +9828,14 @@
       </c>
       <c r="G9" s="43">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H9" s="42">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>41796</v>
+        <v>41814</v>
       </c>
       <c r="I9" s="37">
-        <v>2.8781847638822957E-3</v>
+        <v>3.1053049130267923E-3</v>
       </c>
       <c r="K9" s="92" t="str">
         <f>_xll.qlRateHelperQuoteName(D9,Trigger)</f>
@@ -9841,7 +9849,7 @@
       </c>
       <c r="E10" s="44">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>3.8600000000000001E-3</v>
+        <v>4.1399999999999996E-3</v>
       </c>
       <c r="F10" s="44" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -9849,14 +9857,14 @@
       </c>
       <c r="G10" s="43">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H10" s="42">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>41890</v>
+        <v>41906</v>
       </c>
       <c r="I10" s="37">
-        <v>3.8837608133420664E-3</v>
+        <v>4.1421413890385811E-3</v>
       </c>
       <c r="K10" s="92" t="str">
         <f>_xll.qlRateHelperQuoteName(D10,Trigger)</f>
@@ -9870,7 +9878,7 @@
       </c>
       <c r="E11" s="44">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>4.6899999999999997E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F11" s="44" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -9878,14 +9886,14 @@
       </c>
       <c r="G11" s="43">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H11" s="42">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>41981</v>
+        <v>41997</v>
       </c>
       <c r="I11" s="37">
-        <v>4.7230925017797392E-3</v>
+        <v>5.0130473458737468E-3</v>
       </c>
       <c r="K11" s="92" t="str">
         <f>_xll.qlRateHelperQuoteName(D11,Trigger)</f>
@@ -9895,11 +9903,11 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D12" s="45" t="str">
-        <v>EUR_YCSTDRH_FUT3MU4</v>
+        <v>EUR_YCSTDRH_FUT3MZ4</v>
       </c>
       <c r="E12" s="44">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>2.475000000000005E-3</v>
+        <v>3.3750000000000169E-3</v>
       </c>
       <c r="F12" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -9907,28 +9915,28 @@
       </c>
       <c r="G12" s="43">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41899</v>
+        <v>41990</v>
       </c>
       <c r="H12" s="42">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>41990</v>
+        <v>42080</v>
       </c>
       <c r="I12" s="37">
-        <v>3.5060268614436701E-3</v>
+        <v>4.5667562003222388E-3</v>
       </c>
       <c r="K12" s="92" t="str">
         <f>_xll.qlRateHelperQuoteName(D12,Trigger)</f>
-        <v>EURFUT3MU4_Quote</v>
+        <v>EURFUT3MZ4_Quote</v>
       </c>
       <c r="L12" s="93"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D13" s="45" t="str">
-        <v>EUR_YCSTDRH_FUT3MZ4</v>
+        <v>EUR_YCSTDRH_FUT3MH5</v>
       </c>
       <c r="E13" s="44">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>2.6749999999999829E-3</v>
+        <v>3.6249999999999893E-3</v>
       </c>
       <c r="F13" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -9936,28 +9944,28 @@
       </c>
       <c r="G13" s="43">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41990</v>
+        <v>42081</v>
       </c>
       <c r="H13" s="42">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>42080</v>
+        <v>42173</v>
       </c>
       <c r="I13" s="37">
-        <v>3.3167933959241092E-3</v>
+        <v>4.3846086992464211E-3</v>
       </c>
       <c r="K13" s="92" t="str">
         <f>_xll.qlRateHelperQuoteName(D13,Trigger)</f>
-        <v>EURFUT3MZ4_Quote</v>
+        <v>EURFUT3MH5_Quote</v>
       </c>
       <c r="L13" s="93"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D14" s="45" t="str">
-        <v>EUR_YCSTDRH_FUT3MH5</v>
+        <v>EUR_YCSTDRH_FUT3MM5</v>
       </c>
       <c r="E14" s="44">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>2.9749999999999499E-3</v>
+        <v>4.0250000000000563E-3</v>
       </c>
       <c r="F14" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -9965,28 +9973,28 @@
       </c>
       <c r="G14" s="43">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>42081</v>
+        <v>42172</v>
       </c>
       <c r="H14" s="42">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>42173</v>
+        <v>42264</v>
       </c>
       <c r="I14" s="37">
-        <v>3.2573640331369702E-3</v>
+        <v>4.3347099600457573E-3</v>
       </c>
       <c r="K14" s="92" t="str">
         <f>_xll.qlRateHelperQuoteName(D14,Trigger)</f>
-        <v>EURFUT3MH5_Quote</v>
+        <v>EURFUT3MM5_Quote</v>
       </c>
       <c r="L14" s="93"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D15" s="45" t="str">
-        <v>EUR_YCSTDRH_FUT3MM5</v>
+        <v>EUR_YCSTDRH_FUT3MU5</v>
       </c>
       <c r="E15" s="44">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>3.3750000000000169E-3</v>
+        <v>4.5250000000000012E-3</v>
       </c>
       <c r="F15" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -9994,28 +10002,28 @@
       </c>
       <c r="G15" s="43">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>42172</v>
+        <v>42263</v>
       </c>
       <c r="H15" s="42">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>42264</v>
+        <v>42354</v>
       </c>
       <c r="I15" s="37">
-        <v>3.2845876380616411E-3</v>
+        <v>4.371024028993923E-3</v>
       </c>
       <c r="K15" s="92" t="str">
         <f>_xll.qlRateHelperQuoteName(D15,Trigger)</f>
-        <v>EURFUT3MM5_Quote</v>
+        <v>EURFUT3MU5_Quote</v>
       </c>
       <c r="L15" s="93"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="45" t="str">
-        <v>EUR_YCSTDRH_FUT3MU5</v>
+        <v>EUR_YCSTDRH_FUT3MZ5</v>
       </c>
       <c r="E16" s="44">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>3.9249999999999563E-3</v>
+        <v>5.1749999999999297E-3</v>
       </c>
       <c r="F16" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
@@ -10023,28 +10031,28 @@
       </c>
       <c r="G16" s="43">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>42263</v>
+        <v>42354</v>
       </c>
       <c r="H16" s="42">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>42354</v>
+        <v>42445</v>
       </c>
       <c r="I16" s="37">
-        <v>3.3810461219112371E-3</v>
+        <v>4.480226804755935E-3</v>
       </c>
       <c r="K16" s="92" t="str">
         <f>_xll.qlRateHelperQuoteName(D16,Trigger)</f>
-        <v>EURFUT3MU5_Quote</v>
+        <v>EURFUT3MZ5_Quote</v>
       </c>
       <c r="L16" s="93"/>
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D17" s="45" t="str">
-        <v>EUR_YCSTDRH_FUT3MZ5</v>
+        <v>EUR_YCSTDRH_FUT3MH6</v>
       </c>
       <c r="E17" s="44">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>4.6250000000001013E-3</v>
+        <v>6.0249999999999471E-3</v>
       </c>
       <c r="F17" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -10052,18 +10060,18 @@
       </c>
       <c r="G17" s="43">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>42354</v>
+        <v>42445</v>
       </c>
       <c r="H17" s="42">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>42445</v>
+        <v>42537</v>
       </c>
       <c r="I17" s="37">
-        <v>3.5409331263807223E-3</v>
+        <v>4.6626267163977098E-3</v>
       </c>
       <c r="K17" s="92" t="str">
         <f>_xll.qlRateHelperQuoteName(D17,Trigger)</f>
-        <v>EURFUT3MZ5_Quote</v>
+        <v>EURFUT3MH6_Quote</v>
       </c>
       <c r="L17" s="93"/>
     </row>
@@ -10073,7 +10081,7 @@
       </c>
       <c r="E18" s="44">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>5.8899999999999994E-3</v>
+        <v>6.5100000000000002E-3</v>
       </c>
       <c r="F18" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
@@ -10081,14 +10089,14 @@
       </c>
       <c r="G18" s="43">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H18" s="42">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>42800</v>
+        <v>42818</v>
       </c>
       <c r="I18" s="37">
-        <v>5.873540704402885E-3</v>
+        <v>6.4786340135003498E-3</v>
       </c>
       <c r="K18" s="92" t="str">
         <f>_xll.qlRateHelperQuoteName(D18,Trigger)</f>
@@ -10102,7 +10110,7 @@
       </c>
       <c r="E19" s="44">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>7.8100000000000001E-3</v>
+        <v>8.4099999999999991E-3</v>
       </c>
       <c r="F19" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
@@ -10110,14 +10118,14 @@
       </c>
       <c r="G19" s="43">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H19" s="42">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>43165</v>
+        <v>43185</v>
       </c>
       <c r="I19" s="37">
-        <v>7.8023784104798511E-3</v>
+        <v>8.3875269645206623E-3</v>
       </c>
       <c r="K19" s="92" t="str">
         <f>_xll.qlRateHelperQuoteName(D19,Trigger)</f>
@@ -10131,7 +10139,7 @@
       </c>
       <c r="E20" s="44">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>9.8399999999999998E-3</v>
+        <v>1.04E-2</v>
       </c>
       <c r="F20" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
@@ -10139,14 +10147,14 @@
       </c>
       <c r="G20" s="43">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H20" s="42">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>43530</v>
+        <v>43549</v>
       </c>
       <c r="I20" s="37">
-        <v>9.8547671957100961E-3</v>
+        <v>1.0399739931865661E-2</v>
       </c>
       <c r="K20" s="92" t="str">
         <f>_xll.qlRateHelperQuoteName(D20,Trigger)</f>
@@ -10160,7 +10168,7 @@
       </c>
       <c r="E21" s="44">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>1.183E-2</v>
+        <v>1.234E-2</v>
       </c>
       <c r="F21" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -10168,14 +10176,14 @@
       </c>
       <c r="G21" s="43">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H21" s="42">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>43896</v>
+        <v>43914</v>
       </c>
       <c r="I21" s="37">
-        <v>1.1877990058397875E-2</v>
+        <v>1.2372197584352432E-2</v>
       </c>
       <c r="K21" s="92" t="str">
         <f>_xll.qlRateHelperQuoteName(D21,Trigger)</f>
@@ -10189,7 +10197,7 @@
       </c>
       <c r="E22" s="44">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>1.37E-2</v>
+        <v>1.417E-2</v>
       </c>
       <c r="F22" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -10197,14 +10205,14 @@
       </c>
       <c r="G22" s="43">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H22" s="42">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>44263</v>
+        <v>44279</v>
       </c>
       <c r="I22" s="37">
-        <v>1.3802805701039637E-2</v>
+        <v>1.4256540124997302E-2</v>
       </c>
       <c r="K22" s="92" t="str">
         <f>_xll.qlRateHelperQuoteName(D22,Trigger)</f>
@@ -10218,7 +10226,7 @@
       </c>
       <c r="E23" s="44">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>1.541E-2</v>
+        <v>1.5859999999999999E-2</v>
       </c>
       <c r="F23" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
@@ -10226,14 +10234,14 @@
       </c>
       <c r="G23" s="43">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H23" s="42">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>44627</v>
+        <v>44644</v>
       </c>
       <c r="I23" s="37">
-        <v>1.5582046576123986E-2</v>
+        <v>1.6015805976571644E-2</v>
       </c>
       <c r="K23" s="92" t="str">
         <f>_xll.qlRateHelperQuoteName(D23,Trigger)</f>
@@ -10247,7 +10255,7 @@
       </c>
       <c r="E24" s="44">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>1.695E-2</v>
+        <v>1.7389999999999999E-2</v>
       </c>
       <c r="F24" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
@@ -10255,14 +10263,14 @@
       </c>
       <c r="G24" s="43">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H24" s="42">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>44991</v>
+        <v>45009</v>
       </c>
       <c r="I24" s="37">
-        <v>1.720251322830655E-2</v>
+        <v>1.7626920782787551E-2</v>
       </c>
       <c r="K24" s="92" t="str">
         <f>_xll.qlRateHelperQuoteName(D24,Trigger)</f>
@@ -10276,7 +10284,7 @@
       </c>
       <c r="E25" s="44">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>1.8319999999999999E-2</v>
+        <v>1.8769999999999998E-2</v>
       </c>
       <c r="F25" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
@@ -10284,14 +10292,14 @@
       </c>
       <c r="G25" s="43">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H25" s="42">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>45357</v>
+        <v>45376</v>
       </c>
       <c r="I25" s="37">
-        <v>1.8655386197592331E-2</v>
+        <v>1.9092292846829843E-2</v>
       </c>
       <c r="K25" s="92" t="str">
         <f>_xll.qlRateHelperQuoteName(D25,Trigger)</f>
@@ -10305,7 +10313,7 @@
       </c>
       <c r="E26" s="44">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>1.951E-2</v>
+        <v>1.9969999999999998E-2</v>
       </c>
       <c r="F26" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
@@ -10313,14 +10321,14 @@
       </c>
       <c r="G26" s="43">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H26" s="42">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>45722</v>
+        <v>45740</v>
       </c>
       <c r="I26" s="37">
-        <v>1.9935407326967098E-2</v>
+        <v>2.0385535523854231E-2</v>
       </c>
       <c r="K26" s="92" t="str">
         <f>_xll.qlRateHelperQuoteName(D26,Trigger)</f>
@@ -10334,7 +10342,7 @@
       </c>
       <c r="E27" s="44">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>2.0539999999999999E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="F27" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -10342,14 +10350,14 @@
       </c>
       <c r="G27" s="43">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H27" s="42">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>46087</v>
+        <v>46105</v>
       </c>
       <c r="I27" s="37">
-        <v>2.1054393930945912E-2</v>
+        <v>2.1506343617220168E-2</v>
       </c>
       <c r="K27" s="92" t="str">
         <f>_xll.qlRateHelperQuoteName(D27,Trigger)</f>
@@ -10363,7 +10371,7 @@
       </c>
       <c r="E28" s="44">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>2.1419999999999998E-2</v>
+        <v>2.188E-2</v>
       </c>
       <c r="F28" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -10371,14 +10379,14 @@
       </c>
       <c r="G28" s="43">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H28" s="42">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>46454</v>
+        <v>46470</v>
       </c>
       <c r="I28" s="37">
-        <v>2.2018153592467466E-2</v>
+        <v>2.2472178326030507E-2</v>
       </c>
       <c r="K28" s="92" t="str">
         <f>_xll.qlRateHelperQuoteName(D28,Trigger)</f>
@@ -10392,7 +10400,7 @@
       </c>
       <c r="E29" s="44">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>2.2170000000000002E-2</v>
+        <v>2.2629999999999997E-2</v>
       </c>
       <c r="F29" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
@@ -10400,14 +10408,14 @@
       </c>
       <c r="G29" s="43">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H29" s="42">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>46818</v>
+        <v>46836</v>
       </c>
       <c r="I29" s="37">
-        <v>2.2841526125830614E-2</v>
+        <v>2.3296697523441535E-2</v>
       </c>
       <c r="K29" s="92" t="str">
         <f>_xll.qlRateHelperQuoteName(D29,Trigger)</f>
@@ -10421,7 +10429,7 @@
       </c>
       <c r="E30" s="44">
         <f>_xll.qlRateHelperRate($D30)</f>
-        <v>2.2770000000000002E-2</v>
+        <v>2.3239999999999997E-2</v>
       </c>
       <c r="F30" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
@@ -10429,14 +10437,14 @@
       </c>
       <c r="G30" s="43">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H30" s="42">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>47183</v>
+        <v>47203</v>
       </c>
       <c r="I30" s="37">
-        <v>2.3503306694225977E-2</v>
+        <v>2.3971702955792786E-2</v>
       </c>
       <c r="K30" s="92" t="str">
         <f>_xll.qlRateHelperQuoteName(D30,Trigger)</f>
@@ -10450,7 +10458,7 @@
       </c>
       <c r="E31" s="44">
         <f>_xll.qlRateHelperRate($D31)</f>
-        <v>2.3250000000000003E-2</v>
+        <v>2.3730000000000001E-2</v>
       </c>
       <c r="F31" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D31)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D31)),_xll.qlSwapRateHelperSpread($D31))</f>
@@ -10458,14 +10466,14 @@
       </c>
       <c r="G31" s="43">
         <f>_xll.qlRateHelperEarliestDate($D31)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H31" s="42">
         <f>_xll.qlRateHelperLatestDate($D31)</f>
-        <v>47548</v>
+        <v>47567</v>
       </c>
       <c r="I31" s="37">
-        <v>2.4030413948602815E-2</v>
+        <v>2.4512578381430852E-2</v>
       </c>
       <c r="K31" s="92" t="str">
         <f>_xll.qlRateHelperQuoteName(D31,Trigger)</f>
@@ -10479,7 +10487,7 @@
       </c>
       <c r="E32" s="44">
         <f>_xll.qlRateHelperRate($D32)</f>
-        <v>2.3629999999999998E-2</v>
+        <v>2.4119999999999999E-2</v>
       </c>
       <c r="F32" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D32)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D32)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D32)),_xll.qlSwapRateHelperSpread($D32))</f>
@@ -10487,14 +10495,14 @@
       </c>
       <c r="G32" s="43">
         <f>_xll.qlRateHelperEarliestDate($D32)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H32" s="42">
         <f>_xll.qlRateHelperLatestDate($D32)</f>
-        <v>47913</v>
+        <v>47931</v>
       </c>
       <c r="I32" s="37">
-        <v>2.4443349014147759E-2</v>
+        <v>2.4939154050280837E-2</v>
       </c>
       <c r="K32" s="92" t="str">
         <f>_xll.qlRateHelperQuoteName(D32,Trigger)</f>
@@ -10508,7 +10516,7 @@
       </c>
       <c r="E33" s="44">
         <f>_xll.qlRateHelperRate($D33)</f>
-        <v>2.3929999999999996E-2</v>
+        <v>2.443E-2</v>
       </c>
       <c r="F33" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D33)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D33)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D33)),_xll.qlSwapRateHelperSpread($D33))</f>
@@ -10516,14 +10524,14 @@
       </c>
       <c r="G33" s="43">
         <f>_xll.qlRateHelperEarliestDate($D33)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H33" s="42">
         <f>_xll.qlRateHelperLatestDate($D33)</f>
-        <v>48281</v>
+        <v>48297</v>
       </c>
       <c r="I33" s="37">
-        <v>2.475977587807518E-2</v>
+        <v>2.5269180717493827E-2</v>
       </c>
       <c r="K33" s="92" t="str">
         <f>_xll.qlRateHelperQuoteName(D33,Trigger)</f>
@@ -10537,7 +10545,7 @@
       </c>
       <c r="E34" s="44">
         <f>_xll.qlRateHelperRate($D34)</f>
-        <v>2.4150000000000001E-2</v>
+        <v>2.4670000000000001E-2</v>
       </c>
       <c r="F34" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D34)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D34)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D34)),_xll.qlSwapRateHelperSpread($D34))</f>
@@ -10545,14 +10553,14 @@
       </c>
       <c r="G34" s="43">
         <f>_xll.qlRateHelperEarliestDate($D34)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H34" s="42">
         <f>_xll.qlRateHelperLatestDate($D34)</f>
-        <v>48645</v>
+        <v>48662</v>
       </c>
       <c r="I34" s="37">
-        <v>2.4985314711422818E-2</v>
+        <v>2.5520686763707522E-2</v>
       </c>
       <c r="K34" s="92" t="str">
         <f>_xll.qlRateHelperQuoteName(D34,Trigger)</f>
@@ -10566,7 +10574,7 @@
       </c>
       <c r="E35" s="44">
         <f>_xll.qlRateHelperRate($D35)</f>
-        <v>2.4319999999999998E-2</v>
+        <v>2.4859999999999997E-2</v>
       </c>
       <c r="F35" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D35)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D35)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D35)),_xll.qlSwapRateHelperSpread($D35))</f>
@@ -10574,14 +10582,14 @@
       </c>
       <c r="G35" s="43">
         <f>_xll.qlRateHelperEarliestDate($D35)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H35" s="42">
         <f>_xll.qlRateHelperLatestDate($D35)</f>
-        <v>49009</v>
+        <v>49027</v>
       </c>
       <c r="I35" s="37">
-        <v>2.5152071164456054E-2</v>
+        <v>2.5713470419506751E-2</v>
       </c>
       <c r="K35" s="92" t="str">
         <f>_xll.qlRateHelperQuoteName(D35,Trigger)</f>
@@ -10595,7 +10603,7 @@
       </c>
       <c r="E36" s="44">
         <f>_xll.qlRateHelperRate($D36)</f>
-        <v>2.4460000000000003E-2</v>
+        <v>2.5009999999999998E-2</v>
       </c>
       <c r="F36" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D36)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D36)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D36)),_xll.qlSwapRateHelperSpread($D36))</f>
@@ -10603,14 +10611,14 @@
       </c>
       <c r="G36" s="43">
         <f>_xll.qlRateHelperEarliestDate($D36)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H36" s="42">
         <f>_xll.qlRateHelperLatestDate($D36)</f>
-        <v>49374</v>
+        <v>49395</v>
       </c>
       <c r="I36" s="37">
-        <v>2.5284737213136128E-2</v>
+        <v>2.5858603298724241E-2</v>
       </c>
       <c r="K36" s="92" t="str">
         <f>_xll.qlRateHelperQuoteName(D36,Trigger)</f>
@@ -10624,7 +10632,7 @@
       </c>
       <c r="E37" s="44">
         <f>_xll.qlRateHelperRate($D37)</f>
-        <v>2.4580000000000001E-2</v>
+        <v>2.5140000000000003E-2</v>
       </c>
       <c r="F37" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D37)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D37)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D37)),_xll.qlSwapRateHelperSpread($D37))</f>
@@ -10632,14 +10640,14 @@
       </c>
       <c r="G37" s="43">
         <f>_xll.qlRateHelperEarliestDate($D37)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H37" s="42">
         <f>_xll.qlRateHelperLatestDate($D37)</f>
-        <v>49740</v>
+        <v>49758</v>
       </c>
       <c r="I37" s="37">
-        <v>2.5392619901379466E-2</v>
+        <v>2.5979871314281838E-2</v>
       </c>
       <c r="K37" s="92" t="str">
         <f>_xll.qlRateHelperQuoteName(D37,Trigger)</f>
@@ -10653,7 +10661,7 @@
       </c>
       <c r="E38" s="44">
         <f>_xll.qlRateHelperRate($D38)</f>
-        <v>2.4660000000000001E-2</v>
+        <v>2.5230000000000002E-2</v>
       </c>
       <c r="F38" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D38)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D38)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D38)),_xll.qlSwapRateHelperSpread($D38))</f>
@@ -10661,14 +10669,14 @@
       </c>
       <c r="G38" s="43">
         <f>_xll.qlRateHelperEarliestDate($D38)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H38" s="42">
         <f>_xll.qlRateHelperLatestDate($D38)</f>
-        <v>50105</v>
+        <v>50123</v>
       </c>
       <c r="I38" s="37">
-        <v>2.545385592805063E-2</v>
+        <v>2.6053937376392004E-2</v>
       </c>
       <c r="K38" s="92" t="str">
         <f>_xll.qlRateHelperQuoteName(D38,Trigger)</f>
@@ -10682,7 +10690,7 @@
       </c>
       <c r="E39" s="44">
         <f>_xll.qlRateHelperRate($D39)</f>
-        <v>2.4729999999999999E-2</v>
+        <v>2.53E-2</v>
       </c>
       <c r="F39" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D39)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D39)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D39)),_xll.qlSwapRateHelperSpread($D39))</f>
@@ -10690,14 +10698,14 @@
       </c>
       <c r="G39" s="43">
         <f>_xll.qlRateHelperEarliestDate($D39)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H39" s="42">
         <f>_xll.qlRateHelperLatestDate($D39)</f>
-        <v>50472</v>
+        <v>50488</v>
       </c>
       <c r="I39" s="37">
-        <v>2.5505220818465828E-2</v>
+        <v>2.610448539895199E-2</v>
       </c>
       <c r="K39" s="92" t="str">
         <f>_xll.qlRateHelperQuoteName(D39,Trigger)</f>
@@ -10711,7 +10719,7 @@
       </c>
       <c r="E40" s="44">
         <f>_xll.qlRateHelperRate($D40)</f>
-        <v>2.477E-2</v>
+        <v>2.5350000000000001E-2</v>
       </c>
       <c r="F40" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D40)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D40)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D40)),_xll.qlSwapRateHelperSpread($D40))</f>
@@ -10719,14 +10727,14 @@
       </c>
       <c r="G40" s="43">
         <f>_xll.qlRateHelperEarliestDate($D40)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H40" s="42">
         <f>_xll.qlRateHelperLatestDate($D40)</f>
-        <v>50836</v>
+        <v>50853</v>
       </c>
       <c r="I40" s="37">
-        <v>2.5518584090940159E-2</v>
+        <v>2.6130659298794188E-2</v>
       </c>
       <c r="K40" s="92" t="str">
         <f>_xll.qlRateHelperQuoteName(D40,Trigger)</f>
@@ -10740,7 +10748,7 @@
       </c>
       <c r="E41" s="44">
         <f>_xll.qlRateHelperRate($D41)</f>
-        <v>2.4799999999999999E-2</v>
+        <v>2.538E-2</v>
       </c>
       <c r="F41" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D41)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D41)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D41)),_xll.qlSwapRateHelperSpread($D41))</f>
@@ -10748,14 +10756,14 @@
       </c>
       <c r="G41" s="43">
         <f>_xll.qlRateHelperEarliestDate($D41)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H41" s="42">
         <f>_xll.qlRateHelperLatestDate($D41)</f>
-        <v>51201</v>
+        <v>51221</v>
       </c>
       <c r="I41" s="37">
-        <v>2.5518383122196123E-2</v>
+        <v>2.6128678266143977E-2</v>
       </c>
       <c r="K41" s="92" t="str">
         <f>_xll.qlRateHelperQuoteName(D41,Trigger)</f>
@@ -10769,7 +10777,7 @@
       </c>
       <c r="E42" s="44">
         <f>_xll.qlRateHelperRate($D42)</f>
-        <v>2.4809999999999999E-2</v>
+        <v>2.5399999999999999E-2</v>
       </c>
       <c r="F42" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D42)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D42)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D42)),_xll.qlSwapRateHelperSpread($D42))</f>
@@ -10777,14 +10785,14 @@
       </c>
       <c r="G42" s="43">
         <f>_xll.qlRateHelperEarliestDate($D42)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H42" s="42">
         <f>_xll.qlRateHelperLatestDate($D42)</f>
-        <v>51566</v>
+        <v>51585</v>
       </c>
       <c r="I42" s="37">
-        <v>2.5495036133639796E-2</v>
+        <v>2.6118505781021678E-2</v>
       </c>
       <c r="K42" s="92" t="str">
         <f>_xll.qlRateHelperQuoteName(D42,Trigger)</f>
@@ -10798,7 +10806,7 @@
       </c>
       <c r="E43" s="44">
         <f>_xll.qlRateHelperRate($D43)</f>
-        <v>2.4809999999999999E-2</v>
+        <v>2.5409999999999999E-2</v>
       </c>
       <c r="F43" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D43)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D43)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D43)),_xll.qlSwapRateHelperSpread($D43))</f>
@@ -10806,14 +10814,14 @@
       </c>
       <c r="G43" s="43">
         <f>_xll.qlRateHelperEarliestDate($D43)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H43" s="42">
         <f>_xll.qlRateHelperLatestDate($D43)</f>
-        <v>51931</v>
+        <v>51949</v>
       </c>
       <c r="I43" s="37">
-        <v>2.5459788367185793E-2</v>
+        <v>2.609641336653204E-2</v>
       </c>
       <c r="K43" s="92" t="str">
         <f>_xll.qlRateHelperQuoteName(D43,Trigger)</f>
@@ -10827,7 +10835,7 @@
       </c>
       <c r="E44" s="44">
         <f>_xll.qlRateHelperRate($D44)</f>
-        <v>2.4820000000000002E-2</v>
+        <v>2.5409999999999999E-2</v>
       </c>
       <c r="F44" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D44)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D44)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D44)),_xll.qlSwapRateHelperSpread($D44))</f>
@@ -10835,14 +10843,14 @@
       </c>
       <c r="G44" s="43">
         <f>_xll.qlRateHelperEarliestDate($D44)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H44" s="42">
         <f>_xll.qlRateHelperLatestDate($D44)</f>
-        <v>52296</v>
+        <v>52314</v>
       </c>
       <c r="I44" s="37">
-        <v>2.5441766460900669E-2</v>
+        <v>2.6061832725212598E-2</v>
       </c>
       <c r="K44" s="92" t="str">
         <f>_xll.qlRateHelperQuoteName(D44,Trigger)</f>
@@ -10856,7 +10864,7 @@
       </c>
       <c r="E45" s="44">
         <f>_xll.qlRateHelperRate($D45)</f>
-        <v>2.4820000000000002E-2</v>
+        <v>2.5419999999999998E-2</v>
       </c>
       <c r="F45" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D45)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D45)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D45)),_xll.qlSwapRateHelperSpread($D45))</f>
@@ -10864,14 +10872,14 @@
       </c>
       <c r="G45" s="43">
         <f>_xll.qlRateHelperEarliestDate($D45)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H45" s="42">
         <f>_xll.qlRateHelperLatestDate($D45)</f>
-        <v>52663</v>
+        <v>52680</v>
       </c>
       <c r="I45" s="37">
-        <v>2.5408569357549898E-2</v>
+        <v>2.6042328164245326E-2</v>
       </c>
       <c r="K45" s="92" t="str">
         <f>_xll.qlRateHelperQuoteName(D45,Trigger)</f>
@@ -10885,7 +10893,7 @@
       </c>
       <c r="E46" s="44">
         <f>_xll.qlRateHelperRate($D46)</f>
-        <v>2.4910000000000002E-2</v>
+        <v>2.5539999999999997E-2</v>
       </c>
       <c r="F46" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D46)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D46)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D46)),_xll.qlSwapRateHelperSpread($D46))</f>
@@ -10893,14 +10901,14 @@
       </c>
       <c r="G46" s="43">
         <f>_xll.qlRateHelperEarliestDate($D46)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H46" s="42">
         <f>_xll.qlRateHelperLatestDate($D46)</f>
-        <v>54490</v>
+        <v>54506</v>
       </c>
       <c r="I46" s="37">
-        <v>2.5416534593185325E-2</v>
+        <v>2.6091488178911864E-2</v>
       </c>
       <c r="K46" s="92" t="str">
         <f>_xll.qlRateHelperQuoteName(D46,Trigger)</f>
@@ -10914,7 +10922,7 @@
       </c>
       <c r="E47" s="44">
         <f>_xll.qlRateHelperRate($D47)</f>
-        <v>2.5049999999999999E-2</v>
+        <v>2.5729999999999999E-2</v>
       </c>
       <c r="F47" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D47)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D47)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D47)),_xll.qlSwapRateHelperSpread($D47))</f>
@@ -10922,14 +10930,14 @@
       </c>
       <c r="G47" s="43">
         <f>_xll.qlRateHelperEarliestDate($D47)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H47" s="42">
         <f>_xll.qlRateHelperLatestDate($D47)</f>
-        <v>56314</v>
+        <v>56332</v>
       </c>
       <c r="I47" s="37">
-        <v>2.5543487884649101E-2</v>
+        <v>2.6298113294835713E-2</v>
       </c>
       <c r="K47" s="92" t="str">
         <f>_xll.qlRateHelperQuoteName(D47,Trigger)</f>
@@ -10943,7 +10951,7 @@
       </c>
       <c r="E48" s="44">
         <f>_xll.qlRateHelperRate($D48)</f>
-        <v>2.52E-2</v>
+        <v>2.5939999999999998E-2</v>
       </c>
       <c r="F48" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D48)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D48)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D48)),_xll.qlSwapRateHelperSpread($D48))</f>
@@ -10951,14 +10959,14 @@
       </c>
       <c r="G48" s="43">
         <f>_xll.qlRateHelperEarliestDate($D48)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H48" s="42">
         <f>_xll.qlRateHelperLatestDate($D48)</f>
-        <v>59967</v>
+        <v>59985</v>
       </c>
       <c r="I48" s="37">
-        <v>2.5648202606178106E-2</v>
+        <v>2.6501301457513286E-2</v>
       </c>
       <c r="K48" s="92" t="str">
         <f>_xll.qlRateHelperQuoteName(D48,Trigger)</f>
@@ -10972,7 +10980,7 @@
       </c>
       <c r="E49" s="44">
         <f>_xll.qlRateHelperRate($D49)</f>
-        <v>2.5329999999999998E-2</v>
+        <v>2.6070000000000003E-2</v>
       </c>
       <c r="F49" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D49)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D49)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D49)),_xll.qlSwapRateHelperSpread($D49))</f>
@@ -10980,14 +10988,14 @@
       </c>
       <c r="G49" s="43">
         <f>_xll.qlRateHelperEarliestDate($D49)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H49" s="42">
         <f>_xll.qlRateHelperLatestDate($D49)</f>
-        <v>63619</v>
+        <v>63639</v>
       </c>
       <c r="I49" s="37">
-        <v>2.5793399729359772E-2</v>
+        <v>2.6632850938324421E-2</v>
       </c>
       <c r="K49" s="92" t="str">
         <f>_xll.qlRateHelperQuoteName(D49,Trigger)</f>
@@ -12870,7 +12878,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5 IV5 SR5 ACN5 AMJ5 AWF5 BGB5 BPX5 BZT5 CJP5 CTL5 DDH5 DND5 DWZ5 EGV5 EQR5 FAN5 FKJ5 FUF5 GEB5 GNX5 GXT5 HHP5 HRL5 IBH5 ILD5 IUZ5 JEV5 JOR5 JYN5 KIJ5 KSF5 LCB5 LLX5 LVT5 MFP5 MPL5 MZH5 NJD5 NSZ5 OCV5 OMR5 OWN5 PGJ5 PQF5 QAB5 QJX5 QTT5 RDP5 RNL5 RXH5 SHD5 SQZ5 TAV5 TKR5 TUN5 UEJ5 UOF5 UYB5 VHX5 VRT5 WBP5 WLL5 WVH5 B65541 IV65541 SR65541 ACN65541 AMJ65541 AWF65541 BGB65541 BPX65541 BZT65541 CJP65541 CTL65541 DDH65541 DND65541 DWZ65541 EGV65541 EQR65541 FAN65541 FKJ65541 FUF65541 GEB65541 GNX65541 GXT65541 HHP65541 HRL65541 IBH65541 ILD65541 IUZ65541 JEV65541 JOR65541 JYN65541 KIJ65541 KSF65541 LCB65541 LLX65541 LVT65541 MFP65541 MPL65541 MZH65541 NJD65541 NSZ65541 OCV65541 OMR65541 OWN65541 PGJ65541 PQF65541 QAB65541 QJX65541 QTT65541 RDP65541 RNL65541 RXH65541 SHD65541 SQZ65541 TAV65541 TKR65541 TUN65541 UEJ65541 UOF65541 UYB65541 VHX65541 VRT65541 WBP65541 WLL65541 WVH65541 B131077 IV131077 SR131077 ACN131077 AMJ131077 AWF131077 BGB131077 BPX131077 BZT131077 CJP131077 CTL131077 DDH131077 DND131077 DWZ131077 EGV131077 EQR131077 FAN131077 FKJ131077 FUF131077 GEB131077 GNX131077 GXT131077 HHP131077 HRL131077 IBH131077 ILD131077 IUZ131077 JEV131077 JOR131077 JYN131077 KIJ131077 KSF131077 LCB131077 LLX131077 LVT131077 MFP131077 MPL131077 MZH131077 NJD131077 NSZ131077 OCV131077 OMR131077 OWN131077 PGJ131077 PQF131077 QAB131077 QJX131077 QTT131077 RDP131077 RNL131077 RXH131077 SHD131077 SQZ131077 TAV131077 TKR131077 TUN131077 UEJ131077 UOF131077 UYB131077 VHX131077 VRT131077 WBP131077 WLL131077 WVH131077 B196613 IV196613 SR196613 ACN196613 AMJ196613 AWF196613 BGB196613 BPX196613 BZT196613 CJP196613 CTL196613 DDH196613 DND196613 DWZ196613 EGV196613 EQR196613 FAN196613 FKJ196613 FUF196613 GEB196613 GNX196613 GXT196613 HHP196613 HRL196613 IBH196613 ILD196613 IUZ196613 JEV196613 JOR196613 JYN196613 KIJ196613 KSF196613 LCB196613 LLX196613 LVT196613 MFP196613 MPL196613 MZH196613 NJD196613 NSZ196613 OCV196613 OMR196613 OWN196613 PGJ196613 PQF196613 QAB196613 QJX196613 QTT196613 RDP196613 RNL196613 RXH196613 SHD196613 SQZ196613 TAV196613 TKR196613 TUN196613 UEJ196613 UOF196613 UYB196613 VHX196613 VRT196613 WBP196613 WLL196613 WVH196613 B262149 IV262149 SR262149 ACN262149 AMJ262149 AWF262149 BGB262149 BPX262149 BZT262149 CJP262149 CTL262149 DDH262149 DND262149 DWZ262149 EGV262149 EQR262149 FAN262149 FKJ262149 FUF262149 GEB262149 GNX262149 GXT262149 HHP262149 HRL262149 IBH262149 ILD262149 IUZ262149 JEV262149 JOR262149 JYN262149 KIJ262149 KSF262149 LCB262149 LLX262149 LVT262149 MFP262149 MPL262149 MZH262149 NJD262149 NSZ262149 OCV262149 OMR262149 OWN262149 PGJ262149 PQF262149 QAB262149 QJX262149 QTT262149 RDP262149 RNL262149 RXH262149 SHD262149 SQZ262149 TAV262149 TKR262149 TUN262149 UEJ262149 UOF262149 UYB262149 VHX262149 VRT262149 WBP262149 WLL262149 WVH262149 B327685 IV327685 SR327685 ACN327685 AMJ327685 AWF327685 BGB327685 BPX327685 BZT327685 CJP327685 CTL327685 DDH327685 DND327685 DWZ327685 EGV327685 EQR327685 FAN327685 FKJ327685 FUF327685 GEB327685 GNX327685 GXT327685 HHP327685 HRL327685 IBH327685 ILD327685 IUZ327685 JEV327685 JOR327685 JYN327685 KIJ327685 KSF327685 LCB327685 LLX327685 LVT327685 MFP327685 MPL327685 MZH327685 NJD327685 NSZ327685 OCV327685 OMR327685 OWN327685 PGJ327685 PQF327685 QAB327685 QJX327685 QTT327685 RDP327685 RNL327685 RXH327685 SHD327685 SQZ327685 TAV327685 TKR327685 TUN327685 UEJ327685 UOF327685 UYB327685 VHX327685 VRT327685 WBP327685 WLL327685 WVH327685 B393221 IV393221 SR393221 ACN393221 AMJ393221 AWF393221 BGB393221 BPX393221 BZT393221 CJP393221 CTL393221 DDH393221 DND393221 DWZ393221 EGV393221 EQR393221 FAN393221 FKJ393221 FUF393221 GEB393221 GNX393221 GXT393221 HHP393221 HRL393221 IBH393221 ILD393221 IUZ393221 JEV393221 JOR393221 JYN393221 KIJ393221 KSF393221 LCB393221 LLX393221 LVT393221 MFP393221 MPL393221 MZH393221 NJD393221 NSZ393221 OCV393221 OMR393221 OWN393221 PGJ393221 PQF393221 QAB393221 QJX393221 QTT393221 RDP393221 RNL393221 RXH393221 SHD393221 SQZ393221 TAV393221 TKR393221 TUN393221 UEJ393221 UOF393221 UYB393221 VHX393221 VRT393221 WBP393221 WLL393221 WVH393221 B458757 IV458757 SR458757 ACN458757 AMJ458757 AWF458757 BGB458757 BPX458757 BZT458757 CJP458757 CTL458757 DDH458757 DND458757 DWZ458757 EGV458757 EQR458757 FAN458757 FKJ458757 FUF458757 GEB458757 GNX458757 GXT458757 HHP458757 HRL458757 IBH458757 ILD458757 IUZ458757 JEV458757 JOR458757 JYN458757 KIJ458757 KSF458757 LCB458757 LLX458757 LVT458757 MFP458757 MPL458757 MZH458757 NJD458757 NSZ458757 OCV458757 OMR458757 OWN458757 PGJ458757 PQF458757 QAB458757 QJX458757 QTT458757 RDP458757 RNL458757 RXH458757 SHD458757 SQZ458757 TAV458757 TKR458757 TUN458757 UEJ458757 UOF458757 UYB458757 VHX458757 VRT458757 WBP458757 WLL458757 WVH458757 B524293 IV524293 SR524293 ACN524293 AMJ524293 AWF524293 BGB524293 BPX524293 BZT524293 CJP524293 CTL524293 DDH524293 DND524293 DWZ524293 EGV524293 EQR524293 FAN524293 FKJ524293 FUF524293 GEB524293 GNX524293 GXT524293 HHP524293 HRL524293 IBH524293 ILD524293 IUZ524293 JEV524293 JOR524293 JYN524293 KIJ524293 KSF524293 LCB524293 LLX524293 LVT524293 MFP524293 MPL524293 MZH524293 NJD524293 NSZ524293 OCV524293 OMR524293 OWN524293 PGJ524293 PQF524293 QAB524293 QJX524293 QTT524293 RDP524293 RNL524293 RXH524293 SHD524293 SQZ524293 TAV524293 TKR524293 TUN524293 UEJ524293 UOF524293 UYB524293 VHX524293 VRT524293 WBP524293 WLL524293 WVH524293 B589829 IV589829 SR589829 ACN589829 AMJ589829 AWF589829 BGB589829 BPX589829 BZT589829 CJP589829 CTL589829 DDH589829 DND589829 DWZ589829 EGV589829 EQR589829 FAN589829 FKJ589829 FUF589829 GEB589829 GNX589829 GXT589829 HHP589829 HRL589829 IBH589829 ILD589829 IUZ589829 JEV589829 JOR589829 JYN589829 KIJ589829 KSF589829 LCB589829 LLX589829 LVT589829 MFP589829 MPL589829 MZH589829 NJD589829 NSZ589829 OCV589829 OMR589829 OWN589829 PGJ589829 PQF589829 QAB589829 QJX589829 QTT589829 RDP589829 RNL589829 RXH589829 SHD589829 SQZ589829 TAV589829 TKR589829 TUN589829 UEJ589829 UOF589829 UYB589829 VHX589829 VRT589829 WBP589829 WLL589829 WVH589829 B655365 IV655365 SR655365 ACN655365 AMJ655365 AWF655365 BGB655365 BPX655365 BZT655365 CJP655365 CTL655365 DDH655365 DND655365 DWZ655365 EGV655365 EQR655365 FAN655365 FKJ655365 FUF655365 GEB655365 GNX655365 GXT655365 HHP655365 HRL655365 IBH655365 ILD655365 IUZ655365 JEV655365 JOR655365 JYN655365 KIJ655365 KSF655365 LCB655365 LLX655365 LVT655365 MFP655365 MPL655365 MZH655365 NJD655365 NSZ655365 OCV655365 OMR655365 OWN655365 PGJ655365 PQF655365 QAB655365 QJX655365 QTT655365 RDP655365 RNL655365 RXH655365 SHD655365 SQZ655365 TAV655365 TKR655365 TUN655365 UEJ655365 UOF655365 UYB655365 VHX655365 VRT655365 WBP655365 WLL655365 WVH655365 B720901 IV720901 SR720901 ACN720901 AMJ720901 AWF720901 BGB720901 BPX720901 BZT720901 CJP720901 CTL720901 DDH720901 DND720901 DWZ720901 EGV720901 EQR720901 FAN720901 FKJ720901 FUF720901 GEB720901 GNX720901 GXT720901 HHP720901 HRL720901 IBH720901 ILD720901 IUZ720901 JEV720901 JOR720901 JYN720901 KIJ720901 KSF720901 LCB720901 LLX720901 LVT720901 MFP720901 MPL720901 MZH720901 NJD720901 NSZ720901 OCV720901 OMR720901 OWN720901 PGJ720901 PQF720901 QAB720901 QJX720901 QTT720901 RDP720901 RNL720901 RXH720901 SHD720901 SQZ720901 TAV720901 TKR720901 TUN720901 UEJ720901 UOF720901 UYB720901 VHX720901 VRT720901 WBP720901 WLL720901 WVH720901 B786437 IV786437 SR786437 ACN786437 AMJ786437 AWF786437 BGB786437 BPX786437 BZT786437 CJP786437 CTL786437 DDH786437 DND786437 DWZ786437 EGV786437 EQR786437 FAN786437 FKJ786437 FUF786437 GEB786437 GNX786437 GXT786437 HHP786437 HRL786437 IBH786437 ILD786437 IUZ786437 JEV786437 JOR786437 JYN786437 KIJ786437 KSF786437 LCB786437 LLX786437 LVT786437 MFP786437 MPL786437 MZH786437 NJD786437 NSZ786437 OCV786437 OMR786437 OWN786437 PGJ786437 PQF786437 QAB786437 QJX786437 QTT786437 RDP786437 RNL786437 RXH786437 SHD786437 SQZ786437 TAV786437 TKR786437 TUN786437 UEJ786437 UOF786437 UYB786437 VHX786437 VRT786437 WBP786437 WLL786437 WVH786437 B851973 IV851973 SR851973 ACN851973 AMJ851973 AWF851973 BGB851973 BPX851973 BZT851973 CJP851973 CTL851973 DDH851973 DND851973 DWZ851973 EGV851973 EQR851973 FAN851973 FKJ851973 FUF851973 GEB851973 GNX851973 GXT851973 HHP851973 HRL851973 IBH851973 ILD851973 IUZ851973 JEV851973 JOR851973 JYN851973 KIJ851973 KSF851973 LCB851973 LLX851973 LVT851973 MFP851973 MPL851973 MZH851973 NJD851973 NSZ851973 OCV851973 OMR851973 OWN851973 PGJ851973 PQF851973 QAB851973 QJX851973 QTT851973 RDP851973 RNL851973 RXH851973 SHD851973 SQZ851973 TAV851973 TKR851973 TUN851973 UEJ851973 UOF851973 UYB851973 VHX851973 VRT851973 WBP851973 WLL851973 WVH851973 B917509 IV917509 SR917509 ACN917509 AMJ917509 AWF917509 BGB917509 BPX917509 BZT917509 CJP917509 CTL917509 DDH917509 DND917509 DWZ917509 EGV917509 EQR917509 FAN917509 FKJ917509 FUF917509 GEB917509 GNX917509 GXT917509 HHP917509 HRL917509 IBH917509 ILD917509 IUZ917509 JEV917509 JOR917509 JYN917509 KIJ917509 KSF917509 LCB917509 LLX917509 LVT917509 MFP917509 MPL917509 MZH917509 NJD917509 NSZ917509 OCV917509 OMR917509 OWN917509 PGJ917509 PQF917509 QAB917509 QJX917509 QTT917509 RDP917509 RNL917509 RXH917509 SHD917509 SQZ917509 TAV917509 TKR917509 TUN917509 UEJ917509 UOF917509 UYB917509 VHX917509 VRT917509 WBP917509 WLL917509 WVH917509 B983045 IV983045 SR983045 ACN983045 AMJ983045 AWF983045 BGB983045 BPX983045 BZT983045 CJP983045 CTL983045 DDH983045 DND983045 DWZ983045 EGV983045 EQR983045 FAN983045 FKJ983045 FUF983045 GEB983045 GNX983045 GXT983045 HHP983045 HRL983045 IBH983045 ILD983045 IUZ983045 JEV983045 JOR983045 JYN983045 KIJ983045 KSF983045 LCB983045 LLX983045 LVT983045 MFP983045 MPL983045 MZH983045 NJD983045 NSZ983045 OCV983045 OMR983045 OWN983045 PGJ983045 PQF983045 QAB983045 QJX983045 QTT983045 RDP983045 RNL983045 RXH983045 SHD983045 SQZ983045 TAV983045 TKR983045 TUN983045 UEJ983045 UOF983045 UYB983045 VHX983045 VRT983045 WBP983045 WLL983045 WVH983045">
       <formula1>"AllDepos,DeposBeforeFirstFuturesStartDate,DeposBeforeFirstFuturesStartDatePlusOne,DeposBeforeFirstFuturesExpiryDate"</formula1>
     </dataValidation>
@@ -12888,7 +12896,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -12962,7 +12970,7 @@
       </c>
       <c r="F3" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E3,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_OND#0004</v>
+        <v>EUR_YCSTDRH_OND#0000</v>
       </c>
       <c r="G3" s="109" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -12989,7 +12997,7 @@
       </c>
       <c r="F4" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_SWD#0004</v>
+        <v>EUR_YCSTDRH_SWD#0000</v>
       </c>
       <c r="G4" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -13020,7 +13028,7 @@
       </c>
       <c r="F5" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_2WD#0004</v>
+        <v>EUR_YCSTDRH_2WD#0000</v>
       </c>
       <c r="G5" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -13047,7 +13055,7 @@
       </c>
       <c r="F6" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_1MD#0004</v>
+        <v>EUR_YCSTDRH_1MD#0000</v>
       </c>
       <c r="G6" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -13074,7 +13082,7 @@
       </c>
       <c r="F7" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E7,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_2MD#0004</v>
+        <v>EUR_YCSTDRH_2MD#0000</v>
       </c>
       <c r="G7" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -13101,7 +13109,7 @@
       </c>
       <c r="F8" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E8,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_3MD#0004</v>
+        <v>EUR_YCSTDRH_3MD#0000</v>
       </c>
       <c r="G8" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -13128,7 +13136,7 @@
       </c>
       <c r="F9" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E9,D9,C9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_6MD#0004</v>
+        <v>EUR_YCSTDRH_6MD#0000</v>
       </c>
       <c r="G9" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -13155,7 +13163,7 @@
       </c>
       <c r="F10" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E10,D10,C10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_9MD#0004</v>
+        <v>EUR_YCSTDRH_9MD#0000</v>
       </c>
       <c r="G10" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -13182,7 +13190,7 @@
       </c>
       <c r="F11" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E11,D11,C11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_1YD#0004</v>
+        <v>EUR_YCSTDRH_1YD#0000</v>
       </c>
       <c r="G11" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -13296,7 +13304,7 @@
       </c>
       <c r="H3" s="151" t="str">
         <f>_xll.qlFraRateHelper(G3,F3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_TND#0004</v>
+        <v>EUR_YCSTDRH_TND#0000</v>
       </c>
       <c r="I3" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -13328,7 +13336,7 @@
       </c>
       <c r="H4" s="146" t="str">
         <f>_xll.qlFraRateHelper(G4,F4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_SND#0004</v>
+        <v>EUR_YCSTDRH_SND#0000</v>
       </c>
       <c r="I4" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -13447,7 +13455,7 @@
       </c>
       <c r="D3" s="173" t="str">
         <f t="array" ref="D3:D122">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$C3:$C122)</f>
-        <v>H4</v>
+        <v>J4</v>
       </c>
       <c r="E3" s="173" t="str">
         <f t="shared" ref="E3:E34" si="0">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
@@ -13455,19 +13463,19 @@
       </c>
       <c r="F3" s="172" t="str">
         <f t="shared" ref="F3:F34" si="1">Currency&amp;"FUT"&amp;$E$1&amp;$D3&amp;QuoteSuffix</f>
-        <v>EURFUT3MH4_Quote</v>
+        <v>EURFUT3MJ4_Quote</v>
       </c>
       <c r="G3" s="172" t="str">
         <f t="shared" ref="G3:G34" si="2">Currency&amp;"FUT"&amp;$E$1&amp;$D3&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>EURFUT3MH4ConvAdj_Quote</v>
+        <v>EURFUT3MJ4ConvAdj_Quote</v>
       </c>
       <c r="H3" s="172" t="str">
         <f t="shared" ref="H3:H34" si="3">$H$1&amp;"_FUT"&amp;$E$1&amp;$D3</f>
-        <v>EUR_YCSTDRH_FUT3MH4</v>
+        <v>EUR_YCSTDRH_FUT3MJ4</v>
       </c>
       <c r="I3" s="179" t="str">
         <f>_xll.qlFuturesRateHelper(H3,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MH4#0004</v>
+        <v>EUR_YCSTDRH_FUT3MJ4#0000</v>
       </c>
       <c r="J3" s="178" t="str">
         <f>_xll.ohRangeRetrieveError(I3)</f>
@@ -13485,7 +13493,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="174" t="str">
-        <v>J4</v>
+        <v>K4</v>
       </c>
       <c r="E4" s="173" t="str">
         <f t="shared" si="0"/>
@@ -13493,19 +13501,19 @@
       </c>
       <c r="F4" s="172" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MJ4_Quote</v>
+        <v>EURFUT3MK4_Quote</v>
       </c>
       <c r="G4" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MJ4ConvAdj_Quote</v>
+        <v>EURFUT3MK4ConvAdj_Quote</v>
       </c>
       <c r="H4" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YCSTDRH_FUT3MJ4</v>
+        <v>EUR_YCSTDRH_FUT3MK4</v>
       </c>
       <c r="I4" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H4,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MJ4#0004</v>
+        <v>EUR_YCSTDRH_FUT3MK4#0000</v>
       </c>
       <c r="J4" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I4)</f>
@@ -13523,7 +13531,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="174" t="str">
-        <v>K4</v>
+        <v>M4</v>
       </c>
       <c r="E5" s="173" t="str">
         <f t="shared" si="0"/>
@@ -13531,19 +13539,19 @@
       </c>
       <c r="F5" s="172" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MK4_Quote</v>
+        <v>EURFUT3MM4_Quote</v>
       </c>
       <c r="G5" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MK4ConvAdj_Quote</v>
+        <v>EURFUT3MM4ConvAdj_Quote</v>
       </c>
       <c r="H5" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YCSTDRH_FUT3MK4</v>
+        <v>EUR_YCSTDRH_FUT3MM4</v>
       </c>
       <c r="I5" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H5,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MK4#0004</v>
+        <v>EUR_YCSTDRH_FUT3MM4#0000</v>
       </c>
       <c r="J5" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
@@ -13561,7 +13569,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="174" t="str">
-        <v>M4</v>
+        <v>N4</v>
       </c>
       <c r="E6" s="173" t="str">
         <f t="shared" si="0"/>
@@ -13569,19 +13577,19 @@
       </c>
       <c r="F6" s="172" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MM4_Quote</v>
+        <v>EURFUT3MN4_Quote</v>
       </c>
       <c r="G6" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MM4ConvAdj_Quote</v>
+        <v>EURFUT3MN4ConvAdj_Quote</v>
       </c>
       <c r="H6" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YCSTDRH_FUT3MM4</v>
+        <v>EUR_YCSTDRH_FUT3MN4</v>
       </c>
       <c r="I6" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H6,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MM4#0004</v>
+        <v>EUR_YCSTDRH_FUT3MN4#0000</v>
       </c>
       <c r="J6" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
@@ -13599,7 +13607,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="174" t="str">
-        <v>N4</v>
+        <v>Q4</v>
       </c>
       <c r="E7" s="173" t="str">
         <f t="shared" si="0"/>
@@ -13607,19 +13615,19 @@
       </c>
       <c r="F7" s="172" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MN4_Quote</v>
+        <v>EURFUT3MQ4_Quote</v>
       </c>
       <c r="G7" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MN4ConvAdj_Quote</v>
+        <v>EURFUT3MQ4ConvAdj_Quote</v>
       </c>
       <c r="H7" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YCSTDRH_FUT3MN4</v>
+        <v>EUR_YCSTDRH_FUT3MQ4</v>
       </c>
       <c r="I7" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H7,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MN4#0004</v>
+        <v>EUR_YCSTDRH_FUT3MQ4#0000</v>
       </c>
       <c r="J7" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
@@ -13637,7 +13645,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="174" t="str">
-        <v>Q4</v>
+        <v>U4</v>
       </c>
       <c r="E8" s="173" t="str">
         <f t="shared" si="0"/>
@@ -13645,19 +13653,19 @@
       </c>
       <c r="F8" s="172" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MQ4_Quote</v>
+        <v>EURFUT3MU4_Quote</v>
       </c>
       <c r="G8" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MQ4ConvAdj_Quote</v>
+        <v>EURFUT3MU4ConvAdj_Quote</v>
       </c>
       <c r="H8" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YCSTDRH_FUT3MQ4</v>
+        <v>EUR_YCSTDRH_FUT3MU4</v>
       </c>
       <c r="I8" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H8,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MQ4#0004</v>
+        <v>EUR_YCSTDRH_FUT3MU4#0000</v>
       </c>
       <c r="J8" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
@@ -13675,7 +13683,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="174" t="str">
-        <v>U4</v>
+        <v>V4</v>
       </c>
       <c r="E9" s="173" t="str">
         <f t="shared" si="0"/>
@@ -13683,19 +13691,19 @@
       </c>
       <c r="F9" s="172" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MU4_Quote</v>
+        <v>EURFUT3MV4_Quote</v>
       </c>
       <c r="G9" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MU4ConvAdj_Quote</v>
+        <v>EURFUT3MV4ConvAdj_Quote</v>
       </c>
       <c r="H9" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YCSTDRH_FUT3MU4</v>
+        <v>EUR_YCSTDRH_FUT3MV4</v>
       </c>
       <c r="I9" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H9,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MU4#0004</v>
+        <v>EUR_YCSTDRH_FUT3MV4#0000</v>
       </c>
       <c r="J9" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
@@ -13713,7 +13721,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="174" t="str">
-        <v>V4</v>
+        <v>X4</v>
       </c>
       <c r="E10" s="173" t="str">
         <f t="shared" si="0"/>
@@ -13721,19 +13729,19 @@
       </c>
       <c r="F10" s="172" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MV4_Quote</v>
+        <v>EURFUT3MX4_Quote</v>
       </c>
       <c r="G10" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MV4ConvAdj_Quote</v>
+        <v>EURFUT3MX4ConvAdj_Quote</v>
       </c>
       <c r="H10" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YCSTDRH_FUT3MV4</v>
+        <v>EUR_YCSTDRH_FUT3MX4</v>
       </c>
       <c r="I10" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H10,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MV4#0004</v>
+        <v>EUR_YCSTDRH_FUT3MX4#0000</v>
       </c>
       <c r="J10" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
@@ -13751,7 +13759,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="174" t="str">
-        <v>X4</v>
+        <v>Z4</v>
       </c>
       <c r="E11" s="173" t="str">
         <f t="shared" si="0"/>
@@ -13759,19 +13767,19 @@
       </c>
       <c r="F11" s="172" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MX4_Quote</v>
+        <v>EURFUT3MZ4_Quote</v>
       </c>
       <c r="G11" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MX4ConvAdj_Quote</v>
+        <v>EURFUT3MZ4ConvAdj_Quote</v>
       </c>
       <c r="H11" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YCSTDRH_FUT3MX4</v>
+        <v>EUR_YCSTDRH_FUT3MZ4</v>
       </c>
       <c r="I11" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H11,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MX4#0004</v>
+        <v>EUR_YCSTDRH_FUT3MZ4#0000</v>
       </c>
       <c r="J11" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I11)</f>
@@ -13789,7 +13797,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="174" t="str">
-        <v>Z4</v>
+        <v>F5</v>
       </c>
       <c r="E12" s="173" t="str">
         <f t="shared" si="0"/>
@@ -13797,19 +13805,19 @@
       </c>
       <c r="F12" s="172" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MZ4_Quote</v>
+        <v>EURFUT3MF5_Quote</v>
       </c>
       <c r="G12" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MZ4ConvAdj_Quote</v>
+        <v>EURFUT3MF5ConvAdj_Quote</v>
       </c>
       <c r="H12" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YCSTDRH_FUT3MZ4</v>
+        <v>EUR_YCSTDRH_FUT3MF5</v>
       </c>
       <c r="I12" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H12,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MZ4#0004</v>
+        <v>EUR_YCSTDRH_FUT3MF5#0000</v>
       </c>
       <c r="J12" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I12)</f>
@@ -13827,7 +13835,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="174" t="str">
-        <v>F5</v>
+        <v>G5</v>
       </c>
       <c r="E13" s="173" t="str">
         <f t="shared" si="0"/>
@@ -13835,19 +13843,19 @@
       </c>
       <c r="F13" s="172" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MF5_Quote</v>
+        <v>EURFUT3MG5_Quote</v>
       </c>
       <c r="G13" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MF5ConvAdj_Quote</v>
+        <v>EURFUT3MG5ConvAdj_Quote</v>
       </c>
       <c r="H13" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YCSTDRH_FUT3MF5</v>
+        <v>EUR_YCSTDRH_FUT3MG5</v>
       </c>
       <c r="I13" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H13,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MF5#0004</v>
+        <v>EUR_YCSTDRH_FUT3MG5#0000</v>
       </c>
       <c r="J13" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I13)</f>
@@ -13865,7 +13873,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="174" t="str">
-        <v>G5</v>
+        <v>H5</v>
       </c>
       <c r="E14" s="173" t="str">
         <f t="shared" si="0"/>
@@ -13873,19 +13881,19 @@
       </c>
       <c r="F14" s="172" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MG5_Quote</v>
+        <v>EURFUT3MH5_Quote</v>
       </c>
       <c r="G14" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MG5ConvAdj_Quote</v>
+        <v>EURFUT3MH5ConvAdj_Quote</v>
       </c>
       <c r="H14" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YCSTDRH_FUT3MG5</v>
+        <v>EUR_YCSTDRH_FUT3MH5</v>
       </c>
       <c r="I14" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H14,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MG5#0004</v>
+        <v>EUR_YCSTDRH_FUT3MH5#0000</v>
       </c>
       <c r="J14" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(I14)</f>
@@ -13903,7 +13911,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="174" t="str">
-        <v>H5</v>
+        <v>J5</v>
       </c>
       <c r="E15" s="173" t="str">
         <f t="shared" si="0"/>
@@ -13911,23 +13919,23 @@
       </c>
       <c r="F15" s="172" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MH5_Quote</v>
+        <v>EURFUT3MJ5_Quote</v>
       </c>
       <c r="G15" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MH5ConvAdj_Quote</v>
+        <v>EURFUT3MJ5ConvAdj_Quote</v>
       </c>
       <c r="H15" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YCSTDRH_FUT3MH5</v>
-      </c>
-      <c r="I15" s="171" t="str">
+        <v>EUR_YCSTDRH_FUT3MJ5</v>
+      </c>
+      <c r="I15" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H15,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MH5#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="J15" s="170" t="str">
-        <f>_xll.ohRangeRetrieveError(I15)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I15)</f>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MJ5_Quote'</v>
       </c>
       <c r="K15" s="144"/>
       <c r="L15" s="177"/>
@@ -13941,7 +13949,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="174" t="str">
-        <v>J5</v>
+        <v>K5</v>
       </c>
       <c r="E16" s="173" t="str">
         <f t="shared" si="0"/>
@@ -13949,15 +13957,15 @@
       </c>
       <c r="F16" s="172" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MJ5_Quote</v>
+        <v>EURFUT3MK5_Quote</v>
       </c>
       <c r="G16" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MJ5ConvAdj_Quote</v>
+        <v>EURFUT3MK5ConvAdj_Quote</v>
       </c>
       <c r="H16" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YCSTDRH_FUT3MJ5</v>
+        <v>EUR_YCSTDRH_FUT3MK5</v>
       </c>
       <c r="I16" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H16,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
@@ -13965,7 +13973,7 @@
       </c>
       <c r="J16" s="170" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I16)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MJ5_Quote'</v>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MK5_Quote'</v>
       </c>
       <c r="K16" s="144"/>
       <c r="L16" s="177"/>
@@ -13979,7 +13987,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="174" t="str">
-        <v>K5</v>
+        <v>M5</v>
       </c>
       <c r="E17" s="173" t="str">
         <f t="shared" si="0"/>
@@ -13987,23 +13995,23 @@
       </c>
       <c r="F17" s="172" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MK5_Quote</v>
+        <v>EURFUT3MM5_Quote</v>
       </c>
       <c r="G17" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MK5ConvAdj_Quote</v>
+        <v>EURFUT3MM5ConvAdj_Quote</v>
       </c>
       <c r="H17" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YCSTDRH_FUT3MK5</v>
-      </c>
-      <c r="I17" s="171" t="e">
+        <v>EUR_YCSTDRH_FUT3MM5</v>
+      </c>
+      <c r="I17" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H17,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>EUR_YCSTDRH_FUT3MM5#0000</v>
       </c>
       <c r="J17" s="170" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I17)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MK5_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I17)</f>
+        <v/>
       </c>
       <c r="K17" s="144"/>
       <c r="L17" s="177"/>
@@ -14017,7 +14025,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="174" t="str">
-        <v>M5</v>
+        <v>N5</v>
       </c>
       <c r="E18" s="173" t="str">
         <f t="shared" si="0"/>
@@ -14025,23 +14033,23 @@
       </c>
       <c r="F18" s="172" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MM5_Quote</v>
+        <v>EURFUT3MN5_Quote</v>
       </c>
       <c r="G18" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MM5ConvAdj_Quote</v>
+        <v>EURFUT3MN5ConvAdj_Quote</v>
       </c>
       <c r="H18" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YCSTDRH_FUT3MM5</v>
-      </c>
-      <c r="I18" s="171" t="str">
+        <v>EUR_YCSTDRH_FUT3MN5</v>
+      </c>
+      <c r="I18" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H18,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MM5#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="J18" s="170" t="str">
-        <f>_xll.ohRangeRetrieveError(I18)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I18)</f>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MN5_Quote'</v>
       </c>
       <c r="K18" s="144"/>
       <c r="L18" s="177"/>
@@ -14055,7 +14063,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="174" t="str">
-        <v>N5</v>
+        <v>Q5</v>
       </c>
       <c r="E19" s="173" t="str">
         <f t="shared" si="0"/>
@@ -14063,15 +14071,15 @@
       </c>
       <c r="F19" s="172" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MN5_Quote</v>
+        <v>EURFUT3MQ5_Quote</v>
       </c>
       <c r="G19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MN5ConvAdj_Quote</v>
+        <v>EURFUT3MQ5ConvAdj_Quote</v>
       </c>
       <c r="H19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YCSTDRH_FUT3MN5</v>
+        <v>EUR_YCSTDRH_FUT3MQ5</v>
       </c>
       <c r="I19" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H19,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
@@ -14079,7 +14087,7 @@
       </c>
       <c r="J19" s="170" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I19)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MN5_Quote'</v>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MQ5_Quote'</v>
       </c>
       <c r="K19" s="144"/>
       <c r="L19" s="177"/>
@@ -14093,7 +14101,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="174" t="str">
-        <v>Q5</v>
+        <v>U5</v>
       </c>
       <c r="E20" s="173" t="str">
         <f t="shared" si="0"/>
@@ -14101,23 +14109,23 @@
       </c>
       <c r="F20" s="172" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MQ5_Quote</v>
+        <v>EURFUT3MU5_Quote</v>
       </c>
       <c r="G20" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MQ5ConvAdj_Quote</v>
+        <v>EURFUT3MU5ConvAdj_Quote</v>
       </c>
       <c r="H20" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YCSTDRH_FUT3MQ5</v>
-      </c>
-      <c r="I20" s="171" t="e">
+        <v>EUR_YCSTDRH_FUT3MU5</v>
+      </c>
+      <c r="I20" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H20,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>EUR_YCSTDRH_FUT3MU5#0000</v>
       </c>
       <c r="J20" s="170" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I20)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MQ5_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I20)</f>
+        <v/>
       </c>
       <c r="K20" s="144"/>
       <c r="L20" s="177"/>
@@ -14131,7 +14139,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="174" t="str">
-        <v>U5</v>
+        <v>V5</v>
       </c>
       <c r="E21" s="173" t="str">
         <f t="shared" si="0"/>
@@ -14139,23 +14147,23 @@
       </c>
       <c r="F21" s="172" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MU5_Quote</v>
+        <v>EURFUT3MV5_Quote</v>
       </c>
       <c r="G21" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MU5ConvAdj_Quote</v>
+        <v>EURFUT3MV5ConvAdj_Quote</v>
       </c>
       <c r="H21" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YCSTDRH_FUT3MU5</v>
-      </c>
-      <c r="I21" s="171" t="str">
+        <v>EUR_YCSTDRH_FUT3MV5</v>
+      </c>
+      <c r="I21" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H21,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MU5#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="J21" s="170" t="str">
-        <f>_xll.ohRangeRetrieveError(I21)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I21)</f>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MV5_Quote'</v>
       </c>
       <c r="K21" s="144"/>
       <c r="L21" s="177"/>
@@ -14169,7 +14177,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="174" t="str">
-        <v>V5</v>
+        <v>X5</v>
       </c>
       <c r="E22" s="173" t="str">
         <f t="shared" si="0"/>
@@ -14177,15 +14185,15 @@
       </c>
       <c r="F22" s="172" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MV5_Quote</v>
+        <v>EURFUT3MX5_Quote</v>
       </c>
       <c r="G22" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MV5ConvAdj_Quote</v>
+        <v>EURFUT3MX5ConvAdj_Quote</v>
       </c>
       <c r="H22" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YCSTDRH_FUT3MV5</v>
+        <v>EUR_YCSTDRH_FUT3MX5</v>
       </c>
       <c r="I22" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H22,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
@@ -14193,7 +14201,7 @@
       </c>
       <c r="J22" s="170" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I22)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MV5_Quote'</v>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MX5_Quote'</v>
       </c>
       <c r="K22" s="144"/>
       <c r="L22" s="177"/>
@@ -14207,7 +14215,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="174" t="str">
-        <v>X5</v>
+        <v>Z5</v>
       </c>
       <c r="E23" s="173" t="str">
         <f t="shared" si="0"/>
@@ -14215,23 +14223,23 @@
       </c>
       <c r="F23" s="172" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MX5_Quote</v>
+        <v>EURFUT3MZ5_Quote</v>
       </c>
       <c r="G23" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MX5ConvAdj_Quote</v>
+        <v>EURFUT3MZ5ConvAdj_Quote</v>
       </c>
       <c r="H23" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YCSTDRH_FUT3MX5</v>
-      </c>
-      <c r="I23" s="171" t="e">
+        <v>EUR_YCSTDRH_FUT3MZ5</v>
+      </c>
+      <c r="I23" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H23,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>EUR_YCSTDRH_FUT3MZ5#0000</v>
       </c>
       <c r="J23" s="170" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I23)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MX5_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I23)</f>
+        <v/>
       </c>
       <c r="K23" s="144"/>
       <c r="L23" s="177"/>
@@ -14245,7 +14253,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="174" t="str">
-        <v>Z5</v>
+        <v>F6</v>
       </c>
       <c r="E24" s="173" t="str">
         <f t="shared" si="0"/>
@@ -14253,23 +14261,23 @@
       </c>
       <c r="F24" s="172" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MZ5_Quote</v>
+        <v>EURFUT3MF6_Quote</v>
       </c>
       <c r="G24" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MZ5ConvAdj_Quote</v>
+        <v>EURFUT3MF6ConvAdj_Quote</v>
       </c>
       <c r="H24" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YCSTDRH_FUT3MZ5</v>
-      </c>
-      <c r="I24" s="171" t="str">
+        <v>EUR_YCSTDRH_FUT3MF6</v>
+      </c>
+      <c r="I24" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H24,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MZ5#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="J24" s="170" t="str">
-        <f>_xll.ohRangeRetrieveError(I24)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I24)</f>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MF6_Quote'</v>
       </c>
       <c r="K24" s="144"/>
       <c r="L24" s="177"/>
@@ -14283,7 +14291,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="174" t="str">
-        <v>F6</v>
+        <v>G6</v>
       </c>
       <c r="E25" s="173" t="str">
         <f t="shared" si="0"/>
@@ -14291,15 +14299,15 @@
       </c>
       <c r="F25" s="172" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MF6_Quote</v>
+        <v>EURFUT3MG6_Quote</v>
       </c>
       <c r="G25" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MF6ConvAdj_Quote</v>
+        <v>EURFUT3MG6ConvAdj_Quote</v>
       </c>
       <c r="H25" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YCSTDRH_FUT3MF6</v>
+        <v>EUR_YCSTDRH_FUT3MG6</v>
       </c>
       <c r="I25" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H25,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
@@ -14307,7 +14315,7 @@
       </c>
       <c r="J25" s="170" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I25)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MF6_Quote'</v>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MG6_Quote'</v>
       </c>
       <c r="K25" s="144"/>
       <c r="L25" s="177"/>
@@ -14321,7 +14329,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="174" t="str">
-        <v>G6</v>
+        <v>H6</v>
       </c>
       <c r="E26" s="173" t="str">
         <f t="shared" si="0"/>
@@ -14329,23 +14337,23 @@
       </c>
       <c r="F26" s="172" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MG6_Quote</v>
+        <v>EURFUT3MH6_Quote</v>
       </c>
       <c r="G26" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MG6ConvAdj_Quote</v>
+        <v>EURFUT3MH6ConvAdj_Quote</v>
       </c>
       <c r="H26" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YCSTDRH_FUT3MG6</v>
-      </c>
-      <c r="I26" s="171" t="e">
+        <v>EUR_YCSTDRH_FUT3MH6</v>
+      </c>
+      <c r="I26" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H26,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>EUR_YCSTDRH_FUT3MH6#0000</v>
       </c>
       <c r="J26" s="170" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I26)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MG6_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I26)</f>
+        <v/>
       </c>
       <c r="K26" s="144"/>
       <c r="L26" s="177"/>
@@ -14359,7 +14367,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="174" t="str">
-        <v>H6</v>
+        <v>J6</v>
       </c>
       <c r="E27" s="173" t="str">
         <f t="shared" si="0"/>
@@ -14367,23 +14375,23 @@
       </c>
       <c r="F27" s="172" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MH6_Quote</v>
+        <v>EURFUT3MJ6_Quote</v>
       </c>
       <c r="G27" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MH6ConvAdj_Quote</v>
+        <v>EURFUT3MJ6ConvAdj_Quote</v>
       </c>
       <c r="H27" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YCSTDRH_FUT3MH6</v>
-      </c>
-      <c r="I27" s="171" t="str">
+        <v>EUR_YCSTDRH_FUT3MJ6</v>
+      </c>
+      <c r="I27" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H27,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MH6#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="J27" s="170" t="str">
-        <f>_xll.ohRangeRetrieveError(I27)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I27)</f>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MJ6_Quote'</v>
       </c>
       <c r="K27" s="144"/>
       <c r="L27" s="177"/>
@@ -14397,7 +14405,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="174" t="str">
-        <v>J6</v>
+        <v>K6</v>
       </c>
       <c r="E28" s="173" t="str">
         <f t="shared" si="0"/>
@@ -14405,15 +14413,15 @@
       </c>
       <c r="F28" s="172" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MJ6_Quote</v>
+        <v>EURFUT3MK6_Quote</v>
       </c>
       <c r="G28" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MJ6ConvAdj_Quote</v>
+        <v>EURFUT3MK6ConvAdj_Quote</v>
       </c>
       <c r="H28" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YCSTDRH_FUT3MJ6</v>
+        <v>EUR_YCSTDRH_FUT3MK6</v>
       </c>
       <c r="I28" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H28,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
@@ -14421,7 +14429,7 @@
       </c>
       <c r="J28" s="170" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I28)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MJ6_Quote'</v>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MK6_Quote'</v>
       </c>
       <c r="K28" s="144"/>
       <c r="L28" s="177"/>
@@ -14435,7 +14443,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="174" t="str">
-        <v>K6</v>
+        <v>M6</v>
       </c>
       <c r="E29" s="173" t="str">
         <f t="shared" si="0"/>
@@ -14443,23 +14451,23 @@
       </c>
       <c r="F29" s="172" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MK6_Quote</v>
+        <v>EURFUT3MM6_Quote</v>
       </c>
       <c r="G29" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MK6ConvAdj_Quote</v>
+        <v>EURFUT3MM6ConvAdj_Quote</v>
       </c>
       <c r="H29" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YCSTDRH_FUT3MK6</v>
-      </c>
-      <c r="I29" s="171" t="e">
+        <v>EUR_YCSTDRH_FUT3MM6</v>
+      </c>
+      <c r="I29" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H29,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>EUR_YCSTDRH_FUT3MM6#0000</v>
       </c>
       <c r="J29" s="170" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I29)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MK6_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I29)</f>
+        <v/>
       </c>
       <c r="K29" s="144"/>
       <c r="L29" s="177"/>
@@ -14473,7 +14481,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="174" t="str">
-        <v>M6</v>
+        <v>N6</v>
       </c>
       <c r="E30" s="173" t="str">
         <f t="shared" si="0"/>
@@ -14481,23 +14489,23 @@
       </c>
       <c r="F30" s="172" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MM6_Quote</v>
+        <v>EURFUT3MN6_Quote</v>
       </c>
       <c r="G30" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MM6ConvAdj_Quote</v>
+        <v>EURFUT3MN6ConvAdj_Quote</v>
       </c>
       <c r="H30" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YCSTDRH_FUT3MM6</v>
-      </c>
-      <c r="I30" s="171" t="str">
+        <v>EUR_YCSTDRH_FUT3MN6</v>
+      </c>
+      <c r="I30" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H30,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MM6#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="J30" s="170" t="str">
-        <f>_xll.ohRangeRetrieveError(I30)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I30)</f>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MN6_Quote'</v>
       </c>
       <c r="K30" s="144"/>
       <c r="L30" s="177"/>
@@ -14511,7 +14519,7 @@
         <v>0</v>
       </c>
       <c r="D31" s="174" t="str">
-        <v>N6</v>
+        <v>Q6</v>
       </c>
       <c r="E31" s="173" t="str">
         <f t="shared" si="0"/>
@@ -14519,15 +14527,15 @@
       </c>
       <c r="F31" s="172" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MN6_Quote</v>
+        <v>EURFUT3MQ6_Quote</v>
       </c>
       <c r="G31" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MN6ConvAdj_Quote</v>
+        <v>EURFUT3MQ6ConvAdj_Quote</v>
       </c>
       <c r="H31" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YCSTDRH_FUT3MN6</v>
+        <v>EUR_YCSTDRH_FUT3MQ6</v>
       </c>
       <c r="I31" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H31,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
@@ -14535,7 +14543,7 @@
       </c>
       <c r="J31" s="170" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I31)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MN6_Quote'</v>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MQ6_Quote'</v>
       </c>
       <c r="K31" s="144"/>
       <c r="L31" s="177"/>
@@ -14549,7 +14557,7 @@
         <v>0</v>
       </c>
       <c r="D32" s="174" t="str">
-        <v>Q6</v>
+        <v>U6</v>
       </c>
       <c r="E32" s="173" t="str">
         <f t="shared" si="0"/>
@@ -14557,23 +14565,23 @@
       </c>
       <c r="F32" s="172" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MQ6_Quote</v>
+        <v>EURFUT3MU6_Quote</v>
       </c>
       <c r="G32" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MQ6ConvAdj_Quote</v>
+        <v>EURFUT3MU6ConvAdj_Quote</v>
       </c>
       <c r="H32" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YCSTDRH_FUT3MQ6</v>
-      </c>
-      <c r="I32" s="171" t="e">
+        <v>EUR_YCSTDRH_FUT3MU6</v>
+      </c>
+      <c r="I32" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H32,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>EUR_YCSTDRH_FUT3MU6#0000</v>
       </c>
       <c r="J32" s="170" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I32)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MQ6_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I32)</f>
+        <v/>
       </c>
       <c r="K32" s="144"/>
       <c r="L32" s="177"/>
@@ -14587,7 +14595,7 @@
         <v>0</v>
       </c>
       <c r="D33" s="174" t="str">
-        <v>U6</v>
+        <v>V6</v>
       </c>
       <c r="E33" s="173" t="str">
         <f t="shared" si="0"/>
@@ -14595,23 +14603,23 @@
       </c>
       <c r="F33" s="172" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MU6_Quote</v>
+        <v>EURFUT3MV6_Quote</v>
       </c>
       <c r="G33" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MU6ConvAdj_Quote</v>
+        <v>EURFUT3MV6ConvAdj_Quote</v>
       </c>
       <c r="H33" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YCSTDRH_FUT3MU6</v>
-      </c>
-      <c r="I33" s="171" t="str">
+        <v>EUR_YCSTDRH_FUT3MV6</v>
+      </c>
+      <c r="I33" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H33,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MU6#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="J33" s="170" t="str">
-        <f>_xll.ohRangeRetrieveError(I33)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I33)</f>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MV6_Quote'</v>
       </c>
       <c r="K33" s="144"/>
       <c r="L33" s="177"/>
@@ -14625,7 +14633,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="174" t="str">
-        <v>V6</v>
+        <v>X6</v>
       </c>
       <c r="E34" s="173" t="str">
         <f t="shared" si="0"/>
@@ -14633,15 +14641,15 @@
       </c>
       <c r="F34" s="172" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MV6_Quote</v>
+        <v>EURFUT3MX6_Quote</v>
       </c>
       <c r="G34" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MV6ConvAdj_Quote</v>
+        <v>EURFUT3MX6ConvAdj_Quote</v>
       </c>
       <c r="H34" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YCSTDRH_FUT3MV6</v>
+        <v>EUR_YCSTDRH_FUT3MX6</v>
       </c>
       <c r="I34" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H34,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
@@ -14649,7 +14657,7 @@
       </c>
       <c r="J34" s="170" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I34)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MV6_Quote'</v>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MX6_Quote'</v>
       </c>
       <c r="K34" s="144"/>
       <c r="L34" s="177"/>
@@ -14663,7 +14671,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="174" t="str">
-        <v>X6</v>
+        <v>Z6</v>
       </c>
       <c r="E35" s="173" t="str">
         <f t="shared" ref="E35:E66" si="4">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
@@ -14671,23 +14679,23 @@
       </c>
       <c r="F35" s="172" t="str">
         <f t="shared" ref="F35:F66" si="5">Currency&amp;"FUT"&amp;$E$1&amp;$D35&amp;QuoteSuffix</f>
-        <v>EURFUT3MX6_Quote</v>
+        <v>EURFUT3MZ6_Quote</v>
       </c>
       <c r="G35" s="172" t="str">
         <f t="shared" ref="G35:G66" si="6">Currency&amp;"FUT"&amp;$E$1&amp;$D35&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>EURFUT3MX6ConvAdj_Quote</v>
+        <v>EURFUT3MZ6ConvAdj_Quote</v>
       </c>
       <c r="H35" s="172" t="str">
         <f t="shared" ref="H35:H66" si="7">$H$1&amp;"_FUT"&amp;$E$1&amp;$D35</f>
-        <v>EUR_YCSTDRH_FUT3MX6</v>
-      </c>
-      <c r="I35" s="171" t="e">
+        <v>EUR_YCSTDRH_FUT3MZ6</v>
+      </c>
+      <c r="I35" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H35,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>EUR_YCSTDRH_FUT3MZ6#0000</v>
       </c>
       <c r="J35" s="170" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I35)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MX6_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I35)</f>
+        <v/>
       </c>
       <c r="K35" s="144"/>
       <c r="L35" s="177"/>
@@ -14701,7 +14709,7 @@
         <v>0</v>
       </c>
       <c r="D36" s="174" t="str">
-        <v>Z6</v>
+        <v>F7</v>
       </c>
       <c r="E36" s="173" t="str">
         <f t="shared" si="4"/>
@@ -14709,23 +14717,23 @@
       </c>
       <c r="F36" s="172" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MZ6_Quote</v>
+        <v>EURFUT3MF7_Quote</v>
       </c>
       <c r="G36" s="172" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MZ6ConvAdj_Quote</v>
+        <v>EURFUT3MF7ConvAdj_Quote</v>
       </c>
       <c r="H36" s="172" t="str">
         <f t="shared" si="7"/>
-        <v>EUR_YCSTDRH_FUT3MZ6</v>
-      </c>
-      <c r="I36" s="171" t="str">
+        <v>EUR_YCSTDRH_FUT3MF7</v>
+      </c>
+      <c r="I36" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H36,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MZ6#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="J36" s="170" t="str">
-        <f>_xll.ohRangeRetrieveError(I36)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I36)</f>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MF7_Quote'</v>
       </c>
       <c r="K36" s="144"/>
       <c r="L36" s="177"/>
@@ -14739,7 +14747,7 @@
         <v>0</v>
       </c>
       <c r="D37" s="174" t="str">
-        <v>F7</v>
+        <v>G7</v>
       </c>
       <c r="E37" s="173" t="str">
         <f t="shared" si="4"/>
@@ -14747,15 +14755,15 @@
       </c>
       <c r="F37" s="172" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MF7_Quote</v>
+        <v>EURFUT3MG7_Quote</v>
       </c>
       <c r="G37" s="172" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MF7ConvAdj_Quote</v>
+        <v>EURFUT3MG7ConvAdj_Quote</v>
       </c>
       <c r="H37" s="172" t="str">
         <f t="shared" si="7"/>
-        <v>EUR_YCSTDRH_FUT3MF7</v>
+        <v>EUR_YCSTDRH_FUT3MG7</v>
       </c>
       <c r="I37" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H37,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
@@ -14763,7 +14771,7 @@
       </c>
       <c r="J37" s="170" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I37)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MF7_Quote'</v>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MG7_Quote'</v>
       </c>
       <c r="K37" s="144"/>
       <c r="L37" s="177"/>
@@ -14777,7 +14785,7 @@
         <v>0</v>
       </c>
       <c r="D38" s="174" t="str">
-        <v>G7</v>
+        <v>H7</v>
       </c>
       <c r="E38" s="173" t="str">
         <f t="shared" si="4"/>
@@ -14785,23 +14793,23 @@
       </c>
       <c r="F38" s="172" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MG7_Quote</v>
+        <v>EURFUT3MH7_Quote</v>
       </c>
       <c r="G38" s="172" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MG7ConvAdj_Quote</v>
+        <v>EURFUT3MH7ConvAdj_Quote</v>
       </c>
       <c r="H38" s="172" t="str">
         <f t="shared" si="7"/>
-        <v>EUR_YCSTDRH_FUT3MG7</v>
-      </c>
-      <c r="I38" s="171" t="e">
+        <v>EUR_YCSTDRH_FUT3MH7</v>
+      </c>
+      <c r="I38" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H38,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>EUR_YCSTDRH_FUT3MH7#0000</v>
       </c>
       <c r="J38" s="170" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I38)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MG7_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I38)</f>
+        <v/>
       </c>
       <c r="K38" s="144"/>
       <c r="L38" s="177"/>
@@ -14815,7 +14823,7 @@
         <v>0</v>
       </c>
       <c r="D39" s="174" t="str">
-        <v>H7</v>
+        <v>J7</v>
       </c>
       <c r="E39" s="173" t="str">
         <f t="shared" si="4"/>
@@ -14823,23 +14831,23 @@
       </c>
       <c r="F39" s="172" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MH7_Quote</v>
+        <v>EURFUT3MJ7_Quote</v>
       </c>
       <c r="G39" s="172" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MH7ConvAdj_Quote</v>
+        <v>EURFUT3MJ7ConvAdj_Quote</v>
       </c>
       <c r="H39" s="172" t="str">
         <f t="shared" si="7"/>
-        <v>EUR_YCSTDRH_FUT3MH7</v>
-      </c>
-      <c r="I39" s="171" t="str">
+        <v>EUR_YCSTDRH_FUT3MJ7</v>
+      </c>
+      <c r="I39" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H39,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MH7#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="J39" s="170" t="str">
-        <f>_xll.ohRangeRetrieveError(I39)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I39)</f>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MJ7_Quote'</v>
       </c>
       <c r="K39" s="144"/>
       <c r="L39" s="177"/>
@@ -14853,7 +14861,7 @@
         <v>0</v>
       </c>
       <c r="D40" s="174" t="str">
-        <v>J7</v>
+        <v>K7</v>
       </c>
       <c r="E40" s="173" t="str">
         <f t="shared" si="4"/>
@@ -14861,15 +14869,15 @@
       </c>
       <c r="F40" s="172" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MJ7_Quote</v>
+        <v>EURFUT3MK7_Quote</v>
       </c>
       <c r="G40" s="172" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MJ7ConvAdj_Quote</v>
+        <v>EURFUT3MK7ConvAdj_Quote</v>
       </c>
       <c r="H40" s="172" t="str">
         <f t="shared" si="7"/>
-        <v>EUR_YCSTDRH_FUT3MJ7</v>
+        <v>EUR_YCSTDRH_FUT3MK7</v>
       </c>
       <c r="I40" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H40,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
@@ -14877,7 +14885,7 @@
       </c>
       <c r="J40" s="170" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I40)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MJ7_Quote'</v>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MK7_Quote'</v>
       </c>
       <c r="K40" s="144"/>
     </row>
@@ -14890,7 +14898,7 @@
         <v>0</v>
       </c>
       <c r="D41" s="174" t="str">
-        <v>K7</v>
+        <v>M7</v>
       </c>
       <c r="E41" s="173" t="str">
         <f t="shared" si="4"/>
@@ -14898,23 +14906,23 @@
       </c>
       <c r="F41" s="172" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MK7_Quote</v>
+        <v>EURFUT3MM7_Quote</v>
       </c>
       <c r="G41" s="172" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MK7ConvAdj_Quote</v>
+        <v>EURFUT3MM7ConvAdj_Quote</v>
       </c>
       <c r="H41" s="172" t="str">
         <f t="shared" si="7"/>
-        <v>EUR_YCSTDRH_FUT3MK7</v>
-      </c>
-      <c r="I41" s="171" t="e">
+        <v>EUR_YCSTDRH_FUT3MM7</v>
+      </c>
+      <c r="I41" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H41,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>EUR_YCSTDRH_FUT3MM7#0000</v>
       </c>
       <c r="J41" s="170" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I41)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MK7_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I41)</f>
+        <v/>
       </c>
       <c r="K41" s="144"/>
     </row>
@@ -14927,7 +14935,7 @@
         <v>0</v>
       </c>
       <c r="D42" s="174" t="str">
-        <v>M7</v>
+        <v>N7</v>
       </c>
       <c r="E42" s="173" t="str">
         <f t="shared" si="4"/>
@@ -14935,23 +14943,23 @@
       </c>
       <c r="F42" s="172" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MM7_Quote</v>
+        <v>EURFUT3MN7_Quote</v>
       </c>
       <c r="G42" s="172" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MM7ConvAdj_Quote</v>
+        <v>EURFUT3MN7ConvAdj_Quote</v>
       </c>
       <c r="H42" s="172" t="str">
         <f t="shared" si="7"/>
-        <v>EUR_YCSTDRH_FUT3MM7</v>
-      </c>
-      <c r="I42" s="171" t="str">
+        <v>EUR_YCSTDRH_FUT3MN7</v>
+      </c>
+      <c r="I42" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H42,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MM7#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="J42" s="170" t="str">
-        <f>_xll.ohRangeRetrieveError(I42)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I42)</f>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MN7_Quote'</v>
       </c>
       <c r="K42" s="144"/>
     </row>
@@ -14964,7 +14972,7 @@
         <v>0</v>
       </c>
       <c r="D43" s="174" t="str">
-        <v>N7</v>
+        <v>Q7</v>
       </c>
       <c r="E43" s="173" t="str">
         <f t="shared" si="4"/>
@@ -14972,15 +14980,15 @@
       </c>
       <c r="F43" s="172" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MN7_Quote</v>
+        <v>EURFUT3MQ7_Quote</v>
       </c>
       <c r="G43" s="172" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MN7ConvAdj_Quote</v>
+        <v>EURFUT3MQ7ConvAdj_Quote</v>
       </c>
       <c r="H43" s="172" t="str">
         <f t="shared" si="7"/>
-        <v>EUR_YCSTDRH_FUT3MN7</v>
+        <v>EUR_YCSTDRH_FUT3MQ7</v>
       </c>
       <c r="I43" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H43,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
@@ -14988,7 +14996,7 @@
       </c>
       <c r="J43" s="170" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I43)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MN7_Quote'</v>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MQ7_Quote'</v>
       </c>
       <c r="K43" s="144"/>
     </row>
@@ -15001,7 +15009,7 @@
         <v>0</v>
       </c>
       <c r="D44" s="174" t="str">
-        <v>Q7</v>
+        <v>U7</v>
       </c>
       <c r="E44" s="173" t="str">
         <f t="shared" si="4"/>
@@ -15009,23 +15017,23 @@
       </c>
       <c r="F44" s="172" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MQ7_Quote</v>
+        <v>EURFUT3MU7_Quote</v>
       </c>
       <c r="G44" s="172" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MQ7ConvAdj_Quote</v>
+        <v>EURFUT3MU7ConvAdj_Quote</v>
       </c>
       <c r="H44" s="172" t="str">
         <f t="shared" si="7"/>
-        <v>EUR_YCSTDRH_FUT3MQ7</v>
-      </c>
-      <c r="I44" s="171" t="e">
+        <v>EUR_YCSTDRH_FUT3MU7</v>
+      </c>
+      <c r="I44" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H44,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>EUR_YCSTDRH_FUT3MU7#0000</v>
       </c>
       <c r="J44" s="170" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I44)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MQ7_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I44)</f>
+        <v/>
       </c>
       <c r="K44" s="144"/>
     </row>
@@ -15038,7 +15046,7 @@
         <v>0</v>
       </c>
       <c r="D45" s="174" t="str">
-        <v>U7</v>
+        <v>V7</v>
       </c>
       <c r="E45" s="173" t="str">
         <f t="shared" si="4"/>
@@ -15046,23 +15054,23 @@
       </c>
       <c r="F45" s="172" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MU7_Quote</v>
+        <v>EURFUT3MV7_Quote</v>
       </c>
       <c r="G45" s="172" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MU7ConvAdj_Quote</v>
+        <v>EURFUT3MV7ConvAdj_Quote</v>
       </c>
       <c r="H45" s="172" t="str">
         <f t="shared" si="7"/>
-        <v>EUR_YCSTDRH_FUT3MU7</v>
-      </c>
-      <c r="I45" s="171" t="str">
+        <v>EUR_YCSTDRH_FUT3MV7</v>
+      </c>
+      <c r="I45" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H45,$F45,$D45,$E45,$G45,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MU7#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="J45" s="170" t="str">
-        <f>_xll.ohRangeRetrieveError(I45)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I45)</f>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MV7_Quote'</v>
       </c>
       <c r="K45" s="144"/>
     </row>
@@ -15075,7 +15083,7 @@
         <v>0</v>
       </c>
       <c r="D46" s="174" t="str">
-        <v>V7</v>
+        <v>X7</v>
       </c>
       <c r="E46" s="173" t="str">
         <f t="shared" si="4"/>
@@ -15083,15 +15091,15 @@
       </c>
       <c r="F46" s="172" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MV7_Quote</v>
+        <v>EURFUT3MX7_Quote</v>
       </c>
       <c r="G46" s="172" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MV7ConvAdj_Quote</v>
+        <v>EURFUT3MX7ConvAdj_Quote</v>
       </c>
       <c r="H46" s="172" t="str">
         <f t="shared" si="7"/>
-        <v>EUR_YCSTDRH_FUT3MV7</v>
+        <v>EUR_YCSTDRH_FUT3MX7</v>
       </c>
       <c r="I46" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H46,$F46,$D46,$E46,$G46,Permanent,Trigger,ObjectOverwrite)</f>
@@ -15099,7 +15107,7 @@
       </c>
       <c r="J46" s="170" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I46)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MV7_Quote'</v>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MX7_Quote'</v>
       </c>
       <c r="K46" s="144"/>
     </row>
@@ -15112,7 +15120,7 @@
         <v>0</v>
       </c>
       <c r="D47" s="174" t="str">
-        <v>X7</v>
+        <v>Z7</v>
       </c>
       <c r="E47" s="173" t="str">
         <f t="shared" si="4"/>
@@ -15120,23 +15128,23 @@
       </c>
       <c r="F47" s="172" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MX7_Quote</v>
+        <v>EURFUT3MZ7_Quote</v>
       </c>
       <c r="G47" s="172" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MX7ConvAdj_Quote</v>
+        <v>EURFUT3MZ7ConvAdj_Quote</v>
       </c>
       <c r="H47" s="172" t="str">
         <f t="shared" si="7"/>
-        <v>EUR_YCSTDRH_FUT3MX7</v>
-      </c>
-      <c r="I47" s="171" t="e">
+        <v>EUR_YCSTDRH_FUT3MZ7</v>
+      </c>
+      <c r="I47" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H47,$F47,$D47,$E47,$G47,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>EUR_YCSTDRH_FUT3MZ7#0000</v>
       </c>
       <c r="J47" s="170" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I47)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MX7_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I47)</f>
+        <v/>
       </c>
       <c r="K47" s="144"/>
     </row>
@@ -15149,7 +15157,7 @@
         <v>0</v>
       </c>
       <c r="D48" s="174" t="str">
-        <v>Z7</v>
+        <v>F8</v>
       </c>
       <c r="E48" s="173" t="str">
         <f t="shared" si="4"/>
@@ -15157,23 +15165,23 @@
       </c>
       <c r="F48" s="172" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MZ7_Quote</v>
+        <v>EURFUT3MF8_Quote</v>
       </c>
       <c r="G48" s="172" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MZ7ConvAdj_Quote</v>
+        <v>EURFUT3MF8ConvAdj_Quote</v>
       </c>
       <c r="H48" s="172" t="str">
         <f t="shared" si="7"/>
-        <v>EUR_YCSTDRH_FUT3MZ7</v>
-      </c>
-      <c r="I48" s="171" t="str">
+        <v>EUR_YCSTDRH_FUT3MF8</v>
+      </c>
+      <c r="I48" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H48,$F48,$D48,$E48,$G48,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MZ7#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="J48" s="170" t="str">
-        <f>_xll.ohRangeRetrieveError(I48)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I48)</f>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MF8_Quote'</v>
       </c>
       <c r="K48" s="144"/>
     </row>
@@ -15186,7 +15194,7 @@
         <v>0</v>
       </c>
       <c r="D49" s="174" t="str">
-        <v>F8</v>
+        <v>G8</v>
       </c>
       <c r="E49" s="173" t="str">
         <f t="shared" si="4"/>
@@ -15194,15 +15202,15 @@
       </c>
       <c r="F49" s="172" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MF8_Quote</v>
+        <v>EURFUT3MG8_Quote</v>
       </c>
       <c r="G49" s="172" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MF8ConvAdj_Quote</v>
+        <v>EURFUT3MG8ConvAdj_Quote</v>
       </c>
       <c r="H49" s="172" t="str">
         <f t="shared" si="7"/>
-        <v>EUR_YCSTDRH_FUT3MF8</v>
+        <v>EUR_YCSTDRH_FUT3MG8</v>
       </c>
       <c r="I49" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H49,$F49,$D49,$E49,$G49,Permanent,Trigger,ObjectOverwrite)</f>
@@ -15210,7 +15218,7 @@
       </c>
       <c r="J49" s="170" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I49)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MF8_Quote'</v>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MG8_Quote'</v>
       </c>
       <c r="K49" s="144"/>
     </row>
@@ -15223,7 +15231,7 @@
         <v>0</v>
       </c>
       <c r="D50" s="174" t="str">
-        <v>G8</v>
+        <v>H8</v>
       </c>
       <c r="E50" s="173" t="str">
         <f t="shared" si="4"/>
@@ -15231,23 +15239,23 @@
       </c>
       <c r="F50" s="172" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MG8_Quote</v>
+        <v>EURFUT3MH8_Quote</v>
       </c>
       <c r="G50" s="172" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MG8ConvAdj_Quote</v>
+        <v>EURFUT3MH8ConvAdj_Quote</v>
       </c>
       <c r="H50" s="172" t="str">
         <f t="shared" si="7"/>
-        <v>EUR_YCSTDRH_FUT3MG8</v>
-      </c>
-      <c r="I50" s="171" t="e">
+        <v>EUR_YCSTDRH_FUT3MH8</v>
+      </c>
+      <c r="I50" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H50,$F50,$D50,$E50,$G50,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>EUR_YCSTDRH_FUT3MH8#0000</v>
       </c>
       <c r="J50" s="170" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I50)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MG8_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I50)</f>
+        <v/>
       </c>
       <c r="K50" s="144"/>
     </row>
@@ -15260,7 +15268,7 @@
         <v>0</v>
       </c>
       <c r="D51" s="174" t="str">
-        <v>H8</v>
+        <v>J8</v>
       </c>
       <c r="E51" s="173" t="str">
         <f t="shared" si="4"/>
@@ -15268,23 +15276,23 @@
       </c>
       <c r="F51" s="172" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MH8_Quote</v>
+        <v>EURFUT3MJ8_Quote</v>
       </c>
       <c r="G51" s="172" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MH8ConvAdj_Quote</v>
+        <v>EURFUT3MJ8ConvAdj_Quote</v>
       </c>
       <c r="H51" s="172" t="str">
         <f t="shared" si="7"/>
-        <v>EUR_YCSTDRH_FUT3MH8</v>
-      </c>
-      <c r="I51" s="171" t="str">
+        <v>EUR_YCSTDRH_FUT3MJ8</v>
+      </c>
+      <c r="I51" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H51,$F51,$D51,$E51,$G51,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MH8#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="J51" s="170" t="str">
-        <f>_xll.ohRangeRetrieveError(I51)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I51)</f>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MJ8_Quote'</v>
       </c>
       <c r="K51" s="144"/>
     </row>
@@ -15297,7 +15305,7 @@
         <v>0</v>
       </c>
       <c r="D52" s="174" t="str">
-        <v>J8</v>
+        <v>K8</v>
       </c>
       <c r="E52" s="173" t="str">
         <f t="shared" si="4"/>
@@ -15305,15 +15313,15 @@
       </c>
       <c r="F52" s="172" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MJ8_Quote</v>
+        <v>EURFUT3MK8_Quote</v>
       </c>
       <c r="G52" s="172" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MJ8ConvAdj_Quote</v>
+        <v>EURFUT3MK8ConvAdj_Quote</v>
       </c>
       <c r="H52" s="172" t="str">
         <f t="shared" si="7"/>
-        <v>EUR_YCSTDRH_FUT3MJ8</v>
+        <v>EUR_YCSTDRH_FUT3MK8</v>
       </c>
       <c r="I52" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H52,$F52,$D52,$E52,$G52,Permanent,Trigger,ObjectOverwrite)</f>
@@ -15321,7 +15329,7 @@
       </c>
       <c r="J52" s="170" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I52)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MJ8_Quote'</v>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MK8_Quote'</v>
       </c>
       <c r="K52" s="144"/>
     </row>
@@ -15334,7 +15342,7 @@
         <v>0</v>
       </c>
       <c r="D53" s="174" t="str">
-        <v>K8</v>
+        <v>M8</v>
       </c>
       <c r="E53" s="173" t="str">
         <f t="shared" si="4"/>
@@ -15342,23 +15350,23 @@
       </c>
       <c r="F53" s="172" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MK8_Quote</v>
+        <v>EURFUT3MM8_Quote</v>
       </c>
       <c r="G53" s="172" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MK8ConvAdj_Quote</v>
+        <v>EURFUT3MM8ConvAdj_Quote</v>
       </c>
       <c r="H53" s="172" t="str">
         <f t="shared" si="7"/>
-        <v>EUR_YCSTDRH_FUT3MK8</v>
-      </c>
-      <c r="I53" s="171" t="e">
+        <v>EUR_YCSTDRH_FUT3MM8</v>
+      </c>
+      <c r="I53" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H53,$F53,$D53,$E53,$G53,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>EUR_YCSTDRH_FUT3MM8#0000</v>
       </c>
       <c r="J53" s="170" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I53)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MK8_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I53)</f>
+        <v/>
       </c>
       <c r="K53" s="144"/>
     </row>
@@ -15371,7 +15379,7 @@
         <v>0</v>
       </c>
       <c r="D54" s="174" t="str">
-        <v>M8</v>
+        <v>N8</v>
       </c>
       <c r="E54" s="173" t="str">
         <f t="shared" si="4"/>
@@ -15379,23 +15387,23 @@
       </c>
       <c r="F54" s="172" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MM8_Quote</v>
+        <v>EURFUT3MN8_Quote</v>
       </c>
       <c r="G54" s="172" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MM8ConvAdj_Quote</v>
+        <v>EURFUT3MN8ConvAdj_Quote</v>
       </c>
       <c r="H54" s="172" t="str">
         <f t="shared" si="7"/>
-        <v>EUR_YCSTDRH_FUT3MM8</v>
-      </c>
-      <c r="I54" s="171" t="str">
+        <v>EUR_YCSTDRH_FUT3MN8</v>
+      </c>
+      <c r="I54" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H54,$F54,$D54,$E54,$G54,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MM8#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="J54" s="170" t="str">
-        <f>_xll.ohRangeRetrieveError(I54)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I54)</f>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MN8_Quote'</v>
       </c>
       <c r="K54" s="144"/>
     </row>
@@ -15408,7 +15416,7 @@
         <v>0</v>
       </c>
       <c r="D55" s="174" t="str">
-        <v>N8</v>
+        <v>Q8</v>
       </c>
       <c r="E55" s="173" t="str">
         <f t="shared" si="4"/>
@@ -15416,15 +15424,15 @@
       </c>
       <c r="F55" s="172" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MN8_Quote</v>
+        <v>EURFUT3MQ8_Quote</v>
       </c>
       <c r="G55" s="172" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MN8ConvAdj_Quote</v>
+        <v>EURFUT3MQ8ConvAdj_Quote</v>
       </c>
       <c r="H55" s="172" t="str">
         <f t="shared" si="7"/>
-        <v>EUR_YCSTDRH_FUT3MN8</v>
+        <v>EUR_YCSTDRH_FUT3MQ8</v>
       </c>
       <c r="I55" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H55,$F55,$D55,$E55,$G55,Permanent,Trigger,ObjectOverwrite)</f>
@@ -15432,7 +15440,7 @@
       </c>
       <c r="J55" s="170" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I55)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MN8_Quote'</v>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MQ8_Quote'</v>
       </c>
       <c r="K55" s="144"/>
     </row>
@@ -15445,7 +15453,7 @@
         <v>0</v>
       </c>
       <c r="D56" s="174" t="str">
-        <v>Q8</v>
+        <v>U8</v>
       </c>
       <c r="E56" s="173" t="str">
         <f t="shared" si="4"/>
@@ -15453,23 +15461,23 @@
       </c>
       <c r="F56" s="172" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MQ8_Quote</v>
+        <v>EURFUT3MU8_Quote</v>
       </c>
       <c r="G56" s="172" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MQ8ConvAdj_Quote</v>
+        <v>EURFUT3MU8ConvAdj_Quote</v>
       </c>
       <c r="H56" s="172" t="str">
         <f t="shared" si="7"/>
-        <v>EUR_YCSTDRH_FUT3MQ8</v>
-      </c>
-      <c r="I56" s="171" t="e">
+        <v>EUR_YCSTDRH_FUT3MU8</v>
+      </c>
+      <c r="I56" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H56,$F56,$D56,$E56,$G56,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>EUR_YCSTDRH_FUT3MU8#0000</v>
       </c>
       <c r="J56" s="170" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I56)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MQ8_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I56)</f>
+        <v/>
       </c>
       <c r="K56" s="144"/>
     </row>
@@ -15482,7 +15490,7 @@
         <v>0</v>
       </c>
       <c r="D57" s="174" t="str">
-        <v>U8</v>
+        <v>V8</v>
       </c>
       <c r="E57" s="173" t="str">
         <f t="shared" si="4"/>
@@ -15490,23 +15498,23 @@
       </c>
       <c r="F57" s="172" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MU8_Quote</v>
+        <v>EURFUT3MV8_Quote</v>
       </c>
       <c r="G57" s="172" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MU8ConvAdj_Quote</v>
+        <v>EURFUT3MV8ConvAdj_Quote</v>
       </c>
       <c r="H57" s="172" t="str">
         <f t="shared" si="7"/>
-        <v>EUR_YCSTDRH_FUT3MU8</v>
-      </c>
-      <c r="I57" s="171" t="str">
+        <v>EUR_YCSTDRH_FUT3MV8</v>
+      </c>
+      <c r="I57" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H57,$F57,$D57,$E57,$G57,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MU8#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="J57" s="170" t="str">
-        <f>_xll.ohRangeRetrieveError(I57)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I57)</f>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MV8_Quote'</v>
       </c>
       <c r="K57" s="144"/>
     </row>
@@ -15519,7 +15527,7 @@
         <v>0</v>
       </c>
       <c r="D58" s="174" t="str">
-        <v>V8</v>
+        <v>X8</v>
       </c>
       <c r="E58" s="173" t="str">
         <f t="shared" si="4"/>
@@ -15527,15 +15535,15 @@
       </c>
       <c r="F58" s="172" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MV8_Quote</v>
+        <v>EURFUT3MX8_Quote</v>
       </c>
       <c r="G58" s="172" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MV8ConvAdj_Quote</v>
+        <v>EURFUT3MX8ConvAdj_Quote</v>
       </c>
       <c r="H58" s="172" t="str">
         <f t="shared" si="7"/>
-        <v>EUR_YCSTDRH_FUT3MV8</v>
+        <v>EUR_YCSTDRH_FUT3MX8</v>
       </c>
       <c r="I58" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H58,$F58,$D58,$E58,$G58,Permanent,Trigger,ObjectOverwrite)</f>
@@ -15543,7 +15551,7 @@
       </c>
       <c r="J58" s="170" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I58)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MV8_Quote'</v>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MX8_Quote'</v>
       </c>
       <c r="K58" s="144"/>
     </row>
@@ -15556,7 +15564,7 @@
         <v>0</v>
       </c>
       <c r="D59" s="174" t="str">
-        <v>X8</v>
+        <v>Z8</v>
       </c>
       <c r="E59" s="173" t="str">
         <f t="shared" si="4"/>
@@ -15564,23 +15572,23 @@
       </c>
       <c r="F59" s="172" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MX8_Quote</v>
+        <v>EURFUT3MZ8_Quote</v>
       </c>
       <c r="G59" s="172" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MX8ConvAdj_Quote</v>
+        <v>EURFUT3MZ8ConvAdj_Quote</v>
       </c>
       <c r="H59" s="172" t="str">
         <f t="shared" si="7"/>
-        <v>EUR_YCSTDRH_FUT3MX8</v>
-      </c>
-      <c r="I59" s="171" t="e">
+        <v>EUR_YCSTDRH_FUT3MZ8</v>
+      </c>
+      <c r="I59" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H59,$F59,$D59,$E59,$G59,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>EUR_YCSTDRH_FUT3MZ8#0000</v>
       </c>
       <c r="J59" s="170" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I59)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MX8_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I59)</f>
+        <v/>
       </c>
       <c r="K59" s="144"/>
     </row>
@@ -15593,7 +15601,7 @@
         <v>0</v>
       </c>
       <c r="D60" s="174" t="str">
-        <v>Z8</v>
+        <v>F9</v>
       </c>
       <c r="E60" s="173" t="str">
         <f t="shared" si="4"/>
@@ -15601,23 +15609,23 @@
       </c>
       <c r="F60" s="172" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MZ8_Quote</v>
+        <v>EURFUT3MF9_Quote</v>
       </c>
       <c r="G60" s="172" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MZ8ConvAdj_Quote</v>
+        <v>EURFUT3MF9ConvAdj_Quote</v>
       </c>
       <c r="H60" s="172" t="str">
         <f t="shared" si="7"/>
-        <v>EUR_YCSTDRH_FUT3MZ8</v>
-      </c>
-      <c r="I60" s="171" t="str">
+        <v>EUR_YCSTDRH_FUT3MF9</v>
+      </c>
+      <c r="I60" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H60,$F60,$D60,$E60,$G60,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MZ8#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="J60" s="170" t="str">
-        <f>_xll.ohRangeRetrieveError(I60)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I60)</f>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MF9_Quote'</v>
       </c>
       <c r="K60" s="144"/>
     </row>
@@ -15630,7 +15638,7 @@
         <v>0</v>
       </c>
       <c r="D61" s="174" t="str">
-        <v>F9</v>
+        <v>G9</v>
       </c>
       <c r="E61" s="173" t="str">
         <f t="shared" si="4"/>
@@ -15638,15 +15646,15 @@
       </c>
       <c r="F61" s="172" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MF9_Quote</v>
+        <v>EURFUT3MG9_Quote</v>
       </c>
       <c r="G61" s="172" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MF9ConvAdj_Quote</v>
+        <v>EURFUT3MG9ConvAdj_Quote</v>
       </c>
       <c r="H61" s="172" t="str">
         <f t="shared" si="7"/>
-        <v>EUR_YCSTDRH_FUT3MF9</v>
+        <v>EUR_YCSTDRH_FUT3MG9</v>
       </c>
       <c r="I61" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H61,$F61,$D61,$E61,$G61,Permanent,Trigger,ObjectOverwrite)</f>
@@ -15654,7 +15662,7 @@
       </c>
       <c r="J61" s="170" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I61)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MF9_Quote'</v>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MG9_Quote'</v>
       </c>
       <c r="K61" s="144"/>
     </row>
@@ -15667,7 +15675,7 @@
         <v>0</v>
       </c>
       <c r="D62" s="174" t="str">
-        <v>G9</v>
+        <v>H9</v>
       </c>
       <c r="E62" s="173" t="str">
         <f t="shared" si="4"/>
@@ -15675,23 +15683,23 @@
       </c>
       <c r="F62" s="172" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MG9_Quote</v>
+        <v>EURFUT3MH9_Quote</v>
       </c>
       <c r="G62" s="172" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MG9ConvAdj_Quote</v>
+        <v>EURFUT3MH9ConvAdj_Quote</v>
       </c>
       <c r="H62" s="172" t="str">
         <f t="shared" si="7"/>
-        <v>EUR_YCSTDRH_FUT3MG9</v>
-      </c>
-      <c r="I62" s="171" t="e">
+        <v>EUR_YCSTDRH_FUT3MH9</v>
+      </c>
+      <c r="I62" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H62,$F62,$D62,$E62,$G62,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>EUR_YCSTDRH_FUT3MH9#0000</v>
       </c>
       <c r="J62" s="170" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I62)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MG9_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I62)</f>
+        <v/>
       </c>
       <c r="K62" s="144"/>
     </row>
@@ -15704,7 +15712,7 @@
         <v>0</v>
       </c>
       <c r="D63" s="174" t="str">
-        <v>H9</v>
+        <v>J9</v>
       </c>
       <c r="E63" s="173" t="str">
         <f t="shared" si="4"/>
@@ -15712,23 +15720,23 @@
       </c>
       <c r="F63" s="172" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MH9_Quote</v>
+        <v>EURFUT3MJ9_Quote</v>
       </c>
       <c r="G63" s="172" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MH9ConvAdj_Quote</v>
+        <v>EURFUT3MJ9ConvAdj_Quote</v>
       </c>
       <c r="H63" s="172" t="str">
         <f t="shared" si="7"/>
-        <v>EUR_YCSTDRH_FUT3MH9</v>
-      </c>
-      <c r="I63" s="171" t="str">
+        <v>EUR_YCSTDRH_FUT3MJ9</v>
+      </c>
+      <c r="I63" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H63,$F63,$D63,$E63,$G63,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MH9#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="J63" s="170" t="str">
-        <f>_xll.ohRangeRetrieveError(I63)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I63)</f>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MJ9_Quote'</v>
       </c>
       <c r="K63" s="144"/>
     </row>
@@ -15741,7 +15749,7 @@
         <v>0</v>
       </c>
       <c r="D64" s="174" t="str">
-        <v>J9</v>
+        <v>K9</v>
       </c>
       <c r="E64" s="173" t="str">
         <f t="shared" si="4"/>
@@ -15749,15 +15757,15 @@
       </c>
       <c r="F64" s="172" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MJ9_Quote</v>
+        <v>EURFUT3MK9_Quote</v>
       </c>
       <c r="G64" s="172" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MJ9ConvAdj_Quote</v>
+        <v>EURFUT3MK9ConvAdj_Quote</v>
       </c>
       <c r="H64" s="172" t="str">
         <f t="shared" si="7"/>
-        <v>EUR_YCSTDRH_FUT3MJ9</v>
+        <v>EUR_YCSTDRH_FUT3MK9</v>
       </c>
       <c r="I64" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H64,$F64,$D64,$E64,$G64,Permanent,Trigger,ObjectOverwrite)</f>
@@ -15765,7 +15773,7 @@
       </c>
       <c r="J64" s="170" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I64)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MJ9_Quote'</v>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MK9_Quote'</v>
       </c>
       <c r="K64" s="144"/>
     </row>
@@ -15778,7 +15786,7 @@
         <v>0</v>
       </c>
       <c r="D65" s="174" t="str">
-        <v>K9</v>
+        <v>M9</v>
       </c>
       <c r="E65" s="173" t="str">
         <f t="shared" si="4"/>
@@ -15786,23 +15794,23 @@
       </c>
       <c r="F65" s="172" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MK9_Quote</v>
+        <v>EURFUT3MM9_Quote</v>
       </c>
       <c r="G65" s="172" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MK9ConvAdj_Quote</v>
+        <v>EURFUT3MM9ConvAdj_Quote</v>
       </c>
       <c r="H65" s="172" t="str">
         <f t="shared" si="7"/>
-        <v>EUR_YCSTDRH_FUT3MK9</v>
-      </c>
-      <c r="I65" s="171" t="e">
+        <v>EUR_YCSTDRH_FUT3MM9</v>
+      </c>
+      <c r="I65" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H65,$F65,$D65,$E65,$G65,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>EUR_YCSTDRH_FUT3MM9#0000</v>
       </c>
       <c r="J65" s="170" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I65)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MK9_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I65)</f>
+        <v/>
       </c>
       <c r="K65" s="144"/>
     </row>
@@ -15815,7 +15823,7 @@
         <v>0</v>
       </c>
       <c r="D66" s="174" t="str">
-        <v>M9</v>
+        <v>N9</v>
       </c>
       <c r="E66" s="173" t="str">
         <f t="shared" si="4"/>
@@ -15823,23 +15831,23 @@
       </c>
       <c r="F66" s="172" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MM9_Quote</v>
+        <v>EURFUT3MN9_Quote</v>
       </c>
       <c r="G66" s="172" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MM9ConvAdj_Quote</v>
+        <v>EURFUT3MN9ConvAdj_Quote</v>
       </c>
       <c r="H66" s="172" t="str">
         <f t="shared" si="7"/>
-        <v>EUR_YCSTDRH_FUT3MM9</v>
-      </c>
-      <c r="I66" s="171" t="str">
+        <v>EUR_YCSTDRH_FUT3MN9</v>
+      </c>
+      <c r="I66" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H66,$F66,$D66,$E66,$G66,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MM9#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="J66" s="170" t="str">
-        <f>_xll.ohRangeRetrieveError(I66)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I66)</f>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MN9_Quote'</v>
       </c>
       <c r="K66" s="144"/>
     </row>
@@ -15852,7 +15860,7 @@
         <v>0</v>
       </c>
       <c r="D67" s="174" t="str">
-        <v>N9</v>
+        <v>Q9</v>
       </c>
       <c r="E67" s="173" t="str">
         <f t="shared" ref="E67:E98" si="8">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
@@ -15860,15 +15868,15 @@
       </c>
       <c r="F67" s="172" t="str">
         <f t="shared" ref="F67:F98" si="9">Currency&amp;"FUT"&amp;$E$1&amp;$D67&amp;QuoteSuffix</f>
-        <v>EURFUT3MN9_Quote</v>
+        <v>EURFUT3MQ9_Quote</v>
       </c>
       <c r="G67" s="172" t="str">
         <f t="shared" ref="G67:G98" si="10">Currency&amp;"FUT"&amp;$E$1&amp;$D67&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>EURFUT3MN9ConvAdj_Quote</v>
+        <v>EURFUT3MQ9ConvAdj_Quote</v>
       </c>
       <c r="H67" s="172" t="str">
         <f t="shared" ref="H67:H98" si="11">$H$1&amp;"_FUT"&amp;$E$1&amp;$D67</f>
-        <v>EUR_YCSTDRH_FUT3MN9</v>
+        <v>EUR_YCSTDRH_FUT3MQ9</v>
       </c>
       <c r="I67" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H67,$F67,$D67,$E67,$G67,Permanent,Trigger,ObjectOverwrite)</f>
@@ -15876,7 +15884,7 @@
       </c>
       <c r="J67" s="170" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I67)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MN9_Quote'</v>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MQ9_Quote'</v>
       </c>
       <c r="K67" s="144"/>
     </row>
@@ -15889,7 +15897,7 @@
         <v>0</v>
       </c>
       <c r="D68" s="174" t="str">
-        <v>Q9</v>
+        <v>U9</v>
       </c>
       <c r="E68" s="173" t="str">
         <f t="shared" si="8"/>
@@ -15897,23 +15905,23 @@
       </c>
       <c r="F68" s="172" t="str">
         <f t="shared" si="9"/>
-        <v>EURFUT3MQ9_Quote</v>
+        <v>EURFUT3MU9_Quote</v>
       </c>
       <c r="G68" s="172" t="str">
         <f t="shared" si="10"/>
-        <v>EURFUT3MQ9ConvAdj_Quote</v>
+        <v>EURFUT3MU9ConvAdj_Quote</v>
       </c>
       <c r="H68" s="172" t="str">
         <f t="shared" si="11"/>
-        <v>EUR_YCSTDRH_FUT3MQ9</v>
-      </c>
-      <c r="I68" s="171" t="e">
+        <v>EUR_YCSTDRH_FUT3MU9</v>
+      </c>
+      <c r="I68" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H68,$F68,$D68,$E68,$G68,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>EUR_YCSTDRH_FUT3MU9#0000</v>
       </c>
       <c r="J68" s="170" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I68)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MQ9_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I68)</f>
+        <v/>
       </c>
       <c r="K68" s="144"/>
     </row>
@@ -15926,7 +15934,7 @@
         <v>0</v>
       </c>
       <c r="D69" s="174" t="str">
-        <v>U9</v>
+        <v>V9</v>
       </c>
       <c r="E69" s="173" t="str">
         <f t="shared" si="8"/>
@@ -15934,23 +15942,23 @@
       </c>
       <c r="F69" s="172" t="str">
         <f t="shared" si="9"/>
-        <v>EURFUT3MU9_Quote</v>
+        <v>EURFUT3MV9_Quote</v>
       </c>
       <c r="G69" s="172" t="str">
         <f t="shared" si="10"/>
-        <v>EURFUT3MU9ConvAdj_Quote</v>
+        <v>EURFUT3MV9ConvAdj_Quote</v>
       </c>
       <c r="H69" s="172" t="str">
         <f t="shared" si="11"/>
-        <v>EUR_YCSTDRH_FUT3MU9</v>
-      </c>
-      <c r="I69" s="171" t="str">
+        <v>EUR_YCSTDRH_FUT3MV9</v>
+      </c>
+      <c r="I69" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H69,$F69,$D69,$E69,$G69,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MU9#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="J69" s="170" t="str">
-        <f>_xll.ohRangeRetrieveError(I69)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I69)</f>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MV9_Quote'</v>
       </c>
       <c r="K69" s="144"/>
     </row>
@@ -15963,7 +15971,7 @@
         <v>0</v>
       </c>
       <c r="D70" s="174" t="str">
-        <v>V9</v>
+        <v>X9</v>
       </c>
       <c r="E70" s="173" t="str">
         <f t="shared" si="8"/>
@@ -15971,15 +15979,15 @@
       </c>
       <c r="F70" s="172" t="str">
         <f t="shared" si="9"/>
-        <v>EURFUT3MV9_Quote</v>
+        <v>EURFUT3MX9_Quote</v>
       </c>
       <c r="G70" s="172" t="str">
         <f t="shared" si="10"/>
-        <v>EURFUT3MV9ConvAdj_Quote</v>
+        <v>EURFUT3MX9ConvAdj_Quote</v>
       </c>
       <c r="H70" s="172" t="str">
         <f t="shared" si="11"/>
-        <v>EUR_YCSTDRH_FUT3MV9</v>
+        <v>EUR_YCSTDRH_FUT3MX9</v>
       </c>
       <c r="I70" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H70,$F70,$D70,$E70,$G70,Permanent,Trigger,ObjectOverwrite)</f>
@@ -15987,7 +15995,7 @@
       </c>
       <c r="J70" s="170" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I70)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MV9_Quote'</v>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MX9_Quote'</v>
       </c>
       <c r="K70" s="144"/>
     </row>
@@ -16000,7 +16008,7 @@
         <v>0</v>
       </c>
       <c r="D71" s="174" t="str">
-        <v>X9</v>
+        <v>Z9</v>
       </c>
       <c r="E71" s="173" t="str">
         <f t="shared" si="8"/>
@@ -16008,23 +16016,23 @@
       </c>
       <c r="F71" s="172" t="str">
         <f t="shared" si="9"/>
-        <v>EURFUT3MX9_Quote</v>
+        <v>EURFUT3MZ9_Quote</v>
       </c>
       <c r="G71" s="172" t="str">
         <f t="shared" si="10"/>
-        <v>EURFUT3MX9ConvAdj_Quote</v>
+        <v>EURFUT3MZ9ConvAdj_Quote</v>
       </c>
       <c r="H71" s="172" t="str">
         <f t="shared" si="11"/>
-        <v>EUR_YCSTDRH_FUT3MX9</v>
-      </c>
-      <c r="I71" s="171" t="e">
+        <v>EUR_YCSTDRH_FUT3MZ9</v>
+      </c>
+      <c r="I71" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H71,$F71,$D71,$E71,$G71,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>EUR_YCSTDRH_FUT3MZ9#0000</v>
       </c>
       <c r="J71" s="170" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I71)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MX9_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I71)</f>
+        <v/>
       </c>
       <c r="K71" s="144"/>
     </row>
@@ -16037,7 +16045,7 @@
         <v>0</v>
       </c>
       <c r="D72" s="174" t="str">
-        <v>Z9</v>
+        <v>F0</v>
       </c>
       <c r="E72" s="173" t="str">
         <f t="shared" si="8"/>
@@ -16045,23 +16053,23 @@
       </c>
       <c r="F72" s="172" t="str">
         <f t="shared" si="9"/>
-        <v>EURFUT3MZ9_Quote</v>
+        <v>EURFUT3MF0_Quote</v>
       </c>
       <c r="G72" s="172" t="str">
         <f t="shared" si="10"/>
-        <v>EURFUT3MZ9ConvAdj_Quote</v>
+        <v>EURFUT3MF0ConvAdj_Quote</v>
       </c>
       <c r="H72" s="172" t="str">
         <f t="shared" si="11"/>
-        <v>EUR_YCSTDRH_FUT3MZ9</v>
-      </c>
-      <c r="I72" s="171" t="str">
+        <v>EUR_YCSTDRH_FUT3MF0</v>
+      </c>
+      <c r="I72" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H72,$F72,$D72,$E72,$G72,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MZ9#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="J72" s="170" t="str">
-        <f>_xll.ohRangeRetrieveError(I72)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I72)</f>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MF0_Quote'</v>
       </c>
       <c r="K72" s="144"/>
     </row>
@@ -16074,7 +16082,7 @@
         <v>0</v>
       </c>
       <c r="D73" s="174" t="str">
-        <v>F0</v>
+        <v>G0</v>
       </c>
       <c r="E73" s="173" t="str">
         <f t="shared" si="8"/>
@@ -16082,15 +16090,15 @@
       </c>
       <c r="F73" s="172" t="str">
         <f t="shared" si="9"/>
-        <v>EURFUT3MF0_Quote</v>
+        <v>EURFUT3MG0_Quote</v>
       </c>
       <c r="G73" s="172" t="str">
         <f t="shared" si="10"/>
-        <v>EURFUT3MF0ConvAdj_Quote</v>
+        <v>EURFUT3MG0ConvAdj_Quote</v>
       </c>
       <c r="H73" s="172" t="str">
         <f t="shared" si="11"/>
-        <v>EUR_YCSTDRH_FUT3MF0</v>
+        <v>EUR_YCSTDRH_FUT3MG0</v>
       </c>
       <c r="I73" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H73,$F73,$D73,$E73,$G73,Permanent,Trigger,ObjectOverwrite)</f>
@@ -16098,7 +16106,7 @@
       </c>
       <c r="J73" s="170" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I73)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MF0_Quote'</v>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MG0_Quote'</v>
       </c>
       <c r="K73" s="144"/>
     </row>
@@ -16111,7 +16119,7 @@
         <v>0</v>
       </c>
       <c r="D74" s="174" t="str">
-        <v>G0</v>
+        <v>H0</v>
       </c>
       <c r="E74" s="173" t="str">
         <f t="shared" si="8"/>
@@ -16119,23 +16127,23 @@
       </c>
       <c r="F74" s="172" t="str">
         <f t="shared" si="9"/>
-        <v>EURFUT3MG0_Quote</v>
+        <v>EURFUT3MH0_Quote</v>
       </c>
       <c r="G74" s="172" t="str">
         <f t="shared" si="10"/>
-        <v>EURFUT3MG0ConvAdj_Quote</v>
+        <v>EURFUT3MH0ConvAdj_Quote</v>
       </c>
       <c r="H74" s="172" t="str">
         <f t="shared" si="11"/>
-        <v>EUR_YCSTDRH_FUT3MG0</v>
-      </c>
-      <c r="I74" s="171" t="e">
+        <v>EUR_YCSTDRH_FUT3MH0</v>
+      </c>
+      <c r="I74" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H74,$F74,$D74,$E74,$G74,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>EUR_YCSTDRH_FUT3MH0#0000</v>
       </c>
       <c r="J74" s="170" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I74)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MG0_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I74)</f>
+        <v/>
       </c>
       <c r="K74" s="144"/>
     </row>
@@ -16148,7 +16156,7 @@
         <v>0</v>
       </c>
       <c r="D75" s="174" t="str">
-        <v>H0</v>
+        <v>J0</v>
       </c>
       <c r="E75" s="173" t="str">
         <f t="shared" si="8"/>
@@ -16156,23 +16164,23 @@
       </c>
       <c r="F75" s="172" t="str">
         <f t="shared" si="9"/>
-        <v>EURFUT3MH0_Quote</v>
+        <v>EURFUT3MJ0_Quote</v>
       </c>
       <c r="G75" s="172" t="str">
         <f t="shared" si="10"/>
-        <v>EURFUT3MH0ConvAdj_Quote</v>
+        <v>EURFUT3MJ0ConvAdj_Quote</v>
       </c>
       <c r="H75" s="172" t="str">
         <f t="shared" si="11"/>
-        <v>EUR_YCSTDRH_FUT3MH0</v>
-      </c>
-      <c r="I75" s="171" t="str">
+        <v>EUR_YCSTDRH_FUT3MJ0</v>
+      </c>
+      <c r="I75" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H75,$F75,$D75,$E75,$G75,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MH0#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="J75" s="170" t="str">
-        <f>_xll.ohRangeRetrieveError(I75)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I75)</f>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MJ0_Quote'</v>
       </c>
       <c r="K75" s="144"/>
     </row>
@@ -16185,7 +16193,7 @@
         <v>0</v>
       </c>
       <c r="D76" s="174" t="str">
-        <v>J0</v>
+        <v>K0</v>
       </c>
       <c r="E76" s="173" t="str">
         <f t="shared" si="8"/>
@@ -16193,15 +16201,15 @@
       </c>
       <c r="F76" s="172" t="str">
         <f t="shared" si="9"/>
-        <v>EURFUT3MJ0_Quote</v>
+        <v>EURFUT3MK0_Quote</v>
       </c>
       <c r="G76" s="172" t="str">
         <f t="shared" si="10"/>
-        <v>EURFUT3MJ0ConvAdj_Quote</v>
+        <v>EURFUT3MK0ConvAdj_Quote</v>
       </c>
       <c r="H76" s="172" t="str">
         <f t="shared" si="11"/>
-        <v>EUR_YCSTDRH_FUT3MJ0</v>
+        <v>EUR_YCSTDRH_FUT3MK0</v>
       </c>
       <c r="I76" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H76,$F76,$D76,$E76,$G76,Permanent,Trigger,ObjectOverwrite)</f>
@@ -16209,7 +16217,7 @@
       </c>
       <c r="J76" s="170" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I76)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MJ0_Quote'</v>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MK0_Quote'</v>
       </c>
       <c r="K76" s="144"/>
     </row>
@@ -16222,7 +16230,7 @@
         <v>0</v>
       </c>
       <c r="D77" s="174" t="str">
-        <v>K0</v>
+        <v>M0</v>
       </c>
       <c r="E77" s="173" t="str">
         <f t="shared" si="8"/>
@@ -16230,23 +16238,23 @@
       </c>
       <c r="F77" s="172" t="str">
         <f t="shared" si="9"/>
-        <v>EURFUT3MK0_Quote</v>
+        <v>EURFUT3MM0_Quote</v>
       </c>
       <c r="G77" s="172" t="str">
         <f t="shared" si="10"/>
-        <v>EURFUT3MK0ConvAdj_Quote</v>
+        <v>EURFUT3MM0ConvAdj_Quote</v>
       </c>
       <c r="H77" s="172" t="str">
         <f t="shared" si="11"/>
-        <v>EUR_YCSTDRH_FUT3MK0</v>
-      </c>
-      <c r="I77" s="171" t="e">
+        <v>EUR_YCSTDRH_FUT3MM0</v>
+      </c>
+      <c r="I77" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H77,$F77,$D77,$E77,$G77,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>EUR_YCSTDRH_FUT3MM0#0000</v>
       </c>
       <c r="J77" s="170" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I77)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MK0_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I77)</f>
+        <v/>
       </c>
       <c r="K77" s="144"/>
     </row>
@@ -16259,7 +16267,7 @@
         <v>0</v>
       </c>
       <c r="D78" s="174" t="str">
-        <v>M0</v>
+        <v>N0</v>
       </c>
       <c r="E78" s="173" t="str">
         <f t="shared" si="8"/>
@@ -16267,23 +16275,23 @@
       </c>
       <c r="F78" s="172" t="str">
         <f t="shared" si="9"/>
-        <v>EURFUT3MM0_Quote</v>
+        <v>EURFUT3MN0_Quote</v>
       </c>
       <c r="G78" s="172" t="str">
         <f t="shared" si="10"/>
-        <v>EURFUT3MM0ConvAdj_Quote</v>
+        <v>EURFUT3MN0ConvAdj_Quote</v>
       </c>
       <c r="H78" s="172" t="str">
         <f t="shared" si="11"/>
-        <v>EUR_YCSTDRH_FUT3MM0</v>
-      </c>
-      <c r="I78" s="171" t="str">
+        <v>EUR_YCSTDRH_FUT3MN0</v>
+      </c>
+      <c r="I78" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H78,$F78,$D78,$E78,$G78,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MM0#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="J78" s="170" t="str">
-        <f>_xll.ohRangeRetrieveError(I78)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I78)</f>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MN0_Quote'</v>
       </c>
       <c r="K78" s="144"/>
     </row>
@@ -16296,7 +16304,7 @@
         <v>0</v>
       </c>
       <c r="D79" s="174" t="str">
-        <v>N0</v>
+        <v>Q0</v>
       </c>
       <c r="E79" s="173" t="str">
         <f t="shared" si="8"/>
@@ -16304,15 +16312,15 @@
       </c>
       <c r="F79" s="172" t="str">
         <f t="shared" si="9"/>
-        <v>EURFUT3MN0_Quote</v>
+        <v>EURFUT3MQ0_Quote</v>
       </c>
       <c r="G79" s="172" t="str">
         <f t="shared" si="10"/>
-        <v>EURFUT3MN0ConvAdj_Quote</v>
+        <v>EURFUT3MQ0ConvAdj_Quote</v>
       </c>
       <c r="H79" s="172" t="str">
         <f t="shared" si="11"/>
-        <v>EUR_YCSTDRH_FUT3MN0</v>
+        <v>EUR_YCSTDRH_FUT3MQ0</v>
       </c>
       <c r="I79" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H79,$F79,$D79,$E79,$G79,Permanent,Trigger,ObjectOverwrite)</f>
@@ -16320,7 +16328,7 @@
       </c>
       <c r="J79" s="170" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I79)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MN0_Quote'</v>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MQ0_Quote'</v>
       </c>
       <c r="K79" s="144"/>
     </row>
@@ -16333,7 +16341,7 @@
         <v>0</v>
       </c>
       <c r="D80" s="174" t="str">
-        <v>Q0</v>
+        <v>U0</v>
       </c>
       <c r="E80" s="173" t="str">
         <f t="shared" si="8"/>
@@ -16341,23 +16349,23 @@
       </c>
       <c r="F80" s="172" t="str">
         <f t="shared" si="9"/>
-        <v>EURFUT3MQ0_Quote</v>
+        <v>EURFUT3MU0_Quote</v>
       </c>
       <c r="G80" s="172" t="str">
         <f t="shared" si="10"/>
-        <v>EURFUT3MQ0ConvAdj_Quote</v>
+        <v>EURFUT3MU0ConvAdj_Quote</v>
       </c>
       <c r="H80" s="172" t="str">
         <f t="shared" si="11"/>
-        <v>EUR_YCSTDRH_FUT3MQ0</v>
-      </c>
-      <c r="I80" s="171" t="e">
+        <v>EUR_YCSTDRH_FUT3MU0</v>
+      </c>
+      <c r="I80" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H80,$F80,$D80,$E80,$G80,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>EUR_YCSTDRH_FUT3MU0#0000</v>
       </c>
       <c r="J80" s="170" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I80)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MQ0_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I80)</f>
+        <v/>
       </c>
       <c r="K80" s="144"/>
     </row>
@@ -16370,7 +16378,7 @@
         <v>0</v>
       </c>
       <c r="D81" s="174" t="str">
-        <v>U0</v>
+        <v>V0</v>
       </c>
       <c r="E81" s="173" t="str">
         <f t="shared" si="8"/>
@@ -16378,23 +16386,23 @@
       </c>
       <c r="F81" s="172" t="str">
         <f t="shared" si="9"/>
-        <v>EURFUT3MU0_Quote</v>
+        <v>EURFUT3MV0_Quote</v>
       </c>
       <c r="G81" s="172" t="str">
         <f t="shared" si="10"/>
-        <v>EURFUT3MU0ConvAdj_Quote</v>
+        <v>EURFUT3MV0ConvAdj_Quote</v>
       </c>
       <c r="H81" s="172" t="str">
         <f t="shared" si="11"/>
-        <v>EUR_YCSTDRH_FUT3MU0</v>
-      </c>
-      <c r="I81" s="171" t="str">
+        <v>EUR_YCSTDRH_FUT3MV0</v>
+      </c>
+      <c r="I81" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H81,$F81,$D81,$E81,$G81,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MU0#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="J81" s="170" t="str">
-        <f>_xll.ohRangeRetrieveError(I81)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I81)</f>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MV0_Quote'</v>
       </c>
       <c r="K81" s="144"/>
     </row>
@@ -16407,7 +16415,7 @@
         <v>0</v>
       </c>
       <c r="D82" s="174" t="str">
-        <v>V0</v>
+        <v>X0</v>
       </c>
       <c r="E82" s="173" t="str">
         <f t="shared" si="8"/>
@@ -16415,15 +16423,15 @@
       </c>
       <c r="F82" s="172" t="str">
         <f t="shared" si="9"/>
-        <v>EURFUT3MV0_Quote</v>
+        <v>EURFUT3MX0_Quote</v>
       </c>
       <c r="G82" s="172" t="str">
         <f t="shared" si="10"/>
-        <v>EURFUT3MV0ConvAdj_Quote</v>
+        <v>EURFUT3MX0ConvAdj_Quote</v>
       </c>
       <c r="H82" s="172" t="str">
         <f t="shared" si="11"/>
-        <v>EUR_YCSTDRH_FUT3MV0</v>
+        <v>EUR_YCSTDRH_FUT3MX0</v>
       </c>
       <c r="I82" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H82,$F82,$D82,$E82,$G82,Permanent,Trigger,ObjectOverwrite)</f>
@@ -16431,7 +16439,7 @@
       </c>
       <c r="J82" s="170" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I82)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MV0_Quote'</v>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MX0_Quote'</v>
       </c>
       <c r="K82" s="144"/>
     </row>
@@ -16444,7 +16452,7 @@
         <v>0</v>
       </c>
       <c r="D83" s="174" t="str">
-        <v>X0</v>
+        <v>Z0</v>
       </c>
       <c r="E83" s="173" t="str">
         <f t="shared" si="8"/>
@@ -16452,23 +16460,23 @@
       </c>
       <c r="F83" s="172" t="str">
         <f t="shared" si="9"/>
-        <v>EURFUT3MX0_Quote</v>
+        <v>EURFUT3MZ0_Quote</v>
       </c>
       <c r="G83" s="172" t="str">
         <f t="shared" si="10"/>
-        <v>EURFUT3MX0ConvAdj_Quote</v>
+        <v>EURFUT3MZ0ConvAdj_Quote</v>
       </c>
       <c r="H83" s="172" t="str">
         <f t="shared" si="11"/>
-        <v>EUR_YCSTDRH_FUT3MX0</v>
-      </c>
-      <c r="I83" s="171" t="e">
+        <v>EUR_YCSTDRH_FUT3MZ0</v>
+      </c>
+      <c r="I83" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H83,$F83,$D83,$E83,$G83,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>EUR_YCSTDRH_FUT3MZ0#0000</v>
       </c>
       <c r="J83" s="170" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I83)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MX0_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I83)</f>
+        <v/>
       </c>
       <c r="K83" s="144"/>
     </row>
@@ -16481,7 +16489,7 @@
         <v>0</v>
       </c>
       <c r="D84" s="174" t="str">
-        <v>Z0</v>
+        <v>F1</v>
       </c>
       <c r="E84" s="173" t="str">
         <f t="shared" si="8"/>
@@ -16489,23 +16497,23 @@
       </c>
       <c r="F84" s="172" t="str">
         <f t="shared" si="9"/>
-        <v>EURFUT3MZ0_Quote</v>
+        <v>EURFUT3MF1_Quote</v>
       </c>
       <c r="G84" s="172" t="str">
         <f t="shared" si="10"/>
-        <v>EURFUT3MZ0ConvAdj_Quote</v>
+        <v>EURFUT3MF1ConvAdj_Quote</v>
       </c>
       <c r="H84" s="172" t="str">
         <f t="shared" si="11"/>
-        <v>EUR_YCSTDRH_FUT3MZ0</v>
-      </c>
-      <c r="I84" s="171" t="str">
+        <v>EUR_YCSTDRH_FUT3MF1</v>
+      </c>
+      <c r="I84" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H84,$F84,$D84,$E84,$G84,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MZ0#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="J84" s="170" t="str">
-        <f>_xll.ohRangeRetrieveError(I84)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I84)</f>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MF1_Quote'</v>
       </c>
       <c r="K84" s="144"/>
     </row>
@@ -16518,7 +16526,7 @@
         <v>0</v>
       </c>
       <c r="D85" s="174" t="str">
-        <v>F1</v>
+        <v>G1</v>
       </c>
       <c r="E85" s="173" t="str">
         <f t="shared" si="8"/>
@@ -16526,15 +16534,15 @@
       </c>
       <c r="F85" s="172" t="str">
         <f t="shared" si="9"/>
-        <v>EURFUT3MF1_Quote</v>
+        <v>EURFUT3MG1_Quote</v>
       </c>
       <c r="G85" s="172" t="str">
         <f t="shared" si="10"/>
-        <v>EURFUT3MF1ConvAdj_Quote</v>
+        <v>EURFUT3MG1ConvAdj_Quote</v>
       </c>
       <c r="H85" s="172" t="str">
         <f t="shared" si="11"/>
-        <v>EUR_YCSTDRH_FUT3MF1</v>
+        <v>EUR_YCSTDRH_FUT3MG1</v>
       </c>
       <c r="I85" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H85,$F85,$D85,$E85,$G85,Permanent,Trigger,ObjectOverwrite)</f>
@@ -16542,7 +16550,7 @@
       </c>
       <c r="J85" s="170" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I85)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MF1_Quote'</v>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MG1_Quote'</v>
       </c>
       <c r="K85" s="144"/>
     </row>
@@ -16555,7 +16563,7 @@
         <v>0</v>
       </c>
       <c r="D86" s="174" t="str">
-        <v>G1</v>
+        <v>H1</v>
       </c>
       <c r="E86" s="173" t="str">
         <f t="shared" si="8"/>
@@ -16563,23 +16571,23 @@
       </c>
       <c r="F86" s="172" t="str">
         <f t="shared" si="9"/>
-        <v>EURFUT3MG1_Quote</v>
+        <v>EURFUT3MH1_Quote</v>
       </c>
       <c r="G86" s="172" t="str">
         <f t="shared" si="10"/>
-        <v>EURFUT3MG1ConvAdj_Quote</v>
+        <v>EURFUT3MH1ConvAdj_Quote</v>
       </c>
       <c r="H86" s="172" t="str">
         <f t="shared" si="11"/>
-        <v>EUR_YCSTDRH_FUT3MG1</v>
-      </c>
-      <c r="I86" s="171" t="e">
+        <v>EUR_YCSTDRH_FUT3MH1</v>
+      </c>
+      <c r="I86" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H86,$F86,$D86,$E86,$G86,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>EUR_YCSTDRH_FUT3MH1#0000</v>
       </c>
       <c r="J86" s="170" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I86)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MG1_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I86)</f>
+        <v/>
       </c>
       <c r="K86" s="144"/>
     </row>
@@ -16592,7 +16600,7 @@
         <v>0</v>
       </c>
       <c r="D87" s="174" t="str">
-        <v>H1</v>
+        <v>J1</v>
       </c>
       <c r="E87" s="173" t="str">
         <f t="shared" si="8"/>
@@ -16600,23 +16608,23 @@
       </c>
       <c r="F87" s="172" t="str">
         <f t="shared" si="9"/>
-        <v>EURFUT3MH1_Quote</v>
+        <v>EURFUT3MJ1_Quote</v>
       </c>
       <c r="G87" s="172" t="str">
         <f t="shared" si="10"/>
-        <v>EURFUT3MH1ConvAdj_Quote</v>
+        <v>EURFUT3MJ1ConvAdj_Quote</v>
       </c>
       <c r="H87" s="172" t="str">
         <f t="shared" si="11"/>
-        <v>EUR_YCSTDRH_FUT3MH1</v>
-      </c>
-      <c r="I87" s="171" t="str">
+        <v>EUR_YCSTDRH_FUT3MJ1</v>
+      </c>
+      <c r="I87" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H87,$F87,$D87,$E87,$G87,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MH1#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="J87" s="170" t="str">
-        <f>_xll.ohRangeRetrieveError(I87)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I87)</f>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MJ1_Quote'</v>
       </c>
       <c r="K87" s="144"/>
     </row>
@@ -16629,7 +16637,7 @@
         <v>0</v>
       </c>
       <c r="D88" s="174" t="str">
-        <v>J1</v>
+        <v>K1</v>
       </c>
       <c r="E88" s="173" t="str">
         <f t="shared" si="8"/>
@@ -16637,15 +16645,15 @@
       </c>
       <c r="F88" s="172" t="str">
         <f t="shared" si="9"/>
-        <v>EURFUT3MJ1_Quote</v>
+        <v>EURFUT3MK1_Quote</v>
       </c>
       <c r="G88" s="172" t="str">
         <f t="shared" si="10"/>
-        <v>EURFUT3MJ1ConvAdj_Quote</v>
+        <v>EURFUT3MK1ConvAdj_Quote</v>
       </c>
       <c r="H88" s="172" t="str">
         <f t="shared" si="11"/>
-        <v>EUR_YCSTDRH_FUT3MJ1</v>
+        <v>EUR_YCSTDRH_FUT3MK1</v>
       </c>
       <c r="I88" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H88,$F88,$D88,$E88,$G88,Permanent,Trigger,ObjectOverwrite)</f>
@@ -16653,7 +16661,7 @@
       </c>
       <c r="J88" s="170" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I88)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MJ1_Quote'</v>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MK1_Quote'</v>
       </c>
       <c r="K88" s="144"/>
     </row>
@@ -16666,7 +16674,7 @@
         <v>0</v>
       </c>
       <c r="D89" s="174" t="str">
-        <v>K1</v>
+        <v>M1</v>
       </c>
       <c r="E89" s="173" t="str">
         <f t="shared" si="8"/>
@@ -16674,23 +16682,23 @@
       </c>
       <c r="F89" s="172" t="str">
         <f t="shared" si="9"/>
-        <v>EURFUT3MK1_Quote</v>
+        <v>EURFUT3MM1_Quote</v>
       </c>
       <c r="G89" s="172" t="str">
         <f t="shared" si="10"/>
-        <v>EURFUT3MK1ConvAdj_Quote</v>
+        <v>EURFUT3MM1ConvAdj_Quote</v>
       </c>
       <c r="H89" s="172" t="str">
         <f t="shared" si="11"/>
-        <v>EUR_YCSTDRH_FUT3MK1</v>
-      </c>
-      <c r="I89" s="171" t="e">
+        <v>EUR_YCSTDRH_FUT3MM1</v>
+      </c>
+      <c r="I89" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H89,$F89,$D89,$E89,$G89,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>EUR_YCSTDRH_FUT3MM1#0000</v>
       </c>
       <c r="J89" s="170" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I89)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MK1_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I89)</f>
+        <v/>
       </c>
       <c r="K89" s="144"/>
     </row>
@@ -16703,7 +16711,7 @@
         <v>0</v>
       </c>
       <c r="D90" s="174" t="str">
-        <v>M1</v>
+        <v>N1</v>
       </c>
       <c r="E90" s="173" t="str">
         <f t="shared" si="8"/>
@@ -16711,23 +16719,23 @@
       </c>
       <c r="F90" s="172" t="str">
         <f t="shared" si="9"/>
-        <v>EURFUT3MM1_Quote</v>
+        <v>EURFUT3MN1_Quote</v>
       </c>
       <c r="G90" s="172" t="str">
         <f t="shared" si="10"/>
-        <v>EURFUT3MM1ConvAdj_Quote</v>
+        <v>EURFUT3MN1ConvAdj_Quote</v>
       </c>
       <c r="H90" s="172" t="str">
         <f t="shared" si="11"/>
-        <v>EUR_YCSTDRH_FUT3MM1</v>
-      </c>
-      <c r="I90" s="171" t="str">
+        <v>EUR_YCSTDRH_FUT3MN1</v>
+      </c>
+      <c r="I90" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H90,$F90,$D90,$E90,$G90,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MM1#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="J90" s="170" t="str">
-        <f>_xll.ohRangeRetrieveError(I90)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I90)</f>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MN1_Quote'</v>
       </c>
       <c r="K90" s="144"/>
     </row>
@@ -16740,7 +16748,7 @@
         <v>0</v>
       </c>
       <c r="D91" s="174" t="str">
-        <v>N1</v>
+        <v>Q1</v>
       </c>
       <c r="E91" s="173" t="str">
         <f t="shared" si="8"/>
@@ -16748,15 +16756,15 @@
       </c>
       <c r="F91" s="172" t="str">
         <f t="shared" si="9"/>
-        <v>EURFUT3MN1_Quote</v>
+        <v>EURFUT3MQ1_Quote</v>
       </c>
       <c r="G91" s="172" t="str">
         <f t="shared" si="10"/>
-        <v>EURFUT3MN1ConvAdj_Quote</v>
+        <v>EURFUT3MQ1ConvAdj_Quote</v>
       </c>
       <c r="H91" s="172" t="str">
         <f t="shared" si="11"/>
-        <v>EUR_YCSTDRH_FUT3MN1</v>
+        <v>EUR_YCSTDRH_FUT3MQ1</v>
       </c>
       <c r="I91" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H91,$F91,$D91,$E91,$G91,Permanent,Trigger,ObjectOverwrite)</f>
@@ -16764,7 +16772,7 @@
       </c>
       <c r="J91" s="170" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I91)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MN1_Quote'</v>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MQ1_Quote'</v>
       </c>
       <c r="K91" s="144"/>
     </row>
@@ -16777,7 +16785,7 @@
         <v>0</v>
       </c>
       <c r="D92" s="174" t="str">
-        <v>Q1</v>
+        <v>U1</v>
       </c>
       <c r="E92" s="173" t="str">
         <f t="shared" si="8"/>
@@ -16785,23 +16793,23 @@
       </c>
       <c r="F92" s="172" t="str">
         <f t="shared" si="9"/>
-        <v>EURFUT3MQ1_Quote</v>
+        <v>EURFUT3MU1_Quote</v>
       </c>
       <c r="G92" s="172" t="str">
         <f t="shared" si="10"/>
-        <v>EURFUT3MQ1ConvAdj_Quote</v>
+        <v>EURFUT3MU1ConvAdj_Quote</v>
       </c>
       <c r="H92" s="172" t="str">
         <f t="shared" si="11"/>
-        <v>EUR_YCSTDRH_FUT3MQ1</v>
-      </c>
-      <c r="I92" s="171" t="e">
+        <v>EUR_YCSTDRH_FUT3MU1</v>
+      </c>
+      <c r="I92" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H92,$F92,$D92,$E92,$G92,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>EUR_YCSTDRH_FUT3MU1#0000</v>
       </c>
       <c r="J92" s="170" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I92)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MQ1_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I92)</f>
+        <v/>
       </c>
       <c r="K92" s="144"/>
     </row>
@@ -16814,7 +16822,7 @@
         <v>0</v>
       </c>
       <c r="D93" s="174" t="str">
-        <v>U1</v>
+        <v>V1</v>
       </c>
       <c r="E93" s="173" t="str">
         <f t="shared" si="8"/>
@@ -16822,23 +16830,23 @@
       </c>
       <c r="F93" s="172" t="str">
         <f t="shared" si="9"/>
-        <v>EURFUT3MU1_Quote</v>
+        <v>EURFUT3MV1_Quote</v>
       </c>
       <c r="G93" s="172" t="str">
         <f t="shared" si="10"/>
-        <v>EURFUT3MU1ConvAdj_Quote</v>
+        <v>EURFUT3MV1ConvAdj_Quote</v>
       </c>
       <c r="H93" s="172" t="str">
         <f t="shared" si="11"/>
-        <v>EUR_YCSTDRH_FUT3MU1</v>
-      </c>
-      <c r="I93" s="171" t="str">
+        <v>EUR_YCSTDRH_FUT3MV1</v>
+      </c>
+      <c r="I93" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H93,$F93,$D93,$E93,$G93,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MU1#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="J93" s="170" t="str">
-        <f>_xll.ohRangeRetrieveError(I93)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I93)</f>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MV1_Quote'</v>
       </c>
       <c r="K93" s="144"/>
     </row>
@@ -16851,7 +16859,7 @@
         <v>0</v>
       </c>
       <c r="D94" s="174" t="str">
-        <v>V1</v>
+        <v>X1</v>
       </c>
       <c r="E94" s="173" t="str">
         <f t="shared" si="8"/>
@@ -16859,15 +16867,15 @@
       </c>
       <c r="F94" s="172" t="str">
         <f t="shared" si="9"/>
-        <v>EURFUT3MV1_Quote</v>
+        <v>EURFUT3MX1_Quote</v>
       </c>
       <c r="G94" s="172" t="str">
         <f t="shared" si="10"/>
-        <v>EURFUT3MV1ConvAdj_Quote</v>
+        <v>EURFUT3MX1ConvAdj_Quote</v>
       </c>
       <c r="H94" s="172" t="str">
         <f t="shared" si="11"/>
-        <v>EUR_YCSTDRH_FUT3MV1</v>
+        <v>EUR_YCSTDRH_FUT3MX1</v>
       </c>
       <c r="I94" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H94,$F94,$D94,$E94,$G94,Permanent,Trigger,ObjectOverwrite)</f>
@@ -16875,7 +16883,7 @@
       </c>
       <c r="J94" s="170" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I94)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MV1_Quote'</v>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MX1_Quote'</v>
       </c>
       <c r="K94" s="144"/>
     </row>
@@ -16888,7 +16896,7 @@
         <v>0</v>
       </c>
       <c r="D95" s="174" t="str">
-        <v>X1</v>
+        <v>Z1</v>
       </c>
       <c r="E95" s="173" t="str">
         <f t="shared" si="8"/>
@@ -16896,23 +16904,23 @@
       </c>
       <c r="F95" s="172" t="str">
         <f t="shared" si="9"/>
-        <v>EURFUT3MX1_Quote</v>
+        <v>EURFUT3MZ1_Quote</v>
       </c>
       <c r="G95" s="172" t="str">
         <f t="shared" si="10"/>
-        <v>EURFUT3MX1ConvAdj_Quote</v>
+        <v>EURFUT3MZ1ConvAdj_Quote</v>
       </c>
       <c r="H95" s="172" t="str">
         <f t="shared" si="11"/>
-        <v>EUR_YCSTDRH_FUT3MX1</v>
-      </c>
-      <c r="I95" s="171" t="e">
+        <v>EUR_YCSTDRH_FUT3MZ1</v>
+      </c>
+      <c r="I95" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H95,$F95,$D95,$E95,$G95,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>EUR_YCSTDRH_FUT3MZ1#0000</v>
       </c>
       <c r="J95" s="170" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I95)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MX1_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I95)</f>
+        <v/>
       </c>
       <c r="K95" s="144"/>
     </row>
@@ -16925,7 +16933,7 @@
         <v>0</v>
       </c>
       <c r="D96" s="174" t="str">
-        <v>Z1</v>
+        <v>F2</v>
       </c>
       <c r="E96" s="173" t="str">
         <f t="shared" si="8"/>
@@ -16933,23 +16941,23 @@
       </c>
       <c r="F96" s="172" t="str">
         <f t="shared" si="9"/>
-        <v>EURFUT3MZ1_Quote</v>
+        <v>EURFUT3MF2_Quote</v>
       </c>
       <c r="G96" s="172" t="str">
         <f t="shared" si="10"/>
-        <v>EURFUT3MZ1ConvAdj_Quote</v>
+        <v>EURFUT3MF2ConvAdj_Quote</v>
       </c>
       <c r="H96" s="172" t="str">
         <f t="shared" si="11"/>
-        <v>EUR_YCSTDRH_FUT3MZ1</v>
-      </c>
-      <c r="I96" s="171" t="str">
+        <v>EUR_YCSTDRH_FUT3MF2</v>
+      </c>
+      <c r="I96" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H96,$F96,$D96,$E96,$G96,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MZ1#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="J96" s="170" t="str">
-        <f>_xll.ohRangeRetrieveError(I96)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I96)</f>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MF2_Quote'</v>
       </c>
       <c r="K96" s="144"/>
     </row>
@@ -16962,7 +16970,7 @@
         <v>0</v>
       </c>
       <c r="D97" s="174" t="str">
-        <v>F2</v>
+        <v>G2</v>
       </c>
       <c r="E97" s="173" t="str">
         <f t="shared" si="8"/>
@@ -16970,15 +16978,15 @@
       </c>
       <c r="F97" s="172" t="str">
         <f t="shared" si="9"/>
-        <v>EURFUT3MF2_Quote</v>
+        <v>EURFUT3MG2_Quote</v>
       </c>
       <c r="G97" s="172" t="str">
         <f t="shared" si="10"/>
-        <v>EURFUT3MF2ConvAdj_Quote</v>
+        <v>EURFUT3MG2ConvAdj_Quote</v>
       </c>
       <c r="H97" s="172" t="str">
         <f t="shared" si="11"/>
-        <v>EUR_YCSTDRH_FUT3MF2</v>
+        <v>EUR_YCSTDRH_FUT3MG2</v>
       </c>
       <c r="I97" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H97,$F97,$D97,$E97,$G97,Permanent,Trigger,ObjectOverwrite)</f>
@@ -16986,7 +16994,7 @@
       </c>
       <c r="J97" s="170" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I97)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MF2_Quote'</v>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MG2_Quote'</v>
       </c>
       <c r="K97" s="144"/>
     </row>
@@ -16999,7 +17007,7 @@
         <v>0</v>
       </c>
       <c r="D98" s="174" t="str">
-        <v>G2</v>
+        <v>H2</v>
       </c>
       <c r="E98" s="173" t="str">
         <f t="shared" si="8"/>
@@ -17007,23 +17015,23 @@
       </c>
       <c r="F98" s="172" t="str">
         <f t="shared" si="9"/>
-        <v>EURFUT3MG2_Quote</v>
+        <v>EURFUT3MH2_Quote</v>
       </c>
       <c r="G98" s="172" t="str">
         <f t="shared" si="10"/>
-        <v>EURFUT3MG2ConvAdj_Quote</v>
+        <v>EURFUT3MH2ConvAdj_Quote</v>
       </c>
       <c r="H98" s="172" t="str">
         <f t="shared" si="11"/>
-        <v>EUR_YCSTDRH_FUT3MG2</v>
-      </c>
-      <c r="I98" s="171" t="e">
+        <v>EUR_YCSTDRH_FUT3MH2</v>
+      </c>
+      <c r="I98" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H98,$F98,$D98,$E98,$G98,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>EUR_YCSTDRH_FUT3MH2#0000</v>
       </c>
       <c r="J98" s="170" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I98)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MG2_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I98)</f>
+        <v/>
       </c>
       <c r="K98" s="144"/>
     </row>
@@ -17036,7 +17044,7 @@
         <v>0</v>
       </c>
       <c r="D99" s="174" t="str">
-        <v>H2</v>
+        <v>J2</v>
       </c>
       <c r="E99" s="173" t="str">
         <f t="shared" ref="E99:E122" si="12">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
@@ -17044,23 +17052,23 @@
       </c>
       <c r="F99" s="172" t="str">
         <f t="shared" ref="F99:F122" si="13">Currency&amp;"FUT"&amp;$E$1&amp;$D99&amp;QuoteSuffix</f>
-        <v>EURFUT3MH2_Quote</v>
+        <v>EURFUT3MJ2_Quote</v>
       </c>
       <c r="G99" s="172" t="str">
         <f t="shared" ref="G99:G122" si="14">Currency&amp;"FUT"&amp;$E$1&amp;$D99&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>EURFUT3MH2ConvAdj_Quote</v>
+        <v>EURFUT3MJ2ConvAdj_Quote</v>
       </c>
       <c r="H99" s="172" t="str">
         <f t="shared" ref="H99:H122" si="15">$H$1&amp;"_FUT"&amp;$E$1&amp;$D99</f>
-        <v>EUR_YCSTDRH_FUT3MH2</v>
-      </c>
-      <c r="I99" s="171" t="str">
+        <v>EUR_YCSTDRH_FUT3MJ2</v>
+      </c>
+      <c r="I99" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H99,$F99,$D99,$E99,$G99,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MH2#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="J99" s="170" t="str">
-        <f>_xll.ohRangeRetrieveError(I99)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I99)</f>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MJ2_Quote'</v>
       </c>
       <c r="K99" s="144"/>
     </row>
@@ -17073,7 +17081,7 @@
         <v>0</v>
       </c>
       <c r="D100" s="174" t="str">
-        <v>J2</v>
+        <v>K2</v>
       </c>
       <c r="E100" s="173" t="str">
         <f t="shared" si="12"/>
@@ -17081,15 +17089,15 @@
       </c>
       <c r="F100" s="172" t="str">
         <f t="shared" si="13"/>
-        <v>EURFUT3MJ2_Quote</v>
+        <v>EURFUT3MK2_Quote</v>
       </c>
       <c r="G100" s="172" t="str">
         <f t="shared" si="14"/>
-        <v>EURFUT3MJ2ConvAdj_Quote</v>
+        <v>EURFUT3MK2ConvAdj_Quote</v>
       </c>
       <c r="H100" s="172" t="str">
         <f t="shared" si="15"/>
-        <v>EUR_YCSTDRH_FUT3MJ2</v>
+        <v>EUR_YCSTDRH_FUT3MK2</v>
       </c>
       <c r="I100" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H100,$F100,$D100,$E100,$G100,Permanent,Trigger,ObjectOverwrite)</f>
@@ -17097,7 +17105,7 @@
       </c>
       <c r="J100" s="170" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I100)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MJ2_Quote'</v>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MK2_Quote'</v>
       </c>
       <c r="K100" s="144"/>
     </row>
@@ -17110,7 +17118,7 @@
         <v>0</v>
       </c>
       <c r="D101" s="174" t="str">
-        <v>K2</v>
+        <v>M2</v>
       </c>
       <c r="E101" s="173" t="str">
         <f t="shared" si="12"/>
@@ -17118,23 +17126,23 @@
       </c>
       <c r="F101" s="172" t="str">
         <f t="shared" si="13"/>
-        <v>EURFUT3MK2_Quote</v>
+        <v>EURFUT3MM2_Quote</v>
       </c>
       <c r="G101" s="172" t="str">
         <f t="shared" si="14"/>
-        <v>EURFUT3MK2ConvAdj_Quote</v>
+        <v>EURFUT3MM2ConvAdj_Quote</v>
       </c>
       <c r="H101" s="172" t="str">
         <f t="shared" si="15"/>
-        <v>EUR_YCSTDRH_FUT3MK2</v>
-      </c>
-      <c r="I101" s="171" t="e">
+        <v>EUR_YCSTDRH_FUT3MM2</v>
+      </c>
+      <c r="I101" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H101,$F101,$D101,$E101,$G101,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>EUR_YCSTDRH_FUT3MM2#0000</v>
       </c>
       <c r="J101" s="170" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I101)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MK2_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I101)</f>
+        <v/>
       </c>
       <c r="K101" s="144"/>
     </row>
@@ -17147,7 +17155,7 @@
         <v>0</v>
       </c>
       <c r="D102" s="174" t="str">
-        <v>M2</v>
+        <v>N2</v>
       </c>
       <c r="E102" s="173" t="str">
         <f t="shared" si="12"/>
@@ -17155,23 +17163,23 @@
       </c>
       <c r="F102" s="172" t="str">
         <f t="shared" si="13"/>
-        <v>EURFUT3MM2_Quote</v>
+        <v>EURFUT3MN2_Quote</v>
       </c>
       <c r="G102" s="172" t="str">
         <f t="shared" si="14"/>
-        <v>EURFUT3MM2ConvAdj_Quote</v>
+        <v>EURFUT3MN2ConvAdj_Quote</v>
       </c>
       <c r="H102" s="172" t="str">
         <f t="shared" si="15"/>
-        <v>EUR_YCSTDRH_FUT3MM2</v>
-      </c>
-      <c r="I102" s="171" t="str">
+        <v>EUR_YCSTDRH_FUT3MN2</v>
+      </c>
+      <c r="I102" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H102,$F102,$D102,$E102,$G102,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MM2#0004</v>
+        <v>#NUM!</v>
       </c>
       <c r="J102" s="170" t="str">
-        <f>_xll.ohRangeRetrieveError(I102)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I102)</f>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MN2_Quote'</v>
       </c>
       <c r="K102" s="144"/>
     </row>
@@ -17184,7 +17192,7 @@
         <v>0</v>
       </c>
       <c r="D103" s="174" t="str">
-        <v>N2</v>
+        <v>Q2</v>
       </c>
       <c r="E103" s="173" t="str">
         <f t="shared" si="12"/>
@@ -17192,15 +17200,15 @@
       </c>
       <c r="F103" s="172" t="str">
         <f t="shared" si="13"/>
-        <v>EURFUT3MN2_Quote</v>
+        <v>EURFUT3MQ2_Quote</v>
       </c>
       <c r="G103" s="172" t="str">
         <f t="shared" si="14"/>
-        <v>EURFUT3MN2ConvAdj_Quote</v>
+        <v>EURFUT3MQ2ConvAdj_Quote</v>
       </c>
       <c r="H103" s="172" t="str">
         <f t="shared" si="15"/>
-        <v>EUR_YCSTDRH_FUT3MN2</v>
+        <v>EUR_YCSTDRH_FUT3MQ2</v>
       </c>
       <c r="I103" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H103,$F103,$D103,$E103,$G103,Permanent,Trigger,ObjectOverwrite)</f>
@@ -17208,7 +17216,7 @@
       </c>
       <c r="J103" s="170" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I103)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MN2_Quote'</v>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MQ2_Quote'</v>
       </c>
       <c r="K103" s="144"/>
     </row>
@@ -17221,7 +17229,7 @@
         <v>0</v>
       </c>
       <c r="D104" s="174" t="str">
-        <v>Q2</v>
+        <v>U2</v>
       </c>
       <c r="E104" s="173" t="str">
         <f t="shared" si="12"/>
@@ -17229,23 +17237,23 @@
       </c>
       <c r="F104" s="172" t="str">
         <f t="shared" si="13"/>
-        <v>EURFUT3MQ2_Quote</v>
+        <v>EURFUT3MU2_Quote</v>
       </c>
       <c r="G104" s="172" t="str">
         <f t="shared" si="14"/>
-        <v>EURFUT3MQ2ConvAdj_Quote</v>
+        <v>EURFUT3MU2ConvAdj_Quote</v>
       </c>
       <c r="H104" s="172" t="str">
         <f t="shared" si="15"/>
-        <v>EUR_YCSTDRH_FUT3MQ2</v>
-      </c>
-      <c r="I104" s="171" t="e">
+        <v>EUR_YCSTDRH_FUT3MU2</v>
+      </c>
+      <c r="I104" s="171" t="str">
         <f>_xll.qlFuturesRateHelper(H104,$F104,$D104,$E104,$G104,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>EUR_YCSTDRH_FUT3MU2#0000</v>
       </c>
       <c r="J104" s="170" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I104)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MQ2_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I104)</f>
+        <v/>
       </c>
       <c r="K104" s="144"/>
     </row>
@@ -17258,7 +17266,7 @@
         <v>0</v>
       </c>
       <c r="D105" s="174" t="str">
-        <v>U2</v>
+        <v>V2</v>
       </c>
       <c r="E105" s="173" t="str">
         <f t="shared" si="12"/>
@@ -17266,15 +17274,15 @@
       </c>
       <c r="F105" s="172" t="str">
         <f t="shared" si="13"/>
-        <v>EURFUT3MU2_Quote</v>
+        <v>EURFUT3MV2_Quote</v>
       </c>
       <c r="G105" s="172" t="str">
         <f t="shared" si="14"/>
-        <v>EURFUT3MU2ConvAdj_Quote</v>
+        <v>EURFUT3MV2ConvAdj_Quote</v>
       </c>
       <c r="H105" s="172" t="str">
         <f t="shared" si="15"/>
-        <v>EUR_YCSTDRH_FUT3MU2</v>
+        <v>EUR_YCSTDRH_FUT3MV2</v>
       </c>
       <c r="I105" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H105,$F105,$D105,$E105,$G105,Permanent,Trigger,ObjectOverwrite)</f>
@@ -17282,7 +17290,7 @@
       </c>
       <c r="J105" s="170" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I105)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MU2_Quote'</v>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MV2_Quote'</v>
       </c>
       <c r="K105" s="144"/>
     </row>
@@ -17295,7 +17303,7 @@
         <v>0</v>
       </c>
       <c r="D106" s="174" t="str">
-        <v>V2</v>
+        <v>X2</v>
       </c>
       <c r="E106" s="173" t="str">
         <f t="shared" si="12"/>
@@ -17303,15 +17311,15 @@
       </c>
       <c r="F106" s="172" t="str">
         <f t="shared" si="13"/>
-        <v>EURFUT3MV2_Quote</v>
+        <v>EURFUT3MX2_Quote</v>
       </c>
       <c r="G106" s="172" t="str">
         <f t="shared" si="14"/>
-        <v>EURFUT3MV2ConvAdj_Quote</v>
+        <v>EURFUT3MX2ConvAdj_Quote</v>
       </c>
       <c r="H106" s="172" t="str">
         <f t="shared" si="15"/>
-        <v>EUR_YCSTDRH_FUT3MV2</v>
+        <v>EUR_YCSTDRH_FUT3MX2</v>
       </c>
       <c r="I106" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H106,$F106,$D106,$E106,$G106,Permanent,Trigger,ObjectOverwrite)</f>
@@ -17319,7 +17327,7 @@
       </c>
       <c r="J106" s="170" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I106)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MV2_Quote'</v>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MX2_Quote'</v>
       </c>
       <c r="K106" s="144"/>
     </row>
@@ -17332,7 +17340,7 @@
         <v>0</v>
       </c>
       <c r="D107" s="174" t="str">
-        <v>X2</v>
+        <v>Z2</v>
       </c>
       <c r="E107" s="173" t="str">
         <f t="shared" si="12"/>
@@ -17340,15 +17348,15 @@
       </c>
       <c r="F107" s="172" t="str">
         <f t="shared" si="13"/>
-        <v>EURFUT3MX2_Quote</v>
+        <v>EURFUT3MZ2_Quote</v>
       </c>
       <c r="G107" s="172" t="str">
         <f t="shared" si="14"/>
-        <v>EURFUT3MX2ConvAdj_Quote</v>
+        <v>EURFUT3MZ2ConvAdj_Quote</v>
       </c>
       <c r="H107" s="172" t="str">
         <f t="shared" si="15"/>
-        <v>EUR_YCSTDRH_FUT3MX2</v>
+        <v>EUR_YCSTDRH_FUT3MZ2</v>
       </c>
       <c r="I107" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H107,$F107,$D107,$E107,$G107,Permanent,Trigger,ObjectOverwrite)</f>
@@ -17356,7 +17364,7 @@
       </c>
       <c r="J107" s="170" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I107)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MX2_Quote'</v>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MZ2_Quote'</v>
       </c>
       <c r="K107" s="144"/>
     </row>
@@ -17369,7 +17377,7 @@
         <v>0</v>
       </c>
       <c r="D108" s="174" t="str">
-        <v>Z2</v>
+        <v>F3</v>
       </c>
       <c r="E108" s="173" t="str">
         <f t="shared" si="12"/>
@@ -17377,15 +17385,15 @@
       </c>
       <c r="F108" s="172" t="str">
         <f t="shared" si="13"/>
-        <v>EURFUT3MZ2_Quote</v>
+        <v>EURFUT3MF3_Quote</v>
       </c>
       <c r="G108" s="172" t="str">
         <f t="shared" si="14"/>
-        <v>EURFUT3MZ2ConvAdj_Quote</v>
+        <v>EURFUT3MF3ConvAdj_Quote</v>
       </c>
       <c r="H108" s="172" t="str">
         <f t="shared" si="15"/>
-        <v>EUR_YCSTDRH_FUT3MZ2</v>
+        <v>EUR_YCSTDRH_FUT3MF3</v>
       </c>
       <c r="I108" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H108,$F108,$D108,$E108,$G108,Permanent,Trigger,ObjectOverwrite)</f>
@@ -17393,7 +17401,7 @@
       </c>
       <c r="J108" s="170" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I108)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MZ2_Quote'</v>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MF3_Quote'</v>
       </c>
       <c r="K108" s="144"/>
     </row>
@@ -17406,7 +17414,7 @@
         <v>0</v>
       </c>
       <c r="D109" s="174" t="str">
-        <v>F3</v>
+        <v>G3</v>
       </c>
       <c r="E109" s="173" t="str">
         <f t="shared" si="12"/>
@@ -17414,15 +17422,15 @@
       </c>
       <c r="F109" s="172" t="str">
         <f t="shared" si="13"/>
-        <v>EURFUT3MF3_Quote</v>
+        <v>EURFUT3MG3_Quote</v>
       </c>
       <c r="G109" s="172" t="str">
         <f t="shared" si="14"/>
-        <v>EURFUT3MF3ConvAdj_Quote</v>
+        <v>EURFUT3MG3ConvAdj_Quote</v>
       </c>
       <c r="H109" s="172" t="str">
         <f t="shared" si="15"/>
-        <v>EUR_YCSTDRH_FUT3MF3</v>
+        <v>EUR_YCSTDRH_FUT3MG3</v>
       </c>
       <c r="I109" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H109,$F109,$D109,$E109,$G109,Permanent,Trigger,ObjectOverwrite)</f>
@@ -17430,7 +17438,7 @@
       </c>
       <c r="J109" s="170" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I109)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MF3_Quote'</v>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MG3_Quote'</v>
       </c>
       <c r="K109" s="144"/>
     </row>
@@ -17443,7 +17451,7 @@
         <v>0</v>
       </c>
       <c r="D110" s="174" t="str">
-        <v>G3</v>
+        <v>H3</v>
       </c>
       <c r="E110" s="173" t="str">
         <f t="shared" si="12"/>
@@ -17451,15 +17459,15 @@
       </c>
       <c r="F110" s="172" t="str">
         <f t="shared" si="13"/>
-        <v>EURFUT3MG3_Quote</v>
+        <v>EURFUT3MH3_Quote</v>
       </c>
       <c r="G110" s="172" t="str">
         <f t="shared" si="14"/>
-        <v>EURFUT3MG3ConvAdj_Quote</v>
+        <v>EURFUT3MH3ConvAdj_Quote</v>
       </c>
       <c r="H110" s="172" t="str">
         <f t="shared" si="15"/>
-        <v>EUR_YCSTDRH_FUT3MG3</v>
+        <v>EUR_YCSTDRH_FUT3MH3</v>
       </c>
       <c r="I110" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H110,$F110,$D110,$E110,$G110,Permanent,Trigger,ObjectOverwrite)</f>
@@ -17467,7 +17475,7 @@
       </c>
       <c r="J110" s="170" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I110)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MG3_Quote'</v>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MH3_Quote'</v>
       </c>
       <c r="K110" s="144"/>
     </row>
@@ -17480,7 +17488,7 @@
         <v>0</v>
       </c>
       <c r="D111" s="174" t="str">
-        <v>H3</v>
+        <v>J3</v>
       </c>
       <c r="E111" s="173" t="str">
         <f t="shared" si="12"/>
@@ -17488,15 +17496,15 @@
       </c>
       <c r="F111" s="172" t="str">
         <f t="shared" si="13"/>
-        <v>EURFUT3MH3_Quote</v>
+        <v>EURFUT3MJ3_Quote</v>
       </c>
       <c r="G111" s="172" t="str">
         <f t="shared" si="14"/>
-        <v>EURFUT3MH3ConvAdj_Quote</v>
+        <v>EURFUT3MJ3ConvAdj_Quote</v>
       </c>
       <c r="H111" s="172" t="str">
         <f t="shared" si="15"/>
-        <v>EUR_YCSTDRH_FUT3MH3</v>
+        <v>EUR_YCSTDRH_FUT3MJ3</v>
       </c>
       <c r="I111" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H111,$F111,$D111,$E111,$G111,Permanent,Trigger,ObjectOverwrite)</f>
@@ -17504,7 +17512,7 @@
       </c>
       <c r="J111" s="170" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I111)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MH3_Quote'</v>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MJ3_Quote'</v>
       </c>
       <c r="K111" s="144"/>
     </row>
@@ -17517,7 +17525,7 @@
         <v>0</v>
       </c>
       <c r="D112" s="174" t="str">
-        <v>J3</v>
+        <v>K3</v>
       </c>
       <c r="E112" s="173" t="str">
         <f t="shared" si="12"/>
@@ -17525,15 +17533,15 @@
       </c>
       <c r="F112" s="172" t="str">
         <f t="shared" si="13"/>
-        <v>EURFUT3MJ3_Quote</v>
+        <v>EURFUT3MK3_Quote</v>
       </c>
       <c r="G112" s="172" t="str">
         <f t="shared" si="14"/>
-        <v>EURFUT3MJ3ConvAdj_Quote</v>
+        <v>EURFUT3MK3ConvAdj_Quote</v>
       </c>
       <c r="H112" s="172" t="str">
         <f t="shared" si="15"/>
-        <v>EUR_YCSTDRH_FUT3MJ3</v>
+        <v>EUR_YCSTDRH_FUT3MK3</v>
       </c>
       <c r="I112" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H112,$F112,$D112,$E112,$G112,Permanent,Trigger,ObjectOverwrite)</f>
@@ -17541,7 +17549,7 @@
       </c>
       <c r="J112" s="170" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I112)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MJ3_Quote'</v>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MK3_Quote'</v>
       </c>
       <c r="K112" s="144"/>
     </row>
@@ -17554,7 +17562,7 @@
         <v>0</v>
       </c>
       <c r="D113" s="174" t="str">
-        <v>K3</v>
+        <v>M3</v>
       </c>
       <c r="E113" s="173" t="str">
         <f t="shared" si="12"/>
@@ -17562,15 +17570,15 @@
       </c>
       <c r="F113" s="172" t="str">
         <f t="shared" si="13"/>
-        <v>EURFUT3MK3_Quote</v>
+        <v>EURFUT3MM3_Quote</v>
       </c>
       <c r="G113" s="172" t="str">
         <f t="shared" si="14"/>
-        <v>EURFUT3MK3ConvAdj_Quote</v>
+        <v>EURFUT3MM3ConvAdj_Quote</v>
       </c>
       <c r="H113" s="172" t="str">
         <f t="shared" si="15"/>
-        <v>EUR_YCSTDRH_FUT3MK3</v>
+        <v>EUR_YCSTDRH_FUT3MM3</v>
       </c>
       <c r="I113" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H113,$F113,$D113,$E113,$G113,Permanent,Trigger,ObjectOverwrite)</f>
@@ -17578,7 +17586,7 @@
       </c>
       <c r="J113" s="170" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I113)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MK3_Quote'</v>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MM3_Quote'</v>
       </c>
       <c r="K113" s="144"/>
     </row>
@@ -17591,7 +17599,7 @@
         <v>0</v>
       </c>
       <c r="D114" s="174" t="str">
-        <v>M3</v>
+        <v>N3</v>
       </c>
       <c r="E114" s="173" t="str">
         <f t="shared" si="12"/>
@@ -17599,15 +17607,15 @@
       </c>
       <c r="F114" s="172" t="str">
         <f t="shared" si="13"/>
-        <v>EURFUT3MM3_Quote</v>
+        <v>EURFUT3MN3_Quote</v>
       </c>
       <c r="G114" s="172" t="str">
         <f t="shared" si="14"/>
-        <v>EURFUT3MM3ConvAdj_Quote</v>
+        <v>EURFUT3MN3ConvAdj_Quote</v>
       </c>
       <c r="H114" s="172" t="str">
         <f t="shared" si="15"/>
-        <v>EUR_YCSTDRH_FUT3MM3</v>
+        <v>EUR_YCSTDRH_FUT3MN3</v>
       </c>
       <c r="I114" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H114,$F114,$D114,$E114,$G114,Permanent,Trigger,ObjectOverwrite)</f>
@@ -17615,7 +17623,7 @@
       </c>
       <c r="J114" s="170" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I114)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MM3_Quote'</v>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MN3_Quote'</v>
       </c>
       <c r="K114" s="144"/>
     </row>
@@ -17628,7 +17636,7 @@
         <v>0</v>
       </c>
       <c r="D115" s="174" t="str">
-        <v>N3</v>
+        <v>Q3</v>
       </c>
       <c r="E115" s="173" t="str">
         <f t="shared" si="12"/>
@@ -17636,15 +17644,15 @@
       </c>
       <c r="F115" s="172" t="str">
         <f t="shared" si="13"/>
-        <v>EURFUT3MN3_Quote</v>
+        <v>EURFUT3MQ3_Quote</v>
       </c>
       <c r="G115" s="172" t="str">
         <f t="shared" si="14"/>
-        <v>EURFUT3MN3ConvAdj_Quote</v>
+        <v>EURFUT3MQ3ConvAdj_Quote</v>
       </c>
       <c r="H115" s="172" t="str">
         <f t="shared" si="15"/>
-        <v>EUR_YCSTDRH_FUT3MN3</v>
+        <v>EUR_YCSTDRH_FUT3MQ3</v>
       </c>
       <c r="I115" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H115,$F115,$D115,$E115,$G115,Permanent,Trigger,ObjectOverwrite)</f>
@@ -17652,7 +17660,7 @@
       </c>
       <c r="J115" s="170" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I115)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MN3_Quote'</v>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MQ3_Quote'</v>
       </c>
       <c r="K115" s="144"/>
     </row>
@@ -17665,7 +17673,7 @@
         <v>0</v>
       </c>
       <c r="D116" s="174" t="str">
-        <v>Q3</v>
+        <v>U3</v>
       </c>
       <c r="E116" s="173" t="str">
         <f t="shared" si="12"/>
@@ -17673,15 +17681,15 @@
       </c>
       <c r="F116" s="172" t="str">
         <f t="shared" si="13"/>
-        <v>EURFUT3MQ3_Quote</v>
+        <v>EURFUT3MU3_Quote</v>
       </c>
       <c r="G116" s="172" t="str">
         <f t="shared" si="14"/>
-        <v>EURFUT3MQ3ConvAdj_Quote</v>
+        <v>EURFUT3MU3ConvAdj_Quote</v>
       </c>
       <c r="H116" s="172" t="str">
         <f t="shared" si="15"/>
-        <v>EUR_YCSTDRH_FUT3MQ3</v>
+        <v>EUR_YCSTDRH_FUT3MU3</v>
       </c>
       <c r="I116" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H116,$F116,$D116,$E116,$G116,Permanent,Trigger,ObjectOverwrite)</f>
@@ -17689,7 +17697,7 @@
       </c>
       <c r="J116" s="170" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I116)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MQ3_Quote'</v>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MU3_Quote'</v>
       </c>
       <c r="K116" s="144"/>
     </row>
@@ -17702,7 +17710,7 @@
         <v>0</v>
       </c>
       <c r="D117" s="174" t="str">
-        <v>U3</v>
+        <v>V3</v>
       </c>
       <c r="E117" s="173" t="str">
         <f t="shared" si="12"/>
@@ -17710,15 +17718,15 @@
       </c>
       <c r="F117" s="172" t="str">
         <f t="shared" si="13"/>
-        <v>EURFUT3MU3_Quote</v>
+        <v>EURFUT3MV3_Quote</v>
       </c>
       <c r="G117" s="172" t="str">
         <f t="shared" si="14"/>
-        <v>EURFUT3MU3ConvAdj_Quote</v>
+        <v>EURFUT3MV3ConvAdj_Quote</v>
       </c>
       <c r="H117" s="172" t="str">
         <f t="shared" si="15"/>
-        <v>EUR_YCSTDRH_FUT3MU3</v>
+        <v>EUR_YCSTDRH_FUT3MV3</v>
       </c>
       <c r="I117" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H117,$F117,$D117,$E117,$G117,Permanent,Trigger,ObjectOverwrite)</f>
@@ -17726,7 +17734,7 @@
       </c>
       <c r="J117" s="170" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I117)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MU3_Quote'</v>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MV3_Quote'</v>
       </c>
       <c r="K117" s="144"/>
     </row>
@@ -17739,7 +17747,7 @@
         <v>0</v>
       </c>
       <c r="D118" s="174" t="str">
-        <v>V3</v>
+        <v>X3</v>
       </c>
       <c r="E118" s="173" t="str">
         <f t="shared" si="12"/>
@@ -17747,15 +17755,15 @@
       </c>
       <c r="F118" s="172" t="str">
         <f t="shared" si="13"/>
-        <v>EURFUT3MV3_Quote</v>
+        <v>EURFUT3MX3_Quote</v>
       </c>
       <c r="G118" s="172" t="str">
         <f t="shared" si="14"/>
-        <v>EURFUT3MV3ConvAdj_Quote</v>
+        <v>EURFUT3MX3ConvAdj_Quote</v>
       </c>
       <c r="H118" s="172" t="str">
         <f t="shared" si="15"/>
-        <v>EUR_YCSTDRH_FUT3MV3</v>
+        <v>EUR_YCSTDRH_FUT3MX3</v>
       </c>
       <c r="I118" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H118,$F118,$D118,$E118,$G118,Permanent,Trigger,ObjectOverwrite)</f>
@@ -17763,7 +17771,7 @@
       </c>
       <c r="J118" s="170" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I118)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MV3_Quote'</v>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MX3_Quote'</v>
       </c>
       <c r="K118" s="144"/>
     </row>
@@ -17776,7 +17784,7 @@
         <v>0</v>
       </c>
       <c r="D119" s="174" t="str">
-        <v>X3</v>
+        <v>Z3</v>
       </c>
       <c r="E119" s="173" t="str">
         <f t="shared" si="12"/>
@@ -17784,15 +17792,15 @@
       </c>
       <c r="F119" s="172" t="str">
         <f t="shared" si="13"/>
-        <v>EURFUT3MX3_Quote</v>
+        <v>EURFUT3MZ3_Quote</v>
       </c>
       <c r="G119" s="172" t="str">
         <f t="shared" si="14"/>
-        <v>EURFUT3MX3ConvAdj_Quote</v>
+        <v>EURFUT3MZ3ConvAdj_Quote</v>
       </c>
       <c r="H119" s="172" t="str">
         <f t="shared" si="15"/>
-        <v>EUR_YCSTDRH_FUT3MX3</v>
+        <v>EUR_YCSTDRH_FUT3MZ3</v>
       </c>
       <c r="I119" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H119,$F119,$D119,$E119,$G119,Permanent,Trigger,ObjectOverwrite)</f>
@@ -17800,7 +17808,7 @@
       </c>
       <c r="J119" s="170" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I119)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MX3_Quote'</v>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MZ3_Quote'</v>
       </c>
       <c r="K119" s="144"/>
     </row>
@@ -17813,7 +17821,7 @@
         <v>0</v>
       </c>
       <c r="D120" s="174" t="str">
-        <v>Z3</v>
+        <v>F4</v>
       </c>
       <c r="E120" s="173" t="str">
         <f t="shared" si="12"/>
@@ -17821,15 +17829,15 @@
       </c>
       <c r="F120" s="172" t="str">
         <f t="shared" si="13"/>
-        <v>EURFUT3MZ3_Quote</v>
+        <v>EURFUT3MF4_Quote</v>
       </c>
       <c r="G120" s="172" t="str">
         <f t="shared" si="14"/>
-        <v>EURFUT3MZ3ConvAdj_Quote</v>
+        <v>EURFUT3MF4ConvAdj_Quote</v>
       </c>
       <c r="H120" s="172" t="str">
         <f t="shared" si="15"/>
-        <v>EUR_YCSTDRH_FUT3MZ3</v>
+        <v>EUR_YCSTDRH_FUT3MF4</v>
       </c>
       <c r="I120" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H120,$F120,$D120,$E120,$G120,Permanent,Trigger,ObjectOverwrite)</f>
@@ -17837,7 +17845,7 @@
       </c>
       <c r="J120" s="170" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I120)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MZ3_Quote'</v>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MF4_Quote'</v>
       </c>
       <c r="K120" s="144"/>
     </row>
@@ -17850,7 +17858,7 @@
         <v>0</v>
       </c>
       <c r="D121" s="174" t="str">
-        <v>F4</v>
+        <v>G4</v>
       </c>
       <c r="E121" s="173" t="str">
         <f t="shared" si="12"/>
@@ -17858,15 +17866,15 @@
       </c>
       <c r="F121" s="172" t="str">
         <f t="shared" si="13"/>
-        <v>EURFUT3MF4_Quote</v>
+        <v>EURFUT3MG4_Quote</v>
       </c>
       <c r="G121" s="172" t="str">
         <f t="shared" si="14"/>
-        <v>EURFUT3MF4ConvAdj_Quote</v>
+        <v>EURFUT3MG4ConvAdj_Quote</v>
       </c>
       <c r="H121" s="172" t="str">
         <f t="shared" si="15"/>
-        <v>EUR_YCSTDRH_FUT3MF4</v>
+        <v>EUR_YCSTDRH_FUT3MG4</v>
       </c>
       <c r="I121" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H121,$F121,$D121,$E121,$G121,Permanent,Trigger,ObjectOverwrite)</f>
@@ -17874,7 +17882,7 @@
       </c>
       <c r="J121" s="170" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I121)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MF4_Quote'</v>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MG4_Quote'</v>
       </c>
       <c r="K121" s="144"/>
     </row>
@@ -17887,7 +17895,7 @@
         <v>0</v>
       </c>
       <c r="D122" s="174" t="str">
-        <v>G4</v>
+        <v>H4</v>
       </c>
       <c r="E122" s="173" t="str">
         <f t="shared" si="12"/>
@@ -17895,15 +17903,15 @@
       </c>
       <c r="F122" s="172" t="str">
         <f t="shared" si="13"/>
-        <v>EURFUT3MG4_Quote</v>
+        <v>EURFUT3MH4_Quote</v>
       </c>
       <c r="G122" s="172" t="str">
         <f t="shared" si="14"/>
-        <v>EURFUT3MG4ConvAdj_Quote</v>
+        <v>EURFUT3MH4ConvAdj_Quote</v>
       </c>
       <c r="H122" s="172" t="str">
         <f t="shared" si="15"/>
-        <v>EUR_YCSTDRH_FUT3MG4</v>
+        <v>EUR_YCSTDRH_FUT3MH4</v>
       </c>
       <c r="I122" s="171" t="e">
         <f>_xll.qlFuturesRateHelper(H122,$F122,$D122,$E122,$G122,Permanent,Trigger,ObjectOverwrite)</f>
@@ -17911,7 +17919,7 @@
       </c>
       <c r="J122" s="170" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I122)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MG4_Quote'</v>
+        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MH4_Quote'</v>
       </c>
       <c r="K122" s="144"/>
     </row>
@@ -18059,7 +18067,7 @@
       </c>
       <c r="L4" s="203" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>EUR_YCSTDRH_AB6E_ibor6M#0004</v>
+        <v>EUR_YCSTDRH_AB6E_ibor6M#0000</v>
       </c>
       <c r="M4" s="202" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -18121,7 +18129,7 @@
       </c>
       <c r="L6" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E1Y#0004</v>
+        <v>EUR_YCSTDRH_AB6E1Y#0000</v>
       </c>
       <c r="M6" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -18171,7 +18179,7 @@
       </c>
       <c r="L7" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E15M#0004</v>
+        <v>EUR_YCSTDRH_AB6E15M#0000</v>
       </c>
       <c r="M7" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -18217,7 +18225,7 @@
       </c>
       <c r="L8" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E18M#0004</v>
+        <v>EUR_YCSTDRH_AB6E18M#0000</v>
       </c>
       <c r="M8" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -18263,7 +18271,7 @@
       </c>
       <c r="L9" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E21M#0004</v>
+        <v>EUR_YCSTDRH_AB6E21M#0000</v>
       </c>
       <c r="M9" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -18309,7 +18317,7 @@
       </c>
       <c r="L10" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E2Y#0004</v>
+        <v>EUR_YCSTDRH_AB6E2Y#0000</v>
       </c>
       <c r="M10" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -18355,7 +18363,7 @@
       </c>
       <c r="L11" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E3Y#0004</v>
+        <v>EUR_YCSTDRH_AB6E3Y#0000</v>
       </c>
       <c r="M11" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -18401,7 +18409,7 @@
       </c>
       <c r="L12" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E4Y#0004</v>
+        <v>EUR_YCSTDRH_AB6E4Y#0000</v>
       </c>
       <c r="M12" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -18447,7 +18455,7 @@
       </c>
       <c r="L13" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E5Y#0004</v>
+        <v>EUR_YCSTDRH_AB6E5Y#0000</v>
       </c>
       <c r="M13" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -18493,7 +18501,7 @@
       </c>
       <c r="L14" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E6Y#0004</v>
+        <v>EUR_YCSTDRH_AB6E6Y#0000</v>
       </c>
       <c r="M14" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -18539,7 +18547,7 @@
       </c>
       <c r="L15" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E7Y#0004</v>
+        <v>EUR_YCSTDRH_AB6E7Y#0000</v>
       </c>
       <c r="M15" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -18585,7 +18593,7 @@
       </c>
       <c r="L16" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E8Y#0004</v>
+        <v>EUR_YCSTDRH_AB6E8Y#0000</v>
       </c>
       <c r="M16" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -18631,7 +18639,7 @@
       </c>
       <c r="L17" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E9Y#0004</v>
+        <v>EUR_YCSTDRH_AB6E9Y#0000</v>
       </c>
       <c r="M17" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -18677,7 +18685,7 @@
       </c>
       <c r="L18" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E10Y#0004</v>
+        <v>EUR_YCSTDRH_AB6E10Y#0000</v>
       </c>
       <c r="M18" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -18723,7 +18731,7 @@
       </c>
       <c r="L19" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E11Y#0004</v>
+        <v>EUR_YCSTDRH_AB6E11Y#0000</v>
       </c>
       <c r="M19" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -18769,7 +18777,7 @@
       </c>
       <c r="L20" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E12Y#0004</v>
+        <v>EUR_YCSTDRH_AB6E12Y#0000</v>
       </c>
       <c r="M20" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -18815,7 +18823,7 @@
       </c>
       <c r="L21" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E13Y#0004</v>
+        <v>EUR_YCSTDRH_AB6E13Y#0000</v>
       </c>
       <c r="M21" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -18861,7 +18869,7 @@
       </c>
       <c r="L22" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E14Y#0004</v>
+        <v>EUR_YCSTDRH_AB6E14Y#0000</v>
       </c>
       <c r="M22" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -18907,7 +18915,7 @@
       </c>
       <c r="L23" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E15Y#0004</v>
+        <v>EUR_YCSTDRH_AB6E15Y#0000</v>
       </c>
       <c r="M23" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -18953,7 +18961,7 @@
       </c>
       <c r="L24" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E16Y#0004</v>
+        <v>EUR_YCSTDRH_AB6E16Y#0000</v>
       </c>
       <c r="M24" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -18999,7 +19007,7 @@
       </c>
       <c r="L25" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E17Y#0004</v>
+        <v>EUR_YCSTDRH_AB6E17Y#0000</v>
       </c>
       <c r="M25" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -19045,7 +19053,7 @@
       </c>
       <c r="L26" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E18Y#0004</v>
+        <v>EUR_YCSTDRH_AB6E18Y#0000</v>
       </c>
       <c r="M26" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -19091,7 +19099,7 @@
       </c>
       <c r="L27" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E19Y#0004</v>
+        <v>EUR_YCSTDRH_AB6E19Y#0000</v>
       </c>
       <c r="M27" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -19137,7 +19145,7 @@
       </c>
       <c r="L28" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E20Y#0004</v>
+        <v>EUR_YCSTDRH_AB6E20Y#0000</v>
       </c>
       <c r="M28" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -19183,7 +19191,7 @@
       </c>
       <c r="L29" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E21Y#0004</v>
+        <v>EUR_YCSTDRH_AB6E21Y#0000</v>
       </c>
       <c r="M29" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -19229,7 +19237,7 @@
       </c>
       <c r="L30" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E22Y#0004</v>
+        <v>EUR_YCSTDRH_AB6E22Y#0000</v>
       </c>
       <c r="M30" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -19275,7 +19283,7 @@
       </c>
       <c r="L31" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E23Y#0004</v>
+        <v>EUR_YCSTDRH_AB6E23Y#0000</v>
       </c>
       <c r="M31" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -19321,7 +19329,7 @@
       </c>
       <c r="L32" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E24Y#0004</v>
+        <v>EUR_YCSTDRH_AB6E24Y#0000</v>
       </c>
       <c r="M32" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -19367,7 +19375,7 @@
       </c>
       <c r="L33" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E25Y#0004</v>
+        <v>EUR_YCSTDRH_AB6E25Y#0000</v>
       </c>
       <c r="M33" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -19413,7 +19421,7 @@
       </c>
       <c r="L34" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E26Y#0004</v>
+        <v>EUR_YCSTDRH_AB6E26Y#0000</v>
       </c>
       <c r="M34" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -19459,7 +19467,7 @@
       </c>
       <c r="L35" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E27Y#0004</v>
+        <v>EUR_YCSTDRH_AB6E27Y#0000</v>
       </c>
       <c r="M35" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -19505,7 +19513,7 @@
       </c>
       <c r="L36" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E28Y#0004</v>
+        <v>EUR_YCSTDRH_AB6E28Y#0000</v>
       </c>
       <c r="M36" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -19551,7 +19559,7 @@
       </c>
       <c r="L37" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E29Y#0004</v>
+        <v>EUR_YCSTDRH_AB6E29Y#0000</v>
       </c>
       <c r="M37" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -19597,7 +19605,7 @@
       </c>
       <c r="L38" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E30Y#0004</v>
+        <v>EUR_YCSTDRH_AB6E30Y#0000</v>
       </c>
       <c r="M38" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -19643,7 +19651,7 @@
       </c>
       <c r="L39" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E35Y#0004</v>
+        <v>EUR_YCSTDRH_AB6E35Y#0000</v>
       </c>
       <c r="M39" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -19689,7 +19697,7 @@
       </c>
       <c r="L40" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E40Y#0004</v>
+        <v>EUR_YCSTDRH_AB6E40Y#0000</v>
       </c>
       <c r="M40" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -19735,7 +19743,7 @@
       </c>
       <c r="L41" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E50Y#0004</v>
+        <v>EUR_YCSTDRH_AB6E50Y#0000</v>
       </c>
       <c r="M41" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -19781,7 +19789,7 @@
       </c>
       <c r="L42" s="194" t="str">
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E60Y#0004</v>
+        <v>EUR_YCSTDRH_AB6E60Y#0000</v>
       </c>
       <c r="M42" s="193" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>

--- a/QuantLibXL/Data2/XLS/EUR_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR_YCSTDBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10185" yWindow="-15" windowWidth="10200" windowHeight="8085"/>
+    <workbookView xWindow="10185" yWindow="-15" windowWidth="10200" windowHeight="8085" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="6" r:id="rId1"/>
@@ -1787,6 +1787,16 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="170" fontId="8" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1811,16 +1821,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -2137,8 +2137,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2161,19 +2161,19 @@
       </c>
     </row>
     <row r="2" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="213" t="s">
+      <c r="B2" s="217" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="214"/>
-      <c r="D2" s="214"/>
-      <c r="E2" s="214"/>
-      <c r="F2" s="215"/>
-      <c r="H2" s="213" t="s">
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="219"/>
+      <c r="H2" s="217" t="s">
         <v>119</v>
       </c>
-      <c r="I2" s="214"/>
-      <c r="J2" s="214"/>
-      <c r="K2" s="216"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="218"/>
+      <c r="K2" s="220"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="62"/>
@@ -2201,7 +2201,7 @@
         <v>118</v>
       </c>
       <c r="J4" s="124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="129"/>
     </row>
@@ -2219,10 +2219,7 @@
       <c r="I5" s="130" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="132" t="str">
-        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
-        <v>C:\Projects\quantlib\QuantLibXL\Data2\XML\</v>
-      </c>
+      <c r="J5" s="132"/>
       <c r="K5" s="129"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
@@ -2286,12 +2283,12 @@
       </c>
       <c r="E9" s="61"/>
       <c r="F9" s="60"/>
-      <c r="H9" s="213" t="s">
+      <c r="H9" s="217" t="s">
         <v>115</v>
       </c>
-      <c r="I9" s="214"/>
-      <c r="J9" s="214"/>
-      <c r="K9" s="216"/>
+      <c r="I9" s="218"/>
+      <c r="J9" s="218"/>
+      <c r="K9" s="220"/>
     </row>
     <row r="10" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="62"/>
@@ -2313,9 +2310,7 @@
       <c r="C11" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="82">
-        <v>41733.458645833336</v>
-      </c>
+      <c r="D11" s="82"/>
       <c r="E11" s="61"/>
       <c r="F11" s="60"/>
       <c r="H11" s="123"/>
@@ -2369,7 +2364,7 @@
       </c>
       <c r="D14" s="79" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_EURYCSTD#0002</v>
+        <v>_EURYCSTD#0001</v>
       </c>
       <c r="E14" s="61"/>
       <c r="F14" s="60"/>
@@ -2493,11 +2488,11 @@
       <c r="B23" s="62"/>
       <c r="C23" s="66">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41733</v>
+        <v>41737</v>
       </c>
       <c r="D23" s="65">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
-        <v>2.5949268366317727E-2</v>
+        <v>2.6008539717738744E-2</v>
       </c>
       <c r="E23" s="61"/>
       <c r="F23" s="60"/>
@@ -2506,21 +2501,21 @@
       <c r="B24" s="62"/>
       <c r="C24" s="64">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>63653</v>
+        <v>63654</v>
       </c>
       <c r="D24" s="63">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>2.326377295945265E-3</v>
+        <v>2.2507962678502539E-3</v>
       </c>
       <c r="E24" s="61"/>
       <c r="F24" s="60"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="62"/>
-      <c r="C25" s="222" t="s">
+      <c r="C25" s="213" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="223" t="str">
+      <c r="D25" s="214" t="str">
         <f>_xll.ohRangeRetrieveError(Selected!I1)</f>
         <v/>
       </c>
@@ -2529,10 +2524,10 @@
     </row>
     <row r="26" spans="2:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="62"/>
-      <c r="C26" s="225" t="s">
+      <c r="C26" s="216" t="s">
         <v>146</v>
       </c>
-      <c r="D26" s="224" t="b">
+      <c r="D26" s="215" t="b">
         <f>_xll.qlRelinkableHandleLinkTo(C26,YieldCurve)</f>
         <v>1</v>
       </c>
@@ -2588,7 +2583,7 @@
   <dimension ref="A1:R166"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2612,11 +2607,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B1" s="217" t="s">
+      <c r="B1" s="221" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="218"/>
-      <c r="D1" s="219"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="223"/>
       <c r="E1" s="36" t="s">
         <v>64</v>
       </c>
@@ -2654,7 +2649,7 @@
       </c>
       <c r="F2" s="13">
         <f>_xll.qlRateHelperQuoteValue($E2,Trigger)</f>
-        <v>2.5999999999999999E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="12" t="b">
@@ -2668,11 +2663,11 @@
       </c>
       <c r="K2" s="11">
         <f>_xll.qlRateHelperEarliestDate($E2,Trigger)</f>
-        <v>41733</v>
+        <v>41737</v>
       </c>
       <c r="L2" s="10">
         <f>_xll.qlRateHelperLatestDate($E2,Trigger)</f>
-        <v>41736</v>
+        <v>41738</v>
       </c>
       <c r="M2" s="93"/>
       <c r="N2" s="93"/>
@@ -2689,7 +2684,7 @@
       </c>
       <c r="F3" s="13">
         <f>_xll.qlRateHelperQuoteValue($E3,Trigger)</f>
-        <v>2.5999999999999999E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="12" t="b">
@@ -2703,11 +2698,11 @@
       </c>
       <c r="K3" s="11">
         <f>_xll.qlRateHelperEarliestDate($E3,Trigger)</f>
-        <v>41736</v>
+        <v>41738</v>
       </c>
       <c r="L3" s="10">
         <f>_xll.qlRateHelperLatestDate($E3,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="M3" s="93"/>
       <c r="N3" s="93"/>
@@ -2724,7 +2719,7 @@
       </c>
       <c r="F4" s="13">
         <f>_xll.qlRateHelperQuoteValue($E4,Trigger)</f>
-        <v>2.5999999999999999E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12" t="b">
@@ -2738,11 +2733,11 @@
       </c>
       <c r="K4" s="11">
         <f>_xll.qlRateHelperEarliestDate($E4,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L4" s="10">
         <f>_xll.qlRateHelperLatestDate($E4,Trigger)</f>
-        <v>41738</v>
+        <v>41740</v>
       </c>
       <c r="M4" s="93"/>
       <c r="N4" s="93"/>
@@ -2759,7 +2754,7 @@
       </c>
       <c r="F5" s="13">
         <f>_xll.qlRateHelperQuoteValue($E5,Trigger)</f>
-        <v>2.1199999999999999E-3</v>
+        <v>2.14E-3</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12" t="b">
@@ -2773,11 +2768,11 @@
       </c>
       <c r="K5" s="11">
         <f>_xll.qlRateHelperEarliestDate($E5,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L5" s="10">
         <f>_xll.qlRateHelperLatestDate($E5,Trigger)</f>
-        <v>41744</v>
+        <v>41746</v>
       </c>
       <c r="M5" s="93"/>
       <c r="N5" s="93"/>
@@ -2794,7 +2789,7 @@
       </c>
       <c r="F6" s="13">
         <f>_xll.qlRateHelperQuoteValue($E6,Trigger)</f>
-        <v>2.2300000000000002E-3</v>
+        <v>2.2599999999999999E-3</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12" t="b">
@@ -2808,11 +2803,11 @@
       </c>
       <c r="K6" s="11">
         <f>_xll.qlRateHelperEarliestDate($E6,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L6" s="10">
         <f>_xll.qlRateHelperLatestDate($E6,Trigger)</f>
-        <v>41751</v>
+        <v>41753</v>
       </c>
       <c r="M6" s="93"/>
       <c r="N6" s="93"/>
@@ -2829,7 +2824,7 @@
       </c>
       <c r="F7" s="13">
         <f>_xll.qlRateHelperQuoteValue($E7,Trigger)</f>
-        <v>2.49E-3</v>
+        <v>2.5100000000000001E-3</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="12" t="b">
@@ -2843,11 +2838,11 @@
       </c>
       <c r="K7" s="11">
         <f>_xll.qlRateHelperEarliestDate($E7,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L7" s="10">
         <f>_xll.qlRateHelperLatestDate($E7,Trigger)</f>
-        <v>41767</v>
+        <v>41771</v>
       </c>
       <c r="M7" s="93"/>
       <c r="N7" s="93"/>
@@ -2864,7 +2859,7 @@
       </c>
       <c r="F8" s="13">
         <f>_xll.qlRateHelperQuoteValue($E8,Trigger)</f>
-        <v>2.8699999999999997E-3</v>
+        <v>2.8799999999999997E-3</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="12" t="b">
@@ -2878,11 +2873,11 @@
       </c>
       <c r="K8" s="11">
         <f>_xll.qlRateHelperEarliestDate($E8,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L8" s="10">
         <f>_xll.qlRateHelperLatestDate($E8,Trigger)</f>
-        <v>41799</v>
+        <v>41800</v>
       </c>
       <c r="M8" s="93"/>
       <c r="N8" s="93"/>
@@ -2899,7 +2894,7 @@
       </c>
       <c r="F9" s="13">
         <f>_xll.qlRateHelperQuoteValue($E9,Trigger)</f>
-        <v>3.2500000000000003E-3</v>
+        <v>3.2700000000000003E-3</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="12" t="b">
@@ -2913,11 +2908,11 @@
       </c>
       <c r="K9" s="11">
         <f>_xll.qlRateHelperEarliestDate($E9,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L9" s="10">
         <f>_xll.qlRateHelperLatestDate($E9,Trigger)</f>
-        <v>41828</v>
+        <v>41830</v>
       </c>
       <c r="M9" s="93"/>
       <c r="N9" s="93"/>
@@ -2934,7 +2929,7 @@
       </c>
       <c r="F10" s="13">
         <f>_xll.qlRateHelperQuoteValue($E10,Trigger)</f>
-        <v>4.2699999999999995E-3</v>
+        <v>4.2599999999999999E-3</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="12" t="b">
@@ -2948,11 +2943,11 @@
       </c>
       <c r="K10" s="11">
         <f>_xll.qlRateHelperEarliestDate($E10,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L10" s="10">
         <f>_xll.qlRateHelperLatestDate($E10,Trigger)</f>
-        <v>41920</v>
+        <v>41922</v>
       </c>
       <c r="Q10" s="31">
         <f>_xll.qlYieldTSDiscount(YieldCurve,K2)</f>
@@ -2971,7 +2966,7 @@
       </c>
       <c r="F11" s="13">
         <f>_xll.qlRateHelperQuoteValue($E11,Trigger)</f>
-        <v>5.1200000000000004E-3</v>
+        <v>5.0899999999999999E-3</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="12" t="b">
@@ -2985,19 +2980,19 @@
       </c>
       <c r="K11" s="11">
         <f>_xll.qlRateHelperEarliestDate($E11,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L11" s="10">
         <f>_xll.qlRateHelperLatestDate($E11,Trigger)</f>
-        <v>42012</v>
+        <v>42016</v>
       </c>
       <c r="O11" s="29">
         <f>_xll.qlYieldTSForwardRate(YieldCurve,K2,L124,"act/365","simple","annual")</f>
-        <v>3.8240967472268877E-2</v>
+        <v>3.7868027043565268E-2</v>
       </c>
       <c r="Q11" s="31">
         <f>_xll.qlYieldTSDiscount(YieldCurve,L124)</f>
-        <v>0.47406685178621577</v>
+        <v>0.47655804307124222</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
@@ -3012,7 +3007,7 @@
       </c>
       <c r="F12" s="6">
         <f>_xll.qlRateHelperQuoteValue($E12,Trigger)</f>
-        <v>6.0299999999999998E-3</v>
+        <v>5.9899999999999997E-3</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="5" t="b">
@@ -3026,11 +3021,11 @@
       </c>
       <c r="K12" s="4">
         <f>_xll.qlRateHelperEarliestDate($E12,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L12" s="3">
         <f>_xll.qlRateHelperLatestDate($E12,Trigger)</f>
-        <v>42102</v>
+        <v>42104</v>
       </c>
       <c r="Q12" s="31"/>
     </row>
@@ -3073,7 +3068,7 @@
       </c>
       <c r="Q13" s="31">
         <f>1/Q11</f>
-        <v>2.1094071357913839</v>
+        <v>2.0983802803019875</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
@@ -3119,7 +3114,7 @@
       </c>
       <c r="Q14" s="30">
         <f>(L124-K2)/365</f>
-        <v>29.030136986301368</v>
+        <v>29.024657534246575</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
@@ -3161,11 +3156,11 @@
       </c>
       <c r="Q15" s="29">
         <f>(Q13^(1/Q14))-1</f>
-        <v>2.6044841013853182E-2</v>
+        <v>2.5864557419962964E-2</v>
       </c>
       <c r="R15" s="29">
         <f>(Q13-1)/Q14</f>
-        <v>3.8215704469975006E-2</v>
+        <v>3.7843005692866284E-2</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
@@ -3875,7 +3870,7 @@
       </c>
       <c r="F34" s="28">
         <f>_xll.qlRateHelperQuoteValue($E34,Trigger)</f>
-        <v>99.682500000000005</v>
+        <v>99.6875</v>
       </c>
       <c r="G34" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E34,Trigger)</f>
@@ -3917,7 +3912,7 @@
       </c>
       <c r="F35" s="28">
         <f>_xll.qlRateHelperQuoteValue($E35,Trigger)</f>
-        <v>99.692499999999995</v>
+        <v>99.707499999999996</v>
       </c>
       <c r="G35" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E35,Trigger)</f>
@@ -4043,7 +4038,7 @@
       </c>
       <c r="F38" s="28">
         <f>_xll.qlRateHelperQuoteValue($E38,Trigger)</f>
-        <v>99.707499999999996</v>
+        <v>99.727499999999992</v>
       </c>
       <c r="G38" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E38,Trigger)</f>
@@ -4169,7 +4164,7 @@
       </c>
       <c r="F41" s="28">
         <f>_xll.qlRateHelperQuoteValue($E41,Trigger)</f>
-        <v>99.697499999999991</v>
+        <v>99.717500000000001</v>
       </c>
       <c r="G41" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E41,Trigger)</f>
@@ -4295,7 +4290,7 @@
       </c>
       <c r="F44" s="28">
         <f>_xll.qlRateHelperQuoteValue($E44,Trigger)</f>
-        <v>99.677500000000009</v>
+        <v>99.692499999999995</v>
       </c>
       <c r="G44" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E44,Trigger)</f>
@@ -4337,7 +4332,7 @@
       </c>
       <c r="F45" s="28">
         <f>_xll.qlRateHelperQuoteValue($E45,Trigger)</f>
-        <v>99.637500000000003</v>
+        <v>99.657499999999999</v>
       </c>
       <c r="G45" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E45,Trigger)</f>
@@ -4379,7 +4374,7 @@
       </c>
       <c r="F46" s="28">
         <f>_xll.qlRateHelperQuoteValue($E46,Trigger)</f>
-        <v>99.587500000000006</v>
+        <v>99.612499999999997</v>
       </c>
       <c r="G46" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E46,Trigger)</f>
@@ -4421,7 +4416,7 @@
       </c>
       <c r="F47" s="28">
         <f>_xll.qlRateHelperQuoteValue($E47,Trigger)</f>
-        <v>99.522500000000008</v>
+        <v>99.552500000000009</v>
       </c>
       <c r="G47" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E47,Trigger)</f>
@@ -4463,7 +4458,7 @@
       </c>
       <c r="F48" s="28">
         <f>_xll.qlRateHelperQuoteValue($E48,Trigger)</f>
-        <v>99.442499999999995</v>
+        <v>99.482500000000002</v>
       </c>
       <c r="G48" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E48,Trigger)</f>
@@ -4505,7 +4500,7 @@
       </c>
       <c r="F49" s="28">
         <f>_xll.qlRateHelperQuoteValue($E49,Trigger)</f>
-        <v>99.342500000000001</v>
+        <v>99.397500000000008</v>
       </c>
       <c r="G49" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E49,Trigger)</f>
@@ -4547,7 +4542,7 @@
       </c>
       <c r="F50" s="28">
         <f>_xll.qlRateHelperQuoteValue($E50,Trigger)</f>
-        <v>99.232500000000002</v>
+        <v>99.292500000000004</v>
       </c>
       <c r="G50" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E50,Trigger)</f>
@@ -4589,7 +4584,7 @@
       </c>
       <c r="F51" s="28">
         <f>_xll.qlRateHelperQuoteValue($E51,Trigger)</f>
-        <v>99.115000000000009</v>
+        <v>99.1875</v>
       </c>
       <c r="G51" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E51,Trigger)</f>
@@ -4631,7 +4626,7 @@
       </c>
       <c r="F52" s="28">
         <f>_xll.qlRateHelperQuoteValue($E52,Trigger)</f>
-        <v>99.002499999999998</v>
+        <v>99.087500000000006</v>
       </c>
       <c r="G52" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E52,Trigger)</f>
@@ -4673,7 +4668,7 @@
       </c>
       <c r="F53" s="28">
         <f>_xll.qlRateHelperQuoteValue($E53,Trigger)</f>
-        <v>98.882499999999993</v>
+        <v>98.967500000000001</v>
       </c>
       <c r="G53" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E53,Trigger)</f>
@@ -4715,7 +4710,7 @@
       </c>
       <c r="F54" s="28">
         <f>_xll.qlRateHelperQuoteValue($E54,Trigger)</f>
-        <v>98.762500000000003</v>
+        <v>98.852499999999992</v>
       </c>
       <c r="G54" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E54,Trigger)</f>
@@ -4757,7 +4752,7 @@
       </c>
       <c r="F55" s="28">
         <f>_xll.qlRateHelperQuoteValue($E55,Trigger)</f>
-        <v>98.64500000000001</v>
+        <v>98.732500000000002</v>
       </c>
       <c r="G55" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E55,Trigger)</f>
@@ -4799,7 +4794,7 @@
       </c>
       <c r="F56" s="28">
         <f>_xll.qlRateHelperQuoteValue($E56,Trigger)</f>
-        <v>98.539999999999992</v>
+        <v>98.625</v>
       </c>
       <c r="G56" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E56,Trigger)</f>
@@ -4841,7 +4836,7 @@
       </c>
       <c r="F57" s="28">
         <f>_xll.qlRateHelperQuoteValue($E57,Trigger)</f>
-        <v>98.435000000000002</v>
+        <v>98.517500000000013</v>
       </c>
       <c r="G57" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E57,Trigger)</f>
@@ -4883,7 +4878,7 @@
       </c>
       <c r="F58" s="28">
         <f>_xll.qlRateHelperQuoteValue($E58,Trigger)</f>
-        <v>98.33</v>
+        <v>98.414999999999992</v>
       </c>
       <c r="G58" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E58,Trigger)</f>
@@ -4925,7 +4920,7 @@
       </c>
       <c r="F59" s="28">
         <f>_xll.qlRateHelperQuoteValue($E59,Trigger)</f>
-        <v>98.222499999999997</v>
+        <v>98.297499999999999</v>
       </c>
       <c r="G59" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E59,Trigger)</f>
@@ -4967,7 +4962,7 @@
       </c>
       <c r="F60" s="28">
         <f>_xll.qlRateHelperQuoteValue($E60,Trigger)</f>
-        <v>98.122500000000002</v>
+        <v>98.197499999999991</v>
       </c>
       <c r="G60" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E60,Trigger)</f>
@@ -5009,7 +5004,7 @@
       </c>
       <c r="F61" s="28">
         <f>_xll.qlRateHelperQuoteValue($E61,Trigger)</f>
-        <v>98.015000000000001</v>
+        <v>98.087500000000006</v>
       </c>
       <c r="G61" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E61,Trigger)</f>
@@ -5051,7 +5046,7 @@
       </c>
       <c r="F62" s="28">
         <f>_xll.qlRateHelperQuoteValue($E62,Trigger)</f>
-        <v>97.91</v>
+        <v>97.984999999999999</v>
       </c>
       <c r="G62" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E62,Trigger)</f>
@@ -5093,7 +5088,7 @@
       </c>
       <c r="F63" s="28">
         <f>_xll.qlRateHelperQuoteValue($E63,Trigger)</f>
-        <v>97.814999999999998</v>
+        <v>97.884999999999991</v>
       </c>
       <c r="G63" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E63,Trigger)</f>
@@ -5135,7 +5130,7 @@
       </c>
       <c r="F64" s="28">
         <f>_xll.qlRateHelperQuoteValue($E64,Trigger)</f>
-        <v>97.72</v>
+        <v>97.789999999999992</v>
       </c>
       <c r="G64" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E64,Trigger)</f>
@@ -6284,7 +6279,7 @@
       </c>
       <c r="F93" s="13">
         <f>_xll.qlRateHelperQuoteValue($E93,Trigger)</f>
-        <v>4.2500000000000003E-3</v>
+        <v>4.15E-3</v>
       </c>
       <c r="G93" s="13">
         <f>_xll.qlSwapRateHelperSpread($E93,Trigger)</f>
@@ -6301,11 +6296,11 @@
       </c>
       <c r="K93" s="11">
         <f>_xll.qlRateHelperEarliestDate($E93,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L93" s="10">
         <f>_xll.qlRateHelperLatestDate($E93,Trigger)</f>
-        <v>42102</v>
+        <v>42104</v>
       </c>
       <c r="N93" s="17" t="e">
         <f t="shared" ref="N93:N129" si="8">IF(G93=G130,F93-F130,"--")</f>
@@ -6330,7 +6325,7 @@
       </c>
       <c r="F94" s="13">
         <f>_xll.qlRateHelperQuoteValue($E94,Trigger)</f>
-        <v>4.1200000000000004E-3</v>
+        <v>3.98E-3</v>
       </c>
       <c r="G94" s="13">
         <f>_xll.qlSwapRateHelperSpread($E94,Trigger)</f>
@@ -6347,11 +6342,11 @@
       </c>
       <c r="K94" s="11">
         <f>_xll.qlRateHelperEarliestDate($E94,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L94" s="10">
         <f>_xll.qlRateHelperLatestDate($E94,Trigger)</f>
-        <v>42193</v>
+        <v>42195</v>
       </c>
       <c r="N94" s="17" t="e">
         <f t="shared" si="8"/>
@@ -6376,7 +6371,7 @@
       </c>
       <c r="F95" s="13">
         <f>_xll.qlRateHelperQuoteValue($E95,Trigger)</f>
-        <v>4.4899999999999992E-3</v>
+        <v>4.3499999999999997E-3</v>
       </c>
       <c r="G95" s="13">
         <f>_xll.qlSwapRateHelperSpread($E95,Trigger)</f>
@@ -6393,11 +6388,11 @@
       </c>
       <c r="K95" s="11">
         <f>_xll.qlRateHelperEarliestDate($E95,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L95" s="10">
         <f>_xll.qlRateHelperLatestDate($E95,Trigger)</f>
-        <v>42285</v>
+        <v>42289</v>
       </c>
       <c r="N95" s="17" t="e">
         <f t="shared" si="8"/>
@@ -6422,7 +6417,7 @@
       </c>
       <c r="F96" s="13">
         <f>_xll.qlRateHelperQuoteValue($E96,Trigger)</f>
-        <v>4.5199999999999997E-3</v>
+        <v>4.3499999999999997E-3</v>
       </c>
       <c r="G96" s="13">
         <f>_xll.qlSwapRateHelperSpread($E96,Trigger)</f>
@@ -6439,11 +6434,11 @@
       </c>
       <c r="K96" s="11">
         <f>_xll.qlRateHelperEarliestDate($E96,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L96" s="10">
         <f>_xll.qlRateHelperLatestDate($E96,Trigger)</f>
-        <v>42377</v>
+        <v>42380</v>
       </c>
       <c r="N96" s="17" t="e">
         <f t="shared" si="8"/>
@@ -6468,7 +6463,7 @@
       </c>
       <c r="F97" s="13">
         <f>_xll.qlRateHelperQuoteValue($E97,Trigger)</f>
-        <v>4.8999999999999998E-3</v>
+        <v>4.7199999999999994E-3</v>
       </c>
       <c r="G97" s="13">
         <f>_xll.qlSwapRateHelperSpread($E97,Trigger)</f>
@@ -6485,11 +6480,11 @@
       </c>
       <c r="K97" s="11">
         <f>_xll.qlRateHelperEarliestDate($E97,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L97" s="10">
         <f>_xll.qlRateHelperLatestDate($E97,Trigger)</f>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="N97" s="17" t="e">
         <f t="shared" si="8"/>
@@ -6514,7 +6509,7 @@
       </c>
       <c r="F98" s="13">
         <f>_xll.qlRateHelperQuoteValue($E98,Trigger)</f>
-        <v>6.2700000000000004E-3</v>
+        <v>5.9299999999999995E-3</v>
       </c>
       <c r="G98" s="13">
         <f>_xll.qlSwapRateHelperSpread($E98,Trigger)</f>
@@ -6531,7 +6526,7 @@
       </c>
       <c r="K98" s="11">
         <f>_xll.qlRateHelperEarliestDate($E98,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L98" s="10">
         <f>_xll.qlRateHelperLatestDate($E98,Trigger)</f>
@@ -6560,7 +6555,7 @@
       </c>
       <c r="F99" s="13">
         <f>_xll.qlRateHelperQuoteValue($E99,Trigger)</f>
-        <v>8.0600000000000012E-3</v>
+        <v>7.6100000000000004E-3</v>
       </c>
       <c r="G99" s="13">
         <f>_xll.qlSwapRateHelperSpread($E99,Trigger)</f>
@@ -6577,11 +6572,11 @@
       </c>
       <c r="K99" s="11">
         <f>_xll.qlRateHelperEarliestDate($E99,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L99" s="10">
         <f>_xll.qlRateHelperLatestDate($E99,Trigger)</f>
-        <v>43199</v>
+        <v>43200</v>
       </c>
       <c r="N99" s="17" t="e">
         <f t="shared" si="8"/>
@@ -6606,7 +6601,7 @@
       </c>
       <c r="F100" s="13">
         <f>_xll.qlRateHelperQuoteValue($E100,Trigger)</f>
-        <v>9.9399999999999992E-3</v>
+        <v>9.4500000000000001E-3</v>
       </c>
       <c r="G100" s="13">
         <f>_xll.qlSwapRateHelperSpread($E100,Trigger)</f>
@@ -6623,11 +6618,11 @@
       </c>
       <c r="K100" s="11">
         <f>_xll.qlRateHelperEarliestDate($E100,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L100" s="10">
         <f>_xll.qlRateHelperLatestDate($E100,Trigger)</f>
-        <v>43563</v>
+        <v>43565</v>
       </c>
       <c r="N100" s="17" t="e">
         <f t="shared" si="8"/>
@@ -6652,7 +6647,7 @@
       </c>
       <c r="F101" s="13">
         <f>_xll.qlRateHelperQuoteValue($E101,Trigger)</f>
-        <v>1.183E-2</v>
+        <v>1.1310000000000001E-2</v>
       </c>
       <c r="G101" s="13">
         <f>_xll.qlSwapRateHelperSpread($E101,Trigger)</f>
@@ -6669,11 +6664,11 @@
       </c>
       <c r="K101" s="11">
         <f>_xll.qlRateHelperEarliestDate($E101,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L101" s="10">
         <f>_xll.qlRateHelperLatestDate($E101,Trigger)</f>
-        <v>43929</v>
+        <v>43935</v>
       </c>
       <c r="N101" s="17" t="e">
         <f t="shared" si="8"/>
@@ -6698,7 +6693,7 @@
       </c>
       <c r="F102" s="13">
         <f>_xll.qlRateHelperQuoteValue($E102,Trigger)</f>
-        <v>1.363E-2</v>
+        <v>1.3100000000000001E-2</v>
       </c>
       <c r="G102" s="13">
         <f>_xll.qlSwapRateHelperSpread($E102,Trigger)</f>
@@ -6715,11 +6710,11 @@
       </c>
       <c r="K102" s="11">
         <f>_xll.qlRateHelperEarliestDate($E102,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L102" s="10">
         <f>_xll.qlRateHelperLatestDate($E102,Trigger)</f>
-        <v>44294</v>
+        <v>44298</v>
       </c>
       <c r="N102" s="17" t="e">
         <f t="shared" si="8"/>
@@ -6744,7 +6739,7 @@
       </c>
       <c r="F103" s="13">
         <f>_xll.qlRateHelperQuoteValue($E103,Trigger)</f>
-        <v>1.529E-2</v>
+        <v>1.4760000000000001E-2</v>
       </c>
       <c r="G103" s="13">
         <f>_xll.qlSwapRateHelperSpread($E103,Trigger)</f>
@@ -6761,11 +6756,11 @@
       </c>
       <c r="K103" s="11">
         <f>_xll.qlRateHelperEarliestDate($E103,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L103" s="10">
         <f>_xll.qlRateHelperLatestDate($E103,Trigger)</f>
-        <v>44659</v>
+        <v>44662</v>
       </c>
       <c r="N103" s="17" t="e">
         <f t="shared" si="8"/>
@@ -6790,7 +6785,7 @@
       </c>
       <c r="F104" s="13">
         <f>_xll.qlRateHelperQuoteValue($E104,Trigger)</f>
-        <v>1.6819999999999998E-2</v>
+        <v>1.6280000000000003E-2</v>
       </c>
       <c r="G104" s="13">
         <f>_xll.qlSwapRateHelperSpread($E104,Trigger)</f>
@@ -6807,7 +6802,7 @@
       </c>
       <c r="K104" s="11">
         <f>_xll.qlRateHelperEarliestDate($E104,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L104" s="10">
         <f>_xll.qlRateHelperLatestDate($E104,Trigger)</f>
@@ -6836,7 +6831,7 @@
       </c>
       <c r="F105" s="13">
         <f>_xll.qlRateHelperQuoteValue($E105,Trigger)</f>
-        <v>1.8180000000000002E-2</v>
+        <v>1.7639999999999999E-2</v>
       </c>
       <c r="G105" s="13">
         <f>_xll.qlSwapRateHelperSpread($E105,Trigger)</f>
@@ -6853,11 +6848,11 @@
       </c>
       <c r="K105" s="11">
         <f>_xll.qlRateHelperEarliestDate($E105,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L105" s="10">
         <f>_xll.qlRateHelperLatestDate($E105,Trigger)</f>
-        <v>45390</v>
+        <v>45392</v>
       </c>
       <c r="N105" s="17" t="e">
         <f t="shared" si="8"/>
@@ -6882,7 +6877,7 @@
       </c>
       <c r="F106" s="13">
         <f>_xll.qlRateHelperQuoteValue($E106,Trigger)</f>
-        <v>1.9379999999999998E-2</v>
+        <v>1.8860000000000002E-2</v>
       </c>
       <c r="G106" s="13">
         <f>_xll.qlSwapRateHelperSpread($E106,Trigger)</f>
@@ -6899,11 +6894,11 @@
       </c>
       <c r="K106" s="11">
         <f>_xll.qlRateHelperEarliestDate($E106,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L106" s="10">
         <f>_xll.qlRateHelperLatestDate($E106,Trigger)</f>
-        <v>45755</v>
+        <v>45757</v>
       </c>
       <c r="N106" s="17" t="e">
         <f t="shared" si="8"/>
@@ -6928,7 +6923,7 @@
       </c>
       <c r="F107" s="13">
         <f>_xll.qlRateHelperQuoteValue($E107,Trigger)</f>
-        <v>2.043E-2</v>
+        <v>1.992E-2</v>
       </c>
       <c r="G107" s="13">
         <f>_xll.qlSwapRateHelperSpread($E107,Trigger)</f>
@@ -6945,11 +6940,11 @@
       </c>
       <c r="K107" s="11">
         <f>_xll.qlRateHelperEarliestDate($E107,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L107" s="10">
         <f>_xll.qlRateHelperLatestDate($E107,Trigger)</f>
-        <v>46120</v>
+        <v>46122</v>
       </c>
       <c r="N107" s="17" t="e">
         <f t="shared" si="8"/>
@@ -6974,7 +6969,7 @@
       </c>
       <c r="F108" s="13">
         <f>_xll.qlRateHelperQuoteValue($E108,Trigger)</f>
-        <v>2.1320000000000002E-2</v>
+        <v>2.0830000000000001E-2</v>
       </c>
       <c r="G108" s="13">
         <f>_xll.qlSwapRateHelperSpread($E108,Trigger)</f>
@@ -6991,11 +6986,11 @@
       </c>
       <c r="K108" s="11">
         <f>_xll.qlRateHelperEarliestDate($E108,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L108" s="10">
         <f>_xll.qlRateHelperLatestDate($E108,Trigger)</f>
-        <v>46485</v>
+        <v>46489</v>
       </c>
       <c r="N108" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7020,7 +7015,7 @@
       </c>
       <c r="F109" s="13">
         <f>_xll.qlRateHelperQuoteValue($E109,Trigger)</f>
-        <v>2.2080000000000002E-2</v>
+        <v>2.1610000000000001E-2</v>
       </c>
       <c r="G109" s="13">
         <f>_xll.qlSwapRateHelperSpread($E109,Trigger)</f>
@@ -7037,7 +7032,7 @@
       </c>
       <c r="K109" s="11">
         <f>_xll.qlRateHelperEarliestDate($E109,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L109" s="10">
         <f>_xll.qlRateHelperLatestDate($E109,Trigger)</f>
@@ -7066,7 +7061,7 @@
       </c>
       <c r="F110" s="13">
         <f>_xll.qlRateHelperQuoteValue($E110,Trigger)</f>
-        <v>2.2709999999999998E-2</v>
+        <v>2.2250000000000002E-2</v>
       </c>
       <c r="G110" s="13">
         <f>_xll.qlSwapRateHelperSpread($E110,Trigger)</f>
@@ -7083,11 +7078,11 @@
       </c>
       <c r="K110" s="11">
         <f>_xll.qlRateHelperEarliestDate($E110,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L110" s="10">
         <f>_xll.qlRateHelperLatestDate($E110,Trigger)</f>
-        <v>47217</v>
+        <v>47218</v>
       </c>
       <c r="N110" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7112,7 +7107,7 @@
       </c>
       <c r="F111" s="13">
         <f>_xll.qlRateHelperQuoteValue($E111,Trigger)</f>
-        <v>2.3220000000000001E-2</v>
+        <v>2.2780000000000002E-2</v>
       </c>
       <c r="G111" s="13">
         <f>_xll.qlSwapRateHelperSpread($E111,Trigger)</f>
@@ -7129,11 +7124,11 @@
       </c>
       <c r="K111" s="11">
         <f>_xll.qlRateHelperEarliestDate($E111,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L111" s="10">
         <f>_xll.qlRateHelperLatestDate($E111,Trigger)</f>
-        <v>47581</v>
+        <v>47583</v>
       </c>
       <c r="N111" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7158,7 +7153,7 @@
       </c>
       <c r="F112" s="13">
         <f>_xll.qlRateHelperQuoteValue($E112,Trigger)</f>
-        <v>2.3629999999999998E-2</v>
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="G112" s="13">
         <f>_xll.qlSwapRateHelperSpread($E112,Trigger)</f>
@@ -7175,11 +7170,11 @@
       </c>
       <c r="K112" s="11">
         <f>_xll.qlRateHelperEarliestDate($E112,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L112" s="10">
         <f>_xll.qlRateHelperLatestDate($E112,Trigger)</f>
-        <v>47946</v>
+        <v>47948</v>
       </c>
       <c r="N112" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7204,7 +7199,7 @@
       </c>
       <c r="F113" s="13">
         <f>_xll.qlRateHelperQuoteValue($E113,Trigger)</f>
-        <v>2.3959999999999999E-2</v>
+        <v>2.3550000000000001E-2</v>
       </c>
       <c r="G113" s="13">
         <f>_xll.qlSwapRateHelperSpread($E113,Trigger)</f>
@@ -7221,11 +7216,11 @@
       </c>
       <c r="K113" s="11">
         <f>_xll.qlRateHelperEarliestDate($E113,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L113" s="10">
         <f>_xll.qlRateHelperLatestDate($E113,Trigger)</f>
-        <v>48312</v>
+        <v>48316</v>
       </c>
       <c r="N113" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7250,7 +7245,7 @@
       </c>
       <c r="F114" s="13">
         <f>_xll.qlRateHelperQuoteValue($E114,Trigger)</f>
-        <v>2.4220000000000002E-2</v>
+        <v>2.3820000000000001E-2</v>
       </c>
       <c r="G114" s="13">
         <f>_xll.qlSwapRateHelperSpread($E114,Trigger)</f>
@@ -7267,11 +7262,11 @@
       </c>
       <c r="K114" s="11">
         <f>_xll.qlRateHelperEarliestDate($E114,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L114" s="10">
         <f>_xll.qlRateHelperLatestDate($E114,Trigger)</f>
-        <v>48677</v>
+        <v>48680</v>
       </c>
       <c r="N114" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7296,7 +7291,7 @@
       </c>
       <c r="F115" s="13">
         <f>_xll.qlRateHelperQuoteValue($E115,Trigger)</f>
-        <v>2.4420000000000001E-2</v>
+        <v>2.4039999999999999E-2</v>
       </c>
       <c r="G115" s="13">
         <f>_xll.qlSwapRateHelperSpread($E115,Trigger)</f>
@@ -7313,7 +7308,7 @@
       </c>
       <c r="K115" s="11">
         <f>_xll.qlRateHelperEarliestDate($E115,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L115" s="10">
         <f>_xll.qlRateHelperLatestDate($E115,Trigger)</f>
@@ -7342,7 +7337,7 @@
       </c>
       <c r="F116" s="13">
         <f>_xll.qlRateHelperQuoteValue($E116,Trigger)</f>
-        <v>2.4580000000000001E-2</v>
+        <v>2.4220000000000002E-2</v>
       </c>
       <c r="G116" s="13">
         <f>_xll.qlSwapRateHelperSpread($E116,Trigger)</f>
@@ -7359,11 +7354,11 @@
       </c>
       <c r="K116" s="11">
         <f>_xll.qlRateHelperEarliestDate($E116,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L116" s="10">
         <f>_xll.qlRateHelperLatestDate($E116,Trigger)</f>
-        <v>49408</v>
+        <v>49409</v>
       </c>
       <c r="N116" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7388,7 +7383,7 @@
       </c>
       <c r="F117" s="13">
         <f>_xll.qlRateHelperQuoteValue($E117,Trigger)</f>
-        <v>2.4709999999999999E-2</v>
+        <v>2.4369999999999999E-2</v>
       </c>
       <c r="G117" s="13">
         <f>_xll.qlSwapRateHelperSpread($E117,Trigger)</f>
@@ -7405,11 +7400,11 @@
       </c>
       <c r="K117" s="11">
         <f>_xll.qlRateHelperEarliestDate($E117,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L117" s="10">
         <f>_xll.qlRateHelperLatestDate($E117,Trigger)</f>
-        <v>49773</v>
+        <v>49775</v>
       </c>
       <c r="N117" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7434,7 +7429,7 @@
       </c>
       <c r="F118" s="13">
         <f>_xll.qlRateHelperQuoteValue($E118,Trigger)</f>
-        <v>2.4809999999999999E-2</v>
+        <v>2.4479999999999998E-2</v>
       </c>
       <c r="G118" s="13">
         <f>_xll.qlSwapRateHelperSpread($E118,Trigger)</f>
@@ -7451,11 +7446,11 @@
       </c>
       <c r="K118" s="11">
         <f>_xll.qlRateHelperEarliestDate($E118,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L118" s="10">
         <f>_xll.qlRateHelperLatestDate($E118,Trigger)</f>
-        <v>50138</v>
+        <v>50140</v>
       </c>
       <c r="N118" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7480,7 +7475,7 @@
       </c>
       <c r="F119" s="13">
         <f>_xll.qlRateHelperQuoteValue($E119,Trigger)</f>
-        <v>2.4889999999999999E-2</v>
+        <v>2.4569999999999998E-2</v>
       </c>
       <c r="G119" s="13">
         <f>_xll.qlSwapRateHelperSpread($E119,Trigger)</f>
@@ -7497,11 +7492,11 @@
       </c>
       <c r="K119" s="11">
         <f>_xll.qlRateHelperEarliestDate($E119,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L119" s="10">
         <f>_xll.qlRateHelperLatestDate($E119,Trigger)</f>
-        <v>50503</v>
+        <v>50507</v>
       </c>
       <c r="N119" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7526,7 +7521,7 @@
       </c>
       <c r="F120" s="13">
         <f>_xll.qlRateHelperQuoteValue($E120,Trigger)</f>
-        <v>2.4939999999999997E-2</v>
+        <v>2.4639999999999999E-2</v>
       </c>
       <c r="G120" s="13">
         <f>_xll.qlSwapRateHelperSpread($E120,Trigger)</f>
@@ -7543,7 +7538,7 @@
       </c>
       <c r="K120" s="11">
         <f>_xll.qlRateHelperEarliestDate($E120,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L120" s="10">
         <f>_xll.qlRateHelperLatestDate($E120,Trigger)</f>
@@ -7572,7 +7567,7 @@
       </c>
       <c r="F121" s="13">
         <f>_xll.qlRateHelperQuoteValue($E121,Trigger)</f>
-        <v>2.4980000000000002E-2</v>
+        <v>2.469E-2</v>
       </c>
       <c r="G121" s="13">
         <f>_xll.qlSwapRateHelperSpread($E121,Trigger)</f>
@@ -7589,11 +7584,11 @@
       </c>
       <c r="K121" s="11">
         <f>_xll.qlRateHelperEarliestDate($E121,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L121" s="10">
         <f>_xll.qlRateHelperLatestDate($E121,Trigger)</f>
-        <v>51235</v>
+        <v>51236</v>
       </c>
       <c r="N121" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7618,7 +7613,7 @@
       </c>
       <c r="F122" s="13">
         <f>_xll.qlRateHelperQuoteValue($E122,Trigger)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>2.4729999999999999E-2</v>
       </c>
       <c r="G122" s="13">
         <f>_xll.qlSwapRateHelperSpread($E122,Trigger)</f>
@@ -7635,11 +7630,11 @@
       </c>
       <c r="K122" s="11">
         <f>_xll.qlRateHelperEarliestDate($E122,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L122" s="10">
         <f>_xll.qlRateHelperLatestDate($E122,Trigger)</f>
-        <v>51599</v>
+        <v>51601</v>
       </c>
       <c r="N122" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7664,7 +7659,7 @@
       </c>
       <c r="F123" s="13">
         <f>_xll.qlRateHelperQuoteValue($E123,Trigger)</f>
-        <v>2.5019999999999997E-2</v>
+        <v>2.4760000000000001E-2</v>
       </c>
       <c r="G123" s="13">
         <f>_xll.qlSwapRateHelperSpread($E123,Trigger)</f>
@@ -7681,11 +7676,11 @@
       </c>
       <c r="K123" s="11">
         <f>_xll.qlRateHelperEarliestDate($E123,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L123" s="10">
         <f>_xll.qlRateHelperLatestDate($E123,Trigger)</f>
-        <v>51964</v>
+        <v>51966</v>
       </c>
       <c r="N123" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7710,7 +7705,7 @@
       </c>
       <c r="F124" s="13">
         <f>_xll.qlRateHelperQuoteValue($E124,Trigger)</f>
-        <v>2.503E-2</v>
+        <v>2.479E-2</v>
       </c>
       <c r="G124" s="13">
         <f>_xll.qlSwapRateHelperSpread($E124,Trigger)</f>
@@ -7727,11 +7722,11 @@
       </c>
       <c r="K124" s="11">
         <f>_xll.qlRateHelperEarliestDate($E124,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L124" s="10">
         <f>_xll.qlRateHelperLatestDate($E124,Trigger)</f>
-        <v>52329</v>
+        <v>52331</v>
       </c>
       <c r="N124" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7756,7 +7751,7 @@
       </c>
       <c r="F125" s="13">
         <f>_xll.qlRateHelperQuoteValue($E125,Trigger)</f>
-        <v>2.504E-2</v>
+        <v>2.4809999999999999E-2</v>
       </c>
       <c r="G125" s="13">
         <f>_xll.qlSwapRateHelperSpread($E125,Trigger)</f>
@@ -7773,11 +7768,11 @@
       </c>
       <c r="K125" s="11">
         <f>_xll.qlRateHelperEarliestDate($E125,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L125" s="10">
         <f>_xll.qlRateHelperLatestDate($E125,Trigger)</f>
-        <v>52695</v>
+        <v>52698</v>
       </c>
       <c r="N125" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7802,7 +7797,7 @@
       </c>
       <c r="F126" s="13">
         <f>_xll.qlRateHelperQuoteValue($E126,Trigger)</f>
-        <v>2.512E-2</v>
+        <v>2.496E-2</v>
       </c>
       <c r="G126" s="13">
         <f>_xll.qlSwapRateHelperSpread($E126,Trigger)</f>
@@ -7819,11 +7814,11 @@
       </c>
       <c r="K126" s="11">
         <f>_xll.qlRateHelperEarliestDate($E126,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L126" s="10">
         <f>_xll.qlRateHelperLatestDate($E126,Trigger)</f>
-        <v>54521</v>
+        <v>54525</v>
       </c>
       <c r="N126" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7848,7 +7843,7 @@
       </c>
       <c r="F127" s="13">
         <f>_xll.qlRateHelperQuoteValue($E127,Trigger)</f>
-        <v>2.5259999999999998E-2</v>
+        <v>2.5140000000000003E-2</v>
       </c>
       <c r="G127" s="13">
         <f>_xll.qlSwapRateHelperSpread($E127,Trigger)</f>
@@ -7865,11 +7860,11 @@
       </c>
       <c r="K127" s="11">
         <f>_xll.qlRateHelperEarliestDate($E127,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L127" s="10">
         <f>_xll.qlRateHelperLatestDate($E127,Trigger)</f>
-        <v>56347</v>
+        <v>56349</v>
       </c>
       <c r="N127" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7894,7 +7889,7 @@
       </c>
       <c r="F128" s="13">
         <f>_xll.qlRateHelperQuoteValue($E128,Trigger)</f>
-        <v>2.5360000000000001E-2</v>
+        <v>2.53E-2</v>
       </c>
       <c r="G128" s="13">
         <f>_xll.qlSwapRateHelperSpread($E128,Trigger)</f>
@@ -7911,11 +7906,11 @@
       </c>
       <c r="K128" s="11">
         <f>_xll.qlRateHelperEarliestDate($E128,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L128" s="10">
         <f>_xll.qlRateHelperLatestDate($E128,Trigger)</f>
-        <v>60000</v>
+        <v>60002</v>
       </c>
       <c r="N128" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7940,7 +7935,7 @@
       </c>
       <c r="F129" s="6">
         <f>_xll.qlRateHelperQuoteValue($E129,Trigger)</f>
-        <v>2.5489999999999999E-2</v>
+        <v>2.5430000000000001E-2</v>
       </c>
       <c r="G129" s="6">
         <f>_xll.qlSwapRateHelperSpread($E129,Trigger)</f>
@@ -7957,11 +7952,11 @@
       </c>
       <c r="K129" s="4">
         <f>_xll.qlRateHelperEarliestDate($E129,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L129" s="3">
         <f>_xll.qlRateHelperLatestDate($E129,Trigger)</f>
-        <v>63653</v>
+        <v>63654</v>
       </c>
       <c r="N129" s="17" t="e">
         <f t="shared" si="8"/>
@@ -9538,8 +9533,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L126"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -9558,10 +9553,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="220" t="s">
+      <c r="A1" s="224" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="221"/>
+      <c r="B1" s="225"/>
       <c r="D1" s="56" t="s">
         <v>73</v>
       </c>
@@ -9577,7 +9572,7 @@
       </c>
       <c r="I1" s="37">
         <f t="array" ref="I1:I126">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
-        <v>2.6360825536504325E-3</v>
+        <v>2.5347134211560463E-3</v>
       </c>
       <c r="K1" s="209"/>
       <c r="L1" s="209"/>
@@ -9595,7 +9590,7 @@
       </c>
       <c r="E2" s="44">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>2.5999999999999999E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="F2" s="44" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -9603,14 +9598,14 @@
       </c>
       <c r="G2" s="43">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41733</v>
+        <v>41737</v>
       </c>
       <c r="H2" s="42">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41736</v>
+        <v>41738</v>
       </c>
       <c r="I2" s="37">
-        <v>2.6360825536504325E-3</v>
+        <v>2.5347134211560463E-3</v>
       </c>
       <c r="K2" s="90"/>
       <c r="L2" s="91"/>
@@ -9627,7 +9622,7 @@
       </c>
       <c r="E3" s="44">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>2.5999999999999999E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="F3" s="44" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -9635,14 +9630,14 @@
       </c>
       <c r="G3" s="43">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41736</v>
+        <v>41738</v>
       </c>
       <c r="H3" s="42">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="I3" s="37">
-        <v>2.6360873132096167E-3</v>
+        <v>2.5347134211412131E-3</v>
       </c>
       <c r="K3" s="90"/>
       <c r="L3" s="91"/>
@@ -9659,7 +9654,7 @@
       </c>
       <c r="E4" s="44">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>2.5999999999999999E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="F4" s="44" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -9667,14 +9662,14 @@
       </c>
       <c r="G4" s="43">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H4" s="42">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41738</v>
+        <v>41740</v>
       </c>
       <c r="I4" s="37">
-        <v>2.6360901689363339E-3</v>
+        <v>2.5347134211214572E-3</v>
       </c>
       <c r="K4" s="90"/>
       <c r="L4" s="91"/>
@@ -9691,7 +9686,7 @@
       </c>
       <c r="E5" s="44">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>2.1199999999999999E-3</v>
+        <v>2.14E-3</v>
       </c>
       <c r="F5" s="44" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -9699,14 +9694,14 @@
       </c>
       <c r="G5" s="43">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H5" s="42">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41744</v>
+        <v>41746</v>
       </c>
       <c r="I5" s="37">
-        <v>2.326377295945265E-3</v>
+        <v>2.2507962678502539E-3</v>
       </c>
       <c r="K5" s="90"/>
       <c r="L5" s="91"/>
@@ -9724,7 +9719,7 @@
       </c>
       <c r="E6" s="44">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>2.2300000000000002E-3</v>
+        <v>2.2599999999999999E-3</v>
       </c>
       <c r="F6" s="44" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -9732,14 +9727,14 @@
       </c>
       <c r="G6" s="43">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H6" s="42">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41751</v>
+        <v>41753</v>
       </c>
       <c r="I6" s="37">
-        <v>2.3442548837536593E-3</v>
+        <v>2.3217163534987209E-3</v>
       </c>
       <c r="K6" s="90"/>
       <c r="L6" s="91"/>
@@ -9747,7 +9742,7 @@
     <row r="7" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_RateHelpersSelected#0002</v>
+        <v>EUR_YCSTDRH_RateHelpersSelected#0001</v>
       </c>
       <c r="B7" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -9758,7 +9753,7 @@
       </c>
       <c r="E7" s="44">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>2.49E-3</v>
+        <v>2.5100000000000001E-3</v>
       </c>
       <c r="F7" s="44" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -9766,14 +9761,14 @@
       </c>
       <c r="G7" s="43">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H7" s="42">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41767</v>
+        <v>41771</v>
       </c>
       <c r="I7" s="37">
-        <v>2.5374703698236591E-3</v>
+        <v>2.54399703432893E-3</v>
       </c>
       <c r="K7" s="90"/>
       <c r="L7" s="91"/>
@@ -9784,7 +9779,7 @@
       </c>
       <c r="E8" s="44">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>2.8699999999999997E-3</v>
+        <v>2.8799999999999997E-3</v>
       </c>
       <c r="F8" s="44" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -9792,14 +9787,14 @@
       </c>
       <c r="G8" s="43">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H8" s="42">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>41799</v>
+        <v>41800</v>
       </c>
       <c r="I8" s="37">
-        <v>2.8925934266397437E-3</v>
+        <v>2.9070790428210838E-3</v>
       </c>
       <c r="K8" s="90"/>
       <c r="L8" s="91"/>
@@ -9810,7 +9805,7 @@
       </c>
       <c r="E9" s="44">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>3.2500000000000003E-3</v>
+        <v>3.2700000000000003E-3</v>
       </c>
       <c r="F9" s="44" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -9818,14 +9813,14 @@
       </c>
       <c r="G9" s="43">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H9" s="42">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>41828</v>
+        <v>41830</v>
       </c>
       <c r="I9" s="37">
-        <v>3.2660935249379979E-3</v>
+        <v>3.297287321256866E-3</v>
       </c>
       <c r="K9" s="90"/>
       <c r="L9" s="91"/>
@@ -9836,7 +9831,7 @@
       </c>
       <c r="E10" s="44">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>4.2699999999999995E-3</v>
+        <v>4.2599999999999999E-3</v>
       </c>
       <c r="F10" s="44" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -9844,14 +9839,14 @@
       </c>
       <c r="G10" s="43">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H10" s="42">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>41920</v>
+        <v>41922</v>
       </c>
       <c r="I10" s="37">
-        <v>4.288495571054431E-3</v>
+        <v>4.2952559277199655E-3</v>
       </c>
       <c r="K10" s="90"/>
       <c r="L10" s="91"/>
@@ -9862,7 +9857,7 @@
       </c>
       <c r="E11" s="44">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>5.1200000000000004E-3</v>
+        <v>5.0899999999999999E-3</v>
       </c>
       <c r="F11" s="44" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -9870,14 +9865,14 @@
       </c>
       <c r="G11" s="43">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H11" s="42">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>42012</v>
+        <v>42016</v>
       </c>
       <c r="I11" s="37">
-        <v>5.1444999940202293E-3</v>
+        <v>5.1318629132772898E-3</v>
       </c>
       <c r="K11" s="90"/>
       <c r="L11" s="91"/>
@@ -9888,7 +9883,7 @@
       </c>
       <c r="E12" s="44">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>3.0250000000000554E-3</v>
+        <v>2.8249999999999664E-3</v>
       </c>
       <c r="F12" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -9903,7 +9898,7 @@
         <v>42080</v>
       </c>
       <c r="I12" s="37">
-        <v>4.4537647618348164E-3</v>
+        <v>4.3659093064036588E-3</v>
       </c>
       <c r="K12" s="90"/>
       <c r="L12" s="91"/>
@@ -9914,7 +9909,7 @@
       </c>
       <c r="E13" s="44">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>3.2249999999999224E-3</v>
+        <v>3.0750000000000499E-3</v>
       </c>
       <c r="F13" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -9929,7 +9924,7 @@
         <v>42173</v>
       </c>
       <c r="I13" s="37">
-        <v>4.2037993656436267E-3</v>
+        <v>4.1000132976935057E-3</v>
       </c>
       <c r="K13" s="90"/>
       <c r="L13" s="91"/>
@@ -9940,7 +9935,7 @@
       </c>
       <c r="E14" s="44">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>3.6249999999999893E-3</v>
+        <v>3.4250000000000114E-3</v>
       </c>
       <c r="F14" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -9955,7 +9950,7 @@
         <v>42264</v>
       </c>
       <c r="I14" s="37">
-        <v>4.1141681469295333E-3</v>
+        <v>3.9925733336433917E-3</v>
       </c>
       <c r="K14" s="90"/>
       <c r="L14" s="91"/>
@@ -9966,7 +9961,7 @@
       </c>
       <c r="E15" s="44">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>4.1249999999999343E-3</v>
+        <v>3.8750000000000728E-3</v>
       </c>
       <c r="F15" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -9981,7 +9976,7 @@
         <v>42354</v>
       </c>
       <c r="I15" s="37">
-        <v>4.1246721478199024E-3</v>
+        <v>3.9838933298715429E-3</v>
       </c>
       <c r="K15" s="90"/>
       <c r="L15" s="91"/>
@@ -9992,7 +9987,7 @@
       </c>
       <c r="E16" s="44">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>4.7749999999999737E-3</v>
+        <v>4.4749999999998957E-3</v>
       </c>
       <c r="F16" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
@@ -10007,7 +10002,7 @@
         <v>42445</v>
       </c>
       <c r="I16" s="37">
-        <v>4.2158929856864272E-3</v>
+        <v>4.0546747764418425E-3</v>
       </c>
       <c r="K16" s="90"/>
       <c r="L16" s="91"/>
@@ -10018,7 +10013,7 @@
       </c>
       <c r="E17" s="44">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>5.5749999999999966E-3</v>
+        <v>5.1749999999999297E-3</v>
       </c>
       <c r="F17" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -10033,7 +10028,7 @@
         <v>42537</v>
       </c>
       <c r="I17" s="37">
-        <v>4.3798125915997937E-3</v>
+        <v>4.1913791613881661E-3</v>
       </c>
       <c r="K17" s="90"/>
       <c r="L17" s="91"/>
@@ -10044,7 +10039,7 @@
       </c>
       <c r="E18" s="44">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>6.2700000000000004E-3</v>
+        <v>5.9299999999999995E-3</v>
       </c>
       <c r="F18" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
@@ -10052,14 +10047,14 @@
       </c>
       <c r="G18" s="43">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H18" s="42">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
         <v>42835</v>
       </c>
       <c r="I18" s="37">
-        <v>6.2438326295119508E-3</v>
+        <v>5.9113120081767364E-3</v>
       </c>
       <c r="K18" s="90"/>
       <c r="L18" s="91"/>
@@ -10070,7 +10065,7 @@
       </c>
       <c r="E19" s="44">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>8.0600000000000012E-3</v>
+        <v>7.6100000000000004E-3</v>
       </c>
       <c r="F19" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
@@ -10078,14 +10073,14 @@
       </c>
       <c r="G19" s="43">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H19" s="42">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>43199</v>
+        <v>43200</v>
       </c>
       <c r="I19" s="37">
-        <v>8.0409317391794913E-3</v>
+        <v>7.5982845256541125E-3</v>
       </c>
       <c r="K19" s="90"/>
       <c r="L19" s="91"/>
@@ -10096,7 +10091,7 @@
       </c>
       <c r="E20" s="44">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>9.9399999999999992E-3</v>
+        <v>9.4500000000000001E-3</v>
       </c>
       <c r="F20" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
@@ -10104,14 +10099,14 @@
       </c>
       <c r="G20" s="43">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H20" s="42">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>43563</v>
+        <v>43565</v>
       </c>
       <c r="I20" s="37">
-        <v>9.9403538140249211E-3</v>
+        <v>9.4570289026728888E-3</v>
       </c>
       <c r="K20" s="90"/>
       <c r="L20" s="91"/>
@@ -10122,7 +10117,7 @@
       </c>
       <c r="E21" s="44">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>1.183E-2</v>
+        <v>1.1310000000000001E-2</v>
       </c>
       <c r="F21" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -10130,14 +10125,14 @@
       </c>
       <c r="G21" s="43">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H21" s="42">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>43929</v>
+        <v>43935</v>
       </c>
       <c r="I21" s="37">
-        <v>1.186026115229427E-2</v>
+        <v>1.1345741068119182E-2</v>
       </c>
       <c r="K21" s="90"/>
       <c r="L21" s="91"/>
@@ -10148,7 +10143,7 @@
       </c>
       <c r="E22" s="44">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>1.363E-2</v>
+        <v>1.3100000000000001E-2</v>
       </c>
       <c r="F22" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -10156,14 +10151,14 @@
       </c>
       <c r="G22" s="43">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H22" s="42">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>44294</v>
+        <v>44298</v>
       </c>
       <c r="I22" s="37">
-        <v>1.3711735899891034E-2</v>
+        <v>1.3185918635637461E-2</v>
       </c>
       <c r="K22" s="90"/>
       <c r="L22" s="91"/>
@@ -10174,7 +10169,7 @@
       </c>
       <c r="E23" s="44">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>1.529E-2</v>
+        <v>1.4760000000000001E-2</v>
       </c>
       <c r="F23" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
@@ -10182,14 +10177,14 @@
       </c>
       <c r="G23" s="43">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H23" s="42">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>44659</v>
+        <v>44662</v>
       </c>
       <c r="I23" s="37">
-        <v>1.5437462538733383E-2</v>
+        <v>1.4910361429767561E-2</v>
       </c>
       <c r="K23" s="90"/>
       <c r="L23" s="91"/>
@@ -10200,7 +10195,7 @@
       </c>
       <c r="E24" s="44">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>1.6819999999999998E-2</v>
+        <v>1.6280000000000003E-2</v>
       </c>
       <c r="F24" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
@@ -10208,14 +10203,14 @@
       </c>
       <c r="G24" s="43">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H24" s="42">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
         <v>45027</v>
       </c>
       <c r="I24" s="37">
-        <v>1.7046414891958721E-2</v>
+        <v>1.6507186315367805E-2</v>
       </c>
       <c r="K24" s="90"/>
       <c r="L24" s="91"/>
@@ -10226,7 +10221,7 @@
       </c>
       <c r="E25" s="44">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>1.8180000000000002E-2</v>
+        <v>1.7639999999999999E-2</v>
       </c>
       <c r="F25" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
@@ -10234,14 +10229,14 @@
       </c>
       <c r="G25" s="43">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H25" s="42">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>45390</v>
+        <v>45392</v>
       </c>
       <c r="I25" s="37">
-        <v>1.8488639052030967E-2</v>
+        <v>1.7947430167153746E-2</v>
       </c>
       <c r="K25" s="90"/>
       <c r="L25" s="91"/>
@@ -10252,7 +10247,7 @@
       </c>
       <c r="E26" s="44">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>1.9379999999999998E-2</v>
+        <v>1.8860000000000002E-2</v>
       </c>
       <c r="F26" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
@@ -10260,14 +10255,14 @@
       </c>
       <c r="G26" s="43">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H26" s="42">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>45755</v>
+        <v>45757</v>
       </c>
       <c r="I26" s="37">
-        <v>1.9779803426938136E-2</v>
+        <v>1.9259060119437611E-2</v>
       </c>
       <c r="K26" s="90"/>
       <c r="L26" s="91"/>
@@ -10278,7 +10273,7 @@
       </c>
       <c r="E27" s="44">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>2.043E-2</v>
+        <v>1.992E-2</v>
       </c>
       <c r="F27" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -10286,14 +10281,14 @@
       </c>
       <c r="G27" s="43">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H27" s="42">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>46120</v>
+        <v>46122</v>
       </c>
       <c r="I27" s="37">
-        <v>2.0921704248560227E-2</v>
+        <v>2.0410526760147395E-2</v>
       </c>
       <c r="K27" s="90"/>
       <c r="L27" s="91"/>
@@ -10304,7 +10299,7 @@
       </c>
       <c r="E28" s="44">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>2.1320000000000002E-2</v>
+        <v>2.0830000000000001E-2</v>
       </c>
       <c r="F28" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -10312,14 +10307,14 @@
       </c>
       <c r="G28" s="43">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H28" s="42">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>46485</v>
+        <v>46489</v>
       </c>
       <c r="I28" s="37">
-        <v>2.1897626752191753E-2</v>
+        <v>2.1407669061180794E-2</v>
       </c>
       <c r="K28" s="90"/>
       <c r="L28" s="91"/>
@@ -10330,7 +10325,7 @@
       </c>
       <c r="E29" s="44">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>2.2080000000000002E-2</v>
+        <v>2.1610000000000001E-2</v>
       </c>
       <c r="F29" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
@@ -10338,14 +10333,14 @@
       </c>
       <c r="G29" s="43">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H29" s="42">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
         <v>46853</v>
       </c>
       <c r="I29" s="37">
-        <v>2.2732408418161078E-2</v>
+        <v>2.2265351527450367E-2</v>
       </c>
       <c r="K29" s="90"/>
       <c r="L29" s="91"/>
@@ -10356,7 +10351,7 @@
       </c>
       <c r="E30" s="44">
         <f>_xll.qlRateHelperRate($D30)</f>
-        <v>2.2709999999999998E-2</v>
+        <v>2.2250000000000002E-2</v>
       </c>
       <c r="F30" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
@@ -10364,14 +10359,14 @@
       </c>
       <c r="G30" s="43">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H30" s="42">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>47217</v>
+        <v>47218</v>
       </c>
       <c r="I30" s="37">
-        <v>2.3431070640870386E-2</v>
+        <v>2.2974354757264118E-2</v>
       </c>
       <c r="K30" s="90"/>
       <c r="L30" s="91"/>
@@ -10382,7 +10377,7 @@
       </c>
       <c r="E31" s="44">
         <f>_xll.qlRateHelperRate($D31)</f>
-        <v>2.3220000000000001E-2</v>
+        <v>2.2780000000000002E-2</v>
       </c>
       <c r="F31" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D31)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D31)),_xll.qlSwapRateHelperSpread($D31))</f>
@@ -10390,14 +10385,14 @@
       </c>
       <c r="G31" s="43">
         <f>_xll.qlRateHelperEarliestDate($D31)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H31" s="42">
         <f>_xll.qlRateHelperLatestDate($D31)</f>
-        <v>47581</v>
+        <v>47583</v>
       </c>
       <c r="I31" s="37">
-        <v>2.3995615065968215E-2</v>
+        <v>2.3561970374688421E-2</v>
       </c>
       <c r="K31" s="90"/>
       <c r="L31" s="91"/>
@@ -10408,7 +10403,7 @@
       </c>
       <c r="E32" s="44">
         <f>_xll.qlRateHelperRate($D32)</f>
-        <v>2.3629999999999998E-2</v>
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="F32" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D32)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D32)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D32)),_xll.qlSwapRateHelperSpread($D32))</f>
@@ -10416,14 +10411,14 @@
       </c>
       <c r="G32" s="43">
         <f>_xll.qlRateHelperEarliestDate($D32)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H32" s="42">
         <f>_xll.qlRateHelperLatestDate($D32)</f>
-        <v>47946</v>
+        <v>47948</v>
       </c>
       <c r="I32" s="37">
-        <v>2.4446279148680236E-2</v>
+        <v>2.4023948420632178E-2</v>
       </c>
       <c r="K32" s="90"/>
       <c r="L32" s="91"/>
@@ -10434,7 +10429,7 @@
       </c>
       <c r="E33" s="44">
         <f>_xll.qlRateHelperRate($D33)</f>
-        <v>2.3959999999999999E-2</v>
+        <v>2.3550000000000001E-2</v>
       </c>
       <c r="F33" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D33)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D33)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D33)),_xll.qlSwapRateHelperSpread($D33))</f>
@@ -10442,14 +10437,14 @@
       </c>
       <c r="G33" s="43">
         <f>_xll.qlRateHelperEarliestDate($D33)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H33" s="42">
         <f>_xll.qlRateHelperLatestDate($D33)</f>
-        <v>48312</v>
+        <v>48316</v>
       </c>
       <c r="I33" s="37">
-        <v>2.4801169845881234E-2</v>
+        <v>2.4402928236812321E-2</v>
       </c>
       <c r="K33" s="90"/>
       <c r="L33" s="91"/>
@@ -10460,7 +10455,7 @@
       </c>
       <c r="E34" s="44">
         <f>_xll.qlRateHelperRate($D34)</f>
-        <v>2.4220000000000002E-2</v>
+        <v>2.3820000000000001E-2</v>
       </c>
       <c r="F34" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D34)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D34)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D34)),_xll.qlSwapRateHelperSpread($D34))</f>
@@ -10468,14 +10463,14 @@
       </c>
       <c r="G34" s="43">
         <f>_xll.qlRateHelperEarliestDate($D34)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H34" s="42">
         <f>_xll.qlRateHelperLatestDate($D34)</f>
-        <v>48677</v>
+        <v>48680</v>
       </c>
       <c r="I34" s="37">
-        <v>2.5077917799849202E-2</v>
+        <v>2.469175853941688E-2</v>
       </c>
       <c r="K34" s="90"/>
       <c r="L34" s="91"/>
@@ -10486,7 +10481,7 @@
       </c>
       <c r="E35" s="44">
         <f>_xll.qlRateHelperRate($D35)</f>
-        <v>2.4420000000000001E-2</v>
+        <v>2.4039999999999999E-2</v>
       </c>
       <c r="F35" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D35)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D35)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D35)),_xll.qlSwapRateHelperSpread($D35))</f>
@@ -10494,14 +10489,14 @@
       </c>
       <c r="G35" s="43">
         <f>_xll.qlRateHelperEarliestDate($D35)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H35" s="42">
         <f>_xll.qlRateHelperLatestDate($D35)</f>
         <v>49045</v>
       </c>
       <c r="I35" s="37">
-        <v>2.5282693723683473E-2</v>
+        <v>2.4922298727104612E-2</v>
       </c>
       <c r="K35" s="90"/>
       <c r="L35" s="91"/>
@@ -10512,7 +10507,7 @@
       </c>
       <c r="E36" s="44">
         <f>_xll.qlRateHelperRate($D36)</f>
-        <v>2.4580000000000001E-2</v>
+        <v>2.4220000000000002E-2</v>
       </c>
       <c r="F36" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D36)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D36)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D36)),_xll.qlSwapRateHelperSpread($D36))</f>
@@ -10520,14 +10515,14 @@
       </c>
       <c r="G36" s="43">
         <f>_xll.qlRateHelperEarliestDate($D36)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H36" s="42">
         <f>_xll.qlRateHelperLatestDate($D36)</f>
-        <v>49408</v>
+        <v>49409</v>
       </c>
       <c r="I36" s="37">
-        <v>2.5441300125882447E-2</v>
+        <v>2.5106326929063207E-2</v>
       </c>
       <c r="K36" s="90"/>
       <c r="L36" s="91"/>
@@ -10538,7 +10533,7 @@
       </c>
       <c r="E37" s="44">
         <f>_xll.qlRateHelperRate($D37)</f>
-        <v>2.4709999999999999E-2</v>
+        <v>2.4369999999999999E-2</v>
       </c>
       <c r="F37" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D37)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D37)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D37)),_xll.qlSwapRateHelperSpread($D37))</f>
@@ -10546,14 +10541,14 @@
       </c>
       <c r="G37" s="43">
         <f>_xll.qlRateHelperEarliestDate($D37)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H37" s="42">
         <f>_xll.qlRateHelperLatestDate($D37)</f>
-        <v>49773</v>
+        <v>49775</v>
       </c>
       <c r="I37" s="37">
-        <v>2.5561576762007494E-2</v>
+        <v>2.5252383649830595E-2</v>
       </c>
       <c r="K37" s="90"/>
       <c r="L37" s="91"/>
@@ -10564,7 +10559,7 @@
       </c>
       <c r="E38" s="44">
         <f>_xll.qlRateHelperRate($D38)</f>
-        <v>2.4809999999999999E-2</v>
+        <v>2.4479999999999998E-2</v>
       </c>
       <c r="F38" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D38)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D38)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D38)),_xll.qlSwapRateHelperSpread($D38))</f>
@@ -10572,14 +10567,14 @@
       </c>
       <c r="G38" s="43">
         <f>_xll.qlRateHelperEarliestDate($D38)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H38" s="42">
         <f>_xll.qlRateHelperLatestDate($D38)</f>
-        <v>50138</v>
+        <v>50140</v>
       </c>
       <c r="I38" s="37">
-        <v>2.5648852993326206E-2</v>
+        <v>2.5352112816979088E-2</v>
       </c>
       <c r="K38" s="90"/>
       <c r="L38" s="91"/>
@@ -10590,7 +10585,7 @@
       </c>
       <c r="E39" s="44">
         <f>_xll.qlRateHelperRate($D39)</f>
-        <v>2.4889999999999999E-2</v>
+        <v>2.4569999999999998E-2</v>
       </c>
       <c r="F39" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D39)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D39)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D39)),_xll.qlSwapRateHelperSpread($D39))</f>
@@ -10598,14 +10593,14 @@
       </c>
       <c r="G39" s="43">
         <f>_xll.qlRateHelperEarliestDate($D39)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H39" s="42">
         <f>_xll.qlRateHelperLatestDate($D39)</f>
-        <v>50503</v>
+        <v>50507</v>
       </c>
       <c r="I39" s="37">
-        <v>2.571276978156092E-2</v>
+        <v>2.5428411115893869E-2</v>
       </c>
       <c r="K39" s="90"/>
       <c r="L39" s="91"/>
@@ -10616,7 +10611,7 @@
       </c>
       <c r="E40" s="44">
         <f>_xll.qlRateHelperRate($D40)</f>
-        <v>2.4939999999999997E-2</v>
+        <v>2.4639999999999999E-2</v>
       </c>
       <c r="F40" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D40)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D40)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D40)),_xll.qlSwapRateHelperSpread($D40))</f>
@@ -10624,14 +10619,14 @@
       </c>
       <c r="G40" s="43">
         <f>_xll.qlRateHelperEarliestDate($D40)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H40" s="42">
         <f>_xll.qlRateHelperLatestDate($D40)</f>
         <v>50872</v>
       </c>
       <c r="I40" s="37">
-        <v>2.5737871393711139E-2</v>
+        <v>2.5480963743240482E-2</v>
       </c>
       <c r="K40" s="90"/>
       <c r="L40" s="91"/>
@@ -10642,7 +10637,7 @@
       </c>
       <c r="E41" s="44">
         <f>_xll.qlRateHelperRate($D41)</f>
-        <v>2.4980000000000002E-2</v>
+        <v>2.469E-2</v>
       </c>
       <c r="F41" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D41)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D41)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D41)),_xll.qlSwapRateHelperSpread($D41))</f>
@@ -10650,14 +10645,14 @@
       </c>
       <c r="G41" s="43">
         <f>_xll.qlRateHelperEarliestDate($D41)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H41" s="42">
         <f>_xll.qlRateHelperLatestDate($D41)</f>
-        <v>51235</v>
+        <v>51236</v>
       </c>
       <c r="I41" s="37">
-        <v>2.5750372774334371E-2</v>
+        <v>2.5506212623247669E-2</v>
       </c>
       <c r="K41" s="90"/>
       <c r="L41" s="91"/>
@@ -10668,7 +10663,7 @@
       </c>
       <c r="E42" s="44">
         <f>_xll.qlRateHelperRate($D42)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>2.4729999999999999E-2</v>
       </c>
       <c r="F42" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D42)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D42)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D42)),_xll.qlSwapRateHelperSpread($D42))</f>
@@ -10676,14 +10671,14 @@
       </c>
       <c r="G42" s="43">
         <f>_xll.qlRateHelperEarliestDate($D42)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H42" s="42">
         <f>_xll.qlRateHelperLatestDate($D42)</f>
-        <v>51599</v>
+        <v>51601</v>
       </c>
       <c r="I42" s="37">
-        <v>2.5739638148563285E-2</v>
+        <v>2.5522879759610241E-2</v>
       </c>
       <c r="K42" s="90"/>
       <c r="L42" s="91"/>
@@ -10694,7 +10689,7 @@
       </c>
       <c r="E43" s="44">
         <f>_xll.qlRateHelperRate($D43)</f>
-        <v>2.5019999999999997E-2</v>
+        <v>2.4760000000000001E-2</v>
       </c>
       <c r="F43" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D43)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D43)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D43)),_xll.qlSwapRateHelperSpread($D43))</f>
@@ -10702,14 +10697,14 @@
       </c>
       <c r="G43" s="43">
         <f>_xll.qlRateHelperEarliestDate($D43)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H43" s="42">
         <f>_xll.qlRateHelperLatestDate($D43)</f>
-        <v>51964</v>
+        <v>51966</v>
       </c>
       <c r="I43" s="37">
-        <v>2.5731679821736998E-2</v>
+        <v>2.5527915256185613E-2</v>
       </c>
       <c r="K43" s="90"/>
       <c r="L43" s="91"/>
@@ -10720,7 +10715,7 @@
       </c>
       <c r="E44" s="44">
         <f>_xll.qlRateHelperRate($D44)</f>
-        <v>2.503E-2</v>
+        <v>2.479E-2</v>
       </c>
       <c r="F44" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D44)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D44)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D44)),_xll.qlSwapRateHelperSpread($D44))</f>
@@ -10728,14 +10723,14 @@
       </c>
       <c r="G44" s="43">
         <f>_xll.qlRateHelperEarliestDate($D44)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H44" s="42">
         <f>_xll.qlRateHelperLatestDate($D44)</f>
-        <v>52329</v>
+        <v>52331</v>
       </c>
       <c r="I44" s="37">
-        <v>2.5711450485420263E-2</v>
+        <v>2.5535727722522755E-2</v>
       </c>
       <c r="K44" s="90"/>
       <c r="L44" s="91"/>
@@ -10746,7 +10741,7 @@
       </c>
       <c r="E45" s="44">
         <f>_xll.qlRateHelperRate($D45)</f>
-        <v>2.504E-2</v>
+        <v>2.4809999999999999E-2</v>
       </c>
       <c r="F45" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D45)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D45)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D45)),_xll.qlSwapRateHelperSpread($D45))</f>
@@ -10754,14 +10749,14 @@
       </c>
       <c r="G45" s="43">
         <f>_xll.qlRateHelperEarliestDate($D45)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H45" s="42">
         <f>_xll.qlRateHelperLatestDate($D45)</f>
-        <v>52695</v>
+        <v>52698</v>
       </c>
       <c r="I45" s="37">
-        <v>2.5691240908874497E-2</v>
+        <v>2.5528579676739514E-2</v>
       </c>
       <c r="K45" s="90"/>
       <c r="L45" s="91"/>
@@ -10772,7 +10767,7 @@
       </c>
       <c r="E46" s="44">
         <f>_xll.qlRateHelperRate($D46)</f>
-        <v>2.512E-2</v>
+        <v>2.496E-2</v>
       </c>
       <c r="F46" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D46)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D46)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D46)),_xll.qlSwapRateHelperSpread($D46))</f>
@@ -10780,14 +10775,14 @@
       </c>
       <c r="G46" s="43">
         <f>_xll.qlRateHelperEarliestDate($D46)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H46" s="42">
         <f>_xll.qlRateHelperLatestDate($D46)</f>
-        <v>54521</v>
+        <v>54525</v>
       </c>
       <c r="I46" s="37">
-        <v>2.5675031509130527E-2</v>
+        <v>2.56114891832483E-2</v>
       </c>
       <c r="K46" s="90"/>
       <c r="L46" s="91"/>
@@ -10798,7 +10793,7 @@
       </c>
       <c r="E47" s="44">
         <f>_xll.qlRateHelperRate($D47)</f>
-        <v>2.5259999999999998E-2</v>
+        <v>2.5140000000000003E-2</v>
       </c>
       <c r="F47" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D47)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D47)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D47)),_xll.qlSwapRateHelperSpread($D47))</f>
@@ -10806,14 +10801,14 @@
       </c>
       <c r="G47" s="43">
         <f>_xll.qlRateHelperEarliestDate($D47)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H47" s="42">
         <f>_xll.qlRateHelperLatestDate($D47)</f>
-        <v>56347</v>
+        <v>56349</v>
       </c>
       <c r="I47" s="37">
-        <v>2.579672396101991E-2</v>
+        <v>2.578894750568524E-2</v>
       </c>
       <c r="K47" s="90"/>
       <c r="L47" s="91"/>
@@ -10824,7 +10819,7 @@
       </c>
       <c r="E48" s="44">
         <f>_xll.qlRateHelperRate($D48)</f>
-        <v>2.5360000000000001E-2</v>
+        <v>2.53E-2</v>
       </c>
       <c r="F48" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D48)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D48)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D48)),_xll.qlSwapRateHelperSpread($D48))</f>
@@ -10832,14 +10827,14 @@
       </c>
       <c r="G48" s="43">
         <f>_xll.qlRateHelperEarliestDate($D48)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H48" s="42">
         <f>_xll.qlRateHelperLatestDate($D48)</f>
-        <v>60000</v>
+        <v>60002</v>
       </c>
       <c r="I48" s="37">
-        <v>2.5802502997478095E-2</v>
+        <v>2.5883144210016633E-2</v>
       </c>
       <c r="K48" s="90"/>
       <c r="L48" s="91"/>
@@ -10850,7 +10845,7 @@
       </c>
       <c r="E49" s="44">
         <f>_xll.qlRateHelperRate($D49)</f>
-        <v>2.5489999999999999E-2</v>
+        <v>2.5430000000000001E-2</v>
       </c>
       <c r="F49" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D49)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D49)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D49)),_xll.qlSwapRateHelperSpread($D49))</f>
@@ -10858,14 +10853,14 @@
       </c>
       <c r="G49" s="43">
         <f>_xll.qlRateHelperEarliestDate($D49)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H49" s="42">
         <f>_xll.qlRateHelperLatestDate($D49)</f>
-        <v>63653</v>
+        <v>63654</v>
       </c>
       <c r="I49" s="37">
-        <v>2.5949268366317727E-2</v>
+        <v>2.6008539717738744E-2</v>
       </c>
       <c r="K49" s="90"/>
       <c r="L49" s="91"/>
@@ -12760,7 +12755,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -12806,12 +12801,12 @@
         <f>$E$1&amp;"_Deposits.xml"</f>
         <v>EUR_YCSTDRH_Deposits.xml</v>
       </c>
-      <c r="F2" s="111">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F11,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>9</v>
+      <c r="F2" s="111" t="str">
+        <f>IF(Serialize,_xll.ohObjectSave(F3:F11,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>---</v>
       </c>
       <c r="G2" s="110" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
+        <f>_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
       <c r="H2" s="99"/>
@@ -12834,7 +12829,7 @@
       </c>
       <c r="F3" s="101" t="str">
         <f>_xll.qlDepositRateHelper(E3,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_OND#0002</v>
+        <v>EUR_YCSTDRH_OND#0001</v>
       </c>
       <c r="G3" s="107" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -12861,7 +12856,7 @@
       </c>
       <c r="F4" s="101" t="str">
         <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_SWD#0002</v>
+        <v>EUR_YCSTDRH_SWD#0001</v>
       </c>
       <c r="G4" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -12892,7 +12887,7 @@
       </c>
       <c r="F5" s="101" t="str">
         <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_2WD#0002</v>
+        <v>EUR_YCSTDRH_2WD#0001</v>
       </c>
       <c r="G5" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -12919,7 +12914,7 @@
       </c>
       <c r="F6" s="101" t="str">
         <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_1MD#0002</v>
+        <v>EUR_YCSTDRH_1MD#0001</v>
       </c>
       <c r="G6" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -12946,7 +12941,7 @@
       </c>
       <c r="F7" s="101" t="str">
         <f>_xll.qlDepositRateHelper(E7,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_2MD#0002</v>
+        <v>EUR_YCSTDRH_2MD#0001</v>
       </c>
       <c r="G7" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -12973,7 +12968,7 @@
       </c>
       <c r="F8" s="101" t="str">
         <f>_xll.qlDepositRateHelper(E8,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_3MD#0002</v>
+        <v>EUR_YCSTDRH_3MD#0001</v>
       </c>
       <c r="G8" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -13000,7 +12995,7 @@
       </c>
       <c r="F9" s="101" t="str">
         <f>_xll.qlDepositRateHelper(E9,D9,C9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_6MD#0002</v>
+        <v>EUR_YCSTDRH_6MD#0001</v>
       </c>
       <c r="G9" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -13027,7 +13022,7 @@
       </c>
       <c r="F10" s="101" t="str">
         <f>_xll.qlDepositRateHelper(E10,D10,C10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_9MD#0002</v>
+        <v>EUR_YCSTDRH_9MD#0001</v>
       </c>
       <c r="G10" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -13054,7 +13049,7 @@
       </c>
       <c r="F11" s="101" t="str">
         <f>_xll.qlDepositRateHelper(E11,D11,C11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_1YD#0002</v>
+        <v>EUR_YCSTDRH_1YD#0001</v>
       </c>
       <c r="G11" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -13084,7 +13079,9 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -13134,12 +13131,12 @@
         <f>$G$1&amp;"_FRAs.xml"</f>
         <v>EUR_YCSTDRH_FRAs.xml</v>
       </c>
-      <c r="H2" s="153">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>2</v>
+      <c r="H2" s="153" t="str">
+        <f>IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
+        <v>---</v>
       </c>
       <c r="I2" s="152" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
+        <f>_xll.ohRangeRetrieveError(H2)</f>
         <v/>
       </c>
       <c r="J2" s="142"/>
@@ -13168,7 +13165,7 @@
       </c>
       <c r="H3" s="149" t="str">
         <f>_xll.qlFraRateHelper(G3,F3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_TND#0002</v>
+        <v>EUR_YCSTDRH_TND#0001</v>
       </c>
       <c r="I3" s="148" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -13200,7 +13197,7 @@
       </c>
       <c r="H4" s="144" t="str">
         <f>_xll.qlFraRateHelper(G4,F4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_SND#0002</v>
+        <v>EUR_YCSTDRH_SND#0001</v>
       </c>
       <c r="I4" s="143" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -13237,7 +13234,9 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:L123"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -13299,13 +13298,13 @@
         <f>$H$1&amp;"_Futures"&amp;$E$1&amp;".xml"</f>
         <v>EUR_YCSTDRH_Futures3M.xml</v>
       </c>
-      <c r="I2" s="180" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
+      <c r="I2" s="180" t="str">
+        <f>IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
+        <v>---</v>
       </c>
       <c r="J2" s="179" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v>ohObjectSave - operToVectorImpl: error converting parameter 'ObjectList' to type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' : Unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'class s</v>
+        <f>_xll.ohRangeRetrieveError(I2)</f>
+        <v/>
       </c>
       <c r="K2" s="142"/>
     </row>
@@ -13339,7 +13338,7 @@
       </c>
       <c r="I3" s="177" t="str">
         <f>_xll.qlFuturesRateHelper(H3,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MJ4#0002</v>
+        <v>EUR_YCSTDRH_FUT3MJ4#0001</v>
       </c>
       <c r="J3" s="176" t="str">
         <f>_xll.ohRangeRetrieveError(I3)</f>
@@ -13377,7 +13376,7 @@
       </c>
       <c r="I4" s="169" t="str">
         <f>_xll.qlFuturesRateHelper(H4,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MK4#0002</v>
+        <v>EUR_YCSTDRH_FUT3MK4#0001</v>
       </c>
       <c r="J4" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(I4)</f>
@@ -13415,7 +13414,7 @@
       </c>
       <c r="I5" s="169" t="str">
         <f>_xll.qlFuturesRateHelper(H5,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MM4#0002</v>
+        <v>EUR_YCSTDRH_FUT3MM4#0001</v>
       </c>
       <c r="J5" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
@@ -13453,7 +13452,7 @@
       </c>
       <c r="I6" s="169" t="str">
         <f>_xll.qlFuturesRateHelper(H6,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MN4#0002</v>
+        <v>EUR_YCSTDRH_FUT3MN4#0001</v>
       </c>
       <c r="J6" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
@@ -13491,7 +13490,7 @@
       </c>
       <c r="I7" s="169" t="str">
         <f>_xll.qlFuturesRateHelper(H7,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MQ4#0002</v>
+        <v>EUR_YCSTDRH_FUT3MQ4#0001</v>
       </c>
       <c r="J7" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
@@ -13529,7 +13528,7 @@
       </c>
       <c r="I8" s="169" t="str">
         <f>_xll.qlFuturesRateHelper(H8,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MU4#0002</v>
+        <v>EUR_YCSTDRH_FUT3MU4#0001</v>
       </c>
       <c r="J8" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
@@ -13567,7 +13566,7 @@
       </c>
       <c r="I9" s="169" t="str">
         <f>_xll.qlFuturesRateHelper(H9,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MV4#0002</v>
+        <v>EUR_YCSTDRH_FUT3MV4#0001</v>
       </c>
       <c r="J9" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
@@ -13605,7 +13604,7 @@
       </c>
       <c r="I10" s="169" t="str">
         <f>_xll.qlFuturesRateHelper(H10,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MX4#0002</v>
+        <v>EUR_YCSTDRH_FUT3MX4#0001</v>
       </c>
       <c r="J10" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
@@ -13643,7 +13642,7 @@
       </c>
       <c r="I11" s="169" t="str">
         <f>_xll.qlFuturesRateHelper(H11,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MZ4#0002</v>
+        <v>EUR_YCSTDRH_FUT3MZ4#0001</v>
       </c>
       <c r="J11" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(I11)</f>
@@ -13681,7 +13680,7 @@
       </c>
       <c r="I12" s="169" t="str">
         <f>_xll.qlFuturesRateHelper(H12,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MF5#0002</v>
+        <v>EUR_YCSTDRH_FUT3MF5#0001</v>
       </c>
       <c r="J12" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(I12)</f>
@@ -13719,7 +13718,7 @@
       </c>
       <c r="I13" s="169" t="str">
         <f>_xll.qlFuturesRateHelper(H13,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MG5#0002</v>
+        <v>EUR_YCSTDRH_FUT3MG5#0001</v>
       </c>
       <c r="J13" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(I13)</f>
@@ -13757,7 +13756,7 @@
       </c>
       <c r="I14" s="169" t="str">
         <f>_xll.qlFuturesRateHelper(H14,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MH5#0002</v>
+        <v>EUR_YCSTDRH_FUT3MH5#0001</v>
       </c>
       <c r="J14" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(I14)</f>
@@ -13871,7 +13870,7 @@
       </c>
       <c r="I17" s="169" t="str">
         <f>_xll.qlFuturesRateHelper(H17,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MM5#0002</v>
+        <v>EUR_YCSTDRH_FUT3MM5#0001</v>
       </c>
       <c r="J17" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(I17)</f>
@@ -13985,7 +13984,7 @@
       </c>
       <c r="I20" s="169" t="str">
         <f>_xll.qlFuturesRateHelper(H20,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MU5#0002</v>
+        <v>EUR_YCSTDRH_FUT3MU5#0001</v>
       </c>
       <c r="J20" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(I20)</f>
@@ -14099,7 +14098,7 @@
       </c>
       <c r="I23" s="169" t="str">
         <f>_xll.qlFuturesRateHelper(H23,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MZ5#0002</v>
+        <v>EUR_YCSTDRH_FUT3MZ5#0001</v>
       </c>
       <c r="J23" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(I23)</f>
@@ -14213,7 +14212,7 @@
       </c>
       <c r="I26" s="169" t="str">
         <f>_xll.qlFuturesRateHelper(H26,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MH6#0002</v>
+        <v>EUR_YCSTDRH_FUT3MH6#0001</v>
       </c>
       <c r="J26" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(I26)</f>
@@ -14327,7 +14326,7 @@
       </c>
       <c r="I29" s="169" t="str">
         <f>_xll.qlFuturesRateHelper(H29,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MM6#0002</v>
+        <v>EUR_YCSTDRH_FUT3MM6#0001</v>
       </c>
       <c r="J29" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(I29)</f>
@@ -14441,7 +14440,7 @@
       </c>
       <c r="I32" s="169" t="str">
         <f>_xll.qlFuturesRateHelper(H32,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MU6#0002</v>
+        <v>EUR_YCSTDRH_FUT3MU6#0001</v>
       </c>
       <c r="J32" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(I32)</f>
@@ -14555,7 +14554,7 @@
       </c>
       <c r="I35" s="169" t="str">
         <f>_xll.qlFuturesRateHelper(H35,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MZ6#0002</v>
+        <v>EUR_YCSTDRH_FUT3MZ6#0001</v>
       </c>
       <c r="J35" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(I35)</f>
@@ -14669,7 +14668,7 @@
       </c>
       <c r="I38" s="169" t="str">
         <f>_xll.qlFuturesRateHelper(H38,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MH7#0002</v>
+        <v>EUR_YCSTDRH_FUT3MH7#0001</v>
       </c>
       <c r="J38" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(I38)</f>
@@ -14782,7 +14781,7 @@
       </c>
       <c r="I41" s="169" t="str">
         <f>_xll.qlFuturesRateHelper(H41,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MM7#0002</v>
+        <v>EUR_YCSTDRH_FUT3MM7#0001</v>
       </c>
       <c r="J41" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(I41)</f>
@@ -14893,7 +14892,7 @@
       </c>
       <c r="I44" s="169" t="str">
         <f>_xll.qlFuturesRateHelper(H44,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MU7#0002</v>
+        <v>EUR_YCSTDRH_FUT3MU7#0001</v>
       </c>
       <c r="J44" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(I44)</f>
@@ -15004,7 +15003,7 @@
       </c>
       <c r="I47" s="169" t="str">
         <f>_xll.qlFuturesRateHelper(H47,$F47,$D47,$E47,$G47,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MZ7#0002</v>
+        <v>EUR_YCSTDRH_FUT3MZ7#0001</v>
       </c>
       <c r="J47" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(I47)</f>
@@ -15115,7 +15114,7 @@
       </c>
       <c r="I50" s="169" t="str">
         <f>_xll.qlFuturesRateHelper(H50,$F50,$D50,$E50,$G50,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MH8#0002</v>
+        <v>EUR_YCSTDRH_FUT3MH8#0001</v>
       </c>
       <c r="J50" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(I50)</f>
@@ -15226,7 +15225,7 @@
       </c>
       <c r="I53" s="169" t="str">
         <f>_xll.qlFuturesRateHelper(H53,$F53,$D53,$E53,$G53,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MM8#0002</v>
+        <v>EUR_YCSTDRH_FUT3MM8#0001</v>
       </c>
       <c r="J53" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(I53)</f>
@@ -15337,7 +15336,7 @@
       </c>
       <c r="I56" s="169" t="str">
         <f>_xll.qlFuturesRateHelper(H56,$F56,$D56,$E56,$G56,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MU8#0002</v>
+        <v>EUR_YCSTDRH_FUT3MU8#0001</v>
       </c>
       <c r="J56" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(I56)</f>
@@ -15448,7 +15447,7 @@
       </c>
       <c r="I59" s="169" t="str">
         <f>_xll.qlFuturesRateHelper(H59,$F59,$D59,$E59,$G59,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MZ8#0002</v>
+        <v>EUR_YCSTDRH_FUT3MZ8#0001</v>
       </c>
       <c r="J59" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(I59)</f>
@@ -15559,7 +15558,7 @@
       </c>
       <c r="I62" s="169" t="str">
         <f>_xll.qlFuturesRateHelper(H62,$F62,$D62,$E62,$G62,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MH9#0002</v>
+        <v>EUR_YCSTDRH_FUT3MH9#0001</v>
       </c>
       <c r="J62" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(I62)</f>
@@ -15670,7 +15669,7 @@
       </c>
       <c r="I65" s="169" t="str">
         <f>_xll.qlFuturesRateHelper(H65,$F65,$D65,$E65,$G65,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MM9#0002</v>
+        <v>EUR_YCSTDRH_FUT3MM9#0001</v>
       </c>
       <c r="J65" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(I65)</f>
@@ -15781,7 +15780,7 @@
       </c>
       <c r="I68" s="169" t="str">
         <f>_xll.qlFuturesRateHelper(H68,$F68,$D68,$E68,$G68,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MU9#0002</v>
+        <v>EUR_YCSTDRH_FUT3MU9#0001</v>
       </c>
       <c r="J68" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(I68)</f>
@@ -15892,7 +15891,7 @@
       </c>
       <c r="I71" s="169" t="str">
         <f>_xll.qlFuturesRateHelper(H71,$F71,$D71,$E71,$G71,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MZ9#0002</v>
+        <v>EUR_YCSTDRH_FUT3MZ9#0001</v>
       </c>
       <c r="J71" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(I71)</f>
@@ -16003,7 +16002,7 @@
       </c>
       <c r="I74" s="169" t="str">
         <f>_xll.qlFuturesRateHelper(H74,$F74,$D74,$E74,$G74,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MH0#0002</v>
+        <v>EUR_YCSTDRH_FUT3MH0#0001</v>
       </c>
       <c r="J74" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(I74)</f>
@@ -16114,7 +16113,7 @@
       </c>
       <c r="I77" s="169" t="str">
         <f>_xll.qlFuturesRateHelper(H77,$F77,$D77,$E77,$G77,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MM0#0002</v>
+        <v>EUR_YCSTDRH_FUT3MM0#0001</v>
       </c>
       <c r="J77" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(I77)</f>
@@ -16225,7 +16224,7 @@
       </c>
       <c r="I80" s="169" t="str">
         <f>_xll.qlFuturesRateHelper(H80,$F80,$D80,$E80,$G80,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MU0#0002</v>
+        <v>EUR_YCSTDRH_FUT3MU0#0001</v>
       </c>
       <c r="J80" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(I80)</f>
@@ -16336,7 +16335,7 @@
       </c>
       <c r="I83" s="169" t="str">
         <f>_xll.qlFuturesRateHelper(H83,$F83,$D83,$E83,$G83,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MZ0#0002</v>
+        <v>EUR_YCSTDRH_FUT3MZ0#0001</v>
       </c>
       <c r="J83" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(I83)</f>
@@ -16447,7 +16446,7 @@
       </c>
       <c r="I86" s="169" t="str">
         <f>_xll.qlFuturesRateHelper(H86,$F86,$D86,$E86,$G86,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MH1#0002</v>
+        <v>EUR_YCSTDRH_FUT3MH1#0001</v>
       </c>
       <c r="J86" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(I86)</f>
@@ -16558,7 +16557,7 @@
       </c>
       <c r="I89" s="169" t="str">
         <f>_xll.qlFuturesRateHelper(H89,$F89,$D89,$E89,$G89,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MM1#0002</v>
+        <v>EUR_YCSTDRH_FUT3MM1#0001</v>
       </c>
       <c r="J89" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(I89)</f>
@@ -16669,7 +16668,7 @@
       </c>
       <c r="I92" s="169" t="str">
         <f>_xll.qlFuturesRateHelper(H92,$F92,$D92,$E92,$G92,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MU1#0002</v>
+        <v>EUR_YCSTDRH_FUT3MU1#0001</v>
       </c>
       <c r="J92" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(I92)</f>
@@ -16780,7 +16779,7 @@
       </c>
       <c r="I95" s="169" t="str">
         <f>_xll.qlFuturesRateHelper(H95,$F95,$D95,$E95,$G95,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MZ1#0002</v>
+        <v>EUR_YCSTDRH_FUT3MZ1#0001</v>
       </c>
       <c r="J95" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(I95)</f>
@@ -16891,7 +16890,7 @@
       </c>
       <c r="I98" s="169" t="str">
         <f>_xll.qlFuturesRateHelper(H98,$F98,$D98,$E98,$G98,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MH2#0002</v>
+        <v>EUR_YCSTDRH_FUT3MH2#0001</v>
       </c>
       <c r="J98" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(I98)</f>
@@ -17002,7 +17001,7 @@
       </c>
       <c r="I101" s="169" t="str">
         <f>_xll.qlFuturesRateHelper(H101,$F101,$D101,$E101,$G101,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MM2#0002</v>
+        <v>EUR_YCSTDRH_FUT3MM2#0001</v>
       </c>
       <c r="J101" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(I101)</f>
@@ -17113,7 +17112,7 @@
       </c>
       <c r="I104" s="169" t="str">
         <f>_xll.qlFuturesRateHelper(H104,$F104,$D104,$E104,$G104,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_FUT3MU2#0002</v>
+        <v>EUR_YCSTDRH_FUT3MU2#0001</v>
       </c>
       <c r="J104" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(I104)</f>
@@ -17813,7 +17812,7 @@
   <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17904,12 +17903,12 @@
         <f>K2&amp;"_Swaps.xml"</f>
         <v>EUR_YCSTDRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="153">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>38</v>
+      <c r="L3" s="153" t="str">
+        <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>---</v>
       </c>
       <c r="M3" s="191" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
+        <f>_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="190"/>
@@ -17931,7 +17930,7 @@
       </c>
       <c r="L4" s="201" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>EUR_YCSTDRH_AB6E_ibor6M#0002</v>
+        <v>EUR_YCSTDRH_AB6E_ibor6M#0001</v>
       </c>
       <c r="M4" s="200" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -17993,7 +17992,7 @@
       </c>
       <c r="L6" s="192" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E1Y#0002</v>
+        <v>EUR_YCSTDRH_AB6E1Y#0001</v>
       </c>
       <c r="M6" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -18043,7 +18042,7 @@
       </c>
       <c r="L7" s="192" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E15M#0002</v>
+        <v>EUR_YCSTDRH_AB6E15M#0001</v>
       </c>
       <c r="M7" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -18089,7 +18088,7 @@
       </c>
       <c r="L8" s="192" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E18M#0002</v>
+        <v>EUR_YCSTDRH_AB6E18M#0001</v>
       </c>
       <c r="M8" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -18135,7 +18134,7 @@
       </c>
       <c r="L9" s="192" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E21M#0002</v>
+        <v>EUR_YCSTDRH_AB6E21M#0001</v>
       </c>
       <c r="M9" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -18181,7 +18180,7 @@
       </c>
       <c r="L10" s="192" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E2Y#0002</v>
+        <v>EUR_YCSTDRH_AB6E2Y#0001</v>
       </c>
       <c r="M10" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -18227,7 +18226,7 @@
       </c>
       <c r="L11" s="192" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E3Y#0002</v>
+        <v>EUR_YCSTDRH_AB6E3Y#0001</v>
       </c>
       <c r="M11" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -18273,7 +18272,7 @@
       </c>
       <c r="L12" s="192" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E4Y#0002</v>
+        <v>EUR_YCSTDRH_AB6E4Y#0001</v>
       </c>
       <c r="M12" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -18319,7 +18318,7 @@
       </c>
       <c r="L13" s="192" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E5Y#0002</v>
+        <v>EUR_YCSTDRH_AB6E5Y#0001</v>
       </c>
       <c r="M13" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -18365,7 +18364,7 @@
       </c>
       <c r="L14" s="192" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E6Y#0002</v>
+        <v>EUR_YCSTDRH_AB6E6Y#0001</v>
       </c>
       <c r="M14" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -18411,7 +18410,7 @@
       </c>
       <c r="L15" s="192" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E7Y#0002</v>
+        <v>EUR_YCSTDRH_AB6E7Y#0001</v>
       </c>
       <c r="M15" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -18457,7 +18456,7 @@
       </c>
       <c r="L16" s="192" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E8Y#0002</v>
+        <v>EUR_YCSTDRH_AB6E8Y#0001</v>
       </c>
       <c r="M16" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -18503,7 +18502,7 @@
       </c>
       <c r="L17" s="192" t="str">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E9Y#0002</v>
+        <v>EUR_YCSTDRH_AB6E9Y#0001</v>
       </c>
       <c r="M17" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -18549,7 +18548,7 @@
       </c>
       <c r="L18" s="192" t="str">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E10Y#0002</v>
+        <v>EUR_YCSTDRH_AB6E10Y#0001</v>
       </c>
       <c r="M18" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -18595,7 +18594,7 @@
       </c>
       <c r="L19" s="192" t="str">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E11Y#0002</v>
+        <v>EUR_YCSTDRH_AB6E11Y#0001</v>
       </c>
       <c r="M19" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -18641,7 +18640,7 @@
       </c>
       <c r="L20" s="192" t="str">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E12Y#0002</v>
+        <v>EUR_YCSTDRH_AB6E12Y#0001</v>
       </c>
       <c r="M20" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -18687,7 +18686,7 @@
       </c>
       <c r="L21" s="192" t="str">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E13Y#0002</v>
+        <v>EUR_YCSTDRH_AB6E13Y#0001</v>
       </c>
       <c r="M21" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -18733,7 +18732,7 @@
       </c>
       <c r="L22" s="192" t="str">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E14Y#0002</v>
+        <v>EUR_YCSTDRH_AB6E14Y#0001</v>
       </c>
       <c r="M22" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -18779,7 +18778,7 @@
       </c>
       <c r="L23" s="192" t="str">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E15Y#0002</v>
+        <v>EUR_YCSTDRH_AB6E15Y#0001</v>
       </c>
       <c r="M23" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -18825,7 +18824,7 @@
       </c>
       <c r="L24" s="192" t="str">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E16Y#0002</v>
+        <v>EUR_YCSTDRH_AB6E16Y#0001</v>
       </c>
       <c r="M24" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -18871,7 +18870,7 @@
       </c>
       <c r="L25" s="192" t="str">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E17Y#0002</v>
+        <v>EUR_YCSTDRH_AB6E17Y#0001</v>
       </c>
       <c r="M25" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -18917,7 +18916,7 @@
       </c>
       <c r="L26" s="192" t="str">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E18Y#0002</v>
+        <v>EUR_YCSTDRH_AB6E18Y#0001</v>
       </c>
       <c r="M26" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -18963,7 +18962,7 @@
       </c>
       <c r="L27" s="192" t="str">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E19Y#0002</v>
+        <v>EUR_YCSTDRH_AB6E19Y#0001</v>
       </c>
       <c r="M27" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -19009,7 +19008,7 @@
       </c>
       <c r="L28" s="192" t="str">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E20Y#0002</v>
+        <v>EUR_YCSTDRH_AB6E20Y#0001</v>
       </c>
       <c r="M28" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -19055,7 +19054,7 @@
       </c>
       <c r="L29" s="192" t="str">
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E21Y#0002</v>
+        <v>EUR_YCSTDRH_AB6E21Y#0001</v>
       </c>
       <c r="M29" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -19101,7 +19100,7 @@
       </c>
       <c r="L30" s="192" t="str">
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E22Y#0002</v>
+        <v>EUR_YCSTDRH_AB6E22Y#0001</v>
       </c>
       <c r="M30" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -19147,7 +19146,7 @@
       </c>
       <c r="L31" s="192" t="str">
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E23Y#0002</v>
+        <v>EUR_YCSTDRH_AB6E23Y#0001</v>
       </c>
       <c r="M31" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -19193,7 +19192,7 @@
       </c>
       <c r="L32" s="192" t="str">
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E24Y#0002</v>
+        <v>EUR_YCSTDRH_AB6E24Y#0001</v>
       </c>
       <c r="M32" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -19239,7 +19238,7 @@
       </c>
       <c r="L33" s="192" t="str">
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E25Y#0002</v>
+        <v>EUR_YCSTDRH_AB6E25Y#0001</v>
       </c>
       <c r="M33" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -19285,7 +19284,7 @@
       </c>
       <c r="L34" s="192" t="str">
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E26Y#0002</v>
+        <v>EUR_YCSTDRH_AB6E26Y#0001</v>
       </c>
       <c r="M34" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -19331,7 +19330,7 @@
       </c>
       <c r="L35" s="192" t="str">
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E27Y#0002</v>
+        <v>EUR_YCSTDRH_AB6E27Y#0001</v>
       </c>
       <c r="M35" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -19377,7 +19376,7 @@
       </c>
       <c r="L36" s="192" t="str">
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E28Y#0002</v>
+        <v>EUR_YCSTDRH_AB6E28Y#0001</v>
       </c>
       <c r="M36" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -19423,7 +19422,7 @@
       </c>
       <c r="L37" s="192" t="str">
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E29Y#0002</v>
+        <v>EUR_YCSTDRH_AB6E29Y#0001</v>
       </c>
       <c r="M37" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -19469,7 +19468,7 @@
       </c>
       <c r="L38" s="192" t="str">
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E30Y#0002</v>
+        <v>EUR_YCSTDRH_AB6E30Y#0001</v>
       </c>
       <c r="M38" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -19515,7 +19514,7 @@
       </c>
       <c r="L39" s="192" t="str">
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E35Y#0002</v>
+        <v>EUR_YCSTDRH_AB6E35Y#0001</v>
       </c>
       <c r="M39" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -19561,7 +19560,7 @@
       </c>
       <c r="L40" s="192" t="str">
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E40Y#0002</v>
+        <v>EUR_YCSTDRH_AB6E40Y#0001</v>
       </c>
       <c r="M40" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -19607,7 +19606,7 @@
       </c>
       <c r="L41" s="192" t="str">
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E50Y#0002</v>
+        <v>EUR_YCSTDRH_AB6E50Y#0001</v>
       </c>
       <c r="M41" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -19653,7 +19652,7 @@
       </c>
       <c r="L42" s="192" t="str">
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YCSTDRH_AB6E60Y#0002</v>
+        <v>EUR_YCSTDRH_AB6E60Y#0001</v>
       </c>
       <c r="M42" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>

--- a/QuantLibXL/Data2/XLS/EUR_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR_YCSTDBootstrapping.xlsx
@@ -14,6 +14,9 @@
     <sheet name="Futures" sheetId="11" r:id="rId5"/>
     <sheet name="Swaps" sheetId="13" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <definedNames>
     <definedName name="Accuracy">'General Settings'!$D$19</definedName>
     <definedName name="BondBasisDayCounter">'General Settings'!$J$15</definedName>
@@ -215,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="131">
   <si>
     <t>60Y</t>
   </si>
@@ -566,9 +569,6 @@
   </si>
   <si>
     <t>Actual/360</t>
-  </si>
-  <si>
-    <t>EURSTD</t>
   </si>
   <si>
     <t>3W</t>
@@ -1638,6 +1638,22 @@
     <xf numFmtId="10" fontId="2" fillId="12" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1653,22 +1669,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="172" fontId="6" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1693,6 +1693,79 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="General Settings"/>
+      <sheetName val="Euribor"/>
+      <sheetName val="EuriborSwapIsdaFixA"/>
+      <sheetName val="BasisSwap1MxM"/>
+      <sheetName val="BasisSwap3M6M"/>
+      <sheetName val="BasisSwapxM12M"/>
+      <sheetName val="Deposits"/>
+      <sheetName val="FRA"/>
+      <sheetName val="Futures1M"/>
+      <sheetName val="Futures3M"/>
+      <sheetName val="ImmFra6M "/>
+      <sheetName val="FuturesHWConvAdj"/>
+      <sheetName val="OIS"/>
+      <sheetName val="OIS ECB"/>
+      <sheetName val="Swaps1M"/>
+      <sheetName val="SwapsIMMDated"/>
+      <sheetName val="Swap3M"/>
+      <sheetName val="ON"/>
+      <sheetName val="Swap6M"/>
+      <sheetName val="ForwardSwap6M"/>
+      <sheetName val="1M (3)"/>
+      <sheetName val="3M (4)"/>
+      <sheetName val="6M (3)"/>
+      <sheetName val="1Y (3)"/>
+      <sheetName val="Euribor 3M Time Series"/>
+      <sheetName val="Euribor 6M Time Series"/>
+      <sheetName val="EuriborSwapIsdaFixA1Y"/>
+      <sheetName val="Mx_Deposits"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="7">
+          <cell r="E7" t="str">
+            <v>EURSTD#0000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2009,19 +2082,19 @@
       </c>
     </row>
     <row r="2" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="201" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="195"/>
-      <c r="H2" s="193" t="s">
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="202"/>
+      <c r="F2" s="203"/>
+      <c r="H2" s="201" t="s">
         <v>97</v>
       </c>
-      <c r="I2" s="194"/>
-      <c r="J2" s="194"/>
-      <c r="K2" s="196"/>
+      <c r="I2" s="202"/>
+      <c r="J2" s="202"/>
+      <c r="K2" s="204"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="33"/>
@@ -2131,12 +2204,12 @@
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="31"/>
-      <c r="H9" s="193" t="s">
+      <c r="H9" s="201" t="s">
         <v>93</v>
       </c>
-      <c r="I9" s="194"/>
-      <c r="J9" s="194"/>
-      <c r="K9" s="196"/>
+      <c r="I9" s="202"/>
+      <c r="J9" s="202"/>
+      <c r="K9" s="204"/>
     </row>
     <row r="10" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="33"/>
@@ -2159,7 +2232,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="53">
-        <v>41929.674976851849</v>
+        <v>41942.65179398148</v>
       </c>
       <c r="E11" s="32"/>
       <c r="F11" s="31"/>
@@ -2214,7 +2287,7 @@
       </c>
       <c r="D14" s="50" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,_xll.ohPack(Selected!D2:D126),,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_EURYCSTD#0012</v>
+        <v>_EURYCSTD#0000</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="31"/>
@@ -2338,11 +2411,11 @@
       <c r="B23" s="33"/>
       <c r="C23" s="37">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41929</v>
+        <v>41942</v>
       </c>
       <c r="D23" s="36">
         <f>MAX(_xll.ohPack(Selected!J1:J126))</f>
-        <v>1.9604608965226276E-2</v>
+        <v>1.9470318614216137E-2</v>
       </c>
       <c r="E23" s="32"/>
       <c r="F23" s="31"/>
@@ -2351,11 +2424,11 @@
       <c r="B24" s="33"/>
       <c r="C24" s="35">
         <f>MAX(_xll.ohPack(Selected!I2:I126))</f>
-        <v>63849</v>
+        <v>63863</v>
       </c>
       <c r="D24" s="34">
         <f>MIN(_xll.ohPack(Selected!J1:J126))</f>
-        <v>1.0138881334763021E-4</v>
+        <v>4.0555533025081675E-4</v>
       </c>
       <c r="E24" s="32"/>
       <c r="F24" s="31"/>
@@ -2374,8 +2447,9 @@
     </row>
     <row r="26" spans="2:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="33"/>
-      <c r="C26" s="160" t="s">
-        <v>117</v>
+      <c r="C26" s="160" t="str">
+        <f>[1]Euribor!$E$7</f>
+        <v>EURSTD#0000</v>
       </c>
       <c r="D26" s="159" t="b">
         <f>_xll.qlRelinkableHandleLinkTo(C26,YieldCurve)</f>
@@ -2457,7 +2531,7 @@
     <row r="1" spans="2:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B1" s="10"/>
       <c r="C1" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>43</v>
@@ -2484,7 +2558,7 @@
     <row r="2" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="166" t="str">
         <f>Deposits!E3</f>
-        <v>obj_0056d#0001</v>
+        <v>obj_00615#0000</v>
       </c>
       <c r="C2" s="167" t="str">
         <f>_xll.qlRateHelperQuoteName(B2)</f>
@@ -2492,7 +2566,7 @@
       </c>
       <c r="D2" s="168">
         <f>_xll.qlRateHelperQuoteValue($B2,Trigger)</f>
-        <v>1E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="E2" s="168"/>
       <c r="F2" s="169" t="b">
@@ -2506,11 +2580,11 @@
       </c>
       <c r="I2" s="170">
         <f>_xll.qlRateHelperEarliestDate($B2,Trigger)</f>
-        <v>41929</v>
+        <v>41942</v>
       </c>
       <c r="J2" s="171">
         <f>_xll.qlRateHelperLatestDate($B2,Trigger)</f>
-        <v>41932</v>
+        <v>41943</v>
       </c>
       <c r="K2" s="63"/>
       <c r="L2" s="63"/>
@@ -2518,7 +2592,7 @@
     <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3" s="172" t="str">
         <f>Deposits!E4</f>
-        <v>obj_00560#0001</v>
+        <v>obj_0060f#0000</v>
       </c>
       <c r="C3" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B3)</f>
@@ -2526,7 +2600,7 @@
       </c>
       <c r="D3" s="174">
         <f>_xll.qlRateHelperQuoteValue($B3,Trigger)</f>
-        <v>1E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="E3" s="174"/>
       <c r="F3" s="175" t="b">
@@ -2540,11 +2614,11 @@
       </c>
       <c r="I3" s="176">
         <f>_xll.qlRateHelperEarliestDate($B3,Trigger)</f>
-        <v>41932</v>
+        <v>41943</v>
       </c>
       <c r="J3" s="177">
         <f>_xll.qlRateHelperLatestDate($B3,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="K3" s="63"/>
       <c r="L3" s="63"/>
@@ -2552,7 +2626,7 @@
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" s="172" t="str">
         <f>Deposits!E5</f>
-        <v>obj_0055c#0001</v>
+        <v>obj_00602#0000</v>
       </c>
       <c r="C4" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B4)</f>
@@ -2560,7 +2634,7 @@
       </c>
       <c r="D4" s="174">
         <f>_xll.qlRateHelperQuoteValue($B4,Trigger)</f>
-        <v>1E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="E4" s="174"/>
       <c r="F4" s="175" t="b">
@@ -2574,11 +2648,11 @@
       </c>
       <c r="I4" s="176">
         <f>_xll.qlRateHelperEarliestDate($B4,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J4" s="177">
         <f>_xll.qlRateHelperLatestDate($B4,Trigger)</f>
-        <v>41934</v>
+        <v>41947</v>
       </c>
       <c r="K4" s="63"/>
       <c r="L4" s="63"/>
@@ -2586,7 +2660,7 @@
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="172" t="str">
         <f>Deposits!E6</f>
-        <v>obj_0056a#0001</v>
+        <v>obj_00600#0000</v>
       </c>
       <c r="C5" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B5)</f>
@@ -2594,7 +2668,7 @@
       </c>
       <c r="D5" s="174">
         <f>_xll.qlRateHelperQuoteValue($B5,Trigger)</f>
-        <v>1E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="E5" s="174"/>
       <c r="F5" s="175" t="b">
@@ -2608,11 +2682,11 @@
       </c>
       <c r="I5" s="176">
         <f>_xll.qlRateHelperEarliestDate($B5,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J5" s="177">
         <f>_xll.qlRateHelperLatestDate($B5,Trigger)</f>
-        <v>41940</v>
+        <v>41953</v>
       </c>
       <c r="K5" s="63"/>
       <c r="L5" s="63"/>
@@ -2620,7 +2694,7 @@
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="172" t="str">
         <f>Deposits!E7</f>
-        <v>obj_0055e#0001</v>
+        <v>obj_0060a#0000</v>
       </c>
       <c r="C6" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B6)</f>
@@ -2628,7 +2702,7 @@
       </c>
       <c r="D6" s="174">
         <f>_xll.qlRateHelperQuoteValue($B6,Trigger)</f>
-        <v>2.0000000000000001E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="E6" s="174"/>
       <c r="F6" s="175" t="b">
@@ -2642,11 +2716,11 @@
       </c>
       <c r="I6" s="176">
         <f>_xll.qlRateHelperEarliestDate($B6,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J6" s="177">
         <f>_xll.qlRateHelperLatestDate($B6,Trigger)</f>
-        <v>41947</v>
+        <v>41960</v>
       </c>
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
@@ -2654,7 +2728,7 @@
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" s="172" t="str">
         <f>Deposits!E8</f>
-        <v>obj_00567#0001</v>
+        <v>obj_00611#0000</v>
       </c>
       <c r="C7" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B7)</f>
@@ -2662,7 +2736,7 @@
       </c>
       <c r="D7" s="174">
         <f>_xll.qlRateHelperQuoteValue($B7,Trigger)</f>
-        <v>2.0000000000000001E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="E7" s="174"/>
       <c r="F7" s="175" t="b">
@@ -2676,11 +2750,11 @@
       </c>
       <c r="I7" s="176">
         <f>_xll.qlRateHelperEarliestDate($B7,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J7" s="177">
         <f>_xll.qlRateHelperLatestDate($B7,Trigger)</f>
-        <v>41954</v>
+        <v>41967</v>
       </c>
       <c r="K7" s="63"/>
       <c r="L7" s="63"/>
@@ -2688,7 +2762,7 @@
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="172" t="str">
         <f>Deposits!E9</f>
-        <v>obj_00558#0001</v>
+        <v>obj_0060e#0000</v>
       </c>
       <c r="C8" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B8)</f>
@@ -2696,7 +2770,7 @@
       </c>
       <c r="D8" s="174">
         <f>_xll.qlRateHelperQuoteValue($B8,Trigger)</f>
-        <v>2.0000000000000001E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="E8" s="174"/>
       <c r="F8" s="175" t="b">
@@ -2710,11 +2784,11 @@
       </c>
       <c r="I8" s="176">
         <f>_xll.qlRateHelperEarliestDate($B8,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J8" s="177">
         <f>_xll.qlRateHelperLatestDate($B8,Trigger)</f>
-        <v>41964</v>
+        <v>41976</v>
       </c>
       <c r="K8" s="63"/>
       <c r="L8" s="63"/>
@@ -2722,7 +2796,7 @@
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="172" t="str">
         <f>Deposits!E10</f>
-        <v>obj_00555#0001</v>
+        <v>obj_00605#0000</v>
       </c>
       <c r="C9" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B9)</f>
@@ -2730,7 +2804,7 @@
       </c>
       <c r="D9" s="174">
         <f>_xll.qlRateHelperQuoteValue($B9,Trigger)</f>
-        <v>5.0000000000000001E-4</v>
+        <v>7.000000000000001E-4</v>
       </c>
       <c r="E9" s="174"/>
       <c r="F9" s="175" t="b">
@@ -2744,11 +2818,11 @@
       </c>
       <c r="I9" s="176">
         <f>_xll.qlRateHelperEarliestDate($B9,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J9" s="177">
         <f>_xll.qlRateHelperLatestDate($B9,Trigger)</f>
-        <v>41995</v>
+        <v>42009</v>
       </c>
       <c r="K9" s="63"/>
       <c r="L9" s="63"/>
@@ -2756,7 +2830,7 @@
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" s="172" t="str">
         <f>Deposits!E11</f>
-        <v>obj_00563#0001</v>
+        <v>obj_005ff#0000</v>
       </c>
       <c r="C10" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B10)</f>
@@ -2764,7 +2838,7 @@
       </c>
       <c r="D10" s="174">
         <f>_xll.qlRateHelperQuoteValue($B10,Trigger)</f>
-        <v>8.0000000000000004E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="E10" s="174"/>
       <c r="F10" s="175" t="b">
@@ -2778,18 +2852,18 @@
       </c>
       <c r="I10" s="176">
         <f>_xll.qlRateHelperEarliestDate($B10,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J10" s="177">
         <f>_xll.qlRateHelperLatestDate($B10,Trigger)</f>
-        <v>42025</v>
+        <v>42038</v>
       </c>
       <c r="O10" s="9"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" s="172" t="str">
         <f>Deposits!E12</f>
-        <v>obj_0056b#0001</v>
+        <v>obj_00604#0000</v>
       </c>
       <c r="C11" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B11)</f>
@@ -2797,7 +2871,7 @@
       </c>
       <c r="D11" s="174">
         <f>_xll.qlRateHelperQuoteValue($B11,Trigger)</f>
-        <v>1.1000000000000001E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="E11" s="174"/>
       <c r="F11" s="175" t="b">
@@ -2811,11 +2885,11 @@
       </c>
       <c r="I11" s="176">
         <f>_xll.qlRateHelperEarliestDate($B11,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J11" s="177">
         <f>_xll.qlRateHelperLatestDate($B11,Trigger)</f>
-        <v>42058</v>
+        <v>42066</v>
       </c>
       <c r="M11" s="8"/>
       <c r="O11" s="9"/>
@@ -2823,7 +2897,7 @@
     <row r="12" spans="2:15" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="172" t="str">
         <f>Deposits!E13</f>
-        <v>obj_00562#0001</v>
+        <v>obj_00613#0000</v>
       </c>
       <c r="C12" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B12)</f>
@@ -2831,7 +2905,7 @@
       </c>
       <c r="D12" s="174">
         <f>_xll.qlRateHelperQuoteValue($B12,Trigger)</f>
-        <v>1.4000000000000002E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="E12" s="174"/>
       <c r="F12" s="175" t="b">
@@ -2845,11 +2919,11 @@
       </c>
       <c r="I12" s="176">
         <f>_xll.qlRateHelperEarliestDate($B12,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J12" s="177">
         <f>_xll.qlRateHelperLatestDate($B12,Trigger)</f>
-        <v>42086</v>
+        <v>42101</v>
       </c>
       <c r="M12" s="8"/>
       <c r="O12" s="9"/>
@@ -2857,7 +2931,7 @@
     <row r="13" spans="2:15" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="172" t="str">
         <f>Deposits!E14</f>
-        <v>obj_00557#0001</v>
+        <v>obj_0060b#0000</v>
       </c>
       <c r="C13" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B13)</f>
@@ -2865,7 +2939,7 @@
       </c>
       <c r="D13" s="174">
         <f>_xll.qlRateHelperQuoteValue($B13,Trigger)</f>
-        <v>1.8E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="E13" s="174"/>
       <c r="F13" s="175" t="b">
@@ -2879,11 +2953,11 @@
       </c>
       <c r="I13" s="176">
         <f>_xll.qlRateHelperEarliestDate($B13,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J13" s="177">
         <f>_xll.qlRateHelperLatestDate($B13,Trigger)</f>
-        <v>42115</v>
+        <v>42128</v>
       </c>
       <c r="M13" s="8"/>
       <c r="O13" s="9"/>
@@ -2891,7 +2965,7 @@
     <row r="14" spans="2:15" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="172" t="str">
         <f>Deposits!E15</f>
-        <v>obj_00565#0001</v>
+        <v>obj_00607#0000</v>
       </c>
       <c r="C14" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B14)</f>
@@ -2913,11 +2987,11 @@
       </c>
       <c r="I14" s="176">
         <f>_xll.qlRateHelperEarliestDate($B14,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J14" s="177">
         <f>_xll.qlRateHelperLatestDate($B14,Trigger)</f>
-        <v>42145</v>
+        <v>42158</v>
       </c>
       <c r="M14" s="8"/>
       <c r="O14" s="9"/>
@@ -2925,7 +2999,7 @@
     <row r="15" spans="2:15" s="63" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="172" t="str">
         <f>Deposits!E16</f>
-        <v>obj_0055a#0001</v>
+        <v>obj_00612#0000</v>
       </c>
       <c r="C15" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B15)</f>
@@ -2947,11 +3021,11 @@
       </c>
       <c r="I15" s="176">
         <f>_xll.qlRateHelperEarliestDate($B15,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J15" s="177">
         <f>_xll.qlRateHelperLatestDate($B15,Trigger)</f>
-        <v>42177</v>
+        <v>42188</v>
       </c>
       <c r="M15" s="8"/>
       <c r="O15" s="9"/>
@@ -2959,7 +3033,7 @@
     <row r="16" spans="2:15" s="63" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="172" t="str">
         <f>Deposits!E17</f>
-        <v>obj_0055f#0001</v>
+        <v>obj_0060c#0000</v>
       </c>
       <c r="C16" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B16)</f>
@@ -2981,11 +3055,11 @@
       </c>
       <c r="I16" s="176">
         <f>_xll.qlRateHelperEarliestDate($B16,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J16" s="177">
         <f>_xll.qlRateHelperLatestDate($B16,Trigger)</f>
-        <v>42206</v>
+        <v>42219</v>
       </c>
       <c r="M16" s="8"/>
       <c r="O16" s="9"/>
@@ -2993,7 +3067,7 @@
     <row r="17" spans="1:15" s="63" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="172" t="str">
         <f>Deposits!E18</f>
-        <v>obj_0055b#0001</v>
+        <v>obj_00609#0000</v>
       </c>
       <c r="C17" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B17)</f>
@@ -3015,11 +3089,11 @@
       </c>
       <c r="I17" s="176">
         <f>_xll.qlRateHelperEarliestDate($B17,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J17" s="177">
         <f>_xll.qlRateHelperLatestDate($B17,Trigger)</f>
-        <v>42237</v>
+        <v>42250</v>
       </c>
       <c r="M17" s="8"/>
       <c r="O17" s="9"/>
@@ -3027,7 +3101,7 @@
     <row r="18" spans="1:15" s="63" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="172" t="str">
         <f>Deposits!E19</f>
-        <v>obj_00568#0001</v>
+        <v>obj_00610#0000</v>
       </c>
       <c r="C18" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B18)</f>
@@ -3049,19 +3123,19 @@
       </c>
       <c r="I18" s="176">
         <f>_xll.qlRateHelperEarliestDate($B18,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J18" s="177">
         <f>_xll.qlRateHelperLatestDate($B18,Trigger)</f>
-        <v>42268</v>
+        <v>42282</v>
       </c>
       <c r="M18" s="8"/>
       <c r="O18" s="9"/>
     </row>
-    <row r="19" spans="1:15" s="202" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" s="196" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="172" t="str">
         <f>Deposits!E20</f>
-        <v>obj_0056c#0001</v>
+        <v>obj_00614#0000</v>
       </c>
       <c r="C19" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B19)</f>
@@ -3083,11 +3157,11 @@
       </c>
       <c r="I19" s="176">
         <f>_xll.qlRateHelperEarliestDate($B19,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J19" s="177">
         <f>_xll.qlRateHelperLatestDate($B19,Trigger)</f>
-        <v>42298</v>
+        <v>42311</v>
       </c>
       <c r="M19" s="8"/>
       <c r="O19" s="9"/>
@@ -3095,7 +3169,7 @@
     <row r="20" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="178" t="str">
         <f>Deposits!E21</f>
-        <v>obj_00b75#0000</v>
+        <v>obj_005fb#0000</v>
       </c>
       <c r="C20" s="179" t="str">
         <f>_xll.qlRateHelperQuoteName(B20)</f>
@@ -3103,7 +3177,7 @@
       </c>
       <c r="D20" s="180">
         <f>_xll.qlRateHelperQuoteValue($B20,Trigger)</f>
-        <v>2.3531249999999997E-3</v>
+        <v>2.378125E-3</v>
       </c>
       <c r="E20" s="180"/>
       <c r="F20" s="181" t="b">
@@ -3118,7 +3192,7 @@
       </c>
       <c r="I20" s="182">
         <f>_xll.qlRateHelperEarliestDate($B20,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J20" s="183">
         <f>_xll.qlRateHelperLatestDate($B20,Trigger)</f>
@@ -3130,7 +3204,7 @@
       <c r="A21" s="6"/>
       <c r="B21" s="166" t="str">
         <f>Futures!H3</f>
-        <v>obj_00598#0000</v>
+        <v>obj_0065a#0000</v>
       </c>
       <c r="C21" s="167" t="str">
         <f>_xll.qlRateHelperQuoteName(B21)</f>
@@ -3166,7 +3240,7 @@
       <c r="A22" s="4"/>
       <c r="B22" s="172" t="str">
         <f>Futures!H4</f>
-        <v>obj_005b2#0000</v>
+        <v>obj_00626#0000</v>
       </c>
       <c r="C22" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B22)</f>
@@ -3202,19 +3276,19 @@
       <c r="A23" s="4"/>
       <c r="B23" s="172" t="str">
         <f>Futures!H5</f>
-        <v>obj_00587#0000</v>
+        <v>obj_00621#0000</v>
       </c>
       <c r="C23" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B23)</f>
         <v>EURFUT3MF5_Quote</v>
       </c>
-      <c r="D23" s="185">
+      <c r="D23" s="185" t="e">
         <f>_xll.qlRateHelperQuoteValue($B23,Trigger)</f>
-        <v>99.897500000000008</v>
-      </c>
-      <c r="E23" s="174">
+        <v>#NUM!</v>
+      </c>
+      <c r="E23" s="174" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B23,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="F23" s="175" t="b">
         <v>0</v>
@@ -3238,7 +3312,7 @@
       <c r="A24" s="4"/>
       <c r="B24" s="172" t="str">
         <f>Futures!H6</f>
-        <v>obj_00583#0000</v>
+        <v>obj_00639#0000</v>
       </c>
       <c r="C24" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B24)</f>
@@ -3274,7 +3348,7 @@
       <c r="A25" s="4"/>
       <c r="B25" s="172" t="str">
         <f>Futures!H7</f>
-        <v>obj_005bc#0000</v>
+        <v>obj_00656#0000</v>
       </c>
       <c r="C25" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B25)</f>
@@ -3282,7 +3356,7 @@
       </c>
       <c r="D25" s="185">
         <f>_xll.qlRateHelperQuoteValue($B25,Trigger)</f>
-        <v>99.897500000000008</v>
+        <v>99.892499999999998</v>
       </c>
       <c r="E25" s="174">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B25,Trigger)</f>
@@ -3310,19 +3384,19 @@
       <c r="A26" s="4"/>
       <c r="B26" s="172" t="str">
         <f>Futures!H8</f>
-        <v>obj_00575#0000</v>
+        <v>obj_00632#0000</v>
       </c>
       <c r="C26" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B26)</f>
         <v>EURFUT3MJ5_Quote</v>
       </c>
-      <c r="D26" s="185">
+      <c r="D26" s="185" t="e">
         <f>_xll.qlRateHelperQuoteValue($B26,Trigger)</f>
-        <v>99.922499999999999</v>
-      </c>
-      <c r="E26" s="174">
+        <v>#NUM!</v>
+      </c>
+      <c r="E26" s="174" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B26,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="F26" s="175" t="b">
         <v>0</v>
@@ -3346,7 +3420,7 @@
       <c r="A27" s="4"/>
       <c r="B27" s="172" t="str">
         <f>Futures!H9</f>
-        <v>obj_005a2#0000</v>
+        <v>obj_00655#0000</v>
       </c>
       <c r="C27" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B27)</f>
@@ -3382,7 +3456,7 @@
       <c r="A28" s="4"/>
       <c r="B28" s="172" t="str">
         <f>Futures!H10</f>
-        <v>obj_00576#0000</v>
+        <v>obj_0065b#0000</v>
       </c>
       <c r="C28" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B28)</f>
@@ -3418,19 +3492,19 @@
       <c r="A29" s="4"/>
       <c r="B29" s="172" t="str">
         <f>Futures!H11</f>
-        <v>obj_00591#0000</v>
+        <v>obj_00634#0000</v>
       </c>
       <c r="C29" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B29)</f>
         <v>EURFUT3MN5_Quote</v>
       </c>
-      <c r="D29" s="185">
+      <c r="D29" s="185" t="e">
         <f>_xll.qlRateHelperQuoteValue($B29,Trigger)</f>
-        <v>99.922499999999999</v>
-      </c>
-      <c r="E29" s="174">
+        <v>#NUM!</v>
+      </c>
+      <c r="E29" s="174" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B29,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="F29" s="175" t="b">
         <v>1</v>
@@ -3454,7 +3528,7 @@
       <c r="A30" s="4"/>
       <c r="B30" s="172" t="str">
         <f>Futures!H12</f>
-        <v>obj_0059a#0000</v>
+        <v>obj_00660#0000</v>
       </c>
       <c r="C30" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B30)</f>
@@ -3490,7 +3564,7 @@
       <c r="A31" s="4"/>
       <c r="B31" s="172" t="str">
         <f>Futures!H13</f>
-        <v>obj_0057b#0000</v>
+        <v>obj_0064c#0000</v>
       </c>
       <c r="C31" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B31)</f>
@@ -3498,7 +3572,7 @@
       </c>
       <c r="D31" s="185">
         <f>_xll.qlRateHelperQuoteValue($B31,Trigger)</f>
-        <v>99.892499999999998</v>
+        <v>99.897500000000008</v>
       </c>
       <c r="E31" s="174">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B31,Trigger)</f>
@@ -3526,19 +3600,19 @@
       <c r="A32" s="4"/>
       <c r="B32" s="172" t="str">
         <f>Futures!H14</f>
-        <v>obj_00594#0000</v>
+        <v>obj_00619#0000</v>
       </c>
       <c r="C32" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B32)</f>
         <v>EURFUT3MV5_Quote</v>
       </c>
-      <c r="D32" s="185">
+      <c r="D32" s="185" t="e">
         <f>_xll.qlRateHelperQuoteValue($B32,Trigger)</f>
-        <v>99.912499999999994</v>
-      </c>
-      <c r="E32" s="174">
+        <v>#NUM!</v>
+      </c>
+      <c r="E32" s="174" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B32,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="F32" s="175" t="b">
         <v>1</v>
@@ -3562,7 +3636,7 @@
       <c r="A33" s="4"/>
       <c r="B33" s="172" t="str">
         <f>Futures!H15</f>
-        <v>obj_0058e#0000</v>
+        <v>obj_00622#0000</v>
       </c>
       <c r="C33" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B33)</f>
@@ -3598,7 +3672,7 @@
       <c r="A34" s="4"/>
       <c r="B34" s="172" t="str">
         <f>Futures!H16</f>
-        <v>obj_0057d#0000</v>
+        <v>obj_0063c#0000</v>
       </c>
       <c r="C34" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B34)</f>
@@ -3634,7 +3708,7 @@
       <c r="A35" s="4"/>
       <c r="B35" s="172" t="str">
         <f>Futures!H17</f>
-        <v>obj_0058d#0000</v>
+        <v>obj_00618#0000</v>
       </c>
       <c r="C35" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B35)</f>
@@ -3670,7 +3744,7 @@
       <c r="A36" s="4"/>
       <c r="B36" s="172" t="str">
         <f>Futures!H18</f>
-        <v>obj_005b8#0000</v>
+        <v>obj_0062c#0000</v>
       </c>
       <c r="C36" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B36)</f>
@@ -3678,7 +3752,7 @@
       </c>
       <c r="D36" s="185">
         <f>_xll.qlRateHelperQuoteValue($B36,Trigger)</f>
-        <v>99.792500000000004</v>
+        <v>99.795000000000002</v>
       </c>
       <c r="E36" s="174">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B36,Trigger)</f>
@@ -3706,7 +3780,7 @@
       <c r="A37" s="4"/>
       <c r="B37" s="172" t="str">
         <f>Futures!H19</f>
-        <v>obj_0059b#0000</v>
+        <v>obj_00641#0000</v>
       </c>
       <c r="C37" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B37)</f>
@@ -3714,7 +3788,7 @@
       </c>
       <c r="D37" s="185">
         <f>_xll.qlRateHelperQuoteValue($B37,Trigger)</f>
-        <v>99.757499999999993</v>
+        <v>99.762500000000003</v>
       </c>
       <c r="E37" s="174">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B37,Trigger)</f>
@@ -3742,7 +3816,7 @@
       <c r="A38" s="4"/>
       <c r="B38" s="172" t="str">
         <f>Futures!H20</f>
-        <v>obj_005b1#0000</v>
+        <v>obj_0061d#0000</v>
       </c>
       <c r="C38" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B38)</f>
@@ -3778,7 +3852,7 @@
       <c r="A39" s="4"/>
       <c r="B39" s="172" t="str">
         <f>Futures!H21</f>
-        <v>obj_005a8#0000</v>
+        <v>obj_0065d#0000</v>
       </c>
       <c r="C39" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B39)</f>
@@ -3786,7 +3860,7 @@
       </c>
       <c r="D39" s="185">
         <f>_xll.qlRateHelperQuoteValue($B39,Trigger)</f>
-        <v>99.677500000000009</v>
+        <v>99.675000000000011</v>
       </c>
       <c r="E39" s="174">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B39,Trigger)</f>
@@ -3814,7 +3888,7 @@
       <c r="A40" s="4"/>
       <c r="B40" s="172" t="str">
         <f>Futures!H22</f>
-        <v>obj_005aa#0000</v>
+        <v>obj_00664#0000</v>
       </c>
       <c r="C40" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B40)</f>
@@ -3822,7 +3896,7 @@
       </c>
       <c r="D40" s="185">
         <f>_xll.qlRateHelperQuoteValue($B40,Trigger)</f>
-        <v>99.627499999999998</v>
+        <v>99.622500000000002</v>
       </c>
       <c r="E40" s="174">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B40,Trigger)</f>
@@ -3850,7 +3924,7 @@
       <c r="A41" s="4"/>
       <c r="B41" s="172" t="str">
         <f>Futures!H23</f>
-        <v>obj_005bb#0000</v>
+        <v>obj_00652#0000</v>
       </c>
       <c r="C41" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B41)</f>
@@ -3886,7 +3960,7 @@
       <c r="A42" s="4"/>
       <c r="B42" s="172" t="str">
         <f>Futures!H24</f>
-        <v>obj_00597#0000</v>
+        <v>obj_0062f#0000</v>
       </c>
       <c r="C42" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B42)</f>
@@ -3894,7 +3968,7 @@
       </c>
       <c r="D42" s="185">
         <f>_xll.qlRateHelperQuoteValue($B42,Trigger)</f>
-        <v>99.504999999999995</v>
+        <v>99.502499999999998</v>
       </c>
       <c r="E42" s="174">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B42,Trigger)</f>
@@ -3922,7 +3996,7 @@
       <c r="A43" s="4"/>
       <c r="B43" s="172" t="str">
         <f>Futures!H25</f>
-        <v>obj_005a9#0000</v>
+        <v>obj_0063e#0000</v>
       </c>
       <c r="C43" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B43)</f>
@@ -3930,7 +4004,7 @@
       </c>
       <c r="D43" s="185">
         <f>_xll.qlRateHelperQuoteValue($B43,Trigger)</f>
-        <v>99.44</v>
+        <v>99.442499999999995</v>
       </c>
       <c r="E43" s="174">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B43,Trigger)</f>
@@ -3958,7 +4032,7 @@
       <c r="A44" s="4"/>
       <c r="B44" s="172" t="str">
         <f>Futures!H26</f>
-        <v>obj_00577#0000</v>
+        <v>obj_00653#0000</v>
       </c>
       <c r="C44" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B44)</f>
@@ -3966,7 +4040,7 @@
       </c>
       <c r="D44" s="185">
         <f>_xll.qlRateHelperQuoteValue($B44,Trigger)</f>
-        <v>99.375</v>
+        <v>99.38</v>
       </c>
       <c r="E44" s="174">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B44,Trigger)</f>
@@ -3994,7 +4068,7 @@
       <c r="A45" s="4"/>
       <c r="B45" s="172" t="str">
         <f>Futures!H27</f>
-        <v>obj_005ae#0000</v>
+        <v>obj_0063b#0000</v>
       </c>
       <c r="C45" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B45)</f>
@@ -4002,7 +4076,7 @@
       </c>
       <c r="D45" s="185">
         <f>_xll.qlRateHelperQuoteValue($B45,Trigger)</f>
-        <v>99.302500000000009</v>
+        <v>99.31</v>
       </c>
       <c r="E45" s="174">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B45,Trigger)</f>
@@ -4030,7 +4104,7 @@
       <c r="A46" s="4"/>
       <c r="B46" s="172" t="str">
         <f>Futures!H28</f>
-        <v>obj_0059e#0000</v>
+        <v>obj_00646#0000</v>
       </c>
       <c r="C46" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B46)</f>
@@ -4038,7 +4112,7 @@
       </c>
       <c r="D46" s="185">
         <f>_xll.qlRateHelperQuoteValue($B46,Trigger)</f>
-        <v>99.22999999999999</v>
+        <v>99.234999999999999</v>
       </c>
       <c r="E46" s="174">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B46,Trigger)</f>
@@ -4066,7 +4140,7 @@
       <c r="A47" s="4"/>
       <c r="B47" s="172" t="str">
         <f>Futures!H29</f>
-        <v>obj_005b9#0000</v>
+        <v>obj_0064b#0000</v>
       </c>
       <c r="C47" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B47)</f>
@@ -4102,7 +4176,7 @@
       <c r="A48" s="4"/>
       <c r="B48" s="172" t="str">
         <f>Futures!H30</f>
-        <v>obj_005ab#0000</v>
+        <v>obj_0061c#0000</v>
       </c>
       <c r="C48" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B48)</f>
@@ -4110,7 +4184,7 @@
       </c>
       <c r="D48" s="185">
         <f>_xll.qlRateHelperQuoteValue($B48,Trigger)</f>
-        <v>99.064999999999998</v>
+        <v>99.0625</v>
       </c>
       <c r="E48" s="174">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B48,Trigger)</f>
@@ -4138,7 +4212,7 @@
       <c r="A49" s="4"/>
       <c r="B49" s="172" t="str">
         <f>Futures!H31</f>
-        <v>obj_00584#0000</v>
+        <v>obj_0065f#0000</v>
       </c>
       <c r="C49" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B49)</f>
@@ -4146,7 +4220,7 @@
       </c>
       <c r="D49" s="185">
         <f>_xll.qlRateHelperQuoteValue($B49,Trigger)</f>
-        <v>98.987499999999997</v>
+        <v>98.977499999999992</v>
       </c>
       <c r="E49" s="174">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B49,Trigger)</f>
@@ -4174,7 +4248,7 @@
       <c r="A50" s="4"/>
       <c r="B50" s="172" t="str">
         <f>Futures!H32</f>
-        <v>obj_0058f#0000</v>
+        <v>obj_00629#0000</v>
       </c>
       <c r="C50" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B50)</f>
@@ -4182,7 +4256,7 @@
       </c>
       <c r="D50" s="185">
         <f>_xll.qlRateHelperQuoteValue($B50,Trigger)</f>
-        <v>98.9</v>
+        <v>98.89</v>
       </c>
       <c r="E50" s="174">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B50,Trigger)</f>
@@ -4210,7 +4284,7 @@
       <c r="A51" s="4"/>
       <c r="B51" s="172" t="str">
         <f>Futures!H33</f>
-        <v>obj_005ac#0000</v>
+        <v>obj_00625#0000</v>
       </c>
       <c r="C51" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B51)</f>
@@ -4246,7 +4320,7 @@
       <c r="A52" s="4"/>
       <c r="B52" s="172" t="str">
         <f>Futures!H34</f>
-        <v>obj_0059f#0000</v>
+        <v>obj_0064a#0000</v>
       </c>
       <c r="C52" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B52)</f>
@@ -4254,7 +4328,7 @@
       </c>
       <c r="D52" s="185">
         <f>_xll.qlRateHelperQuoteValue($B52,Trigger)</f>
-        <v>98.710000000000008</v>
+        <v>98.715000000000003</v>
       </c>
       <c r="E52" s="174">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B52,Trigger)</f>
@@ -4282,7 +4356,7 @@
       <c r="A53" s="4"/>
       <c r="B53" s="172" t="str">
         <f>Futures!H35</f>
-        <v>obj_00581#0000</v>
+        <v>obj_00648#0000</v>
       </c>
       <c r="C53" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B53)</f>
@@ -4318,7 +4392,7 @@
       <c r="A54" s="4"/>
       <c r="B54" s="172" t="str">
         <f>Futures!H36</f>
-        <v>obj_00574#0000</v>
+        <v>obj_00647#0000</v>
       </c>
       <c r="C54" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B54)</f>
@@ -4354,7 +4428,7 @@
       <c r="A55" s="4"/>
       <c r="B55" s="172" t="str">
         <f>Futures!H37</f>
-        <v>obj_005a1#0000</v>
+        <v>obj_00651#0000</v>
       </c>
       <c r="C55" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B55)</f>
@@ -4390,7 +4464,7 @@
       <c r="A56" s="4"/>
       <c r="B56" s="172" t="str">
         <f>Futures!H38</f>
-        <v>obj_00590#0000</v>
+        <v>obj_0062e#0000</v>
       </c>
       <c r="C56" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B56)</f>
@@ -4426,7 +4500,7 @@
       <c r="A57" s="4"/>
       <c r="B57" s="172" t="str">
         <f>Futures!H39</f>
-        <v>obj_0057e#0000</v>
+        <v>obj_00662#0000</v>
       </c>
       <c r="C57" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B57)</f>
@@ -4462,7 +4536,7 @@
       <c r="A58" s="4"/>
       <c r="B58" s="172" t="str">
         <f>Futures!H40</f>
-        <v>obj_005b4#0000</v>
+        <v>obj_0064f#0000</v>
       </c>
       <c r="C58" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B58)</f>
@@ -4498,7 +4572,7 @@
       <c r="A59" s="4"/>
       <c r="B59" s="172" t="str">
         <f>Futures!H41</f>
-        <v>obj_00593#0000</v>
+        <v>obj_00663#0000</v>
       </c>
       <c r="C59" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B59)</f>
@@ -4534,7 +4608,7 @@
       <c r="A60" s="4"/>
       <c r="B60" s="172" t="str">
         <f>Futures!H42</f>
-        <v>obj_0057a#0000</v>
+        <v>obj_0062d#0000</v>
       </c>
       <c r="C60" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B60)</f>
@@ -4570,7 +4644,7 @@
       <c r="A61" s="4"/>
       <c r="B61" s="178" t="str">
         <f>Futures!H43</f>
-        <v>obj_005af#0000</v>
+        <v>obj_00661#0000</v>
       </c>
       <c r="C61" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B61)</f>
@@ -4606,7 +4680,7 @@
       <c r="A62" s="3"/>
       <c r="B62" s="172" t="str">
         <f>Futures!H44</f>
-        <v>obj_00573#0000</v>
+        <v>obj_00644#0000</v>
       </c>
       <c r="C62" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B62)</f>
@@ -4642,7 +4716,7 @@
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B63" s="172" t="str">
         <f>Swaps!K5</f>
-        <v>obj_005b7#0000</v>
+        <v>obj_00627#0000</v>
       </c>
       <c r="C63" s="167" t="str">
         <f>_xll.qlRateHelperQuoteName(B63)</f>
@@ -4650,7 +4724,7 @@
       </c>
       <c r="D63" s="192">
         <f>_xll.qlRateHelperQuoteValue($B63,Trigger)</f>
-        <v>1.99E-3</v>
+        <v>2.0200000000000001E-3</v>
       </c>
       <c r="E63" s="168">
         <f>_xll.qlSwapRateHelperSpread($B63,Trigger)</f>
@@ -4667,18 +4741,18 @@
       </c>
       <c r="I63" s="170">
         <f>_xll.qlRateHelperEarliestDate($B63,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J63" s="171">
         <f>_xll.qlRateHelperLatestDate($B63,Trigger)</f>
-        <v>42298</v>
+        <v>42311</v>
       </c>
       <c r="L63" s="5"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B64" s="172" t="str">
         <f>Swaps!K6</f>
-        <v>obj_005b0#0000</v>
+        <v>obj_00642#0000</v>
       </c>
       <c r="C64" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B64)</f>
@@ -4686,7 +4760,7 @@
       </c>
       <c r="D64" s="186">
         <f>_xll.qlRateHelperQuoteValue($B64,Trigger)</f>
-        <v>1.8599999999999999E-3</v>
+        <v>1.91E-3</v>
       </c>
       <c r="E64" s="174">
         <f>_xll.qlSwapRateHelperSpread($B64,Trigger)</f>
@@ -4703,18 +4777,18 @@
       </c>
       <c r="I64" s="176">
         <f>_xll.qlRateHelperEarliestDate($B64,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J64" s="177">
         <f>_xll.qlRateHelperLatestDate($B64,Trigger)</f>
-        <v>42390</v>
+        <v>42403</v>
       </c>
       <c r="L64" s="5"/>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B65" s="172" t="str">
         <f>Swaps!K7</f>
-        <v>obj_00571#0000</v>
+        <v>obj_00616#0000</v>
       </c>
       <c r="C65" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B65)</f>
@@ -4722,7 +4796,7 @@
       </c>
       <c r="D65" s="186">
         <f>_xll.qlRateHelperQuoteValue($B65,Trigger)</f>
-        <v>2.0999999999999999E-3</v>
+        <v>2.14E-3</v>
       </c>
       <c r="E65" s="174">
         <f>_xll.qlSwapRateHelperSpread($B65,Trigger)</f>
@@ -4739,18 +4813,18 @@
       </c>
       <c r="I65" s="176">
         <f>_xll.qlRateHelperEarliestDate($B65,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J65" s="177">
         <f>_xll.qlRateHelperLatestDate($B65,Trigger)</f>
-        <v>42481</v>
+        <v>42493</v>
       </c>
       <c r="L65" s="5"/>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B66" s="172" t="str">
         <f>Swaps!K8</f>
-        <v>obj_00578#0000</v>
+        <v>obj_0061f#0000</v>
       </c>
       <c r="C66" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B66)</f>
@@ -4758,7 +4832,7 @@
       </c>
       <c r="D66" s="186">
         <f>_xll.qlRateHelperQuoteValue($B66,Trigger)</f>
-        <v>2.0600000000000002E-3</v>
+        <v>2.1099999999999999E-3</v>
       </c>
       <c r="E66" s="174">
         <f>_xll.qlSwapRateHelperSpread($B66,Trigger)</f>
@@ -4775,18 +4849,18 @@
       </c>
       <c r="I66" s="176">
         <f>_xll.qlRateHelperEarliestDate($B66,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J66" s="177">
         <f>_xll.qlRateHelperLatestDate($B66,Trigger)</f>
-        <v>42572</v>
+        <v>42585</v>
       </c>
       <c r="L66" s="5"/>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B67" s="172" t="str">
         <f>Swaps!K9</f>
-        <v>obj_00592#0000</v>
+        <v>obj_0063d#0000</v>
       </c>
       <c r="C67" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B67)</f>
@@ -4794,7 +4868,7 @@
       </c>
       <c r="D67" s="186">
         <f>_xll.qlRateHelperQuoteValue($B67,Trigger)</f>
-        <v>2.31E-3</v>
+        <v>2.3400000000000001E-3</v>
       </c>
       <c r="E67" s="174">
         <f>_xll.qlSwapRateHelperSpread($B67,Trigger)</f>
@@ -4811,18 +4885,18 @@
       </c>
       <c r="I67" s="176">
         <f>_xll.qlRateHelperEarliestDate($B67,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J67" s="177">
         <f>_xll.qlRateHelperLatestDate($B67,Trigger)</f>
-        <v>42664</v>
+        <v>42677</v>
       </c>
       <c r="L67" s="5"/>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B68" s="172" t="str">
         <f>Swaps!K10</f>
-        <v>obj_00579#0000</v>
+        <v>obj_00628#0000</v>
       </c>
       <c r="C68" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B68)</f>
@@ -4830,7 +4904,7 @@
       </c>
       <c r="D68" s="186">
         <f>_xll.qlRateHelperQuoteValue($B68,Trigger)</f>
-        <v>2.8700000000000002E-3</v>
+        <v>2.9300000000000003E-3</v>
       </c>
       <c r="E68" s="174">
         <f>_xll.qlSwapRateHelperSpread($B68,Trigger)</f>
@@ -4847,18 +4921,18 @@
       </c>
       <c r="I68" s="176">
         <f>_xll.qlRateHelperEarliestDate($B68,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J68" s="177">
         <f>_xll.qlRateHelperLatestDate($B68,Trigger)</f>
-        <v>43031</v>
+        <v>43042</v>
       </c>
       <c r="L68" s="5"/>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B69" s="172" t="str">
         <f>Swaps!K11</f>
-        <v>obj_005b3#0000</v>
+        <v>obj_00631#0000</v>
       </c>
       <c r="C69" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B69)</f>
@@ -4866,7 +4940,7 @@
       </c>
       <c r="D69" s="186">
         <f>_xll.qlRateHelperQuoteValue($B69,Trigger)</f>
-        <v>3.6800000000000001E-3</v>
+        <v>3.7699999999999999E-3</v>
       </c>
       <c r="E69" s="174">
         <f>_xll.qlSwapRateHelperSpread($B69,Trigger)</f>
@@ -4883,18 +4957,18 @@
       </c>
       <c r="I69" s="176">
         <f>_xll.qlRateHelperEarliestDate($B69,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J69" s="177">
         <f>_xll.qlRateHelperLatestDate($B69,Trigger)</f>
-        <v>43395</v>
+        <v>43409</v>
       </c>
       <c r="L69" s="5"/>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B70" s="172" t="str">
         <f>Swaps!K12</f>
-        <v>obj_00599#0000</v>
+        <v>obj_0063a#0000</v>
       </c>
       <c r="C70" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B70)</f>
@@ -4902,7 +4976,7 @@
       </c>
       <c r="D70" s="186">
         <f>_xll.qlRateHelperQuoteValue($B70,Trigger)</f>
-        <v>4.7299999999999998E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="E70" s="174">
         <f>_xll.qlSwapRateHelperSpread($B70,Trigger)</f>
@@ -4919,18 +4993,18 @@
       </c>
       <c r="I70" s="176">
         <f>_xll.qlRateHelperEarliestDate($B70,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J70" s="177">
         <f>_xll.qlRateHelperLatestDate($B70,Trigger)</f>
-        <v>43759</v>
+        <v>43773</v>
       </c>
       <c r="L70" s="5"/>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B71" s="172" t="str">
         <f>Swaps!K13</f>
-        <v>obj_005b6#0000</v>
+        <v>obj_00659#0000</v>
       </c>
       <c r="C71" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B71)</f>
@@ -4938,7 +5012,7 @@
       </c>
       <c r="D71" s="186">
         <f>_xll.qlRateHelperQuoteValue($B71,Trigger)</f>
-        <v>5.9199999999999999E-3</v>
+        <v>5.9499999999999996E-3</v>
       </c>
       <c r="E71" s="174">
         <f>_xll.qlSwapRateHelperSpread($B71,Trigger)</f>
@@ -4955,18 +5029,18 @@
       </c>
       <c r="I71" s="176">
         <f>_xll.qlRateHelperEarliestDate($B71,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J71" s="177">
         <f>_xll.qlRateHelperLatestDate($B71,Trigger)</f>
-        <v>44125</v>
+        <v>44138</v>
       </c>
       <c r="L71" s="5"/>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B72" s="172" t="str">
         <f>Swaps!K14</f>
-        <v>obj_005a4#0000</v>
+        <v>obj_00624#0000</v>
       </c>
       <c r="C72" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B72)</f>
@@ -4974,7 +5048,7 @@
       </c>
       <c r="D72" s="186">
         <f>_xll.qlRateHelperQuoteValue($B72,Trigger)</f>
-        <v>7.2399999999999999E-3</v>
+        <v>7.2299999999999994E-3</v>
       </c>
       <c r="E72" s="174">
         <f>_xll.qlSwapRateHelperSpread($B72,Trigger)</f>
@@ -4991,18 +5065,18 @@
       </c>
       <c r="I72" s="176">
         <f>_xll.qlRateHelperEarliestDate($B72,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J72" s="177">
         <f>_xll.qlRateHelperLatestDate($B72,Trigger)</f>
-        <v>44490</v>
+        <v>44503</v>
       </c>
       <c r="L72" s="5"/>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B73" s="172" t="str">
         <f>Swaps!K15</f>
-        <v>obj_00595#0000</v>
+        <v>obj_00643#0000</v>
       </c>
       <c r="C73" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B73)</f>
@@ -5010,7 +5084,7 @@
       </c>
       <c r="D73" s="186">
         <f>_xll.qlRateHelperQuoteValue($B73,Trigger)</f>
-        <v>8.5900000000000004E-3</v>
+        <v>8.5500000000000003E-3</v>
       </c>
       <c r="E73" s="174">
         <f>_xll.qlSwapRateHelperSpread($B73,Trigger)</f>
@@ -5027,18 +5101,18 @@
       </c>
       <c r="I73" s="176">
         <f>_xll.qlRateHelperEarliestDate($B73,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J73" s="177">
         <f>_xll.qlRateHelperLatestDate($B73,Trigger)</f>
-        <v>44855</v>
+        <v>44868</v>
       </c>
       <c r="L73" s="5"/>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B74" s="172" t="str">
         <f>Swaps!K16</f>
-        <v>obj_0058b#0000</v>
+        <v>obj_00654#0000</v>
       </c>
       <c r="C74" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B74)</f>
@@ -5046,7 +5120,7 @@
       </c>
       <c r="D74" s="186">
         <f>_xll.qlRateHelperQuoteValue($B74,Trigger)</f>
-        <v>9.8899999999999995E-3</v>
+        <v>9.8099999999999993E-3</v>
       </c>
       <c r="E74" s="174">
         <f>_xll.qlSwapRateHelperSpread($B74,Trigger)</f>
@@ -5063,18 +5137,18 @@
       </c>
       <c r="I74" s="176">
         <f>_xll.qlRateHelperEarliestDate($B74,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J74" s="177">
         <f>_xll.qlRateHelperLatestDate($B74,Trigger)</f>
-        <v>45222</v>
+        <v>45233</v>
       </c>
       <c r="L74" s="5"/>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B75" s="172" t="str">
         <f>Swaps!K17</f>
-        <v>obj_005ad#0000</v>
+        <v>obj_00636#0000</v>
       </c>
       <c r="C75" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B75)</f>
@@ -5082,7 +5156,7 @@
       </c>
       <c r="D75" s="186">
         <f>_xll.qlRateHelperQuoteValue($B75,Trigger)</f>
-        <v>1.1059999999999999E-2</v>
+        <v>1.0970000000000001E-2</v>
       </c>
       <c r="E75" s="174">
         <f>_xll.qlSwapRateHelperSpread($B75,Trigger)</f>
@@ -5099,18 +5173,18 @@
       </c>
       <c r="I75" s="176">
         <f>_xll.qlRateHelperEarliestDate($B75,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J75" s="177">
         <f>_xll.qlRateHelperLatestDate($B75,Trigger)</f>
-        <v>45586</v>
+        <v>45600</v>
       </c>
       <c r="L75" s="5"/>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B76" s="172" t="str">
         <f>Swaps!K18</f>
-        <v>obj_00588#0000</v>
+        <v>obj_00649#0000</v>
       </c>
       <c r="C76" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B76)</f>
@@ -5118,7 +5192,7 @@
       </c>
       <c r="D76" s="186">
         <f>_xll.qlRateHelperQuoteValue($B76,Trigger)</f>
-        <v>1.2110000000000001E-2</v>
+        <v>1.201E-2</v>
       </c>
       <c r="E76" s="174">
         <f>_xll.qlSwapRateHelperSpread($B76,Trigger)</f>
@@ -5135,18 +5209,18 @@
       </c>
       <c r="I76" s="176">
         <f>_xll.qlRateHelperEarliestDate($B76,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J76" s="177">
         <f>_xll.qlRateHelperLatestDate($B76,Trigger)</f>
-        <v>45951</v>
+        <v>45964</v>
       </c>
       <c r="L76" s="5"/>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B77" s="172" t="str">
         <f>Swaps!K19</f>
-        <v>obj_005a5#0000</v>
+        <v>obj_0062b#0000</v>
       </c>
       <c r="C77" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B77)</f>
@@ -5154,7 +5228,7 @@
       </c>
       <c r="D77" s="186">
         <f>_xll.qlRateHelperQuoteValue($B77,Trigger)</f>
-        <v>1.303E-2</v>
+        <v>1.2920000000000001E-2</v>
       </c>
       <c r="E77" s="174">
         <f>_xll.qlSwapRateHelperSpread($B77,Trigger)</f>
@@ -5171,18 +5245,18 @@
       </c>
       <c r="I77" s="176">
         <f>_xll.qlRateHelperEarliestDate($B77,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J77" s="177">
         <f>_xll.qlRateHelperLatestDate($B77,Trigger)</f>
-        <v>46316</v>
+        <v>46329</v>
       </c>
       <c r="L77" s="5"/>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B78" s="172" t="str">
         <f>Swaps!K20</f>
-        <v>obj_0058a#0000</v>
+        <v>obj_0065c#0000</v>
       </c>
       <c r="C78" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B78)</f>
@@ -5190,7 +5264,7 @@
       </c>
       <c r="D78" s="186">
         <f>_xll.qlRateHelperQuoteValue($B78,Trigger)</f>
-        <v>1.3839999999999998E-2</v>
+        <v>1.372E-2</v>
       </c>
       <c r="E78" s="174">
         <f>_xll.qlSwapRateHelperSpread($B78,Trigger)</f>
@@ -5207,18 +5281,18 @@
       </c>
       <c r="I78" s="176">
         <f>_xll.qlRateHelperEarliestDate($B78,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J78" s="177">
         <f>_xll.qlRateHelperLatestDate($B78,Trigger)</f>
-        <v>46681</v>
+        <v>46694</v>
       </c>
       <c r="L78" s="5"/>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="172" t="str">
         <f>Swaps!K21</f>
-        <v>obj_005b5#0000</v>
+        <v>obj_0063f#0000</v>
       </c>
       <c r="C79" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B79)</f>
@@ -5226,7 +5300,7 @@
       </c>
       <c r="D79" s="186">
         <f>_xll.qlRateHelperQuoteValue($B79,Trigger)</f>
-        <v>1.455E-2</v>
+        <v>1.4419999999999999E-2</v>
       </c>
       <c r="E79" s="174">
         <f>_xll.qlSwapRateHelperSpread($B79,Trigger)</f>
@@ -5243,18 +5317,18 @@
       </c>
       <c r="I79" s="176">
         <f>_xll.qlRateHelperEarliestDate($B79,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J79" s="177">
         <f>_xll.qlRateHelperLatestDate($B79,Trigger)</f>
-        <v>47049</v>
+        <v>47060</v>
       </c>
       <c r="L79" s="5"/>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B80" s="172" t="str">
         <f>Swaps!K22</f>
-        <v>obj_005ba#0000</v>
+        <v>obj_00637#0000</v>
       </c>
       <c r="C80" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B80)</f>
@@ -5262,7 +5336,7 @@
       </c>
       <c r="D80" s="186">
         <f>_xll.qlRateHelperQuoteValue($B80,Trigger)</f>
-        <v>1.516E-2</v>
+        <v>1.502E-2</v>
       </c>
       <c r="E80" s="174">
         <f>_xll.qlSwapRateHelperSpread($B80,Trigger)</f>
@@ -5279,18 +5353,18 @@
       </c>
       <c r="I80" s="176">
         <f>_xll.qlRateHelperEarliestDate($B80,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J80" s="177">
         <f>_xll.qlRateHelperLatestDate($B80,Trigger)</f>
-        <v>47413</v>
+        <v>47427</v>
       </c>
       <c r="L80" s="5"/>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B81" s="172" t="str">
         <f>Swaps!K23</f>
-        <v>obj_00570#0000</v>
+        <v>obj_00657#0000</v>
       </c>
       <c r="C81" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B81)</f>
@@ -5298,7 +5372,7 @@
       </c>
       <c r="D81" s="186">
         <f>_xll.qlRateHelperQuoteValue($B81,Trigger)</f>
-        <v>1.5689999999999999E-2</v>
+        <v>1.555E-2</v>
       </c>
       <c r="E81" s="174">
         <f>_xll.qlSwapRateHelperSpread($B81,Trigger)</f>
@@ -5315,18 +5389,18 @@
       </c>
       <c r="I81" s="176">
         <f>_xll.qlRateHelperEarliestDate($B81,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J81" s="177">
         <f>_xll.qlRateHelperLatestDate($B81,Trigger)</f>
-        <v>47777</v>
+        <v>47791</v>
       </c>
       <c r="L81" s="5"/>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B82" s="172" t="str">
         <f>Swaps!K24</f>
-        <v>obj_00585#0000</v>
+        <v>obj_00640#0000</v>
       </c>
       <c r="C82" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B82)</f>
@@ -5334,7 +5408,7 @@
       </c>
       <c r="D82" s="186">
         <f>_xll.qlRateHelperQuoteValue($B82,Trigger)</f>
-        <v>1.6150000000000001E-2</v>
+        <v>1.601E-2</v>
       </c>
       <c r="E82" s="174">
         <f>_xll.qlSwapRateHelperSpread($B82,Trigger)</f>
@@ -5351,18 +5425,18 @@
       </c>
       <c r="I82" s="176">
         <f>_xll.qlRateHelperEarliestDate($B82,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J82" s="177">
         <f>_xll.qlRateHelperLatestDate($B82,Trigger)</f>
-        <v>48142</v>
+        <v>48155</v>
       </c>
       <c r="L82" s="5"/>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B83" s="172" t="str">
         <f>Swaps!K25</f>
-        <v>obj_0059c#0000</v>
+        <v>obj_0061a#0000</v>
       </c>
       <c r="C83" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B83)</f>
@@ -5370,7 +5444,7 @@
       </c>
       <c r="D83" s="186">
         <f>_xll.qlRateHelperQuoteValue($B83,Trigger)</f>
-        <v>1.6539999999999999E-2</v>
+        <v>1.6400000000000001E-2</v>
       </c>
       <c r="E83" s="174">
         <f>_xll.qlSwapRateHelperSpread($B83,Trigger)</f>
@@ -5387,18 +5461,18 @@
       </c>
       <c r="I83" s="176">
         <f>_xll.qlRateHelperEarliestDate($B83,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J83" s="177">
         <f>_xll.qlRateHelperLatestDate($B83,Trigger)</f>
-        <v>48508</v>
+        <v>48521</v>
       </c>
       <c r="L83" s="5"/>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B84" s="172" t="str">
         <f>Swaps!K26</f>
-        <v>obj_0056e#0000</v>
+        <v>obj_00638#0000</v>
       </c>
       <c r="C84" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B84)</f>
@@ -5406,7 +5480,7 @@
       </c>
       <c r="D84" s="186">
         <f>_xll.qlRateHelperQuoteValue($B84,Trigger)</f>
-        <v>1.6879999999999999E-2</v>
+        <v>1.6739999999999998E-2</v>
       </c>
       <c r="E84" s="174">
         <f>_xll.qlSwapRateHelperSpread($B84,Trigger)</f>
@@ -5423,18 +5497,18 @@
       </c>
       <c r="I84" s="176">
         <f>_xll.qlRateHelperEarliestDate($B84,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J84" s="177">
         <f>_xll.qlRateHelperLatestDate($B84,Trigger)</f>
-        <v>48873</v>
+        <v>48886</v>
       </c>
       <c r="L84" s="5"/>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B85" s="172" t="str">
         <f>Swaps!K27</f>
-        <v>obj_00580#0000</v>
+        <v>obj_00645#0000</v>
       </c>
       <c r="C85" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B85)</f>
@@ -5442,7 +5516,7 @@
       </c>
       <c r="D85" s="186">
         <f>_xll.qlRateHelperQuoteValue($B85,Trigger)</f>
-        <v>1.7159999999999998E-2</v>
+        <v>1.702E-2</v>
       </c>
       <c r="E85" s="174">
         <f>_xll.qlSwapRateHelperSpread($B85,Trigger)</f>
@@ -5459,18 +5533,18 @@
       </c>
       <c r="I85" s="176">
         <f>_xll.qlRateHelperEarliestDate($B85,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J85" s="177">
         <f>_xll.qlRateHelperLatestDate($B85,Trigger)</f>
-        <v>49240</v>
+        <v>49251</v>
       </c>
       <c r="L85" s="5"/>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B86" s="172" t="str">
         <f>Swaps!K28</f>
-        <v>obj_0058c#0000</v>
+        <v>obj_00658#0000</v>
       </c>
       <c r="C86" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B86)</f>
@@ -5478,7 +5552,7 @@
       </c>
       <c r="D86" s="186">
         <f>_xll.qlRateHelperQuoteValue($B86,Trigger)</f>
-        <v>1.7399999999999999E-2</v>
+        <v>1.7260000000000001E-2</v>
       </c>
       <c r="E86" s="174">
         <f>_xll.qlSwapRateHelperSpread($B86,Trigger)</f>
@@ -5495,18 +5569,18 @@
       </c>
       <c r="I86" s="176">
         <f>_xll.qlRateHelperEarliestDate($B86,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J86" s="177">
         <f>_xll.qlRateHelperLatestDate($B86,Trigger)</f>
-        <v>49604</v>
+        <v>49618</v>
       </c>
       <c r="L86" s="5"/>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B87" s="172" t="str">
         <f>Swaps!K29</f>
-        <v>obj_0056f#0000</v>
+        <v>obj_0065e#0000</v>
       </c>
       <c r="C87" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B87)</f>
@@ -5514,7 +5588,7 @@
       </c>
       <c r="D87" s="186">
         <f>_xll.qlRateHelperQuoteValue($B87,Trigger)</f>
-        <v>1.7600000000000001E-2</v>
+        <v>1.745E-2</v>
       </c>
       <c r="E87" s="174">
         <f>_xll.qlSwapRateHelperSpread($B87,Trigger)</f>
@@ -5531,18 +5605,18 @@
       </c>
       <c r="I87" s="176">
         <f>_xll.qlRateHelperEarliestDate($B87,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J87" s="177">
         <f>_xll.qlRateHelperLatestDate($B87,Trigger)</f>
-        <v>49969</v>
+        <v>49982</v>
       </c>
       <c r="L87" s="5"/>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B88" s="172" t="str">
         <f>Swaps!K30</f>
-        <v>obj_00572#0000</v>
+        <v>obj_0061e#0000</v>
       </c>
       <c r="C88" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B88)</f>
@@ -5550,7 +5624,7 @@
       </c>
       <c r="D88" s="186">
         <f>_xll.qlRateHelperQuoteValue($B88,Trigger)</f>
-        <v>1.7769999999999998E-2</v>
+        <v>1.7610000000000001E-2</v>
       </c>
       <c r="E88" s="174">
         <f>_xll.qlSwapRateHelperSpread($B88,Trigger)</f>
@@ -5567,18 +5641,18 @@
       </c>
       <c r="I88" s="176">
         <f>_xll.qlRateHelperEarliestDate($B88,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J88" s="177">
         <f>_xll.qlRateHelperLatestDate($B88,Trigger)</f>
-        <v>50334</v>
+        <v>50347</v>
       </c>
       <c r="L88" s="5"/>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B89" s="172" t="str">
         <f>Swaps!K31</f>
-        <v>obj_00589#0000</v>
+        <v>obj_0064d#0000</v>
       </c>
       <c r="C89" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B89)</f>
@@ -5586,7 +5660,7 @@
       </c>
       <c r="D89" s="186">
         <f>_xll.qlRateHelperQuoteValue($B89,Trigger)</f>
-        <v>1.7899999999999999E-2</v>
+        <v>1.7739999999999999E-2</v>
       </c>
       <c r="E89" s="174">
         <f>_xll.qlSwapRateHelperSpread($B89,Trigger)</f>
@@ -5603,18 +5677,18 @@
       </c>
       <c r="I89" s="176">
         <f>_xll.qlRateHelperEarliestDate($B89,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J89" s="177">
         <f>_xll.qlRateHelperLatestDate($B89,Trigger)</f>
-        <v>50699</v>
+        <v>50712</v>
       </c>
       <c r="L89" s="5"/>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B90" s="172" t="str">
         <f>Swaps!K32</f>
-        <v>obj_0057f#0000</v>
+        <v>obj_00620#0000</v>
       </c>
       <c r="C90" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B90)</f>
@@ -5622,7 +5696,7 @@
       </c>
       <c r="D90" s="186">
         <f>_xll.qlRateHelperQuoteValue($B90,Trigger)</f>
-        <v>1.8020000000000001E-2</v>
+        <v>1.7849999999999998E-2</v>
       </c>
       <c r="E90" s="174">
         <f>_xll.qlSwapRateHelperSpread($B90,Trigger)</f>
@@ -5639,18 +5713,18 @@
       </c>
       <c r="I90" s="176">
         <f>_xll.qlRateHelperEarliestDate($B90,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J90" s="177">
         <f>_xll.qlRateHelperLatestDate($B90,Trigger)</f>
-        <v>51064</v>
+        <v>51077</v>
       </c>
       <c r="L90" s="5"/>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B91" s="172" t="str">
         <f>Swaps!K33</f>
-        <v>obj_005a6#0000</v>
+        <v>obj_00630#0000</v>
       </c>
       <c r="C91" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B91)</f>
@@ -5658,7 +5732,7 @@
       </c>
       <c r="D91" s="186">
         <f>_xll.qlRateHelperQuoteValue($B91,Trigger)</f>
-        <v>1.8120000000000001E-2</v>
+        <v>1.7940000000000001E-2</v>
       </c>
       <c r="E91" s="174">
         <f>_xll.qlSwapRateHelperSpread($B91,Trigger)</f>
@@ -5675,18 +5749,18 @@
       </c>
       <c r="I91" s="176">
         <f>_xll.qlRateHelperEarliestDate($B91,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J91" s="177">
         <f>_xll.qlRateHelperLatestDate($B91,Trigger)</f>
-        <v>51431</v>
+        <v>51445</v>
       </c>
       <c r="L91" s="5"/>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B92" s="172" t="str">
         <f>Swaps!K34</f>
-        <v>obj_0059d#0000</v>
+        <v>obj_00623#0000</v>
       </c>
       <c r="C92" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B92)</f>
@@ -5694,7 +5768,7 @@
       </c>
       <c r="D92" s="186">
         <f>_xll.qlRateHelperQuoteValue($B92,Trigger)</f>
-        <v>1.8200000000000001E-2</v>
+        <v>1.8020000000000001E-2</v>
       </c>
       <c r="E92" s="174">
         <f>_xll.qlSwapRateHelperSpread($B92,Trigger)</f>
@@ -5711,18 +5785,18 @@
       </c>
       <c r="I92" s="176">
         <f>_xll.qlRateHelperEarliestDate($B92,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J92" s="177">
         <f>_xll.qlRateHelperLatestDate($B92,Trigger)</f>
-        <v>51795</v>
+        <v>51809</v>
       </c>
       <c r="L92" s="5"/>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B93" s="172" t="str">
         <f>Swaps!K35</f>
-        <v>obj_005a7#0000</v>
+        <v>obj_00635#0000</v>
       </c>
       <c r="C93" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B93)</f>
@@ -5730,7 +5804,7 @@
       </c>
       <c r="D93" s="186">
         <f>_xll.qlRateHelperQuoteValue($B93,Trigger)</f>
-        <v>1.8269999999999998E-2</v>
+        <v>1.8079999999999999E-2</v>
       </c>
       <c r="E93" s="174">
         <f>_xll.qlSwapRateHelperSpread($B93,Trigger)</f>
@@ -5747,18 +5821,18 @@
       </c>
       <c r="I93" s="176">
         <f>_xll.qlRateHelperEarliestDate($B93,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J93" s="177">
         <f>_xll.qlRateHelperLatestDate($B93,Trigger)</f>
-        <v>52160</v>
+        <v>52173</v>
       </c>
       <c r="L93" s="5"/>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B94" s="172" t="str">
         <f>Swaps!K36</f>
-        <v>obj_005a0#0000</v>
+        <v>obj_0064e#0000</v>
       </c>
       <c r="C94" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B94)</f>
@@ -5766,7 +5840,7 @@
       </c>
       <c r="D94" s="186">
         <f>_xll.qlRateHelperQuoteValue($B94,Trigger)</f>
-        <v>1.8329999999999999E-2</v>
+        <v>1.814E-2</v>
       </c>
       <c r="E94" s="174">
         <f>_xll.qlSwapRateHelperSpread($B94,Trigger)</f>
@@ -5783,18 +5857,18 @@
       </c>
       <c r="I94" s="176">
         <f>_xll.qlRateHelperEarliestDate($B94,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J94" s="177">
         <f>_xll.qlRateHelperLatestDate($B94,Trigger)</f>
-        <v>52525</v>
+        <v>52538</v>
       </c>
       <c r="L94" s="5"/>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B95" s="172" t="str">
         <f>Swaps!K37</f>
-        <v>obj_00582#0000</v>
+        <v>obj_00633#0000</v>
       </c>
       <c r="C95" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B95)</f>
@@ -5802,7 +5876,7 @@
       </c>
       <c r="D95" s="186">
         <f>_xll.qlRateHelperQuoteValue($B95,Trigger)</f>
-        <v>1.839E-2</v>
+        <v>1.8200000000000001E-2</v>
       </c>
       <c r="E95" s="174">
         <f>_xll.qlSwapRateHelperSpread($B95,Trigger)</f>
@@ -5819,18 +5893,18 @@
       </c>
       <c r="I95" s="176">
         <f>_xll.qlRateHelperEarliestDate($B95,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J95" s="177">
         <f>_xll.qlRateHelperLatestDate($B95,Trigger)</f>
-        <v>52891</v>
+        <v>52904</v>
       </c>
       <c r="L95" s="5"/>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B96" s="172" t="str">
         <f>Swaps!K38</f>
-        <v>obj_00586#0000</v>
+        <v>obj_00617#0000</v>
       </c>
       <c r="C96" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B96)</f>
@@ -5838,7 +5912,7 @@
       </c>
       <c r="D96" s="186">
         <f>_xll.qlRateHelperQuoteValue($B96,Trigger)</f>
-        <v>1.866E-2</v>
+        <v>1.848E-2</v>
       </c>
       <c r="E96" s="174">
         <f>_xll.qlSwapRateHelperSpread($B96,Trigger)</f>
@@ -5855,18 +5929,18 @@
       </c>
       <c r="I96" s="176">
         <f>_xll.qlRateHelperEarliestDate($B96,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J96" s="177">
         <f>_xll.qlRateHelperLatestDate($B96,Trigger)</f>
-        <v>54717</v>
+        <v>54730</v>
       </c>
       <c r="L96" s="5"/>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B97" s="172" t="str">
         <f>Swaps!K39</f>
-        <v>obj_00596#0000</v>
+        <v>obj_0062a#0000</v>
       </c>
       <c r="C97" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B97)</f>
@@ -5874,7 +5948,7 @@
       </c>
       <c r="D97" s="186">
         <f>_xll.qlRateHelperQuoteValue($B97,Trigger)</f>
-        <v>1.8890000000000001E-2</v>
+        <v>1.873E-2</v>
       </c>
       <c r="E97" s="174">
         <f>_xll.qlSwapRateHelperSpread($B97,Trigger)</f>
@@ -5891,18 +5965,18 @@
       </c>
       <c r="I97" s="176">
         <f>_xll.qlRateHelperEarliestDate($B97,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J97" s="177">
         <f>_xll.qlRateHelperLatestDate($B97,Trigger)</f>
-        <v>56543</v>
+        <v>56556</v>
       </c>
       <c r="L97" s="5"/>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B98" s="172" t="str">
         <f>Swaps!K40</f>
-        <v>obj_0057c#0000</v>
+        <v>obj_00650#0000</v>
       </c>
       <c r="C98" s="173" t="str">
         <f>_xll.qlRateHelperQuoteName(B98)</f>
@@ -5910,7 +5984,7 @@
       </c>
       <c r="D98" s="186">
         <f>_xll.qlRateHelperQuoteValue($B98,Trigger)</f>
-        <v>1.898E-2</v>
+        <v>1.8839999999999999E-2</v>
       </c>
       <c r="E98" s="174">
         <f>_xll.qlSwapRateHelperSpread($B98,Trigger)</f>
@@ -5927,18 +6001,18 @@
       </c>
       <c r="I98" s="176">
         <f>_xll.qlRateHelperEarliestDate($B98,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J98" s="177">
         <f>_xll.qlRateHelperLatestDate($B98,Trigger)</f>
-        <v>60196</v>
+        <v>60209</v>
       </c>
       <c r="L98" s="5"/>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B99" s="178" t="str">
         <f>Swaps!K41</f>
-        <v>obj_005a3#0000</v>
+        <v>obj_0061b#0000</v>
       </c>
       <c r="C99" s="179" t="str">
         <f>_xll.qlRateHelperQuoteName(B99)</f>
@@ -5946,7 +6020,7 @@
       </c>
       <c r="D99" s="187">
         <f>_xll.qlRateHelperQuoteValue($B99,Trigger)</f>
-        <v>1.9110000000000002E-2</v>
+        <v>1.8970000000000001E-2</v>
       </c>
       <c r="E99" s="180">
         <f>_xll.qlSwapRateHelperSpread($B99,Trigger)</f>
@@ -5963,11 +6037,11 @@
       </c>
       <c r="I99" s="182">
         <f>_xll.qlRateHelperEarliestDate($B99,Trigger)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J99" s="183">
         <f>_xll.qlRateHelperLatestDate($B99,Trigger)</f>
-        <v>63849</v>
+        <v>63863</v>
       </c>
       <c r="L99" s="5"/>
     </row>
@@ -6007,15 +6081,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="205" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="198"/>
+      <c r="B1" s="206"/>
       <c r="D1" s="161" t="s">
         <v>51</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>50</v>
@@ -6029,7 +6103,7 @@
       </c>
       <c r="J1" s="5">
         <f t="array" ref="J1:J126">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
-        <v>1.0138884664965911E-4</v>
+        <v>4.0555533025081675E-4</v>
       </c>
       <c r="L1" s="61"/>
       <c r="M1" s="63"/>
@@ -6053,7 +6127,7 @@
       </c>
       <c r="D2" s="18" t="str">
         <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
-        <v>obj_0056d</v>
+        <v>obj_00615</v>
       </c>
       <c r="E2" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D2)</f>
@@ -6061,7 +6135,7 @@
       </c>
       <c r="F2" s="17">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>1E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="G2" s="17" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -6069,14 +6143,14 @@
       </c>
       <c r="H2" s="16">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41929</v>
+        <v>41942</v>
       </c>
       <c r="I2" s="15">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41932</v>
+        <v>41943</v>
       </c>
       <c r="J2" s="5">
-        <v>1.0138884664965911E-4</v>
+        <v>4.0555533025081675E-4</v>
       </c>
       <c r="L2" s="61"/>
       <c r="M2" s="63"/>
@@ -6099,7 +6173,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="18" t="str">
-        <v>obj_00560</v>
+        <v>obj_0060f</v>
       </c>
       <c r="E3" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D3)</f>
@@ -6107,7 +6181,7 @@
       </c>
       <c r="F3" s="17">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>1E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="G3" s="17" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -6115,14 +6189,14 @@
       </c>
       <c r="H3" s="16">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41932</v>
+        <v>41943</v>
       </c>
       <c r="I3" s="15">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="J3" s="5">
-        <v>1.0138885364643265E-4</v>
+        <v>4.8159637380562479E-4</v>
       </c>
       <c r="L3" s="61"/>
       <c r="M3" s="63"/>
@@ -6145,7 +6219,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="18" t="str">
-        <v>obj_0055c</v>
+        <v>obj_00602</v>
       </c>
       <c r="E4" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D4)</f>
@@ -6153,7 +6227,7 @@
       </c>
       <c r="F4" s="17">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>1E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="G4" s="17" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -6161,14 +6235,14 @@
       </c>
       <c r="H4" s="16">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="I4" s="15">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41934</v>
+        <v>41947</v>
       </c>
       <c r="J4" s="5">
-        <v>1.0138885786631473E-4</v>
+        <v>4.8666591750641422E-4</v>
       </c>
       <c r="L4" s="61"/>
       <c r="M4" s="63"/>
@@ -6191,7 +6265,7 @@
         <v>45</v>
       </c>
       <c r="D5" s="18" t="str">
-        <v>obj_0056a</v>
+        <v>obj_00600</v>
       </c>
       <c r="E5" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D5)</f>
@@ -6199,7 +6273,7 @@
       </c>
       <c r="F5" s="17">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>1E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="G5" s="17" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -6207,14 +6281,14 @@
       </c>
       <c r="H5" s="16">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="I5" s="15">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41940</v>
+        <v>41953</v>
       </c>
       <c r="J5" s="5">
-        <v>1.0138881334763021E-4</v>
+        <v>7.5580269114009098E-4</v>
       </c>
       <c r="L5" s="61"/>
       <c r="M5" s="63"/>
@@ -6238,7 +6312,7 @@
         <v/>
       </c>
       <c r="D6" s="18" t="str">
-        <v>obj_0055e</v>
+        <v>obj_0060a</v>
       </c>
       <c r="E6" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D6)</f>
@@ -6246,7 +6320,7 @@
       </c>
       <c r="F6" s="17">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>2.0000000000000001E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="G6" s="17" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -6254,14 +6328,14 @@
       </c>
       <c r="H6" s="16">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="I6" s="15">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41947</v>
+        <v>41960</v>
       </c>
       <c r="J6" s="5">
-        <v>1.8024629253302095E-4</v>
+        <v>5.8016404457291067E-4</v>
       </c>
       <c r="L6" s="61"/>
       <c r="M6" s="63"/>
@@ -6280,7 +6354,7 @@
       <c r="A7" s="63"/>
       <c r="B7" s="63"/>
       <c r="D7" s="18" t="str">
-        <v>obj_00567</v>
+        <v>obj_00611</v>
       </c>
       <c r="E7" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D7)</f>
@@ -6288,7 +6362,7 @@
       </c>
       <c r="F7" s="17">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>2.0000000000000001E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="G7" s="17" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -6296,14 +6370,14 @@
       </c>
       <c r="H7" s="16">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="I7" s="15">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41954</v>
+        <v>41967</v>
       </c>
       <c r="J7" s="5">
-        <v>1.8655455631275686E-4</v>
+        <v>5.0288254319098553E-4</v>
       </c>
       <c r="L7" s="61"/>
       <c r="M7" s="63"/>
@@ -6322,7 +6396,7 @@
       <c r="A8" s="63"/>
       <c r="B8" s="63"/>
       <c r="D8" s="18" t="str">
-        <v>obj_00558</v>
+        <v>obj_0060e</v>
       </c>
       <c r="E8" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D8)</f>
@@ -6330,7 +6404,7 @@
       </c>
       <c r="F8" s="17">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>2.0000000000000001E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="G8" s="17" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -6338,14 +6412,14 @@
       </c>
       <c r="H8" s="16">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="I8" s="15">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>41964</v>
+        <v>41976</v>
       </c>
       <c r="J8" s="5">
-        <v>1.9118892555343569E-4</v>
+        <v>4.1449557027000252E-4</v>
       </c>
       <c r="L8" s="61"/>
       <c r="M8" s="63"/>
@@ -6362,7 +6436,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D9" s="18" t="str">
-        <v>obj_00555</v>
+        <v>obj_00605</v>
       </c>
       <c r="E9" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D9)</f>
@@ -6370,7 +6444,7 @@
       </c>
       <c r="F9" s="17">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>5.0000000000000001E-4</v>
+        <v>7.000000000000001E-4</v>
       </c>
       <c r="G9" s="17" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -6378,14 +6452,14 @@
       </c>
       <c r="H9" s="16">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="I9" s="15">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>41995</v>
+        <v>42009</v>
       </c>
       <c r="J9" s="5">
-        <v>4.823448149662181E-4</v>
+        <v>6.9606189668811665E-4</v>
       </c>
       <c r="L9" s="61"/>
       <c r="M9" s="63"/>
@@ -6402,7 +6476,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D10" s="18" t="str">
-        <v>obj_00563</v>
+        <v>obj_005ff</v>
       </c>
       <c r="E10" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D10)</f>
@@ -6410,7 +6484,7 @@
       </c>
       <c r="F10" s="17">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>8.0000000000000004E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="G10" s="17" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -6418,14 +6492,14 @@
       </c>
       <c r="H10" s="16">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="I10" s="15">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>42025</v>
+        <v>42038</v>
       </c>
       <c r="J10" s="5">
-        <v>7.8145990236396553E-4</v>
+        <v>8.9444513255457052E-4</v>
       </c>
       <c r="L10" s="61"/>
       <c r="M10" s="63"/>
@@ -6442,7 +6516,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D11" s="18" t="str">
-        <v>obj_0056b</v>
+        <v>obj_00604</v>
       </c>
       <c r="E11" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D11)</f>
@@ -6450,7 +6524,7 @@
       </c>
       <c r="F11" s="17">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>1.1000000000000001E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="G11" s="17" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -6458,14 +6532,14 @@
       </c>
       <c r="H11" s="16">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="I11" s="15">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>42058</v>
+        <v>42066</v>
       </c>
       <c r="J11" s="5">
-        <v>1.0836330312365369E-3</v>
+        <v>1.1927193006414842E-3</v>
       </c>
       <c r="L11" s="61"/>
       <c r="M11" s="63"/>
@@ -6482,7 +6556,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D12" s="18" t="str">
-        <v>obj_00562</v>
+        <v>obj_00613</v>
       </c>
       <c r="E12" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D12)</f>
@@ -6490,7 +6564,7 @@
       </c>
       <c r="F12" s="17">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>1.4000000000000002E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="G12" s="17" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -6498,14 +6572,14 @@
       </c>
       <c r="H12" s="16">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="I12" s="15">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>42086</v>
+        <v>42101</v>
       </c>
       <c r="J12" s="5">
-        <v>1.3854520475740217E-3</v>
+        <v>1.592982773918075E-3</v>
       </c>
       <c r="L12" s="61"/>
       <c r="M12" s="63"/>
@@ -6522,7 +6596,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D13" s="18" t="str">
-        <v>obj_00557</v>
+        <v>obj_0060b</v>
       </c>
       <c r="E13" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D13)</f>
@@ -6530,7 +6604,7 @@
       </c>
       <c r="F13" s="17">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>1.8E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="G13" s="17" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -6538,14 +6612,14 @@
       </c>
       <c r="H13" s="16">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="I13" s="15">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>42115</v>
+        <v>42128</v>
       </c>
       <c r="J13" s="5">
-        <v>1.7871210687440276E-3</v>
+        <v>1.8944133564637153E-3</v>
       </c>
       <c r="L13" s="61"/>
       <c r="M13" s="63"/>
@@ -6562,7 +6636,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D14" s="18" t="str">
-        <v>obj_00565</v>
+        <v>obj_00607</v>
       </c>
       <c r="E14" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D14)</f>
@@ -6578,14 +6652,14 @@
       </c>
       <c r="H14" s="16">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="I14" s="15">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>42145</v>
+        <v>42158</v>
       </c>
       <c r="J14" s="5">
-        <v>2.0903241355578147E-3</v>
+        <v>2.0973650155605493E-3</v>
       </c>
       <c r="L14" s="61"/>
       <c r="M14" s="63"/>
@@ -6602,7 +6676,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D15" s="18" t="str">
-        <v>obj_00b75</v>
+        <v>obj_005fb</v>
       </c>
       <c r="E15" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D15)</f>
@@ -6610,7 +6684,7 @@
       </c>
       <c r="F15" s="17">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>2.3531249999999997E-3</v>
+        <v>2.378125E-3</v>
       </c>
       <c r="G15" s="17" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -6618,14 +6692,14 @@
       </c>
       <c r="H15" s="16">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="I15" s="15">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
         <v>42172</v>
       </c>
       <c r="J15" s="5">
-        <v>2.3463727084835307E-3</v>
+        <v>2.3758301936287417E-3</v>
       </c>
       <c r="L15" s="61"/>
       <c r="M15" s="63"/>
@@ -6642,7 +6716,7 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="18" t="str">
-        <v>obj_00576</v>
+        <v>obj_0065b</v>
       </c>
       <c r="E16" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D16)</f>
@@ -6665,12 +6739,12 @@
         <v>42264</v>
       </c>
       <c r="J16" s="5">
-        <v>1.9734420091659581E-3</v>
+        <v>1.9794268615360394E-3</v>
       </c>
       <c r="L16" s="61"/>
       <c r="M16" s="63"/>
       <c r="N16" s="191"/>
-      <c r="O16" s="199"/>
+      <c r="O16" s="193"/>
       <c r="P16" s="63"/>
       <c r="Q16" s="63"/>
       <c r="R16" s="63"/>
@@ -6682,7 +6756,7 @@
     </row>
     <row r="17" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D17" s="18" t="str">
-        <v>obj_0057b</v>
+        <v>obj_0064c</v>
       </c>
       <c r="E17" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D17)</f>
@@ -6690,7 +6764,7 @@
       </c>
       <c r="F17" s="17">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>1.0750000000000481E-3</v>
+        <v>1.0249999999999426E-3</v>
       </c>
       <c r="G17" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -6705,12 +6779,12 @@
         <v>42354</v>
       </c>
       <c r="J17" s="5">
-        <v>1.7874205615101919E-3</v>
+        <v>1.7750906848047181E-3</v>
       </c>
       <c r="L17" s="189"/>
       <c r="M17" s="63"/>
       <c r="N17" s="191"/>
-      <c r="O17" s="199"/>
+      <c r="O17" s="193"/>
       <c r="P17" s="63"/>
       <c r="Q17" s="63"/>
       <c r="R17" s="63"/>
@@ -6722,7 +6796,7 @@
     </row>
     <row r="18" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D18" s="18" t="str">
-        <v>obj_0058e</v>
+        <v>obj_00622</v>
       </c>
       <c r="E18" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D18)</f>
@@ -6745,12 +6819,12 @@
         <v>42445</v>
       </c>
       <c r="J18" s="5">
-        <v>1.691200595193685E-3</v>
+        <v>1.6786145737533299E-3</v>
       </c>
       <c r="L18" s="189"/>
       <c r="M18" s="63"/>
       <c r="N18" s="191"/>
-      <c r="O18" s="199"/>
+      <c r="O18" s="193"/>
       <c r="P18" s="63"/>
       <c r="Q18" s="63"/>
       <c r="R18" s="63"/>
@@ -6762,7 +6836,7 @@
     </row>
     <row r="19" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D19" s="18" t="str">
-        <v>obj_0057d</v>
+        <v>obj_0063c</v>
       </c>
       <c r="E19" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D19)</f>
@@ -6785,12 +6859,12 @@
         <v>42537</v>
       </c>
       <c r="J19" s="5">
-        <v>1.6615432646769474E-3</v>
+        <v>1.6502553418535661E-3</v>
       </c>
       <c r="L19" s="189"/>
       <c r="M19" s="63"/>
       <c r="N19" s="191"/>
-      <c r="O19" s="199"/>
+      <c r="O19" s="193"/>
       <c r="P19" s="63"/>
       <c r="Q19" s="63"/>
       <c r="R19" s="63"/>
@@ -6802,7 +6876,7 @@
     </row>
     <row r="20" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D20" s="18" t="str">
-        <v>obj_0058d</v>
+        <v>obj_00618</v>
       </c>
       <c r="E20" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D20)</f>
@@ -6825,12 +6899,12 @@
         <v>42628</v>
       </c>
       <c r="J20" s="5">
-        <v>1.6732777491828246E-3</v>
+        <v>1.6637077057873638E-3</v>
       </c>
       <c r="L20" s="61"/>
       <c r="M20" s="63"/>
-      <c r="N20" s="200"/>
-      <c r="O20" s="199"/>
+      <c r="N20" s="194"/>
+      <c r="O20" s="193"/>
       <c r="P20" s="63"/>
       <c r="Q20" s="63"/>
       <c r="R20" s="63"/>
@@ -6842,7 +6916,7 @@
     </row>
     <row r="21" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D21" s="18" t="str">
-        <v>obj_005b8</v>
+        <v>obj_0062c</v>
       </c>
       <c r="E21" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D21)</f>
@@ -6850,7 +6924,7 @@
       </c>
       <c r="F21" s="17">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>2.074999999999938E-3</v>
+        <v>2.0499999999999963E-3</v>
       </c>
       <c r="G21" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -6865,12 +6939,12 @@
         <v>42725</v>
       </c>
       <c r="J21" s="5">
-        <v>1.7252840387399339E-3</v>
+        <v>1.7146328503492858E-3</v>
       </c>
       <c r="L21" s="61"/>
       <c r="M21" s="63"/>
       <c r="N21" s="191"/>
-      <c r="O21" s="199"/>
+      <c r="O21" s="193"/>
       <c r="P21" s="63"/>
       <c r="Q21" s="63"/>
       <c r="R21" s="63"/>
@@ -6882,7 +6956,7 @@
     </row>
     <row r="22" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D22" s="18" t="str">
-        <v>obj_00579</v>
+        <v>obj_00628</v>
       </c>
       <c r="E22" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D22)</f>
@@ -6890,7 +6964,7 @@
       </c>
       <c r="F22" s="17">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>2.8700000000000002E-3</v>
+        <v>2.9300000000000003E-3</v>
       </c>
       <c r="G22" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -6898,18 +6972,18 @@
       </c>
       <c r="H22" s="16">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="I22" s="15">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>43031</v>
+        <v>43042</v>
       </c>
       <c r="J22" s="5">
-        <v>2.8480177593665839E-3</v>
+        <v>2.9175703563101619E-3</v>
       </c>
       <c r="L22" s="61"/>
       <c r="M22" s="63"/>
-      <c r="N22" s="200"/>
+      <c r="N22" s="194"/>
       <c r="O22" s="63"/>
       <c r="P22" s="63"/>
       <c r="Q22" s="63"/>
@@ -6922,7 +6996,7 @@
     </row>
     <row r="23" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D23" s="18" t="str">
-        <v>obj_005b3</v>
+        <v>obj_00631</v>
       </c>
       <c r="E23" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D23)</f>
@@ -6930,7 +7004,7 @@
       </c>
       <c r="F23" s="17">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>3.6800000000000001E-3</v>
+        <v>3.7699999999999999E-3</v>
       </c>
       <c r="G23" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
@@ -6938,18 +7012,18 @@
       </c>
       <c r="H23" s="16">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="I23" s="15">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>43395</v>
+        <v>43409</v>
       </c>
       <c r="J23" s="5">
-        <v>3.6621662015684287E-3</v>
+        <v>3.7594794549473481E-3</v>
       </c>
       <c r="L23" s="61"/>
       <c r="M23" s="63"/>
-      <c r="N23" s="200"/>
+      <c r="N23" s="194"/>
       <c r="O23" s="63"/>
       <c r="P23" s="63"/>
       <c r="Q23" s="63"/>
@@ -6962,7 +7036,7 @@
     </row>
     <row r="24" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D24" s="18" t="str">
-        <v>obj_00599</v>
+        <v>obj_0063a</v>
       </c>
       <c r="E24" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D24)</f>
@@ -6970,7 +7044,7 @@
       </c>
       <c r="F24" s="17">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>4.7299999999999998E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="G24" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
@@ -6978,18 +7052,18 @@
       </c>
       <c r="H24" s="16">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="I24" s="15">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>43759</v>
+        <v>43773</v>
       </c>
       <c r="J24" s="5">
-        <v>4.7187637875045624E-3</v>
+        <v>4.7946401468160465E-3</v>
       </c>
       <c r="L24" s="61"/>
       <c r="M24" s="63"/>
-      <c r="N24" s="200"/>
+      <c r="N24" s="194"/>
       <c r="O24" s="63"/>
       <c r="P24" s="63"/>
       <c r="Q24" s="63"/>
@@ -7002,7 +7076,7 @@
     </row>
     <row r="25" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D25" s="18" t="str">
-        <v>obj_005b6</v>
+        <v>obj_00659</v>
       </c>
       <c r="E25" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D25)</f>
@@ -7010,7 +7084,7 @@
       </c>
       <c r="F25" s="17">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>5.9199999999999999E-3</v>
+        <v>5.9499999999999996E-3</v>
       </c>
       <c r="G25" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
@@ -7018,18 +7092,18 @@
       </c>
       <c r="H25" s="16">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="I25" s="15">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>44125</v>
+        <v>44138</v>
       </c>
       <c r="J25" s="5">
-        <v>5.918546549004546E-3</v>
+        <v>5.9530315769913793E-3</v>
       </c>
       <c r="L25" s="61"/>
       <c r="M25" s="63"/>
-      <c r="N25" s="200"/>
+      <c r="N25" s="194"/>
       <c r="O25" s="63"/>
       <c r="P25" s="63"/>
       <c r="Q25" s="63"/>
@@ -7042,7 +7116,7 @@
     </row>
     <row r="26" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D26" s="18" t="str">
-        <v>obj_005a4</v>
+        <v>obj_00624</v>
       </c>
       <c r="E26" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D26)</f>
@@ -7050,7 +7124,7 @@
       </c>
       <c r="F26" s="17">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>7.2399999999999999E-3</v>
+        <v>7.2299999999999994E-3</v>
       </c>
       <c r="G26" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
@@ -7058,18 +7132,18 @@
       </c>
       <c r="H26" s="16">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="I26" s="15">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>44490</v>
+        <v>44503</v>
       </c>
       <c r="J26" s="5">
-        <v>7.260629277860628E-3</v>
+        <v>7.2535930901784697E-3</v>
       </c>
       <c r="L26" s="61"/>
       <c r="M26" s="63"/>
-      <c r="N26" s="200"/>
+      <c r="N26" s="194"/>
       <c r="O26" s="63"/>
       <c r="P26" s="63"/>
       <c r="Q26" s="63"/>
@@ -7082,7 +7156,7 @@
     </row>
     <row r="27" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D27" s="18" t="str">
-        <v>obj_00595</v>
+        <v>obj_00643</v>
       </c>
       <c r="E27" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D27)</f>
@@ -7090,7 +7164,7 @@
       </c>
       <c r="F27" s="17">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>8.5900000000000004E-3</v>
+        <v>8.5500000000000003E-3</v>
       </c>
       <c r="G27" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -7098,18 +7172,18 @@
       </c>
       <c r="H27" s="16">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="I27" s="15">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>44855</v>
+        <v>44868</v>
       </c>
       <c r="J27" s="5">
-        <v>8.644107980897698E-3</v>
+        <v>8.6054654469475168E-3</v>
       </c>
       <c r="L27" s="61"/>
       <c r="M27" s="63"/>
-      <c r="N27" s="200"/>
+      <c r="N27" s="194"/>
       <c r="O27" s="63"/>
       <c r="P27" s="63"/>
       <c r="Q27" s="63"/>
@@ -7122,7 +7196,7 @@
     </row>
     <row r="28" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D28" s="18" t="str">
-        <v>obj_0058b</v>
+        <v>obj_00654</v>
       </c>
       <c r="E28" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D28)</f>
@@ -7130,7 +7204,7 @@
       </c>
       <c r="F28" s="17">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>9.8899999999999995E-3</v>
+        <v>9.8099999999999993E-3</v>
       </c>
       <c r="G28" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -7138,18 +7212,18 @@
       </c>
       <c r="H28" s="16">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="I28" s="15">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>45222</v>
+        <v>45233</v>
       </c>
       <c r="J28" s="5">
-        <v>9.988234115798654E-3</v>
+        <v>9.907173365516643E-3</v>
       </c>
       <c r="L28" s="61"/>
       <c r="M28" s="63"/>
-      <c r="N28" s="200"/>
+      <c r="N28" s="194"/>
       <c r="O28" s="63"/>
       <c r="P28" s="63"/>
       <c r="Q28" s="63"/>
@@ -7162,7 +7236,7 @@
     </row>
     <row r="29" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D29" s="18" t="str">
-        <v>obj_005ad</v>
+        <v>obj_00636</v>
       </c>
       <c r="E29" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D29)</f>
@@ -7170,7 +7244,7 @@
       </c>
       <c r="F29" s="17">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>1.1059999999999999E-2</v>
+        <v>1.0970000000000001E-2</v>
       </c>
       <c r="G29" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
@@ -7178,18 +7252,18 @@
       </c>
       <c r="H29" s="16">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="I29" s="15">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>45586</v>
+        <v>45600</v>
       </c>
       <c r="J29" s="5">
-        <v>1.1205805646553726E-2</v>
+        <v>1.1113385138640727E-2</v>
       </c>
       <c r="L29" s="61"/>
       <c r="M29" s="63"/>
-      <c r="N29" s="200"/>
+      <c r="N29" s="194"/>
       <c r="O29" s="63"/>
       <c r="P29" s="63"/>
       <c r="Q29" s="63"/>
@@ -7202,7 +7276,7 @@
     </row>
     <row r="30" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D30" s="18" t="str">
-        <v>obj_00588</v>
+        <v>obj_00649</v>
       </c>
       <c r="E30" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D30)</f>
@@ -7210,7 +7284,7 @@
       </c>
       <c r="F30" s="17">
         <f>_xll.qlRateHelperRate($D30)</f>
-        <v>1.2110000000000001E-2</v>
+        <v>1.201E-2</v>
       </c>
       <c r="G30" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
@@ -7218,18 +7292,18 @@
       </c>
       <c r="H30" s="16">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="I30" s="15">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>45951</v>
+        <v>45964</v>
       </c>
       <c r="J30" s="5">
-        <v>1.2311002686366309E-2</v>
+        <v>1.2207325981747275E-2</v>
       </c>
       <c r="L30" s="61"/>
       <c r="M30" s="63"/>
-      <c r="N30" s="200"/>
+      <c r="N30" s="194"/>
       <c r="O30" s="63"/>
       <c r="P30" s="63"/>
       <c r="Q30" s="63"/>
@@ -7242,7 +7316,7 @@
     </row>
     <row r="31" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D31" s="18" t="str">
-        <v>obj_005a5</v>
+        <v>obj_0062b</v>
       </c>
       <c r="E31" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D31)</f>
@@ -7250,7 +7324,7 @@
       </c>
       <c r="F31" s="17">
         <f>_xll.qlRateHelperRate($D31)</f>
-        <v>1.303E-2</v>
+        <v>1.2920000000000001E-2</v>
       </c>
       <c r="G31" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D31)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D31)),_xll.qlSwapRateHelperSpread($D31))</f>
@@ -7258,18 +7332,18 @@
       </c>
       <c r="H31" s="16">
         <f>_xll.qlRateHelperEarliestDate($D31)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="I31" s="15">
         <f>_xll.qlRateHelperLatestDate($D31)</f>
-        <v>46316</v>
+        <v>46329</v>
       </c>
       <c r="J31" s="5">
-        <v>1.3287440827220815E-2</v>
+        <v>1.3172359456081278E-2</v>
       </c>
       <c r="L31" s="61"/>
       <c r="M31" s="63"/>
-      <c r="N31" s="200"/>
+      <c r="N31" s="194"/>
       <c r="O31" s="63"/>
       <c r="P31" s="63"/>
       <c r="Q31" s="63"/>
@@ -7282,7 +7356,7 @@
     </row>
     <row r="32" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D32" s="18" t="str">
-        <v>obj_0058a</v>
+        <v>obj_0065c</v>
       </c>
       <c r="E32" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D32)</f>
@@ -7290,7 +7364,7 @@
       </c>
       <c r="F32" s="17">
         <f>_xll.qlRateHelperRate($D32)</f>
-        <v>1.3839999999999998E-2</v>
+        <v>1.372E-2</v>
       </c>
       <c r="G32" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D32)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D32)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D32)),_xll.qlSwapRateHelperSpread($D32))</f>
@@ -7298,18 +7372,18 @@
       </c>
       <c r="H32" s="16">
         <f>_xll.qlRateHelperEarliestDate($D32)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="I32" s="15">
         <f>_xll.qlRateHelperLatestDate($D32)</f>
-        <v>46681</v>
+        <v>46694</v>
       </c>
       <c r="J32" s="5">
-        <v>1.4154038352389675E-2</v>
+        <v>1.4027452125810025E-2</v>
       </c>
       <c r="L32" s="61"/>
       <c r="M32" s="63"/>
-      <c r="N32" s="200"/>
+      <c r="N32" s="194"/>
       <c r="O32" s="63"/>
       <c r="P32" s="63"/>
       <c r="Q32" s="63"/>
@@ -7322,7 +7396,7 @@
     </row>
     <row r="33" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D33" s="18" t="str">
-        <v>obj_005b5</v>
+        <v>obj_0063f</v>
       </c>
       <c r="E33" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D33)</f>
@@ -7330,7 +7404,7 @@
       </c>
       <c r="F33" s="17">
         <f>_xll.qlRateHelperRate($D33)</f>
-        <v>1.455E-2</v>
+        <v>1.4419999999999999E-2</v>
       </c>
       <c r="G33" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D33)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D33)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D33)),_xll.qlSwapRateHelperSpread($D33))</f>
@@ -7338,18 +7412,18 @@
       </c>
       <c r="H33" s="16">
         <f>_xll.qlRateHelperEarliestDate($D33)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="I33" s="15">
         <f>_xll.qlRateHelperLatestDate($D33)</f>
-        <v>47049</v>
+        <v>47060</v>
       </c>
       <c r="J33" s="5">
-        <v>1.491616427299881E-2</v>
+        <v>1.477814394040553E-2</v>
       </c>
       <c r="L33" s="61"/>
       <c r="M33" s="63"/>
-      <c r="N33" s="200"/>
+      <c r="N33" s="194"/>
       <c r="O33" s="63"/>
       <c r="P33" s="63"/>
       <c r="Q33" s="63"/>
@@ -7362,7 +7436,7 @@
     </row>
     <row r="34" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D34" s="18" t="str">
-        <v>obj_005ba</v>
+        <v>obj_00637</v>
       </c>
       <c r="E34" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D34)</f>
@@ -7370,7 +7444,7 @@
       </c>
       <c r="F34" s="17">
         <f>_xll.qlRateHelperRate($D34)</f>
-        <v>1.516E-2</v>
+        <v>1.502E-2</v>
       </c>
       <c r="G34" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D34)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D34)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D34)),_xll.qlSwapRateHelperSpread($D34))</f>
@@ -7378,18 +7452,18 @@
       </c>
       <c r="H34" s="16">
         <f>_xll.qlRateHelperEarliestDate($D34)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="I34" s="15">
         <f>_xll.qlRateHelperLatestDate($D34)</f>
-        <v>47413</v>
+        <v>47427</v>
       </c>
       <c r="J34" s="5">
-        <v>1.5577469661754507E-2</v>
+        <v>1.5427477176694229E-2</v>
       </c>
       <c r="L34" s="61"/>
       <c r="M34" s="63"/>
-      <c r="N34" s="200"/>
+      <c r="N34" s="194"/>
       <c r="O34" s="63"/>
       <c r="P34" s="63"/>
       <c r="Q34" s="63"/>
@@ -7402,7 +7476,7 @@
     </row>
     <row r="35" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D35" s="18" t="str">
-        <v>obj_00570</v>
+        <v>obj_00657</v>
       </c>
       <c r="E35" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D35)</f>
@@ -7410,7 +7484,7 @@
       </c>
       <c r="F35" s="17">
         <f>_xll.qlRateHelperRate($D35)</f>
-        <v>1.5689999999999999E-2</v>
+        <v>1.555E-2</v>
       </c>
       <c r="G35" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D35)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D35)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D35)),_xll.qlSwapRateHelperSpread($D35))</f>
@@ -7418,18 +7492,18 @@
       </c>
       <c r="H35" s="16">
         <f>_xll.qlRateHelperEarliestDate($D35)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="I35" s="15">
         <f>_xll.qlRateHelperLatestDate($D35)</f>
-        <v>47777</v>
+        <v>47791</v>
       </c>
       <c r="J35" s="5">
-        <v>1.6155020954500908E-2</v>
+        <v>1.600481212244367E-2</v>
       </c>
       <c r="L35" s="61"/>
       <c r="M35" s="63"/>
-      <c r="N35" s="200"/>
+      <c r="N35" s="194"/>
       <c r="O35" s="63"/>
       <c r="P35" s="63"/>
       <c r="Q35" s="63"/>
@@ -7442,7 +7516,7 @@
     </row>
     <row r="36" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D36" s="18" t="str">
-        <v>obj_00585</v>
+        <v>obj_00640</v>
       </c>
       <c r="E36" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D36)</f>
@@ -7450,7 +7524,7 @@
       </c>
       <c r="F36" s="17">
         <f>_xll.qlRateHelperRate($D36)</f>
-        <v>1.6150000000000001E-2</v>
+        <v>1.601E-2</v>
       </c>
       <c r="G36" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D36)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D36)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D36)),_xll.qlSwapRateHelperSpread($D36))</f>
@@ -7458,18 +7532,18 @@
       </c>
       <c r="H36" s="16">
         <f>_xll.qlRateHelperEarliestDate($D36)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="I36" s="15">
         <f>_xll.qlRateHelperLatestDate($D36)</f>
-        <v>48142</v>
+        <v>48155</v>
       </c>
       <c r="J36" s="5">
-        <v>1.6658237996592905E-2</v>
+        <v>1.6507958891141161E-2</v>
       </c>
       <c r="L36" s="61"/>
       <c r="M36" s="63"/>
-      <c r="N36" s="200"/>
+      <c r="N36" s="194"/>
       <c r="O36" s="63"/>
       <c r="P36" s="63"/>
       <c r="Q36" s="63"/>
@@ -7482,7 +7556,7 @@
     </row>
     <row r="37" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D37" s="18" t="str">
-        <v>obj_0059c</v>
+        <v>obj_0061a</v>
       </c>
       <c r="E37" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D37)</f>
@@ -7490,7 +7564,7 @@
       </c>
       <c r="F37" s="17">
         <f>_xll.qlRateHelperRate($D37)</f>
-        <v>1.6539999999999999E-2</v>
+        <v>1.6400000000000001E-2</v>
       </c>
       <c r="G37" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D37)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D37)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D37)),_xll.qlSwapRateHelperSpread($D37))</f>
@@ -7498,18 +7572,18 @@
       </c>
       <c r="H37" s="16">
         <f>_xll.qlRateHelperEarliestDate($D37)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="I37" s="15">
         <f>_xll.qlRateHelperLatestDate($D37)</f>
-        <v>48508</v>
+        <v>48521</v>
       </c>
       <c r="J37" s="5">
-        <v>1.7082658992611039E-2</v>
+        <v>1.6932296326169584E-2</v>
       </c>
       <c r="L37" s="61"/>
       <c r="M37" s="63"/>
-      <c r="N37" s="200"/>
+      <c r="N37" s="194"/>
       <c r="O37" s="63"/>
       <c r="P37" s="63"/>
       <c r="Q37" s="63"/>
@@ -7522,7 +7596,7 @@
     </row>
     <row r="38" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D38" s="18" t="str">
-        <v>obj_0056e</v>
+        <v>obj_00638</v>
       </c>
       <c r="E38" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D38)</f>
@@ -7530,7 +7604,7 @@
       </c>
       <c r="F38" s="17">
         <f>_xll.qlRateHelperRate($D38)</f>
-        <v>1.6879999999999999E-2</v>
+        <v>1.6739999999999998E-2</v>
       </c>
       <c r="G38" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D38)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D38)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D38)),_xll.qlSwapRateHelperSpread($D38))</f>
@@ -7538,18 +7612,18 @@
       </c>
       <c r="H38" s="16">
         <f>_xll.qlRateHelperEarliestDate($D38)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="I38" s="15">
         <f>_xll.qlRateHelperLatestDate($D38)</f>
-        <v>48873</v>
+        <v>48886</v>
       </c>
       <c r="J38" s="5">
-        <v>1.7455693405750677E-2</v>
+        <v>1.7305261329958164E-2</v>
       </c>
       <c r="L38" s="61"/>
       <c r="M38" s="63"/>
-      <c r="N38" s="200"/>
+      <c r="N38" s="194"/>
       <c r="O38" s="63"/>
       <c r="P38" s="63"/>
       <c r="Q38" s="63"/>
@@ -7562,7 +7636,7 @@
     </row>
     <row r="39" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D39" s="18" t="str">
-        <v>obj_00580</v>
+        <v>obj_00645</v>
       </c>
       <c r="E39" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D39)</f>
@@ -7570,7 +7644,7 @@
       </c>
       <c r="F39" s="17">
         <f>_xll.qlRateHelperRate($D39)</f>
-        <v>1.7159999999999998E-2</v>
+        <v>1.702E-2</v>
       </c>
       <c r="G39" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D39)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D39)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D39)),_xll.qlSwapRateHelperSpread($D39))</f>
@@ -7578,18 +7652,18 @@
       </c>
       <c r="H39" s="16">
         <f>_xll.qlRateHelperEarliestDate($D39)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="I39" s="15">
         <f>_xll.qlRateHelperLatestDate($D39)</f>
-        <v>49240</v>
+        <v>49251</v>
       </c>
       <c r="J39" s="5">
-        <v>1.7760848676820665E-2</v>
+        <v>1.7610597947630247E-2</v>
       </c>
       <c r="L39" s="61"/>
       <c r="M39" s="63"/>
-      <c r="N39" s="200"/>
+      <c r="N39" s="194"/>
       <c r="O39" s="63"/>
       <c r="P39" s="63"/>
       <c r="Q39" s="63"/>
@@ -7602,7 +7676,7 @@
     </row>
     <row r="40" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D40" s="18" t="str">
-        <v>obj_0058c</v>
+        <v>obj_00658</v>
       </c>
       <c r="E40" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D40)</f>
@@ -7610,7 +7684,7 @@
       </c>
       <c r="F40" s="17">
         <f>_xll.qlRateHelperRate($D40)</f>
-        <v>1.7399999999999999E-2</v>
+        <v>1.7260000000000001E-2</v>
       </c>
       <c r="G40" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D40)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D40)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D40)),_xll.qlSwapRateHelperSpread($D40))</f>
@@ -7618,18 +7692,18 @@
       </c>
       <c r="H40" s="16">
         <f>_xll.qlRateHelperEarliestDate($D40)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="I40" s="15">
         <f>_xll.qlRateHelperLatestDate($D40)</f>
-        <v>49604</v>
+        <v>49618</v>
       </c>
       <c r="J40" s="5">
-        <v>1.8021681980300075E-2</v>
+        <v>1.7871174350524242E-2</v>
       </c>
       <c r="L40" s="61"/>
       <c r="M40" s="63"/>
-      <c r="N40" s="200"/>
+      <c r="N40" s="194"/>
       <c r="O40" s="63"/>
       <c r="P40" s="63"/>
       <c r="Q40" s="63"/>
@@ -7642,7 +7716,7 @@
     </row>
     <row r="41" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D41" s="18" t="str">
-        <v>obj_0056f</v>
+        <v>obj_0065e</v>
       </c>
       <c r="E41" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D41)</f>
@@ -7650,7 +7724,7 @@
       </c>
       <c r="F41" s="17">
         <f>_xll.qlRateHelperRate($D41)</f>
-        <v>1.7600000000000001E-2</v>
+        <v>1.745E-2</v>
       </c>
       <c r="G41" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D41)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D41)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D41)),_xll.qlSwapRateHelperSpread($D41))</f>
@@ -7658,18 +7732,18 @@
       </c>
       <c r="H41" s="16">
         <f>_xll.qlRateHelperEarliestDate($D41)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="I41" s="15">
         <f>_xll.qlRateHelperLatestDate($D41)</f>
-        <v>49969</v>
+        <v>49982</v>
       </c>
       <c r="J41" s="5">
-        <v>1.8234491021441961E-2</v>
+        <v>1.8071675268233632E-2</v>
       </c>
       <c r="L41" s="61"/>
       <c r="M41" s="63"/>
-      <c r="N41" s="200"/>
+      <c r="N41" s="194"/>
       <c r="O41" s="63"/>
       <c r="P41" s="63"/>
       <c r="Q41" s="63"/>
@@ -7682,7 +7756,7 @@
     </row>
     <row r="42" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D42" s="18" t="str">
-        <v>obj_00572</v>
+        <v>obj_0061e</v>
       </c>
       <c r="E42" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D42)</f>
@@ -7690,7 +7764,7 @@
       </c>
       <c r="F42" s="17">
         <f>_xll.qlRateHelperRate($D42)</f>
-        <v>1.7769999999999998E-2</v>
+        <v>1.7610000000000001E-2</v>
       </c>
       <c r="G42" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D42)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D42)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D42)),_xll.qlSwapRateHelperSpread($D42))</f>
@@ -7698,18 +7772,18 @@
       </c>
       <c r="H42" s="16">
         <f>_xll.qlRateHelperEarliestDate($D42)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="I42" s="15">
         <f>_xll.qlRateHelperLatestDate($D42)</f>
-        <v>50334</v>
+        <v>50347</v>
       </c>
       <c r="J42" s="5">
-        <v>1.8415395044921179E-2</v>
+        <v>1.8240096072751184E-2</v>
       </c>
       <c r="L42" s="61"/>
       <c r="M42" s="63"/>
-      <c r="N42" s="200"/>
+      <c r="N42" s="194"/>
       <c r="O42" s="63"/>
       <c r="P42" s="63"/>
       <c r="Q42" s="63"/>
@@ -7722,7 +7796,7 @@
     </row>
     <row r="43" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D43" s="18" t="str">
-        <v>obj_00589</v>
+        <v>obj_0064d</v>
       </c>
       <c r="E43" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D43)</f>
@@ -7730,7 +7804,7 @@
       </c>
       <c r="F43" s="17">
         <f>_xll.qlRateHelperRate($D43)</f>
-        <v>1.7899999999999999E-2</v>
+        <v>1.7739999999999999E-2</v>
       </c>
       <c r="G43" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D43)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D43)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D43)),_xll.qlSwapRateHelperSpread($D43))</f>
@@ -7738,18 +7812,18 @@
       </c>
       <c r="H43" s="16">
         <f>_xll.qlRateHelperEarliestDate($D43)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="I43" s="15">
         <f>_xll.qlRateHelperLatestDate($D43)</f>
-        <v>50699</v>
+        <v>50712</v>
       </c>
       <c r="J43" s="5">
-        <v>1.8548486320617286E-2</v>
+        <v>1.8373494868175248E-2</v>
       </c>
       <c r="L43" s="61"/>
       <c r="M43" s="63"/>
-      <c r="N43" s="200"/>
+      <c r="N43" s="194"/>
       <c r="O43" s="63"/>
       <c r="P43" s="63"/>
       <c r="Q43" s="63"/>
@@ -7762,7 +7836,7 @@
     </row>
     <row r="44" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D44" s="18" t="str">
-        <v>obj_0057f</v>
+        <v>obj_00620</v>
       </c>
       <c r="E44" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D44)</f>
@@ -7770,7 +7844,7 @@
       </c>
       <c r="F44" s="17">
         <f>_xll.qlRateHelperRate($D44)</f>
-        <v>1.8020000000000001E-2</v>
+        <v>1.7849999999999998E-2</v>
       </c>
       <c r="G44" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D44)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D44)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D44)),_xll.qlSwapRateHelperSpread($D44))</f>
@@ -7778,18 +7852,18 @@
       </c>
       <c r="H44" s="16">
         <f>_xll.qlRateHelperEarliestDate($D44)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="I44" s="15">
         <f>_xll.qlRateHelperLatestDate($D44)</f>
-        <v>51064</v>
+        <v>51077</v>
       </c>
       <c r="J44" s="5">
-        <v>1.8671669017173827E-2</v>
+        <v>1.8484023501684696E-2</v>
       </c>
       <c r="L44" s="61"/>
       <c r="M44" s="63"/>
-      <c r="N44" s="200"/>
+      <c r="N44" s="194"/>
       <c r="O44" s="63"/>
       <c r="P44" s="63"/>
       <c r="Q44" s="63"/>
@@ -7802,7 +7876,7 @@
     </row>
     <row r="45" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D45" s="18" t="str">
-        <v>obj_005a6</v>
+        <v>obj_00630</v>
       </c>
       <c r="E45" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D45)</f>
@@ -7810,7 +7884,7 @@
       </c>
       <c r="F45" s="17">
         <f>_xll.qlRateHelperRate($D45)</f>
-        <v>1.8120000000000001E-2</v>
+        <v>1.7940000000000001E-2</v>
       </c>
       <c r="G45" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D45)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D45)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D45)),_xll.qlSwapRateHelperSpread($D45))</f>
@@ -7818,18 +7892,18 @@
       </c>
       <c r="H45" s="16">
         <f>_xll.qlRateHelperEarliestDate($D45)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="I45" s="15">
         <f>_xll.qlRateHelperLatestDate($D45)</f>
-        <v>51431</v>
+        <v>51445</v>
       </c>
       <c r="J45" s="5">
-        <v>1.8769415652882697E-2</v>
+        <v>1.8569024746196663E-2</v>
       </c>
       <c r="L45" s="61"/>
       <c r="M45" s="63"/>
-      <c r="N45" s="200"/>
+      <c r="N45" s="194"/>
       <c r="O45" s="63"/>
       <c r="P45" s="63"/>
       <c r="Q45" s="63"/>
@@ -7842,7 +7916,7 @@
     </row>
     <row r="46" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D46" s="18" t="str">
-        <v>obj_0059d</v>
+        <v>obj_00623</v>
       </c>
       <c r="E46" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D46)</f>
@@ -7850,7 +7924,7 @@
       </c>
       <c r="F46" s="17">
         <f>_xll.qlRateHelperRate($D46)</f>
-        <v>1.8200000000000001E-2</v>
+        <v>1.8020000000000001E-2</v>
       </c>
       <c r="G46" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D46)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D46)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D46)),_xll.qlSwapRateHelperSpread($D46))</f>
@@ -7858,18 +7932,18 @@
       </c>
       <c r="H46" s="16">
         <f>_xll.qlRateHelperEarliestDate($D46)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="I46" s="15">
         <f>_xll.qlRateHelperLatestDate($D46)</f>
-        <v>51795</v>
+        <v>51809</v>
       </c>
       <c r="J46" s="5">
-        <v>1.8845424352138037E-2</v>
+        <v>1.8645534152719901E-2</v>
       </c>
       <c r="L46" s="61"/>
       <c r="M46" s="63"/>
-      <c r="N46" s="200"/>
+      <c r="N46" s="194"/>
       <c r="O46" s="63"/>
       <c r="P46" s="63"/>
       <c r="Q46" s="63"/>
@@ -7882,7 +7956,7 @@
     </row>
     <row r="47" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D47" s="18" t="str">
-        <v>obj_005a7</v>
+        <v>obj_00635</v>
       </c>
       <c r="E47" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D47)</f>
@@ -7890,7 +7964,7 @@
       </c>
       <c r="F47" s="17">
         <f>_xll.qlRateHelperRate($D47)</f>
-        <v>1.8269999999999998E-2</v>
+        <v>1.8079999999999999E-2</v>
       </c>
       <c r="G47" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D47)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D47)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D47)),_xll.qlSwapRateHelperSpread($D47))</f>
@@ -7898,18 +7972,18 @@
       </c>
       <c r="H47" s="16">
         <f>_xll.qlRateHelperEarliestDate($D47)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="I47" s="15">
         <f>_xll.qlRateHelperLatestDate($D47)</f>
-        <v>52160</v>
+        <v>52173</v>
       </c>
       <c r="J47" s="5">
-        <v>1.8910284667505838E-2</v>
+        <v>1.86975964907133E-2</v>
       </c>
       <c r="L47" s="61"/>
       <c r="M47" s="63"/>
-      <c r="N47" s="200"/>
+      <c r="N47" s="194"/>
       <c r="O47" s="63"/>
       <c r="P47" s="63"/>
       <c r="Q47" s="63"/>
@@ -7922,7 +7996,7 @@
     </row>
     <row r="48" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D48" s="18" t="str">
-        <v>obj_005a0</v>
+        <v>obj_0064e</v>
       </c>
       <c r="E48" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D48)</f>
@@ -7930,7 +8004,7 @@
       </c>
       <c r="F48" s="17">
         <f>_xll.qlRateHelperRate($D48)</f>
-        <v>1.8329999999999999E-2</v>
+        <v>1.814E-2</v>
       </c>
       <c r="G48" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D48)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D48)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D48)),_xll.qlSwapRateHelperSpread($D48))</f>
@@ -7938,18 +8012,18 @@
       </c>
       <c r="H48" s="16">
         <f>_xll.qlRateHelperEarliestDate($D48)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="I48" s="15">
         <f>_xll.qlRateHelperLatestDate($D48)</f>
-        <v>52525</v>
+        <v>52538</v>
       </c>
       <c r="J48" s="5">
-        <v>1.8963752798130642E-2</v>
+        <v>1.8751633518935152E-2</v>
       </c>
       <c r="L48" s="61"/>
       <c r="M48" s="63"/>
-      <c r="N48" s="200"/>
+      <c r="N48" s="194"/>
       <c r="O48" s="63"/>
       <c r="P48" s="63"/>
       <c r="Q48" s="63"/>
@@ -7962,7 +8036,7 @@
     </row>
     <row r="49" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D49" s="18" t="str">
-        <v>obj_00582</v>
+        <v>obj_00633</v>
       </c>
       <c r="E49" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D49)</f>
@@ -7970,7 +8044,7 @@
       </c>
       <c r="F49" s="17">
         <f>_xll.qlRateHelperRate($D49)</f>
-        <v>1.839E-2</v>
+        <v>1.8200000000000001E-2</v>
       </c>
       <c r="G49" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D49)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D49)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D49)),_xll.qlSwapRateHelperSpread($D49))</f>
@@ -7978,18 +8052,18 @@
       </c>
       <c r="H49" s="16">
         <f>_xll.qlRateHelperEarliestDate($D49)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="I49" s="15">
         <f>_xll.qlRateHelperLatestDate($D49)</f>
-        <v>52891</v>
+        <v>52904</v>
       </c>
       <c r="J49" s="5">
-        <v>1.9017473812252762E-2</v>
+        <v>1.880588330652485E-2</v>
       </c>
       <c r="L49" s="61"/>
       <c r="M49" s="63"/>
-      <c r="N49" s="200"/>
+      <c r="N49" s="194"/>
       <c r="O49" s="63"/>
       <c r="P49" s="63"/>
       <c r="Q49" s="63"/>
@@ -8002,7 +8076,7 @@
     </row>
     <row r="50" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D50" s="18" t="str">
-        <v>obj_00586</v>
+        <v>obj_00617</v>
       </c>
       <c r="E50" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D50)</f>
@@ -8010,7 +8084,7 @@
       </c>
       <c r="F50" s="17">
         <f>_xll.qlRateHelperRate($D50)</f>
-        <v>1.866E-2</v>
+        <v>1.848E-2</v>
       </c>
       <c r="G50" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D50)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D50)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D50)),_xll.qlSwapRateHelperSpread($D50))</f>
@@ -8018,18 +8092,18 @@
       </c>
       <c r="H50" s="16">
         <f>_xll.qlRateHelperEarliestDate($D50)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="I50" s="15">
         <f>_xll.qlRateHelperLatestDate($D50)</f>
-        <v>54717</v>
+        <v>54730</v>
       </c>
       <c r="J50" s="5">
-        <v>1.9277826707285766E-2</v>
+        <v>1.9082161781872164E-2</v>
       </c>
       <c r="L50" s="61"/>
       <c r="M50" s="63"/>
-      <c r="N50" s="200"/>
+      <c r="N50" s="194"/>
       <c r="O50" s="63"/>
       <c r="P50" s="63"/>
       <c r="Q50" s="63"/>
@@ -8042,7 +8116,7 @@
     </row>
     <row r="51" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D51" s="18" t="str">
-        <v>obj_00596</v>
+        <v>obj_0062a</v>
       </c>
       <c r="E51" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D51)</f>
@@ -8050,7 +8124,7 @@
       </c>
       <c r="F51" s="17">
         <f>_xll.qlRateHelperRate($D51)</f>
-        <v>1.8890000000000001E-2</v>
+        <v>1.873E-2</v>
       </c>
       <c r="G51" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D51)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D51)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D51)),_xll.qlSwapRateHelperSpread($D51))</f>
@@ -8058,18 +8132,18 @@
       </c>
       <c r="H51" s="16">
         <f>_xll.qlRateHelperEarliestDate($D51)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="I51" s="15">
         <f>_xll.qlRateHelperLatestDate($D51)</f>
-        <v>56543</v>
+        <v>56556</v>
       </c>
       <c r="J51" s="5">
-        <v>1.95166721387823E-2</v>
+        <v>1.9351459443300648E-2</v>
       </c>
       <c r="L51" s="61"/>
       <c r="M51" s="63"/>
-      <c r="N51" s="200"/>
+      <c r="N51" s="194"/>
       <c r="O51" s="63"/>
       <c r="P51" s="63"/>
       <c r="Q51" s="63"/>
@@ -8082,7 +8156,7 @@
     </row>
     <row r="52" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D52" s="18" t="str">
-        <v>obj_0057c</v>
+        <v>obj_00650</v>
       </c>
       <c r="E52" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D52)</f>
@@ -8090,7 +8164,7 @@
       </c>
       <c r="F52" s="17">
         <f>_xll.qlRateHelperRate($D52)</f>
-        <v>1.898E-2</v>
+        <v>1.8839999999999999E-2</v>
       </c>
       <c r="G52" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D52)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D52)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D52)),_xll.qlSwapRateHelperSpread($D52))</f>
@@ -8098,18 +8172,18 @@
       </c>
       <c r="H52" s="16">
         <f>_xll.qlRateHelperEarliestDate($D52)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="I52" s="15">
         <f>_xll.qlRateHelperLatestDate($D52)</f>
-        <v>60196</v>
+        <v>60209</v>
       </c>
       <c r="J52" s="5">
-        <v>1.9493494548870605E-2</v>
+        <v>1.9360823826020605E-2</v>
       </c>
       <c r="L52" s="61"/>
       <c r="M52" s="63"/>
-      <c r="N52" s="200"/>
+      <c r="N52" s="194"/>
       <c r="O52" s="63"/>
       <c r="P52" s="63"/>
       <c r="Q52" s="63"/>
@@ -8122,7 +8196,7 @@
     </row>
     <row r="53" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D53" s="18" t="str">
-        <v>obj_005a3</v>
+        <v>obj_0061b</v>
       </c>
       <c r="E53" s="18" t="str">
         <f>_xll.qlRateHelperQuoteName(D53)</f>
@@ -8130,7 +8204,7 @@
       </c>
       <c r="F53" s="17">
         <f>_xll.qlRateHelperRate($D53)</f>
-        <v>1.9110000000000002E-2</v>
+        <v>1.8970000000000001E-2</v>
       </c>
       <c r="G53" s="17">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D53)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D53)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D53)),_xll.qlSwapRateHelperSpread($D53))</f>
@@ -8138,18 +8212,18 @@
       </c>
       <c r="H53" s="16">
         <f>_xll.qlRateHelperEarliestDate($D53)</f>
-        <v>41933</v>
+        <v>41946</v>
       </c>
       <c r="I53" s="15">
         <f>_xll.qlRateHelperLatestDate($D53)</f>
-        <v>63849</v>
+        <v>63863</v>
       </c>
       <c r="J53" s="5">
-        <v>1.9604608965226276E-2</v>
+        <v>1.9470318614216137E-2</v>
       </c>
       <c r="L53" s="154"/>
       <c r="M53" s="63"/>
-      <c r="N53" s="200"/>
+      <c r="N53" s="194"/>
       <c r="O53" s="63"/>
       <c r="P53" s="63"/>
       <c r="Q53" s="63"/>
@@ -8189,7 +8263,7 @@
       </c>
       <c r="L54" s="154"/>
       <c r="M54" s="63"/>
-      <c r="N54" s="200"/>
+      <c r="N54" s="194"/>
       <c r="O54" s="63"/>
       <c r="P54" s="63"/>
       <c r="Q54" s="63"/>
@@ -8229,7 +8303,7 @@
       </c>
       <c r="L55" s="63"/>
       <c r="M55" s="63"/>
-      <c r="N55" s="200"/>
+      <c r="N55" s="194"/>
       <c r="O55" s="63"/>
       <c r="P55" s="63"/>
       <c r="Q55" s="63"/>
@@ -8269,7 +8343,7 @@
       </c>
       <c r="L56" s="63"/>
       <c r="M56" s="63"/>
-      <c r="N56" s="200"/>
+      <c r="N56" s="194"/>
       <c r="O56" s="63"/>
       <c r="P56" s="63"/>
       <c r="Q56" s="63"/>
@@ -8309,7 +8383,7 @@
       </c>
       <c r="L57" s="63"/>
       <c r="M57" s="63"/>
-      <c r="N57" s="200"/>
+      <c r="N57" s="194"/>
       <c r="O57" s="63"/>
       <c r="P57" s="63"/>
       <c r="Q57" s="63"/>
@@ -8349,7 +8423,7 @@
       </c>
       <c r="L58" s="63"/>
       <c r="M58" s="63"/>
-      <c r="N58" s="200"/>
+      <c r="N58" s="194"/>
       <c r="O58" s="63"/>
       <c r="P58" s="63"/>
       <c r="Q58" s="63"/>
@@ -8389,7 +8463,7 @@
       </c>
       <c r="L59" s="63"/>
       <c r="M59" s="63"/>
-      <c r="N59" s="200"/>
+      <c r="N59" s="194"/>
       <c r="O59" s="63"/>
       <c r="P59" s="63"/>
       <c r="Q59" s="63"/>
@@ -8469,7 +8543,7 @@
       </c>
       <c r="L61" s="63"/>
       <c r="M61" s="63"/>
-      <c r="N61" s="200"/>
+      <c r="N61" s="194"/>
       <c r="O61" s="63"/>
       <c r="P61" s="63"/>
       <c r="Q61" s="63"/>
@@ -10383,12 +10457,12 @@
         <v>84</v>
       </c>
       <c r="D3" s="72" t="str">
-        <f t="shared" ref="D3:D21" si="0">Currency&amp;$B3&amp;"D"&amp;QuoteSuffix</f>
+        <f t="shared" ref="D3:D20" si="0">Currency&amp;$B3&amp;"D"&amp;QuoteSuffix</f>
         <v>EUROND_Quote</v>
       </c>
       <c r="E3" s="71" t="str">
         <f>_xll.qlDepositRateHelper(,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0056d#0001</v>
+        <v>obj_00615#0000</v>
       </c>
       <c r="F3" s="76" t="str">
         <f>_xll.ohRangeRetrieveError(E3)</f>
@@ -10410,7 +10484,7 @@
       </c>
       <c r="E4" s="165" t="str">
         <f>_xll.qlFraRateHelper(,D4,"1D",C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00560#0001</v>
+        <v>obj_0060f#0000</v>
       </c>
       <c r="F4" s="76" t="str">
         <f>_xll.ohRangeRetrieveError(E4)</f>
@@ -10432,7 +10506,7 @@
       </c>
       <c r="E5" s="165" t="str">
         <f>_xll.qlFraRateHelper(,D5,"2D",C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0055c#0001</v>
+        <v>obj_00602#0000</v>
       </c>
       <c r="F5" s="76" t="str">
         <f>_xll.ohRangeRetrieveError(E5)</f>
@@ -10455,7 +10529,7 @@
       </c>
       <c r="E6" s="71" t="str">
         <f>_xll.qlDepositRateHelper(,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0056a#0001</v>
+        <v>obj_00600#0000</v>
       </c>
       <c r="F6" s="70"/>
       <c r="G6" s="69"/>
@@ -10475,7 +10549,7 @@
       </c>
       <c r="E7" s="71" t="str">
         <f>_xll.qlDepositRateHelper(,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0055e#0001</v>
+        <v>obj_0060a#0000</v>
       </c>
       <c r="F7" s="70"/>
       <c r="G7" s="69"/>
@@ -10483,11 +10557,11 @@
     <row r="8" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="75"/>
       <c r="B8" s="74" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C8" s="73" t="str">
         <f>_xll.qlEuribor(,B8,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00566#0001</v>
+        <v>obj_0060d#0000</v>
       </c>
       <c r="D8" s="72" t="str">
         <f t="shared" si="0"/>
@@ -10495,7 +10569,7 @@
       </c>
       <c r="E8" s="71" t="str">
         <f>_xll.qlDepositRateHelper(,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00567#0001</v>
+        <v>obj_00611#0000</v>
       </c>
       <c r="F8" s="70"/>
       <c r="G8" s="69"/>
@@ -10515,7 +10589,7 @@
       </c>
       <c r="E9" s="71" t="str">
         <f>_xll.qlDepositRateHelper(,D9,C9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00558#0001</v>
+        <v>obj_0060e#0000</v>
       </c>
       <c r="F9" s="70"/>
       <c r="G9" s="69"/>
@@ -10535,7 +10609,7 @@
       </c>
       <c r="E10" s="71" t="str">
         <f>_xll.qlDepositRateHelper(,D10,C10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00555#0001</v>
+        <v>obj_00605#0000</v>
       </c>
       <c r="F10" s="70" t="str">
         <f>_xll.ohRangeRetrieveError(E10)</f>
@@ -10558,7 +10632,7 @@
       </c>
       <c r="E11" s="71" t="str">
         <f>_xll.qlDepositRateHelper(,D11,C11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00563#0001</v>
+        <v>obj_005ff#0000</v>
       </c>
       <c r="F11" s="70" t="str">
         <f>_xll.ohRangeRetrieveError(E11)</f>
@@ -10569,11 +10643,11 @@
     <row r="12" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="75"/>
       <c r="B12" s="74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C12" s="73" t="str">
         <f>_xll.qlEuribor(,B12,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00564#0001</v>
+        <v>obj_00603#0000</v>
       </c>
       <c r="D12" s="72" t="str">
         <f t="shared" si="0"/>
@@ -10581,7 +10655,7 @@
       </c>
       <c r="E12" s="71" t="str">
         <f>_xll.qlDepositRateHelper(,D12,C12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0056b#0001</v>
+        <v>obj_00604#0000</v>
       </c>
       <c r="F12" s="70" t="str">
         <f>_xll.ohRangeRetrieveError(E12)</f>
@@ -10592,11 +10666,11 @@
     <row r="13" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="75"/>
       <c r="B13" s="74" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C13" s="73" t="str">
         <f>_xll.qlEuribor(,B13,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00561#0001</v>
+        <v>obj_005fc#0000</v>
       </c>
       <c r="D13" s="72" t="str">
         <f t="shared" si="0"/>
@@ -10604,7 +10678,7 @@
       </c>
       <c r="E13" s="71" t="str">
         <f>_xll.qlDepositRateHelper(,D13,C13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00562#0001</v>
+        <v>obj_00613#0000</v>
       </c>
       <c r="F13" s="70" t="str">
         <f>_xll.ohRangeRetrieveError(E13)</f>
@@ -10627,7 +10701,7 @@
       </c>
       <c r="E14" s="71" t="str">
         <f>_xll.qlDepositRateHelper(,D14,C14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00557#0001</v>
+        <v>obj_0060b#0000</v>
       </c>
       <c r="F14" s="70" t="str">
         <f>_xll.ohRangeRetrieveError(E14)</f>
@@ -10638,11 +10712,11 @@
     <row r="15" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="75"/>
       <c r="B15" s="74" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C15" s="73" t="str">
         <f>_xll.qlEuribor(,B15,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0055d#0001</v>
+        <v>obj_00606#0000</v>
       </c>
       <c r="D15" s="72" t="str">
         <f t="shared" si="0"/>
@@ -10650,7 +10724,7 @@
       </c>
       <c r="E15" s="71" t="str">
         <f>_xll.qlDepositRateHelper(,D15,C15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00565#0001</v>
+        <v>obj_00607#0000</v>
       </c>
       <c r="F15" s="70"/>
       <c r="G15" s="69"/>
@@ -10658,11 +10732,11 @@
     <row r="16" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="75"/>
       <c r="B16" s="74" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C16" s="73" t="str">
         <f>_xll.qlEuribor(,B16,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00559#0001</v>
+        <v>obj_005fe#0000</v>
       </c>
       <c r="D16" s="72" t="str">
         <f t="shared" si="0"/>
@@ -10670,7 +10744,7 @@
       </c>
       <c r="E16" s="71" t="str">
         <f>_xll.qlDepositRateHelper(,D16,C16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0055a#0001</v>
+        <v>obj_00612#0000</v>
       </c>
       <c r="F16" s="70"/>
       <c r="G16" s="69"/>
@@ -10690,7 +10764,7 @@
       </c>
       <c r="E17" s="71" t="str">
         <f>_xll.qlDepositRateHelper(,D17,C17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0055f#0001</v>
+        <v>obj_0060c#0000</v>
       </c>
       <c r="F17" s="70" t="str">
         <f>_xll.ohRangeRetrieveError(E17)</f>
@@ -10701,11 +10775,11 @@
     <row r="18" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="75"/>
       <c r="B18" s="74" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C18" s="73" t="str">
         <f>_xll.qlEuribor(,B18,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00556#0001</v>
+        <v>obj_00608#0000</v>
       </c>
       <c r="D18" s="72" t="str">
         <f t="shared" si="0"/>
@@ -10713,7 +10787,7 @@
       </c>
       <c r="E18" s="71" t="str">
         <f>_xll.qlDepositRateHelper(,D18,C18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0055b#0001</v>
+        <v>obj_00609#0000</v>
       </c>
       <c r="F18" s="70"/>
       <c r="G18" s="69"/>
@@ -10721,11 +10795,11 @@
     <row r="19" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="75"/>
       <c r="B19" s="74" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C19" s="73" t="str">
         <f>_xll.qlEuribor(,B19,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00554#0001</v>
+        <v>obj_00601#0000</v>
       </c>
       <c r="D19" s="72" t="str">
         <f t="shared" si="0"/>
@@ -10733,7 +10807,7 @@
       </c>
       <c r="E19" s="71" t="str">
         <f>_xll.qlDepositRateHelper(,D19,C19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00568#0001</v>
+        <v>obj_00610#0000</v>
       </c>
       <c r="F19" s="70"/>
       <c r="G19" s="69"/>
@@ -10753,7 +10827,7 @@
       </c>
       <c r="E20" s="71" t="str">
         <f>_xll.qlDepositRateHelper(,D20,C20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0056c#0001</v>
+        <v>obj_00614#0000</v>
       </c>
       <c r="F20" s="70" t="str">
         <f>_xll.ohRangeRetrieveError(E20)</f>
@@ -10765,10 +10839,10 @@
       <c r="A21" s="75"/>
       <c r="B21" s="74" t="str">
         <f>(_xll.qlCalendarBusinessDaysBetween(Calendar,_xll.qlCalendarAdvance(Calendar,_xll.qlSettingsEvaluationDate(Trigger),2&amp;"D",,,Trigger),C25,Trigger)-1)&amp;"D"</f>
-        <v>165D</v>
-      </c>
-      <c r="C21" s="204" t="s">
-        <v>127</v>
+        <v>156D</v>
+      </c>
+      <c r="C21" s="198" t="s">
+        <v>126</v>
       </c>
       <c r="D21" s="72" t="str">
         <f>Currency&amp;$C21&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10776,9 +10850,9 @@
       </c>
       <c r="E21" s="71" t="str">
         <f>_xll.qlDepositRateHelper2(,D21,B21,2,Calendar,"mf",FALSE,"ACT/360",Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00b75#0000</v>
-      </c>
-      <c r="F21" s="205" t="str">
+        <v>obj_005fb#0000</v>
+      </c>
+      <c r="F21" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(E21)</f>
         <v/>
       </c>
@@ -10799,29 +10873,29 @@
         <f>_xll.qlIMMNextCode(_xll.qlSettingsEvaluationDate(Trigger),TRUE,Trigger)</f>
         <v>Z4</v>
       </c>
-      <c r="B24" s="203" t="s">
+      <c r="B24" s="197" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="197" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="203" t="s">
+      <c r="D24" s="197" t="s">
         <v>129</v>
       </c>
-      <c r="D24" s="203" t="s">
-        <v>130</v>
-      </c>
     </row>
     <row r="25" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="201" t="str">
+      <c r="A25" s="195" t="str">
         <f>_xll.qlIMMNextCode(_xll.qlIMMdate(A24,,Trigger),TRUE,Trigger)</f>
         <v>H5</v>
       </c>
-      <c r="B25" s="206" t="s">
-        <v>131</v>
-      </c>
-      <c r="C25" s="206">
+      <c r="B25" s="200" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="200">
         <f>_xll.qlIMMdate(B25,,Trigger)</f>
         <v>42172</v>
       </c>
-      <c r="D25" s="206">
+      <c r="D25" s="200">
         <f>_xll.qlRateHelperLatestDate(E21,Trigger)</f>
         <v>42172</v>
       </c>
@@ -10936,7 +11010,7 @@
       </c>
       <c r="H3" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00598#0000</v>
+        <v>obj_0065a#0000</v>
       </c>
       <c r="I3" s="123" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -10970,7 +11044,7 @@
       </c>
       <c r="H4" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005b2#0000</v>
+        <v>obj_00626#0000</v>
       </c>
       <c r="I4" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -11004,7 +11078,7 @@
       </c>
       <c r="H5" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00587#0000</v>
+        <v>obj_00621#0000</v>
       </c>
       <c r="I5" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H5)</f>
@@ -11038,7 +11112,7 @@
       </c>
       <c r="H6" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00583#0000</v>
+        <v>obj_00639#0000</v>
       </c>
       <c r="I6" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H6)</f>
@@ -11072,7 +11146,7 @@
       </c>
       <c r="H7" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005bc#0000</v>
+        <v>obj_00656#0000</v>
       </c>
       <c r="I7" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H7)</f>
@@ -11106,7 +11180,7 @@
       </c>
       <c r="H8" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00575#0000</v>
+        <v>obj_00632#0000</v>
       </c>
       <c r="I8" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H8)</f>
@@ -11140,7 +11214,7 @@
       </c>
       <c r="H9" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005a2#0000</v>
+        <v>obj_00655#0000</v>
       </c>
       <c r="I9" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H9)</f>
@@ -11174,7 +11248,7 @@
       </c>
       <c r="H10" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00576#0000</v>
+        <v>obj_0065b#0000</v>
       </c>
       <c r="I10" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H10)</f>
@@ -11208,7 +11282,7 @@
       </c>
       <c r="H11" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00591#0000</v>
+        <v>obj_00634#0000</v>
       </c>
       <c r="I11" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H11)</f>
@@ -11242,7 +11316,7 @@
       </c>
       <c r="H12" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0059a#0000</v>
+        <v>obj_00660#0000</v>
       </c>
       <c r="I12" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H12)</f>
@@ -11276,7 +11350,7 @@
       </c>
       <c r="H13" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0057b#0000</v>
+        <v>obj_0064c#0000</v>
       </c>
       <c r="I13" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H13)</f>
@@ -11310,7 +11384,7 @@
       </c>
       <c r="H14" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00594#0000</v>
+        <v>obj_00619#0000</v>
       </c>
       <c r="I14" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H14)</f>
@@ -11344,7 +11418,7 @@
       </c>
       <c r="H15" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0058e#0000</v>
+        <v>obj_00622#0000</v>
       </c>
       <c r="I15" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H15)</f>
@@ -11378,7 +11452,7 @@
       </c>
       <c r="H16" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0057d#0000</v>
+        <v>obj_0063c#0000</v>
       </c>
       <c r="I16" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H16)</f>
@@ -11412,7 +11486,7 @@
       </c>
       <c r="H17" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0058d#0000</v>
+        <v>obj_00618#0000</v>
       </c>
       <c r="I17" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H17)</f>
@@ -11446,7 +11520,7 @@
       </c>
       <c r="H18" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005b8#0000</v>
+        <v>obj_0062c#0000</v>
       </c>
       <c r="I18" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H18)</f>
@@ -11480,7 +11554,7 @@
       </c>
       <c r="H19" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0059b#0000</v>
+        <v>obj_00641#0000</v>
       </c>
       <c r="I19" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H19)</f>
@@ -11514,7 +11588,7 @@
       </c>
       <c r="H20" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005b1#0000</v>
+        <v>obj_0061d#0000</v>
       </c>
       <c r="I20" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H20)</f>
@@ -11548,7 +11622,7 @@
       </c>
       <c r="H21" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005a8#0000</v>
+        <v>obj_0065d#0000</v>
       </c>
       <c r="I21" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H21)</f>
@@ -11582,7 +11656,7 @@
       </c>
       <c r="H22" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005aa#0000</v>
+        <v>obj_00664#0000</v>
       </c>
       <c r="I22" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H22)</f>
@@ -11616,7 +11690,7 @@
       </c>
       <c r="H23" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005bb#0000</v>
+        <v>obj_00652#0000</v>
       </c>
       <c r="I23" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H23)</f>
@@ -11650,7 +11724,7 @@
       </c>
       <c r="H24" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00597#0000</v>
+        <v>obj_0062f#0000</v>
       </c>
       <c r="I24" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H24)</f>
@@ -11684,7 +11758,7 @@
       </c>
       <c r="H25" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005a9#0000</v>
+        <v>obj_0063e#0000</v>
       </c>
       <c r="I25" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H25)</f>
@@ -11718,7 +11792,7 @@
       </c>
       <c r="H26" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00577#0000</v>
+        <v>obj_00653#0000</v>
       </c>
       <c r="I26" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H26)</f>
@@ -11752,7 +11826,7 @@
       </c>
       <c r="H27" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005ae#0000</v>
+        <v>obj_0063b#0000</v>
       </c>
       <c r="I27" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H27)</f>
@@ -11786,7 +11860,7 @@
       </c>
       <c r="H28" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0059e#0000</v>
+        <v>obj_00646#0000</v>
       </c>
       <c r="I28" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H28)</f>
@@ -11820,7 +11894,7 @@
       </c>
       <c r="H29" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005b9#0000</v>
+        <v>obj_0064b#0000</v>
       </c>
       <c r="I29" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H29)</f>
@@ -11854,7 +11928,7 @@
       </c>
       <c r="H30" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005ab#0000</v>
+        <v>obj_0061c#0000</v>
       </c>
       <c r="I30" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H30)</f>
@@ -11888,7 +11962,7 @@
       </c>
       <c r="H31" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00584#0000</v>
+        <v>obj_0065f#0000</v>
       </c>
       <c r="I31" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H31)</f>
@@ -11922,7 +11996,7 @@
       </c>
       <c r="H32" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0058f#0000</v>
+        <v>obj_00629#0000</v>
       </c>
       <c r="I32" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H32)</f>
@@ -11956,7 +12030,7 @@
       </c>
       <c r="H33" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005ac#0000</v>
+        <v>obj_00625#0000</v>
       </c>
       <c r="I33" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H33)</f>
@@ -11990,7 +12064,7 @@
       </c>
       <c r="H34" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0059f#0000</v>
+        <v>obj_0064a#0000</v>
       </c>
       <c r="I34" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H34)</f>
@@ -12024,7 +12098,7 @@
       </c>
       <c r="H35" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00581#0000</v>
+        <v>obj_00648#0000</v>
       </c>
       <c r="I35" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H35)</f>
@@ -12058,7 +12132,7 @@
       </c>
       <c r="H36" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00574#0000</v>
+        <v>obj_00647#0000</v>
       </c>
       <c r="I36" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H36)</f>
@@ -12092,7 +12166,7 @@
       </c>
       <c r="H37" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005a1#0000</v>
+        <v>obj_00651#0000</v>
       </c>
       <c r="I37" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H37)</f>
@@ -12126,7 +12200,7 @@
       </c>
       <c r="H38" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00590#0000</v>
+        <v>obj_0062e#0000</v>
       </c>
       <c r="I38" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H38)</f>
@@ -12160,7 +12234,7 @@
       </c>
       <c r="H39" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0057e#0000</v>
+        <v>obj_00662#0000</v>
       </c>
       <c r="I39" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H39)</f>
@@ -12194,7 +12268,7 @@
       </c>
       <c r="H40" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005b4#0000</v>
+        <v>obj_0064f#0000</v>
       </c>
       <c r="I40" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H40)</f>
@@ -12227,7 +12301,7 @@
       </c>
       <c r="H41" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00593#0000</v>
+        <v>obj_00663#0000</v>
       </c>
       <c r="I41" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H41)</f>
@@ -12260,7 +12334,7 @@
       </c>
       <c r="H42" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0057a#0000</v>
+        <v>obj_0062d#0000</v>
       </c>
       <c r="I42" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H42)</f>
@@ -12293,7 +12367,7 @@
       </c>
       <c r="H43" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005af#0000</v>
+        <v>obj_00661#0000</v>
       </c>
       <c r="I43" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H43)</f>
@@ -12326,7 +12400,7 @@
       </c>
       <c r="H44" s="124" t="str">
         <f>_xll.qlFuturesRateHelper(,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00573#0000</v>
+        <v>obj_00644#0000</v>
       </c>
       <c r="I44" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(H44)</f>
@@ -12452,7 +12526,7 @@
       <c r="J3" s="145"/>
       <c r="K3" s="148" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor(,$H$1,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor(,Currency,$H$1,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>obj_00569#0000</v>
+        <v>obj_005fd#0000</v>
       </c>
       <c r="L3" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(K3)</f>
@@ -12509,7 +12583,7 @@
       </c>
       <c r="K5" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J5,$C5,Calendar,$F5,$G5,$H5,$K$3,$I5,B5,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005b7#0000</v>
+        <v>obj_00627#0000</v>
       </c>
       <c r="L5" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K5)</f>
@@ -12551,7 +12625,7 @@
       </c>
       <c r="K6" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J6,$C6,Calendar,$F6,$G6,$H6,$K$3,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005b0#0000</v>
+        <v>obj_00642#0000</v>
       </c>
       <c r="L6" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K6)</f>
@@ -12593,7 +12667,7 @@
       </c>
       <c r="K7" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J7,$C7,Calendar,$F7,$G7,$H7,$K$3,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00571#0000</v>
+        <v>obj_00616#0000</v>
       </c>
       <c r="L7" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K7)</f>
@@ -12635,7 +12709,7 @@
       </c>
       <c r="K8" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J8,$C8,Calendar,$F8,$G8,$H8,$K$3,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00578#0000</v>
+        <v>obj_0061f#0000</v>
       </c>
       <c r="L8" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K8)</f>
@@ -12677,7 +12751,7 @@
       </c>
       <c r="K9" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J9,$C9,Calendar,$F9,$G9,$H9,$K$3,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00592#0000</v>
+        <v>obj_0063d#0000</v>
       </c>
       <c r="L9" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K9)</f>
@@ -12719,7 +12793,7 @@
       </c>
       <c r="K10" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J10,$C10,Calendar,$F10,$G10,$H10,$K$3,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00579#0000</v>
+        <v>obj_00628#0000</v>
       </c>
       <c r="L10" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K10)</f>
@@ -12761,7 +12835,7 @@
       </c>
       <c r="K11" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J11,$C11,Calendar,$F11,$G11,$H11,$K$3,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005b3#0000</v>
+        <v>obj_00631#0000</v>
       </c>
       <c r="L11" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K11)</f>
@@ -12803,7 +12877,7 @@
       </c>
       <c r="K12" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J12,$C12,Calendar,$F12,$G12,$H12,$K$3,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00599#0000</v>
+        <v>obj_0063a#0000</v>
       </c>
       <c r="L12" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K12)</f>
@@ -12845,7 +12919,7 @@
       </c>
       <c r="K13" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J13,$C13,Calendar,$F13,$G13,$H13,$K$3,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005b6#0000</v>
+        <v>obj_00659#0000</v>
       </c>
       <c r="L13" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K13)</f>
@@ -12887,7 +12961,7 @@
       </c>
       <c r="K14" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J14,$C14,Calendar,$F14,$G14,$H14,$K$3,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005a4#0000</v>
+        <v>obj_00624#0000</v>
       </c>
       <c r="L14" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K14)</f>
@@ -12929,7 +13003,7 @@
       </c>
       <c r="K15" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J15,$C15,Calendar,$F15,$G15,$H15,$K$3,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00595#0000</v>
+        <v>obj_00643#0000</v>
       </c>
       <c r="L15" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K15)</f>
@@ -12971,7 +13045,7 @@
       </c>
       <c r="K16" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J16,$C16,Calendar,$F16,$G16,$H16,$K$3,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0058b#0000</v>
+        <v>obj_00654#0000</v>
       </c>
       <c r="L16" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K16)</f>
@@ -13013,7 +13087,7 @@
       </c>
       <c r="K17" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J17,$C17,Calendar,$F17,$G17,$H17,$K$3,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005ad#0000</v>
+        <v>obj_00636#0000</v>
       </c>
       <c r="L17" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K17)</f>
@@ -13055,7 +13129,7 @@
       </c>
       <c r="K18" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J18,$C18,Calendar,$F18,$G18,$H18,$K$3,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00588#0000</v>
+        <v>obj_00649#0000</v>
       </c>
       <c r="L18" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K18)</f>
@@ -13097,7 +13171,7 @@
       </c>
       <c r="K19" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J19,$C19,Calendar,$F19,$G19,$H19,$K$3,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005a5#0000</v>
+        <v>obj_0062b#0000</v>
       </c>
       <c r="L19" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K19)</f>
@@ -13139,7 +13213,7 @@
       </c>
       <c r="K20" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J20,$C20,Calendar,$F20,$G20,$H20,$K$3,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0058a#0000</v>
+        <v>obj_0065c#0000</v>
       </c>
       <c r="L20" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K20)</f>
@@ -13181,7 +13255,7 @@
       </c>
       <c r="K21" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J21,$C21,Calendar,$F21,$G21,$H21,$K$3,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005b5#0000</v>
+        <v>obj_0063f#0000</v>
       </c>
       <c r="L21" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K21)</f>
@@ -13223,7 +13297,7 @@
       </c>
       <c r="K22" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J22,$C22,Calendar,$F22,$G22,$H22,$K$3,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005ba#0000</v>
+        <v>obj_00637#0000</v>
       </c>
       <c r="L22" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K22)</f>
@@ -13265,7 +13339,7 @@
       </c>
       <c r="K23" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J23,$C23,Calendar,$F23,$G23,$H23,$K$3,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00570#0000</v>
+        <v>obj_00657#0000</v>
       </c>
       <c r="L23" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K23)</f>
@@ -13307,7 +13381,7 @@
       </c>
       <c r="K24" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J24,$C24,Calendar,$F24,$G24,$H24,$K$3,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00585#0000</v>
+        <v>obj_00640#0000</v>
       </c>
       <c r="L24" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K24)</f>
@@ -13349,7 +13423,7 @@
       </c>
       <c r="K25" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J25,$C25,Calendar,$F25,$G25,$H25,$K$3,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0059c#0000</v>
+        <v>obj_0061a#0000</v>
       </c>
       <c r="L25" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K25)</f>
@@ -13391,7 +13465,7 @@
       </c>
       <c r="K26" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J26,$C26,Calendar,$F26,$G26,$H26,$K$3,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0056e#0000</v>
+        <v>obj_00638#0000</v>
       </c>
       <c r="L26" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K26)</f>
@@ -13433,7 +13507,7 @@
       </c>
       <c r="K27" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J27,$C27,Calendar,$F27,$G27,$H27,$K$3,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00580#0000</v>
+        <v>obj_00645#0000</v>
       </c>
       <c r="L27" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K27)</f>
@@ -13475,7 +13549,7 @@
       </c>
       <c r="K28" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J28,$C28,Calendar,$F28,$G28,$H28,$K$3,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0058c#0000</v>
+        <v>obj_00658#0000</v>
       </c>
       <c r="L28" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K28)</f>
@@ -13517,7 +13591,7 @@
       </c>
       <c r="K29" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J29,$C29,Calendar,$F29,$G29,$H29,$K$3,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0056f#0000</v>
+        <v>obj_0065e#0000</v>
       </c>
       <c r="L29" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K29)</f>
@@ -13559,7 +13633,7 @@
       </c>
       <c r="K30" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J30,$C30,Calendar,$F30,$G30,$H30,$K$3,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00572#0000</v>
+        <v>obj_0061e#0000</v>
       </c>
       <c r="L30" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K30)</f>
@@ -13601,7 +13675,7 @@
       </c>
       <c r="K31" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J31,$C31,Calendar,$F31,$G31,$H31,$K$3,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00589#0000</v>
+        <v>obj_0064d#0000</v>
       </c>
       <c r="L31" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K31)</f>
@@ -13643,7 +13717,7 @@
       </c>
       <c r="K32" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J32,$C32,Calendar,$F32,$G32,$H32,$K$3,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0057f#0000</v>
+        <v>obj_00620#0000</v>
       </c>
       <c r="L32" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K32)</f>
@@ -13685,7 +13759,7 @@
       </c>
       <c r="K33" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J33,$C33,Calendar,$F33,$G33,$H33,$K$3,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005a6#0000</v>
+        <v>obj_00630#0000</v>
       </c>
       <c r="L33" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K33)</f>
@@ -13727,7 +13801,7 @@
       </c>
       <c r="K34" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J34,$C34,Calendar,$F34,$G34,$H34,$K$3,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0059d#0000</v>
+        <v>obj_00623#0000</v>
       </c>
       <c r="L34" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K34)</f>
@@ -13769,7 +13843,7 @@
       </c>
       <c r="K35" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J35,$C35,Calendar,$F35,$G35,$H35,$K$3,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005a7#0000</v>
+        <v>obj_00635#0000</v>
       </c>
       <c r="L35" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K35)</f>
@@ -13811,7 +13885,7 @@
       </c>
       <c r="K36" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J36,$C36,Calendar,$F36,$G36,$H36,$K$3,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005a0#0000</v>
+        <v>obj_0064e#0000</v>
       </c>
       <c r="L36" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K36)</f>
@@ -13853,7 +13927,7 @@
       </c>
       <c r="K37" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J37,$C37,Calendar,$F37,$G37,$H37,$K$3,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00582#0000</v>
+        <v>obj_00633#0000</v>
       </c>
       <c r="L37" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K37)</f>
@@ -13895,7 +13969,7 @@
       </c>
       <c r="K38" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J38,$C38,Calendar,$F38,$G38,$H38,$K$3,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00586#0000</v>
+        <v>obj_00617#0000</v>
       </c>
       <c r="L38" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K38)</f>
@@ -13937,7 +14011,7 @@
       </c>
       <c r="K39" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J39,$C39,Calendar,$F39,$G39,$H39,$K$3,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00596#0000</v>
+        <v>obj_0062a#0000</v>
       </c>
       <c r="L39" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K39)</f>
@@ -13979,7 +14053,7 @@
       </c>
       <c r="K40" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J40,$C40,Calendar,$F40,$G40,$H40,$K$3,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0057c#0000</v>
+        <v>obj_00650#0000</v>
       </c>
       <c r="L40" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K40)</f>
@@ -14021,7 +14095,7 @@
       </c>
       <c r="K41" s="139" t="str">
         <f>_xll.qlSwapRateHelper2(,$J41,$C41,Calendar,$F41,$G41,$H41,$K$3,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_005a3#0000</v>
+        <v>obj_0061b#0000</v>
       </c>
       <c r="L41" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(K41)</f>
